--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D59C8CF-281A-6B47-A552-AA696CB93015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F62E4-3D73-8444-A61A-363B0C6ACF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24480" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -206,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R2" totalsRowShown="0">
-  <autoFilter ref="A1:R2" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R3" totalsRowShown="0">
+  <autoFilter ref="A1:R3" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="16"/>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,34 +621,34 @@
         <v>101</v>
       </c>
       <c r="C2" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D2" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2">
-        <v>4344</v>
+        <v>4368</v>
       </c>
       <c r="F2" s="2">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="G2" s="2">
-        <v>3182</v>
+        <v>3195</v>
       </c>
       <c r="H2" s="2">
-        <v>57340</v>
+        <v>57442</v>
       </c>
       <c r="I2" s="2">
-        <v>40586</v>
+        <v>40634</v>
       </c>
       <c r="J2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -660,14 +660,34 @@
         <v>125</v>
       </c>
       <c r="P2" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q2" s="2">
         <v>2</v>
       </c>
       <c r="R2" s="2">
-        <v>537</v>
-      </c>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F62E4-3D73-8444-A61A-363B0C6ACF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC94EF9A-7A0F-124F-A07D-1CF93144E22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24480" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24480" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -206,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R3" totalsRowShown="0">
-  <autoFilter ref="A1:R3" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R4" totalsRowShown="0">
+  <autoFilter ref="A1:R4" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="16"/>
@@ -529,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -670,24 +670,80 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="A3" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B3" s="2">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2">
+        <v>224</v>
+      </c>
+      <c r="D3" s="2">
+        <v>177</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4368</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1524</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3196</v>
+      </c>
+      <c r="H3" s="2">
+        <v>57422</v>
+      </c>
+      <c r="I3" s="2">
+        <v>40034</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>203</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>135</v>
+      </c>
+      <c r="O3" s="2">
+        <v>125</v>
+      </c>
+      <c r="P3" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC94EF9A-7A0F-124F-A07D-1CF93144E22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7F5241-53F4-E24D-A02B-975C24F75ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24480" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24560" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -206,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R4" totalsRowShown="0">
-  <autoFilter ref="A1:R4" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R5" totalsRowShown="0">
+  <autoFilter ref="A1:R5" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="16"/>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,24 +726,116 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="A4" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B4" s="2">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2">
+        <v>224</v>
+      </c>
+      <c r="D4" s="2">
+        <v>177</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4368</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1525</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3197</v>
+      </c>
+      <c r="H4" s="2">
+        <v>57422</v>
+      </c>
+      <c r="I4" s="2">
+        <v>40634</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>203</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>135</v>
+      </c>
+      <c r="O4" s="2">
+        <v>125</v>
+      </c>
+      <c r="P4" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44588</v>
+      </c>
+      <c r="B5" s="2">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2">
+        <v>224</v>
+      </c>
+      <c r="D5" s="2">
+        <v>177</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4368</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1531</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3207</v>
+      </c>
+      <c r="H5" s="2">
+        <v>57794</v>
+      </c>
+      <c r="I5" s="2">
+        <v>40652</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>203</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>135</v>
+      </c>
+      <c r="O5" s="2">
+        <v>125</v>
+      </c>
+      <c r="P5" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>550</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7F5241-53F4-E24D-A02B-975C24F75ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E51A684-6124-E74E-944B-6B37DF04E2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24560" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="12200" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -206,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R5" totalsRowShown="0">
-  <autoFilter ref="A1:R5" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R7" totalsRowShown="0">
+  <autoFilter ref="A1:R7" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="16"/>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,6 +837,82 @@
         <v>550</v>
       </c>
     </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B6" s="2">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2">
+        <v>224</v>
+      </c>
+      <c r="D6" s="2">
+        <v>177</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4379</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1539</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3224</v>
+      </c>
+      <c r="H6" s="2">
+        <v>57859</v>
+      </c>
+      <c r="I6" s="2">
+        <v>40677</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>203</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>135</v>
+      </c>
+      <c r="O6" s="2">
+        <v>125</v>
+      </c>
+      <c r="P6" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E51A684-6124-E74E-944B-6B37DF04E2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55502F54-1B42-DB40-B6E6-D851591DCBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="12200" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24440" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -206,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R7" totalsRowShown="0">
-  <autoFilter ref="A1:R7" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R8" totalsRowShown="0">
+  <autoFilter ref="A1:R8" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="16"/>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,24 +894,116 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="A7" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B7" s="2">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2">
+        <v>225</v>
+      </c>
+      <c r="D7" s="2">
+        <v>178</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4381</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1559</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3265</v>
+      </c>
+      <c r="H7" s="2">
+        <v>58868</v>
+      </c>
+      <c r="I7" s="2">
+        <v>41555</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>204</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>135</v>
+      </c>
+      <c r="O7" s="2">
+        <v>125</v>
+      </c>
+      <c r="P7" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B8" s="2">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2">
+        <v>225</v>
+      </c>
+      <c r="D8" s="2">
+        <v>178</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4399</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1568</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3286</v>
+      </c>
+      <c r="H8" s="2">
+        <v>58985</v>
+      </c>
+      <c r="I8" s="2">
+        <v>41600</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>208</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>135</v>
+      </c>
+      <c r="O8" s="2">
+        <v>125</v>
+      </c>
+      <c r="P8" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2">
+        <v>595</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55502F54-1B42-DB40-B6E6-D851591DCBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C4012E-0F08-EF4E-A93B-04E2BB3E50EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24440" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -206,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R8" totalsRowShown="0">
-  <autoFilter ref="A1:R8" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R9" totalsRowShown="0">
+  <autoFilter ref="A1:R9" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="16"/>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,6 +1005,62 @@
         <v>595</v>
       </c>
     </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B9" s="2">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2">
+        <v>226</v>
+      </c>
+      <c r="D9" s="2">
+        <v>179</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4413</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1571</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3298</v>
+      </c>
+      <c r="H9" s="2">
+        <v>59170</v>
+      </c>
+      <c r="I9" s="2">
+        <v>41754</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>208</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>135</v>
+      </c>
+      <c r="O9" s="2">
+        <v>126</v>
+      </c>
+      <c r="P9" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2">
+        <v>601</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,14 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C4012E-0F08-EF4E-A93B-04E2BB3E50EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF25D815-8B55-D048-B2AB-4D237A29F425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24440" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="35340" windowHeight="24480" activeTab="2" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Lines of code" sheetId="2" r:id="rId2"/>
+    <sheet name="Issues &amp; Bugs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Data!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Data!$J$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Data!$K$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Data!$K$2:$K$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Data!$L$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Data!$L$2:$L$9</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Data!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Data!$J$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Data!$J$2:$J$9</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Data!$K$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Data!$K$2:$K$9</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Data!$L$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Data!$J$2:$J$9</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Data!$L$2:$L$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Data!$K$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Data!$K$2:$K$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Data!$L$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Data!$L$2:$L$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Data!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Data!$J$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Data!$J$2:$J$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +52,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -205,6 +231,2113 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LoC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9D33-4B48-B657-8E04F40AC535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Commits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9D33-4B48-B657-8E04F40AC535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>File Changes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9D33-4B48-B657-8E04F40AC535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="412183103"/>
+        <c:axId val="1982169088"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="412183103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1982169088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1982169088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412183103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Open issues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B482-0F42-AB06-7382B05A3763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Open bugs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B482-0F42-AB06-7382B05A3763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1982174224"/>
+        <c:axId val="773162575"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="1982174224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="773162575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="773162575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1982174224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="198" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{24ACA0B5-B5F6-0649-9568-624D24B93699}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="198" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9313333" cy="6073913"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27C5B9A-F448-2B49-9E3F-D7EDF94710F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9313333" cy="6073913"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28C9658-EC66-0A40-92CF-93D491DB9DDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R9" totalsRowShown="0">
   <autoFilter ref="A1:R9" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
@@ -531,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,44 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF25D815-8B55-D048-B2AB-4D237A29F425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D7CB8D-48C6-BC48-8FAD-3D456434BD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="35340" windowHeight="24480" activeTab="2" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24460" activeTab="3" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Lines of code" sheetId="2" r:id="rId2"/>
-    <sheet name="Issues &amp; Bugs" sheetId="3" r:id="rId3"/>
+    <sheet name="Open Issues &amp; PRs" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues &amp; PRs" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Data!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Data!$A$2:$A$10</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Data!$J$1</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Data!$K$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Data!$K$2:$K$9</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Data!$L$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Data!$L$2:$L$9</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Data!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Data!$K$2:$K$10</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Data!$N$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Data!$N$2:$N$10</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Data!$A$2:$A$10</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Data!$J$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Data!$J$2:$J$9</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Data!$J$2:$J$10</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">Data!$K$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Data!$K$2:$K$9</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Data!$L$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Data!$J$2:$J$9</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Data!$L$2:$L$9</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Data!$K$2:$K$10</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Data!$N$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Data!$J$2:$J$10</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Data!$N$2:$N$10</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Data!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Data!$M$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Data!$M$2:$M$10</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Data!$P$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Data!$P$2:$P$10</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Data!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Data!$M$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Data!$M$2:$M$10</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Data!$P$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Data!$K$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Data!$K$2:$K$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Data!$L$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Data!$L$2:$L$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Data!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Data!$P$2:$P$10</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Data!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Data!$M$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Data!$M$2:$M$10</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Data!$P$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Data!$P$2:$P$10</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Data!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Data!$M$1</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Data!$M$2:$M$10</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Data!$P$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Data!$K$2:$K$10</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Data!$P$2:$P$10</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Data!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Data!$M$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Data!$M$2:$M$10</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Data!$P$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Data!$P$2:$P$10</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Data!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Data!$M$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Data!$M$2:$M$10</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Data!$P$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Data!$N$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Data!$P$2:$P$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Data!$N$2:$N$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Data!$A$2:$A$10</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Data!$J$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Data!$J$2:$J$9</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Data!$J$2:$J$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -101,9 +132,6 @@
     <t>Open pull requests</t>
   </si>
   <si>
-    <t>Total pull reauests</t>
-  </si>
-  <si>
     <t>Command line options</t>
   </si>
   <si>
@@ -114,6 +142,15 @@
   </si>
   <si>
     <t>GH runs</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Closed pull requests</t>
+  </si>
+  <si>
+    <t>Pull requests</t>
   </si>
 </sst>
 </file>
@@ -163,7 +200,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -279,10 +322,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$9</c:f>
+              <c:f>Data!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -306,16 +349,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$9</c:f>
+              <c:f>Data!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -339,6 +385,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -378,10 +427,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$9</c:f>
+              <c:f>Data!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -405,16 +454,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$9</c:f>
+              <c:f>Data!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -438,6 +490,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,10 +532,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$9</c:f>
+              <c:f>Data!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -504,16 +559,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$9</c:f>
+              <c:f>Data!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -537,6 +595,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,9 +822,185 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:areaChart>
-        <c:grouping val="stacked"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Open bugs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B482-0F42-AB06-7382B05A3763}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Open pull requests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$N$2:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48FC-8744-82AE-91E2D8B9E25B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:ser>
           <c:idx val="8"/>
           <c:order val="0"/>
@@ -779,20 +1016,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$9</c:f>
+              <c:f>Data!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -816,16 +1058,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$9</c:f>
+              <c:f>Data!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -848,109 +1093,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-B482-0F42-AB06-7382B05A3763}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Open bugs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Data!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>44574</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44578</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44580</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44588</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44602</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44610</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44613</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$K$2:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-B482-0F42-AB06-7382B05A3763}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -962,9 +1116,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1982174224"/>
         <c:axId val="773162575"/>
-      </c:areaChart>
+      </c:lineChart>
       <c:dateAx>
         <c:axId val="1982174224"/>
         <c:scaling>
@@ -1069,7 +1224,437 @@
         </c:txPr>
         <c:crossAx val="1982174224"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Issues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D975-4847-92C4-0FE63DD2E014}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pull requests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$P$2:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D975-4847-92C4-0FE63DD2E014}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1982174224"/>
+        <c:axId val="773162575"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1982174224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="773162575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="773162575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1982174224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1229,6 +1814,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2250,11 +2875,516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="198" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2265,7 +3395,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{24ACA0B5-B5F6-0649-9568-624D24B93699}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="198" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="207" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50B1BB8B-A1E8-FB42-B88F-023CE9967AAB}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2276,7 +3417,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6073913"/>
+    <xdr:ext cx="9304130" cy="6064710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2309,7 +3450,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6073913"/>
+    <xdr:ext cx="9304130" cy="6064710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2338,28 +3479,67 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304130" cy="6064710"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622B6A11-F470-F942-A094-4E25A563083C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:R9" totalsRowShown="0">
-  <autoFilter ref="A1:R9" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Total pull reauests" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T10" totalsRowShown="0">
+  <autoFilter ref="A1:T10" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="1">
+      <calculatedColumnFormula>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="0">
+      <calculatedColumnFormula>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2662,10 +3842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2682,15 +3862,17 @@
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2728,25 +3910,31 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44574</v>
       </c>
@@ -2784,25 +3972,33 @@
         <v>203</v>
       </c>
       <c r="M2" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>204</v>
+      </c>
+      <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>135</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>135</v>
+      </c>
+      <c r="Q2" s="2">
         <v>125</v>
       </c>
-      <c r="P2" s="2">
+      <c r="R2" s="2">
         <v>122</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="2">
         <v>2</v>
       </c>
-      <c r="R2" s="2">
+      <c r="T2" s="2">
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44578</v>
       </c>
@@ -2840,25 +4036,33 @@
         <v>203</v>
       </c>
       <c r="M3" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>204</v>
+      </c>
+      <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>135</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>135</v>
+      </c>
+      <c r="Q3" s="2">
         <v>125</v>
       </c>
-      <c r="P3" s="2">
+      <c r="R3" s="2">
         <v>122</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="2">
         <v>2</v>
       </c>
-      <c r="R3" s="2">
+      <c r="T3" s="2">
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44580</v>
       </c>
@@ -2896,25 +4100,33 @@
         <v>203</v>
       </c>
       <c r="M4" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>204</v>
+      </c>
+      <c r="N4" s="2">
         <v>0</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>135</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>135</v>
+      </c>
+      <c r="Q4" s="2">
         <v>125</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>122</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>2</v>
       </c>
-      <c r="R4" s="2">
+      <c r="T4" s="2">
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44588</v>
       </c>
@@ -2952,25 +4164,33 @@
         <v>203</v>
       </c>
       <c r="M5" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>204</v>
+      </c>
+      <c r="N5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>135</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>135</v>
+      </c>
+      <c r="Q5" s="2">
         <v>125</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>122</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>3</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44593</v>
       </c>
@@ -3008,25 +4228,33 @@
         <v>203</v>
       </c>
       <c r="M6" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>204</v>
+      </c>
+      <c r="N6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>135</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>135</v>
+      </c>
+      <c r="Q6" s="2">
         <v>125</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <v>122</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>3</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44602</v>
       </c>
@@ -3064,25 +4292,33 @@
         <v>204</v>
       </c>
       <c r="M7" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>204</v>
+      </c>
+      <c r="N7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>135</v>
+      </c>
+      <c r="Q7" s="2">
         <v>125</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>122</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>3</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44610</v>
       </c>
@@ -3120,25 +4356,33 @@
         <v>208</v>
       </c>
       <c r="M8" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>208</v>
+      </c>
+      <c r="N8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>135</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>135</v>
+      </c>
+      <c r="Q8" s="2">
         <v>125</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <v>122</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="2">
         <v>3</v>
       </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44613</v>
       </c>
@@ -3176,22 +4420,94 @@
         <v>208</v>
       </c>
       <c r="M9" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>208</v>
+      </c>
+      <c r="N9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>135</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>135</v>
+      </c>
+      <c r="Q9" s="2">
         <v>126</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <v>122</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>3</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <v>601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B10" s="2">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2">
+        <v>227</v>
+      </c>
+      <c r="D10" s="2">
+        <v>180</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4430</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1598</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3339</v>
+      </c>
+      <c r="H10" s="2">
+        <v>59371</v>
+      </c>
+      <c r="I10" s="2">
+        <v>41908</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>209</v>
+      </c>
+      <c r="M10" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>209</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>141</v>
+      </c>
+      <c r="P10" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>141</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>126</v>
+      </c>
+      <c r="R10" s="2">
+        <v>122</v>
+      </c>
+      <c r="S10" s="2">
+        <v>3</v>
+      </c>
+      <c r="T10" s="2">
+        <v>632</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D7CB8D-48C6-BC48-8FAD-3D456434BD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE28EC8-8B31-9D41-8AF3-9BCAF4C5459D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24460" activeTab="3" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24480" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,59 +18,6 @@
     <sheet name="Open Issues &amp; PRs" sheetId="3" r:id="rId3"/>
     <sheet name="Issues &amp; PRs" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Data!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Data!$J$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Data!$K$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Data!$K$2:$K$10</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Data!$N$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Data!$N$2:$N$10</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Data!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Data!$J$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Data!$J$2:$J$10</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Data!$K$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Data!$K$2:$K$10</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Data!$N$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Data!$J$2:$J$10</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Data!$N$2:$N$10</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Data!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Data!$M$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Data!$M$2:$M$10</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Data!$P$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Data!$P$2:$P$10</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Data!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Data!$M$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Data!$M$2:$M$10</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Data!$P$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Data!$K$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Data!$P$2:$P$10</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Data!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Data!$M$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Data!$M$2:$M$10</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Data!$P$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Data!$P$2:$P$10</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Data!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Data!$M$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Data!$M$2:$M$10</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Data!$P$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Data!$K$2:$K$10</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Data!$P$2:$P$10</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Data!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Data!$M$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Data!$M$2:$M$10</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Data!$P$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Data!$P$2:$P$10</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Data!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Data!$M$1</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Data!$M$2:$M$10</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Data!$P$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Data!$N$1</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Data!$P$2:$P$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Data!$N$2:$N$10</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Data!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Data!$J$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Data!$J$2:$J$10</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -322,10 +269,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$10</c:f>
+              <c:f>Data!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -352,16 +299,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$10</c:f>
+              <c:f>Data!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -427,10 +377,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$10</c:f>
+              <c:f>Data!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -457,16 +407,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$10</c:f>
+              <c:f>Data!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -532,10 +485,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$10</c:f>
+              <c:f>Data!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -562,16 +515,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$10</c:f>
+              <c:f>Data!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -855,10 +811,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$10</c:f>
+              <c:f>Data!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -885,16 +841,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$10</c:f>
+              <c:f>Data!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -960,10 +919,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$10</c:f>
+              <c:f>Data!$N$2:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1031,10 +990,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$10</c:f>
+              <c:f>Data!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1061,16 +1020,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$10</c:f>
+              <c:f>Data!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1354,10 +1316,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$10</c:f>
+              <c:f>Data!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1384,16 +1346,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$10</c:f>
+              <c:f>Data!$M$2:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1420,6 +1385,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,10 +1429,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$10</c:f>
+              <c:f>Data!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1491,16 +1459,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$10</c:f>
+              <c:f>Data!$P$2:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -1527,6 +1498,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,7 +3380,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50B1BB8B-A1E8-FB42-B88F-023CE9967AAB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3483,7 +3457,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304130" cy="6064710"/>
+    <xdr:ext cx="9313333" cy="6073913"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3513,8 +3487,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T10" totalsRowShown="0">
-  <autoFilter ref="A1:T10" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T11" totalsRowShown="0">
+  <autoFilter ref="A1:T11" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -3528,18 +3502,18 @@
     <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="10"/>
     <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="9"/>
     <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="7">
       <calculatedColumnFormula>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="4">
       <calculatedColumnFormula>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3842,10 +3816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4510,6 +4484,40 @@
         <v>632</v>
       </c>
     </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B11" s="2">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2">
+        <v>228</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE28EC8-8B31-9D41-8AF3-9BCAF4C5459D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F882F4DB-B878-1E4E-857E-1B4E8913282C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24480" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24480" activeTab="3" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -339,6 +339,9 @@
                 <c:pt idx="8">
                   <c:v>4430</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>4432</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -447,6 +450,9 @@
                 <c:pt idx="8">
                   <c:v>1598</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1627</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -554,6 +560,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,6 +890,9 @@
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -948,6 +960,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1059,6 +1074,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,7 +1405,7 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1500,7 +1518,7 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3369,7 +3387,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{24ACA0B5-B5F6-0649-9568-624D24B93699}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="207" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3380,7 +3398,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50B1BB8B-A1E8-FB42-B88F-023CE9967AAB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3818,8 +3836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="N1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4494,29 +4512,59 @@
       <c r="C11" s="2">
         <v>228</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="D11" s="2">
+        <v>181</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4432</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1627</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3375</v>
+      </c>
+      <c r="H11" s="2">
+        <v>59655</v>
+      </c>
+      <c r="I11" s="2">
+        <v>42123</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>214</v>
+      </c>
       <c r="M11" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>215</v>
+      </c>
+      <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2">
+        <v>148</v>
+      </c>
       <c r="P11" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>127</v>
+      </c>
+      <c r="R11" s="2">
+        <v>128</v>
+      </c>
+      <c r="S11" s="2">
+        <v>3</v>
+      </c>
+      <c r="T11" s="2">
+        <v>661</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F882F4DB-B878-1E4E-857E-1B4E8913282C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B5070E-28D7-3647-8342-CC154BB67F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24480" activeTab="3" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="34240" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -269,10 +269,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$11</c:f>
+              <c:f>Data!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -302,16 +302,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$11</c:f>
+              <c:f>Data!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -341,6 +344,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,10 +386,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$11</c:f>
+              <c:f>Data!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -413,16 +419,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$11</c:f>
+              <c:f>Data!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -452,6 +461,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,10 +503,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$11</c:f>
+              <c:f>Data!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -524,16 +536,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$11</c:f>
+              <c:f>Data!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -563,6 +578,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,9 +825,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -820,10 +836,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$11</c:f>
+              <c:f>Data!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -853,16 +869,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$11</c:f>
+              <c:f>Data!$K$2:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -891,12 +910,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-B482-0F42-AB06-7382B05A3763}"/>
@@ -929,12 +951,54 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$11</c:f>
+              <c:f>Data!$N$2:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -963,6 +1027,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -992,9 +1059,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1005,10 +1070,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$11</c:f>
+              <c:f>Data!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1038,16 +1103,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$11</c:f>
+              <c:f>Data!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1076,6 +1144,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1154,6 +1225,7 @@
         <c:axId val="773162575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1205,6 +1277,8 @@
         <c:crossAx val="1982174224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1321,9 +1395,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1334,10 +1406,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$11</c:f>
+              <c:f>Data!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1367,16 +1439,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$11</c:f>
+              <c:f>Data!$M$2:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1405,6 +1480,9 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>215</c:v>
                 </c:pt>
               </c:numCache>
@@ -1434,9 +1512,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1447,10 +1523,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$11</c:f>
+              <c:f>Data!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1480,16 +1556,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$11</c:f>
+              <c:f>Data!$P$2:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -1518,6 +1597,9 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
@@ -3376,7 +3458,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="308" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3387,7 +3469,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{24ACA0B5-B5F6-0649-9568-624D24B93699}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="308" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3398,7 +3480,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50B1BB8B-A1E8-FB42-B88F-023CE9967AAB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="308" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3409,7 +3491,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304130" cy="6064710"/>
+    <xdr:ext cx="9310584" cy="6073734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3442,7 +3524,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304130" cy="6064710"/>
+    <xdr:ext cx="9310584" cy="6073734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3475,7 +3557,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6073913"/>
+    <xdr:ext cx="9310584" cy="6073734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3505,8 +3587,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T11" totalsRowShown="0">
-  <autoFilter ref="A1:T11" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T12" totalsRowShown="0">
+  <autoFilter ref="A1:T12" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -3834,10 +3916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4566,6 +4648,70 @@
         <v>661</v>
       </c>
     </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B12" s="2">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2">
+        <v>229</v>
+      </c>
+      <c r="D12" s="2">
+        <v>182</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4434</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1632</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3387</v>
+      </c>
+      <c r="H12" s="2">
+        <v>59702</v>
+      </c>
+      <c r="I12" s="2">
+        <v>42156</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>214</v>
+      </c>
+      <c r="M12" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>215</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>148</v>
+      </c>
+      <c r="P12" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>148</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>127</v>
+      </c>
+      <c r="R12" s="2">
+        <v>128</v>
+      </c>
+      <c r="S12" s="2">
+        <v>3</v>
+      </c>
+      <c r="T12" s="2">
+        <v>669</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B5070E-28D7-3647-8342-CC154BB67F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1DD36D-6398-0C40-857C-6426DFF4E577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="34240" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31960" windowHeight="34240" activeTab="4" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Lines of code" sheetId="2" r:id="rId2"/>
     <sheet name="Open Issues &amp; PRs" sheetId="3" r:id="rId3"/>
     <sheet name="Issues &amp; PRs" sheetId="4" r:id="rId4"/>
+    <sheet name="Tests" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1808,6 +1809,308 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$R$2:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BE3-C84C-B453-3AC0AA83301E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="412183103"/>
+        <c:axId val="1982169088"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="412183103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1982169088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1982169088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412183103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1928,6 +2231,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3454,11 +3797,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="308" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="216" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3469,7 +4328,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{24ACA0B5-B5F6-0649-9568-624D24B93699}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="308" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="216" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3480,7 +4339,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50B1BB8B-A1E8-FB42-B88F-023CE9967AAB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="308" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="216" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B111F3D3-9A19-164A-A80F-5E41AF9CF1E4}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3491,7 +4361,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310584" cy="6073734"/>
+    <xdr:ext cx="9307454" cy="6067778"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3524,7 +4394,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310584" cy="6073734"/>
+    <xdr:ext cx="9307454" cy="6067778"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3557,13 +4427,46 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310584" cy="6073734"/>
+    <xdr:ext cx="9307454" cy="6067778"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622B6A11-F470-F942-A094-4E25A563083C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9307454" cy="6067778"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD6A03E-7892-574D-8E69-A15D35AE42F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3918,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4703,7 +5606,7 @@
         <v>127</v>
       </c>
       <c r="R12" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S12" s="2">
         <v>3</v>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1DD36D-6398-0C40-857C-6426DFF4E577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA972AF-28B9-5541-BD05-EA785D7E71B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31960" windowHeight="34240" activeTab="4" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="13520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$12</c:f>
+              <c:f>Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -306,16 +306,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$12</c:f>
+              <c:f>Data!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -348,6 +351,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,10 +393,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$12</c:f>
+              <c:f>Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -423,16 +429,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$12</c:f>
+              <c:f>Data!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -465,6 +474,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1632</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,10 +516,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$12</c:f>
+              <c:f>Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -540,16 +552,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$12</c:f>
+              <c:f>Data!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -582,6 +597,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3387</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,10 +855,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$12</c:f>
+              <c:f>Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -873,16 +891,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$12</c:f>
+              <c:f>Data!$K$2:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -914,6 +935,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -954,10 +978,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$12</c:f>
+              <c:f>Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -990,16 +1014,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$12</c:f>
+              <c:f>Data!$N$2:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1031,6 +1058,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1071,10 +1101,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$12</c:f>
+              <c:f>Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1107,16 +1137,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$12</c:f>
+              <c:f>Data!$J$2:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1148,6 +1181,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1407,10 +1443,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$12</c:f>
+              <c:f>Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1443,16 +1479,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$12</c:f>
+              <c:f>Data!$M$2:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1484,6 +1523,9 @@
                   <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>215</c:v>
                 </c:pt>
               </c:numCache>
@@ -1524,10 +1566,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$12</c:f>
+              <c:f>Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1560,16 +1602,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$12</c:f>
+              <c:f>Data!$P$2:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -1601,6 +1646,9 @@
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
@@ -1857,10 +1905,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$12</c:f>
+              <c:f>Data!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1893,16 +1941,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$12</c:f>
+              <c:f>Data!$R$2:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -1934,6 +1985,9 @@
                   <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
@@ -4350,7 +4404,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B111F3D3-9A19-164A-A80F-5E41AF9CF1E4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="172" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4490,8 +4544,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T12" totalsRowShown="0">
-  <autoFilter ref="A1:T12" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T13" totalsRowShown="0">
+  <autoFilter ref="A1:T13" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -4819,10 +4873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5615,6 +5669,70 @@
         <v>669</v>
       </c>
     </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B13" s="2">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2">
+        <v>230</v>
+      </c>
+      <c r="D13" s="2">
+        <v>183</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4454</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1637</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3406</v>
+      </c>
+      <c r="H13" s="2">
+        <v>60308</v>
+      </c>
+      <c r="I13" s="2">
+        <v>42743</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>214</v>
+      </c>
+      <c r="M13" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>215</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>148</v>
+      </c>
+      <c r="P13" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>148</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>128</v>
+      </c>
+      <c r="R13" s="2">
+        <v>131</v>
+      </c>
+      <c r="S13" s="2">
+        <v>3</v>
+      </c>
+      <c r="T13" s="2">
+        <v>677</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA972AF-28B9-5541-BD05-EA785D7E71B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136C0F61-101E-664D-95E0-43F22BAC4BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="13520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -270,10 +270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -309,16 +309,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$13</c:f>
+              <c:f>Data!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -354,6 +357,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4454</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,10 +399,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -432,16 +438,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$13</c:f>
+              <c:f>Data!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -477,6 +486,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1637</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -516,10 +528,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -555,16 +567,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$13</c:f>
+              <c:f>Data!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -600,6 +615,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,10 +873,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -894,16 +912,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$13</c:f>
+              <c:f>Data!$K$2:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -939,6 +960,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,10 +1002,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1017,16 +1041,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$13</c:f>
+              <c:f>Data!$N$2:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1061,6 +1088,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1101,10 +1131,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1140,16 +1170,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$13</c:f>
+              <c:f>Data!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1185,6 +1218,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,10 +1479,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1482,16 +1518,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$13</c:f>
+              <c:f>Data!$M$2:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1527,6 +1566,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,10 +1608,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1605,16 +1647,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$13</c:f>
+              <c:f>Data!$P$2:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -1649,6 +1694,9 @@
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
@@ -1905,10 +1953,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$13</c:f>
+              <c:f>Data!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1944,16 +1992,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$13</c:f>
+              <c:f>Data!$R$2:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -1988,6 +2039,9 @@
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
@@ -4544,8 +4598,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T13" totalsRowShown="0">
-  <autoFilter ref="A1:T13" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T14" totalsRowShown="0">
+  <autoFilter ref="A1:T14" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -4873,10 +4927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5733,6 +5787,70 @@
         <v>677</v>
       </c>
     </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B14" s="2">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2">
+        <v>230</v>
+      </c>
+      <c r="D14" s="2">
+        <v>183</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4453</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1647</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3424</v>
+      </c>
+      <c r="H14" s="2">
+        <v>60352</v>
+      </c>
+      <c r="I14" s="2">
+        <v>42776</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>215</v>
+      </c>
+      <c r="M14" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>217</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>148</v>
+      </c>
+      <c r="P14" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>148</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>128</v>
+      </c>
+      <c r="R14" s="2">
+        <v>131</v>
+      </c>
+      <c r="S14" s="2">
+        <v>3</v>
+      </c>
+      <c r="T14" s="2">
+        <v>685</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136C0F61-101E-664D-95E0-43F22BAC4BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC30129-59A5-C348-89B1-88DFD77394FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="13520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -270,10 +270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$14</c:f>
+              <c:f>Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -312,16 +312,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$14</c:f>
+              <c:f>Data!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -360,6 +363,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4453</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,10 +405,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$14</c:f>
+              <c:f>Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -441,16 +447,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$14</c:f>
+              <c:f>Data!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -489,6 +498,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1647</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,10 +540,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$14</c:f>
+              <c:f>Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -570,16 +582,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$14</c:f>
+              <c:f>Data!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -618,6 +633,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3424</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,10 +891,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$14</c:f>
+              <c:f>Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -915,16 +933,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$14</c:f>
+              <c:f>Data!$K$2:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -963,6 +984,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,10 +1026,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$14</c:f>
+              <c:f>Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1044,16 +1068,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$14</c:f>
+              <c:f>Data!$N$2:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1091,6 +1118,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1131,10 +1161,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$14</c:f>
+              <c:f>Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1173,16 +1203,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$14</c:f>
+              <c:f>Data!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1221,6 +1254,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,10 +1515,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$14</c:f>
+              <c:f>Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1521,16 +1557,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$14</c:f>
+              <c:f>Data!$M$2:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1568,6 +1607,9 @@
                   <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>217</c:v>
                 </c:pt>
               </c:numCache>
@@ -1608,10 +1650,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$14</c:f>
+              <c:f>Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1650,16 +1692,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$14</c:f>
+              <c:f>Data!$P$2:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -1698,6 +1743,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1953,10 +2001,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$14</c:f>
+              <c:f>Data!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1995,16 +2043,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$14</c:f>
+              <c:f>Data!$R$2:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2042,6 +2093,9 @@
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
@@ -4598,8 +4652,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T14" totalsRowShown="0">
-  <autoFilter ref="A1:T14" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T15" totalsRowShown="0">
+  <autoFilter ref="A1:T15" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -4927,10 +4981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5851,6 +5905,70 @@
         <v>685</v>
       </c>
     </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B15" s="2">
+        <v>102</v>
+      </c>
+      <c r="C15" s="2">
+        <v>230</v>
+      </c>
+      <c r="D15" s="2">
+        <v>183</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4461</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1652</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3430</v>
+      </c>
+      <c r="H15" s="2">
+        <v>60372</v>
+      </c>
+      <c r="I15" s="2">
+        <v>42778</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>216</v>
+      </c>
+      <c r="M15" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>217</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>149</v>
+      </c>
+      <c r="P15" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>149</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>128</v>
+      </c>
+      <c r="R15" s="2">
+        <v>131</v>
+      </c>
+      <c r="S15" s="2">
+        <v>3</v>
+      </c>
+      <c r="T15" s="2">
+        <v>690</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC30129-59A5-C348-89B1-88DFD77394FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F05FF4-AFE5-004C-833D-27257828DCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="13520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -270,10 +270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$15</c:f>
+              <c:f>Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -315,16 +315,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$15</c:f>
+              <c:f>Data!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -366,6 +369,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,10 +411,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$15</c:f>
+              <c:f>Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -450,16 +456,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$15</c:f>
+              <c:f>Data!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -501,6 +510,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,10 +552,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$15</c:f>
+              <c:f>Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -585,16 +597,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$15</c:f>
+              <c:f>Data!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -636,6 +651,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3430</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -891,10 +909,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$15</c:f>
+              <c:f>Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -936,16 +954,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$15</c:f>
+              <c:f>Data!$K$2:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -986,6 +1007,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1026,10 +1050,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$15</c:f>
+              <c:f>Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1071,16 +1095,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$15</c:f>
+              <c:f>Data!$N$2:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1121,6 +1148,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1161,10 +1191,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$15</c:f>
+              <c:f>Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1206,16 +1236,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$15</c:f>
+              <c:f>Data!$J$2:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1256,6 +1289,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1515,10 +1551,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$15</c:f>
+              <c:f>Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1560,16 +1596,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$15</c:f>
+              <c:f>Data!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1611,6 +1650,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,10 +1692,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$15</c:f>
+              <c:f>Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1695,16 +1737,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$15</c:f>
+              <c:f>Data!$P$2:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -1745,6 +1790,9 @@
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
@@ -2001,10 +2049,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$15</c:f>
+              <c:f>Data!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2046,16 +2094,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$15</c:f>
+              <c:f>Data!$R$2:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2097,6 +2148,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4652,8 +4706,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T15" totalsRowShown="0">
-  <autoFilter ref="A1:T15" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T16" totalsRowShown="0">
+  <autoFilter ref="A1:T16" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -4981,10 +5035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5969,6 +6023,70 @@
         <v>690</v>
       </c>
     </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B16" s="2">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2">
+        <v>231</v>
+      </c>
+      <c r="D16" s="2">
+        <v>184</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4462</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1660</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3444</v>
+      </c>
+      <c r="H16" s="2">
+        <v>60431</v>
+      </c>
+      <c r="I16" s="2">
+        <v>42791</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>217</v>
+      </c>
+      <c r="M16" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>218</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>149</v>
+      </c>
+      <c r="P16" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>149</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>128</v>
+      </c>
+      <c r="R16" s="2">
+        <v>132</v>
+      </c>
+      <c r="S16" s="2">
+        <v>3</v>
+      </c>
+      <c r="T16" s="2">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F05FF4-AFE5-004C-833D-27257828DCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134B78D5-3F1D-8441-8770-698BBEB91537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="13520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="13520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$16</c:f>
+              <c:f>Data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -318,16 +318,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$16</c:f>
+              <c:f>Data!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -372,6 +375,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4462</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -411,10 +417,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$16</c:f>
+              <c:f>Data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -459,16 +465,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$16</c:f>
+              <c:f>Data!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -513,6 +522,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,10 +564,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$16</c:f>
+              <c:f>Data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -600,16 +612,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$16</c:f>
+              <c:f>Data!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -654,6 +669,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3444</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,10 +927,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$16</c:f>
+              <c:f>Data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -957,16 +975,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$16</c:f>
+              <c:f>Data!$K$2:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1010,6 +1031,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1050,10 +1074,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$16</c:f>
+              <c:f>Data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1098,16 +1122,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$16</c:f>
+              <c:f>Data!$N$2:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1151,6 +1178,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1191,10 +1221,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$16</c:f>
+              <c:f>Data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1239,16 +1269,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$16</c:f>
+              <c:f>Data!$J$2:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1292,6 +1325,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1551,10 +1587,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$16</c:f>
+              <c:f>Data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1599,16 +1635,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$16</c:f>
+              <c:f>Data!$M$2:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1653,6 +1692,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1692,10 +1734,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$16</c:f>
+              <c:f>Data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1740,16 +1782,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$16</c:f>
+              <c:f>Data!$P$2:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -1793,6 +1838,9 @@
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
@@ -2049,10 +2097,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$16</c:f>
+              <c:f>Data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2097,16 +2145,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$16</c:f>
+              <c:f>Data!$R$2:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2150,6 +2201,9 @@
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
@@ -4706,8 +4760,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T16" totalsRowShown="0">
-  <autoFilter ref="A1:T16" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T17" totalsRowShown="0">
+  <autoFilter ref="A1:T17" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -5035,10 +5089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6087,6 +6141,70 @@
         <v>700</v>
       </c>
     </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B17" s="2">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2">
+        <v>233</v>
+      </c>
+      <c r="D17" s="2">
+        <v>185</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4454</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1670</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3473</v>
+      </c>
+      <c r="H17" s="2">
+        <v>60537</v>
+      </c>
+      <c r="I17" s="2">
+        <v>42889</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>218</v>
+      </c>
+      <c r="M17" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>219</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>149</v>
+      </c>
+      <c r="P17" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>149</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>128</v>
+      </c>
+      <c r="R17" s="2">
+        <v>132</v>
+      </c>
+      <c r="S17" s="2">
+        <v>3</v>
+      </c>
+      <c r="T17" s="2">
+        <v>714</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134B78D5-3F1D-8441-8770-698BBEB91537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42D71F6-D531-6E4C-86CB-67FAA4582A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="13520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="13520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$17</c:f>
+              <c:f>Data!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -321,16 +321,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$17</c:f>
+              <c:f>Data!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -377,6 +380,9 @@
                   <c:v>4462</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>4454</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4454</c:v>
                 </c:pt>
               </c:numCache>
@@ -417,10 +423,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$17</c:f>
+              <c:f>Data!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -468,16 +474,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$17</c:f>
+              <c:f>Data!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -525,6 +534,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,10 +576,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$17</c:f>
+              <c:f>Data!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -615,16 +627,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$17</c:f>
+              <c:f>Data!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -672,6 +687,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,10 +945,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$17</c:f>
+              <c:f>Data!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -978,16 +996,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$17</c:f>
+              <c:f>Data!$K$2:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1034,6 +1055,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1074,10 +1098,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$17</c:f>
+              <c:f>Data!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1125,16 +1149,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$17</c:f>
+              <c:f>Data!$N$2:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1181,6 +1208,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1221,10 +1251,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$17</c:f>
+              <c:f>Data!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1272,16 +1302,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$17</c:f>
+              <c:f>Data!$J$2:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1328,6 +1361,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1587,10 +1623,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$17</c:f>
+              <c:f>Data!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1638,16 +1674,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$17</c:f>
+              <c:f>Data!$M$2:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1694,6 +1733,9 @@
                   <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>219</c:v>
                 </c:pt>
               </c:numCache>
@@ -1734,10 +1776,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$17</c:f>
+              <c:f>Data!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1785,16 +1827,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$17</c:f>
+              <c:f>Data!$P$2:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -1842,6 +1887,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2097,10 +2145,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$17</c:f>
+              <c:f>Data!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2148,16 +2196,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$17</c:f>
+              <c:f>Data!$R$2:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2204,6 +2255,9 @@
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
@@ -4587,7 +4641,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="216" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4598,7 +4652,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{24ACA0B5-B5F6-0649-9568-624D24B93699}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="216" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4609,7 +4663,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50B1BB8B-A1E8-FB42-B88F-023CE9967AAB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="216" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4620,7 +4674,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B111F3D3-9A19-164A-A80F-5E41AF9CF1E4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="172" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4631,7 +4685,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9307454" cy="6067778"/>
+    <xdr:ext cx="9304421" cy="6069263"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4664,7 +4718,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9307454" cy="6067778"/>
+    <xdr:ext cx="9304421" cy="6069263"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4697,7 +4751,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9307454" cy="6067778"/>
+    <xdr:ext cx="9304421" cy="6069263"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4730,7 +4784,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9307454" cy="6067778"/>
+    <xdr:ext cx="9304421" cy="6069263"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4760,8 +4814,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T17" totalsRowShown="0">
-  <autoFilter ref="A1:T17" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T18" totalsRowShown="0">
+  <autoFilter ref="A1:T18" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -5089,10 +5143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6205,6 +6259,70 @@
         <v>714</v>
       </c>
     </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B18" s="2">
+        <v>103</v>
+      </c>
+      <c r="C18" s="2">
+        <v>233</v>
+      </c>
+      <c r="D18" s="2">
+        <v>185</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4454</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1676</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3481</v>
+      </c>
+      <c r="H18" s="2">
+        <v>60564</v>
+      </c>
+      <c r="I18" s="2">
+        <v>42903</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>218</v>
+      </c>
+      <c r="M18" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>219</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>150</v>
+      </c>
+      <c r="P18" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>150</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>128</v>
+      </c>
+      <c r="R18" s="2">
+        <v>132</v>
+      </c>
+      <c r="S18" s="2">
+        <v>3</v>
+      </c>
+      <c r="T18" s="2">
+        <v>721</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42D71F6-D531-6E4C-86CB-67FAA4582A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD203DC3-05B5-F54F-A3AF-8741BD840AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="13520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$18</c:f>
+              <c:f>Data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -324,16 +324,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$18</c:f>
+              <c:f>Data!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -384,6 +387,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4454</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4470</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -423,10 +429,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$18</c:f>
+              <c:f>Data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -477,16 +483,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$18</c:f>
+              <c:f>Data!$F$2:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -537,6 +546,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1676</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,10 +588,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$18</c:f>
+              <c:f>Data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -630,16 +642,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$18</c:f>
+              <c:f>Data!$G$2:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -690,6 +705,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3481</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,10 +963,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$18</c:f>
+              <c:f>Data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -999,16 +1017,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$18</c:f>
+              <c:f>Data!$K$2:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1058,6 +1079,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1098,10 +1122,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$18</c:f>
+              <c:f>Data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1152,16 +1176,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$18</c:f>
+              <c:f>Data!$N$2:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1212,6 +1239,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,10 +1281,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$18</c:f>
+              <c:f>Data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1305,16 +1335,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$18</c:f>
+              <c:f>Data!$J$2:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1364,6 +1397,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1623,10 +1659,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$18</c:f>
+              <c:f>Data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1677,16 +1713,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$18</c:f>
+              <c:f>Data!$M$2:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1736,6 +1775,9 @@
                   <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>219</c:v>
                 </c:pt>
               </c:numCache>
@@ -1776,10 +1818,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$18</c:f>
+              <c:f>Data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1830,16 +1872,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$18</c:f>
+              <c:f>Data!$P$2:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -1890,6 +1935,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,10 +2193,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$18</c:f>
+              <c:f>Data!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2199,16 +2247,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$18</c:f>
+              <c:f>Data!$R$2:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2259,6 +2310,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4814,8 +4868,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T18" totalsRowShown="0">
-  <autoFilter ref="A1:T18" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T19" totalsRowShown="0">
+  <autoFilter ref="A1:T19" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -5143,10 +5197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6323,6 +6377,70 @@
         <v>721</v>
       </c>
     </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B19" s="2">
+        <v>103</v>
+      </c>
+      <c r="C19" s="2">
+        <v>233</v>
+      </c>
+      <c r="D19" s="2">
+        <v>185</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4470</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1695</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3500</v>
+      </c>
+      <c r="H19" s="2">
+        <v>60613</v>
+      </c>
+      <c r="I19" s="2">
+        <v>42943</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>218</v>
+      </c>
+      <c r="M19" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>219</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>154</v>
+      </c>
+      <c r="P19" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>156</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>128</v>
+      </c>
+      <c r="R19" s="2">
+        <v>131</v>
+      </c>
+      <c r="S19" s="2">
+        <v>4</v>
+      </c>
+      <c r="T19" s="2">
+        <v>748</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD203DC3-05B5-F54F-A3AF-8741BD840AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D4809B-CEFD-E345-A581-6610CF473F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="12220" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$19</c:f>
+              <c:f>Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -327,16 +327,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$19</c:f>
+              <c:f>Data!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -390,6 +393,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4470</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,10 +435,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$19</c:f>
+              <c:f>Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -486,16 +492,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$19</c:f>
+              <c:f>Data!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -549,6 +558,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,10 +600,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$19</c:f>
+              <c:f>Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -645,16 +657,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$19</c:f>
+              <c:f>Data!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -708,6 +723,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,10 +981,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$19</c:f>
+              <c:f>Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1020,16 +1038,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$19</c:f>
+              <c:f>Data!$K$2:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1082,6 +1103,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1122,10 +1146,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$19</c:f>
+              <c:f>Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1179,16 +1203,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$19</c:f>
+              <c:f>Data!$N$2:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1242,6 +1269,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,10 +1311,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$19</c:f>
+              <c:f>Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1338,16 +1368,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$19</c:f>
+              <c:f>Data!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1400,6 +1433,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1659,10 +1695,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$19</c:f>
+              <c:f>Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1716,16 +1752,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$19</c:f>
+              <c:f>Data!$M$2:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1779,6 +1818,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,10 +1860,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$19</c:f>
+              <c:f>Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1875,16 +1917,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$19</c:f>
+              <c:f>Data!$P$2:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -1938,6 +1983,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2193,10 +2241,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$19</c:f>
+              <c:f>Data!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2250,16 +2298,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$19</c:f>
+              <c:f>Data!$R$2:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2313,6 +2364,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4868,8 +4922,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T19" totalsRowShown="0">
-  <autoFilter ref="A1:T19" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T20" totalsRowShown="0">
+  <autoFilter ref="A1:T20" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -5197,10 +5251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6441,6 +6495,70 @@
         <v>748</v>
       </c>
     </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B20" s="2">
+        <v>103</v>
+      </c>
+      <c r="C20" s="2">
+        <v>234</v>
+      </c>
+      <c r="D20" s="2">
+        <v>186</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4506</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1699</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3520</v>
+      </c>
+      <c r="H20" s="2">
+        <v>60719</v>
+      </c>
+      <c r="I20" s="2">
+        <v>42953</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>219</v>
+      </c>
+      <c r="M20" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>220</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>156</v>
+      </c>
+      <c r="P20" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>157</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>131</v>
+      </c>
+      <c r="R20" s="2">
+        <v>132</v>
+      </c>
+      <c r="S20" s="2">
+        <v>4</v>
+      </c>
+      <c r="T20" s="2">
+        <v>754</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D4809B-CEFD-E345-A581-6610CF473F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA5366-9224-1242-B891-CDC01E8596E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="12220" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24480" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -331,6 +331,9 @@
                 <c:pt idx="18">
                   <c:v>44707</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -396,6 +399,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4506</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,6 +502,9 @@
                 <c:pt idx="18">
                   <c:v>44707</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -561,6 +570,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,6 +673,9 @@
                 <c:pt idx="18">
                   <c:v>44707</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -726,6 +741,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3520</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,6 +1060,9 @@
                 <c:pt idx="18">
                   <c:v>44707</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1106,6 +1127,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1207,6 +1231,9 @@
                 <c:pt idx="18">
                   <c:v>44707</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1272,6 +1299,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1372,6 +1402,9 @@
                 <c:pt idx="18">
                   <c:v>44707</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1436,6 +1469,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1756,6 +1792,9 @@
                 <c:pt idx="18">
                   <c:v>44707</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1820,6 +1859,9 @@
                   <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
@@ -1921,6 +1963,9 @@
                 <c:pt idx="18">
                   <c:v>44707</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1985,7 +2030,10 @@
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157</c:v>
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2302,6 +2350,9 @@
                 <c:pt idx="18">
                   <c:v>44707</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2366,6 +2417,9 @@
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
@@ -4749,7 +4803,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4760,7 +4814,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{24ACA0B5-B5F6-0649-9568-624D24B93699}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="207" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4793,7 +4847,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304421" cy="6069263"/>
+    <xdr:ext cx="9313333" cy="6083457"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4826,7 +4880,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304421" cy="6069263"/>
+    <xdr:ext cx="9313333" cy="6083457"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4922,8 +4976,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T20" totalsRowShown="0">
-  <autoFilter ref="A1:T20" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T21" totalsRowShown="0">
+  <autoFilter ref="A1:T21" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -5251,10 +5305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6540,11 +6594,11 @@
         <v>1</v>
       </c>
       <c r="O20" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P20" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="2">
         <v>131</v>
@@ -6557,6 +6611,70 @@
       </c>
       <c r="T20" s="2">
         <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44710</v>
+      </c>
+      <c r="B21" s="2">
+        <v>103</v>
+      </c>
+      <c r="C21" s="2">
+        <v>234</v>
+      </c>
+      <c r="D21" s="2">
+        <v>187</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4504</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1718</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3546</v>
+      </c>
+      <c r="H21" s="2">
+        <v>61044</v>
+      </c>
+      <c r="I21" s="2">
+        <v>43112</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>219</v>
+      </c>
+      <c r="M21" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>220</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>156</v>
+      </c>
+      <c r="P21" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>156</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>131</v>
+      </c>
+      <c r="R21" s="2">
+        <v>132</v>
+      </c>
+      <c r="S21" s="2">
+        <v>4</v>
+      </c>
+      <c r="T21" s="2">
+        <v>773</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA5366-9224-1242-B891-CDC01E8596E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6602F0EB-8F38-0849-83FD-420298888A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24480" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="17080" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$21</c:f>
+              <c:f>Data!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -333,16 +333,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$21</c:f>
+              <c:f>Data!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -401,6 +404,9 @@
                   <c:v>4506</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>4504</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4504</c:v>
                 </c:pt>
               </c:numCache>
@@ -441,10 +447,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$21</c:f>
+              <c:f>Data!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -504,16 +510,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$21</c:f>
+              <c:f>Data!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -573,6 +582,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,10 +624,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$21</c:f>
+              <c:f>Data!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -675,16 +687,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$21</c:f>
+              <c:f>Data!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -744,6 +759,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3546</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,10 +1017,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$21</c:f>
+              <c:f>Data!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1062,16 +1080,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$21</c:f>
+              <c:f>Data!$K$2:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1130,6 +1151,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1170,10 +1194,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$21</c:f>
+              <c:f>Data!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1233,16 +1257,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$21</c:f>
+              <c:f>Data!$N$2:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1301,6 +1328,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1341,10 +1371,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$21</c:f>
+              <c:f>Data!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1404,16 +1434,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$21</c:f>
+              <c:f>Data!$J$2:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1472,6 +1505,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1731,10 +1767,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$21</c:f>
+              <c:f>Data!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1794,16 +1830,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$21</c:f>
+              <c:f>Data!$M$2:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1862,6 +1901,9 @@
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
@@ -1902,10 +1944,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$21</c:f>
+              <c:f>Data!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1965,16 +2007,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$21</c:f>
+              <c:f>Data!$P$2:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2034,6 +2079,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2289,10 +2337,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$21</c:f>
+              <c:f>Data!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2352,16 +2400,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$21</c:f>
+              <c:f>Data!$R$2:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2420,6 +2471,9 @@
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
@@ -4976,8 +5030,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T21" totalsRowShown="0">
-  <autoFilter ref="A1:T21" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T22" totalsRowShown="0">
+  <autoFilter ref="A1:T22" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -5305,10 +5359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6677,6 +6731,70 @@
         <v>773</v>
       </c>
     </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B22" s="2">
+        <v>104</v>
+      </c>
+      <c r="C22" s="2">
+        <v>235</v>
+      </c>
+      <c r="D22" s="2">
+        <v>188</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4504</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1723</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3559</v>
+      </c>
+      <c r="H22" s="2">
+        <v>61077</v>
+      </c>
+      <c r="I22" s="2">
+        <v>43133</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>219</v>
+      </c>
+      <c r="M22" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>220</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>157</v>
+      </c>
+      <c r="P22" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>157</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>131</v>
+      </c>
+      <c r="R22" s="2">
+        <v>132</v>
+      </c>
+      <c r="S22" s="2">
+        <v>4</v>
+      </c>
+      <c r="T22" s="2">
+        <v>787</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6602F0EB-8F38-0849-83FD-420298888A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A321755-7072-864B-A212-0507E8EDC596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="17080" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24540" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$22</c:f>
+              <c:f>Data!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -336,16 +336,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$22</c:f>
+              <c:f>Data!$E$2:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -407,6 +410,9 @@
                   <c:v>4504</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>4504</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4504</c:v>
                 </c:pt>
               </c:numCache>
@@ -447,10 +453,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$22</c:f>
+              <c:f>Data!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -513,16 +519,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$22</c:f>
+              <c:f>Data!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -585,6 +594,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,10 +636,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$22</c:f>
+              <c:f>Data!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -690,16 +702,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$22</c:f>
+              <c:f>Data!$G$2:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -762,6 +777,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3559</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,10 +1035,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$22</c:f>
+              <c:f>Data!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1083,16 +1101,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$22</c:f>
+              <c:f>Data!$K$2:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1155,6 +1176,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,10 +1218,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$22</c:f>
+              <c:f>Data!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1260,16 +1284,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$22</c:f>
+              <c:f>Data!$N$2:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1331,6 +1358,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1371,10 +1401,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$22</c:f>
+              <c:f>Data!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1437,16 +1467,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$22</c:f>
+              <c:f>Data!$J$2:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1509,6 +1542,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,10 +1803,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$22</c:f>
+              <c:f>Data!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1833,16 +1869,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$22</c:f>
+              <c:f>Data!$M$2:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1904,6 +1943,9 @@
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
@@ -1944,10 +1986,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$22</c:f>
+              <c:f>Data!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2010,16 +2052,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$22</c:f>
+              <c:f>Data!$P$2:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2081,6 +2126,9 @@
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
@@ -2337,10 +2385,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$22</c:f>
+              <c:f>Data!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2403,16 +2451,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$22</c:f>
+              <c:f>Data!$R$2:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2474,6 +2525,9 @@
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
@@ -5030,8 +5084,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T22" totalsRowShown="0">
-  <autoFilter ref="A1:T22" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T23" totalsRowShown="0">
+  <autoFilter ref="A1:T23" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
@@ -5359,10 +5413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="N6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6795,6 +6849,70 @@
         <v>787</v>
       </c>
     </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B23" s="2">
+        <v>104</v>
+      </c>
+      <c r="C23" s="2">
+        <v>235</v>
+      </c>
+      <c r="D23" s="2">
+        <v>188</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4504</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1724</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3560</v>
+      </c>
+      <c r="H23" s="2">
+        <v>61077</v>
+      </c>
+      <c r="I23" s="2">
+        <v>43133</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>220</v>
+      </c>
+      <c r="M23" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>220</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>157</v>
+      </c>
+      <c r="P23" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>157</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>131</v>
+      </c>
+      <c r="R23" s="2">
+        <v>132</v>
+      </c>
+      <c r="S23" s="2">
+        <v>4</v>
+      </c>
+      <c r="T23" s="2">
+        <v>789</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A321755-7072-864B-A212-0507E8EDC596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E02E4D-1A65-A045-97BA-E8A51EB40E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24540" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="13180" windowWidth="41120" windowHeight="12240" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,18 @@
   <si>
     <t>Pull requests</t>
   </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +160,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -270,10 +294,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$23</c:f>
+              <c:f>Data!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -339,16 +363,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$23</c:f>
+              <c:f>Data!$E$2:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -414,6 +441,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4504</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,10 +483,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$23</c:f>
+              <c:f>Data!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -522,16 +552,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$23</c:f>
+              <c:f>Data!$F$2:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -597,6 +630,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1724</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,10 +672,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$23</c:f>
+              <c:f>Data!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -705,16 +741,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$23</c:f>
+              <c:f>Data!$G$2:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -780,6 +819,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3560</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,10 +1077,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$23</c:f>
+              <c:f>Data!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1104,16 +1146,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$23</c:f>
+              <c:f>Data!$K$2:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1178,6 +1223,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1218,10 +1266,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$23</c:f>
+              <c:f>Data!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1287,16 +1335,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$23</c:f>
+              <c:f>Data!$N$2:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1361,6 +1412,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1401,10 +1455,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$23</c:f>
+              <c:f>Data!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1470,16 +1524,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$23</c:f>
+              <c:f>Data!$J$2:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1544,6 +1601,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1803,10 +1863,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$23</c:f>
+              <c:f>Data!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1872,16 +1932,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$23</c:f>
+              <c:f>Data!$M$2:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -1946,6 +2009,9 @@
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
@@ -1986,10 +2052,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$23</c:f>
+              <c:f>Data!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2055,16 +2121,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$23</c:f>
+              <c:f>Data!$P$2:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2129,6 +2198,9 @@
                   <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
@@ -2385,10 +2457,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$23</c:f>
+              <c:f>Data!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2454,16 +2526,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$23</c:f>
+              <c:f>Data!$R$2:$R$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2528,6 +2603,9 @@
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
@@ -5084,33 +5162,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:T23" totalsRowShown="0">
-  <autoFilter ref="A1:T23" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:X24" totalsRowShown="0">
+  <autoFilter ref="A1:X24" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="11">
       <calculatedColumnFormula>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="8">
       <calculatedColumnFormula>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5413,10 +5495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5441,9 +5523,13 @@
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5502,10 +5588,22 @@
         <v>15</v>
       </c>
       <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44574</v>
       </c>
@@ -5565,11 +5663,15 @@
       <c r="S2" s="2">
         <v>2</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2">
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44578</v>
       </c>
@@ -5629,11 +5731,15 @@
       <c r="S3" s="2">
         <v>2</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2">
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44580</v>
       </c>
@@ -5693,11 +5799,15 @@
       <c r="S4" s="2">
         <v>2</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2">
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44588</v>
       </c>
@@ -5757,11 +5867,15 @@
       <c r="S5" s="2">
         <v>3</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2">
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44593</v>
       </c>
@@ -5821,11 +5935,15 @@
       <c r="S6" s="2">
         <v>3</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2">
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44602</v>
       </c>
@@ -5885,11 +6003,15 @@
       <c r="S7" s="2">
         <v>3</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2">
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44610</v>
       </c>
@@ -5949,11 +6071,15 @@
       <c r="S8" s="2">
         <v>3</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2">
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44613</v>
       </c>
@@ -6013,11 +6139,15 @@
       <c r="S9" s="2">
         <v>3</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2">
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44636</v>
       </c>
@@ -6077,11 +6207,15 @@
       <c r="S10" s="2">
         <v>3</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2">
         <v>632</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44645</v>
       </c>
@@ -6141,11 +6275,15 @@
       <c r="S11" s="2">
         <v>3</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2">
         <v>661</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44657</v>
       </c>
@@ -6205,11 +6343,15 @@
       <c r="S12" s="2">
         <v>3</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2">
         <v>669</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44664</v>
       </c>
@@ -6269,11 +6411,15 @@
       <c r="S13" s="2">
         <v>3</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2">
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44676</v>
       </c>
@@ -6333,11 +6479,15 @@
       <c r="S14" s="2">
         <v>3</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2">
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44678</v>
       </c>
@@ -6397,11 +6547,15 @@
       <c r="S15" s="2">
         <v>3</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2">
         <v>690</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44679</v>
       </c>
@@ -6461,11 +6615,15 @@
       <c r="S16" s="2">
         <v>3</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2">
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44686</v>
       </c>
@@ -6525,11 +6683,15 @@
       <c r="S17" s="2">
         <v>3</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2">
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44691</v>
       </c>
@@ -6589,11 +6751,15 @@
       <c r="S18" s="2">
         <v>3</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2">
         <v>721</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44705</v>
       </c>
@@ -6653,11 +6819,15 @@
       <c r="S19" s="2">
         <v>4</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2">
         <v>748</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44707</v>
       </c>
@@ -6717,11 +6887,15 @@
       <c r="S20" s="2">
         <v>4</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2">
         <v>754</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44710</v>
       </c>
@@ -6781,11 +6955,15 @@
       <c r="S21" s="2">
         <v>4</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2">
         <v>773</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44713</v>
       </c>
@@ -6845,11 +7023,15 @@
       <c r="S22" s="2">
         <v>4</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2">
         <v>787</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44714</v>
       </c>
@@ -6909,8 +7091,89 @@
       <c r="S23" s="2">
         <v>4</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2">
         <v>789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B24" s="2">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2">
+        <v>235</v>
+      </c>
+      <c r="D24" s="2">
+        <v>188</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4510</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1728</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3565</v>
+      </c>
+      <c r="H24" s="2">
+        <v>61091</v>
+      </c>
+      <c r="I24" s="2">
+        <v>43136</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>220</v>
+      </c>
+      <c r="M24" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>220</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>157</v>
+      </c>
+      <c r="P24" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>157</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>131</v>
+      </c>
+      <c r="R24" s="2">
+        <v>132</v>
+      </c>
+      <c r="S24" s="2">
+        <v>4</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>302</v>
+      </c>
+      <c r="V24" s="2">
+        <v>488</v>
+      </c>
+      <c r="W24" s="2">
+        <v>7</v>
+      </c>
+      <c r="X24" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[Cancelled]])</f>
+        <v>797</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E02E4D-1A65-A045-97BA-E8A51EB40E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F36518-F3AE-7340-94C0-4CA5958321EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13180" windowWidth="41120" windowHeight="12240" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="12200" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -294,10 +294,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$24</c:f>
+              <c:f>Data!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -366,16 +366,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$24</c:f>
+              <c:f>Data!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -443,6 +446,9 @@
                   <c:v>4504</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>4510</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>4510</c:v>
                 </c:pt>
               </c:numCache>
@@ -483,10 +489,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$24</c:f>
+              <c:f>Data!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -555,16 +561,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$24</c:f>
+              <c:f>Data!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -633,6 +642,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -672,10 +684,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$24</c:f>
+              <c:f>Data!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -744,16 +756,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$24</c:f>
+              <c:f>Data!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -822,6 +837,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>3565</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,10 +1095,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$24</c:f>
+              <c:f>Data!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1149,16 +1167,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$24</c:f>
+              <c:f>Data!$K$2:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1226,6 +1247,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1266,10 +1290,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$24</c:f>
+              <c:f>Data!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1338,16 +1362,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$24</c:f>
+              <c:f>Data!$N$2:$N$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1415,6 +1442,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1455,10 +1485,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$24</c:f>
+              <c:f>Data!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1527,16 +1557,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$24</c:f>
+              <c:f>Data!$J$2:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1604,6 +1637,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1863,10 +1899,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$24</c:f>
+              <c:f>Data!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1935,16 +1971,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$24</c:f>
+              <c:f>Data!$M$2:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2013,6 +2052,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,10 +2094,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$24</c:f>
+              <c:f>Data!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2124,16 +2166,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$24</c:f>
+              <c:f>Data!$P$2:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2202,6 +2247,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2457,10 +2505,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$24</c:f>
+              <c:f>Data!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2529,16 +2577,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$24</c:f>
+              <c:f>Data!$R$2:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2606,6 +2657,9 @@
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
@@ -5000,7 +5054,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{24ACA0B5-B5F6-0649-9568-624D24B93699}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="207" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5011,7 +5065,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50B1BB8B-A1E8-FB42-B88F-023CE9967AAB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5022,7 +5076,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B111F3D3-9A19-164A-A80F-5E41AF9CF1E4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5099,7 +5153,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304421" cy="6069263"/>
+    <xdr:ext cx="9313333" cy="6083457"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5132,7 +5186,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304421" cy="6069263"/>
+    <xdr:ext cx="9313333" cy="6083457"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5162,8 +5216,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:X24" totalsRowShown="0">
-  <autoFilter ref="A1:X24" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:X25" totalsRowShown="0">
+  <autoFilter ref="A1:X25" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="22"/>
@@ -5188,11 +5242,11 @@
     <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="7"/>
     <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="6"/>
     <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5495,10 +5549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7176,6 +7230,83 @@
         <v>797</v>
       </c>
     </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44723</v>
+      </c>
+      <c r="B25" s="2">
+        <v>105</v>
+      </c>
+      <c r="C25" s="2">
+        <v>236</v>
+      </c>
+      <c r="D25" s="2">
+        <v>189</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4510</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1733</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3579</v>
+      </c>
+      <c r="H25" s="2">
+        <v>61141</v>
+      </c>
+      <c r="I25" s="2">
+        <v>43154</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>221</v>
+      </c>
+      <c r="M25" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>221</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>158</v>
+      </c>
+      <c r="P25" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>158</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>131</v>
+      </c>
+      <c r="R25" s="2">
+        <v>132</v>
+      </c>
+      <c r="S25" s="2">
+        <v>4</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>304</v>
+      </c>
+      <c r="V25" s="2">
+        <v>501</v>
+      </c>
+      <c r="W25" s="2">
+        <v>7</v>
+      </c>
+      <c r="X25" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[Cancelled]])</f>
+        <v>812</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F36518-F3AE-7340-94C0-4CA5958321EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3C6B86-3572-E746-B5B9-078A294F00F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="12200" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24500" activeTab="5" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Open Issues &amp; PRs" sheetId="3" r:id="rId3"/>
     <sheet name="Issues &amp; PRs" sheetId="4" r:id="rId4"/>
     <sheet name="Tests" sheetId="5" r:id="rId5"/>
+    <sheet name="Workflows" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +113,9 @@
   <si>
     <t>Cancelled</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +164,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -294,10 +301,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$25</c:f>
+              <c:f>Data!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -369,16 +376,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$25</c:f>
+              <c:f>Data!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -449,6 +459,9 @@
                   <c:v>4510</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>4510</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>4510</c:v>
                 </c:pt>
               </c:numCache>
@@ -489,10 +502,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$25</c:f>
+              <c:f>Data!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -564,16 +577,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$25</c:f>
+              <c:f>Data!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -645,6 +661,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1733</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,10 +703,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$25</c:f>
+              <c:f>Data!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -759,16 +778,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$25</c:f>
+              <c:f>Data!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -840,6 +862,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3579</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,10 +1120,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$25</c:f>
+              <c:f>Data!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1170,16 +1195,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$25</c:f>
+              <c:f>Data!$K$2:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1250,6 +1278,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1290,10 +1321,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$25</c:f>
+              <c:f>Data!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1365,16 +1396,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$25</c:f>
+              <c:f>Data!$N$2:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1445,6 +1479,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1485,10 +1522,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$25</c:f>
+              <c:f>Data!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1560,16 +1597,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$25</c:f>
+              <c:f>Data!$J$2:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1640,6 +1680,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1899,10 +1942,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$25</c:f>
+              <c:f>Data!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1974,16 +2017,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$25</c:f>
+              <c:f>Data!$M$2:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2054,6 +2100,9 @@
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>221</c:v>
                 </c:pt>
               </c:numCache>
@@ -2094,10 +2143,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$25</c:f>
+              <c:f>Data!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2169,16 +2218,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$25</c:f>
+              <c:f>Data!$P$2:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2250,6 +2302,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2505,10 +2560,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$25</c:f>
+              <c:f>Data!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2580,16 +2635,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$25</c:f>
+              <c:f>Data!$R$2:$R$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2660,6 +2718,9 @@
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
@@ -2798,6 +2859,935 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Running</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$T$2:$T$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-687B-E542-BC2C-A4F217B8D2BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$U$2:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="22">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-687B-E542-BC2C-A4F217B8D2BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$V$2:$V$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="22">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-687B-E542-BC2C-A4F217B8D2BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cancelled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$W$2:$W$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-687B-E542-BC2C-A4F217B8D2BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GH runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$X$2:$X$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-687B-E542-BC2C-A4F217B8D2BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1982174224"/>
+        <c:axId val="773162575"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="1982174224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="773162575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="773162575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1982174224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2997,6 +3987,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5007,6 +6037,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5054,7 +6589,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{24ACA0B5-B5F6-0649-9568-624D24B93699}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="208" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5065,7 +6600,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50B1BB8B-A1E8-FB42-B88F-023CE9967AAB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="208" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5076,7 +6611,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B111F3D3-9A19-164A-A80F-5E41AF9CF1E4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="208" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5B2EC930-5C2E-4448-96C6-E1C9EC4CF674}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="208" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5120,7 +6666,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6083457"/>
+    <xdr:ext cx="9311298" cy="6075240"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5153,7 +6699,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6083457"/>
+    <xdr:ext cx="9311298" cy="6075240"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5186,7 +6732,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6083457"/>
+    <xdr:ext cx="9311298" cy="6075240"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5215,38 +6761,74 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9311298" cy="6075240"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1728E7-FEC9-C1E3-1782-0553B9F8F1A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:X25" totalsRowShown="0">
-  <autoFilter ref="A1:X25" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:Y26" totalsRowShown="0">
+  <autoFilter ref="A1:Y26" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="12">
       <calculatedColumnFormula>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="8">
+    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="9">
       <calculatedColumnFormula>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Data[[#This Row],[Running]:[GH runs]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5549,10 +7131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView topLeftCell="N1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5583,7 +7165,7 @@
     <col min="24" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5656,8 +7238,11 @@
       <c r="X1" t="s">
         <v>16</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44574</v>
       </c>
@@ -5724,8 +7309,12 @@
       <c r="X2" s="2">
         <v>541</v>
       </c>
+      <c r="Y2" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>541</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44578</v>
       </c>
@@ -5792,8 +7381,12 @@
       <c r="X3" s="2">
         <v>542</v>
       </c>
+      <c r="Y3" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>542</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44580</v>
       </c>
@@ -5860,8 +7453,12 @@
       <c r="X4" s="2">
         <v>543</v>
       </c>
+      <c r="Y4" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>543</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44588</v>
       </c>
@@ -5928,8 +7525,12 @@
       <c r="X5" s="2">
         <v>550</v>
       </c>
+      <c r="Y5" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>550</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44593</v>
       </c>
@@ -5996,8 +7597,12 @@
       <c r="X6" s="2">
         <v>561</v>
       </c>
+      <c r="Y6" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>561</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44602</v>
       </c>
@@ -6064,8 +7669,12 @@
       <c r="X7" s="2">
         <v>586</v>
       </c>
+      <c r="Y7" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>586</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44610</v>
       </c>
@@ -6132,8 +7741,12 @@
       <c r="X8" s="2">
         <v>595</v>
       </c>
+      <c r="Y8" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>595</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44613</v>
       </c>
@@ -6200,8 +7813,12 @@
       <c r="X9" s="2">
         <v>601</v>
       </c>
+      <c r="Y9" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>601</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44636</v>
       </c>
@@ -6268,8 +7885,12 @@
       <c r="X10" s="2">
         <v>632</v>
       </c>
+      <c r="Y10" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>632</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44645</v>
       </c>
@@ -6336,8 +7957,12 @@
       <c r="X11" s="2">
         <v>661</v>
       </c>
+      <c r="Y11" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>661</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44657</v>
       </c>
@@ -6404,8 +8029,12 @@
       <c r="X12" s="2">
         <v>669</v>
       </c>
+      <c r="Y12" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>669</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44664</v>
       </c>
@@ -6472,8 +8101,12 @@
       <c r="X13" s="2">
         <v>677</v>
       </c>
+      <c r="Y13" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>677</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44676</v>
       </c>
@@ -6540,8 +8173,12 @@
       <c r="X14" s="2">
         <v>685</v>
       </c>
+      <c r="Y14" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>685</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44678</v>
       </c>
@@ -6608,8 +8245,12 @@
       <c r="X15" s="2">
         <v>690</v>
       </c>
+      <c r="Y15" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>690</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44679</v>
       </c>
@@ -6676,8 +8317,12 @@
       <c r="X16" s="2">
         <v>700</v>
       </c>
+      <c r="Y16" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>700</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44686</v>
       </c>
@@ -6744,8 +8389,12 @@
       <c r="X17" s="2">
         <v>714</v>
       </c>
+      <c r="Y17" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>714</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44691</v>
       </c>
@@ -6812,8 +8461,12 @@
       <c r="X18" s="2">
         <v>721</v>
       </c>
+      <c r="Y18" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>721</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44705</v>
       </c>
@@ -6880,8 +8533,12 @@
       <c r="X19" s="2">
         <v>748</v>
       </c>
+      <c r="Y19" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>748</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44707</v>
       </c>
@@ -6948,8 +8605,12 @@
       <c r="X20" s="2">
         <v>754</v>
       </c>
+      <c r="Y20" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>754</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44710</v>
       </c>
@@ -7016,8 +8677,12 @@
       <c r="X21" s="2">
         <v>773</v>
       </c>
+      <c r="Y21" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>773</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44713</v>
       </c>
@@ -7084,8 +8749,12 @@
       <c r="X22" s="2">
         <v>787</v>
       </c>
+      <c r="Y22" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>787</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44714</v>
       </c>
@@ -7152,8 +8821,12 @@
       <c r="X23" s="2">
         <v>789</v>
       </c>
+      <c r="Y23" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>789</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44715</v>
       </c>
@@ -7225,12 +8898,13 @@
       <c r="W24" s="2">
         <v>7</v>
       </c>
-      <c r="X24" s="2">
-        <f>SUM(Data[[#This Row],[Running]:[Cancelled]])</f>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>797</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44723</v>
       </c>
@@ -7302,9 +8976,88 @@
       <c r="W25" s="2">
         <v>7</v>
       </c>
-      <c r="X25" s="2">
-        <f>SUM(Data[[#This Row],[Running]:[Cancelled]])</f>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B26" s="2">
+        <v>105</v>
+      </c>
+      <c r="C26" s="2">
+        <v>236</v>
+      </c>
+      <c r="D26" s="2">
+        <v>189</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4510</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1743</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3590</v>
+      </c>
+      <c r="H26" s="2">
+        <v>61156</v>
+      </c>
+      <c r="I26" s="2">
+        <v>43168</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>221</v>
+      </c>
+      <c r="M26" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>221</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>159</v>
+      </c>
+      <c r="P26" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>159</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>131</v>
+      </c>
+      <c r="R26" s="2">
+        <v>132</v>
+      </c>
+      <c r="S26" s="2">
+        <v>4</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>305</v>
+      </c>
+      <c r="V26" s="2">
+        <v>517</v>
+      </c>
+      <c r="W26" s="2">
+        <v>7</v>
+      </c>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3C6B86-3572-E746-B5B9-078A294F00F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBD39A1-69AB-B147-9EA9-07B3513E036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24500" activeTab="5" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24520" activeTab="5" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -301,10 +301,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -379,16 +379,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$26</c:f>
+              <c:f>Data!$E$2:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -463,6 +466,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4510</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,10 +508,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -580,16 +586,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$26</c:f>
+              <c:f>Data!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -664,6 +673,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1743</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,10 +715,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -781,16 +793,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$26</c:f>
+              <c:f>Data!$G$2:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -865,6 +880,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3590</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3610</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,10 +1138,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1198,16 +1216,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$26</c:f>
+              <c:f>Data!$K$2:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1281,6 +1302,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1321,10 +1345,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1399,16 +1423,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$26</c:f>
+              <c:f>Data!$N$2:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1482,6 +1509,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1522,10 +1552,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1600,16 +1630,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$26</c:f>
+              <c:f>Data!$J$2:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1683,6 +1716,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1942,10 +1978,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2020,16 +2056,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$26</c:f>
+              <c:f>Data!$M$2:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2103,6 +2142,9 @@
                   <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>221</c:v>
                 </c:pt>
               </c:numCache>
@@ -2143,10 +2185,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2221,16 +2263,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$26</c:f>
+              <c:f>Data!$P$2:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2304,6 +2349,9 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
@@ -2560,10 +2608,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2638,16 +2686,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$26</c:f>
+              <c:f>Data!$R$2:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2721,6 +2772,9 @@
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
@@ -2943,10 +2997,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3021,16 +3075,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$26</c:f>
+              <c:f>Data!$T$2:$T$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3038,6 +3095,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3074,10 +3134,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3152,16 +3212,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$2:$U$26</c:f>
+              <c:f>Data!$U$2:$U$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -3170,6 +3233,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,10 +3271,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3283,16 +3349,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$26</c:f>
+              <c:f>Data!$V$2:$V$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -3301,6 +3370,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3336,10 +3408,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3414,16 +3486,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$26</c:f>
+              <c:f>Data!$W$2:$W$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3431,6 +3506,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3469,10 +3547,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$26</c:f>
+              <c:f>Data!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3547,16 +3625,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$X$2:$X$26</c:f>
+              <c:f>Data!$X$2:$X$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -6578,7 +6659,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="208" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6633,7 +6714,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6083457"/>
+    <xdr:ext cx="9311298" cy="6075240"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6795,8 +6876,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:Y26" totalsRowShown="0">
-  <autoFilter ref="A1:Y26" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:Y27" totalsRowShown="0">
+  <autoFilter ref="A1:Y27" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="23"/>
@@ -7131,10 +7212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView topLeftCell="H20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9060,6 +9141,84 @@
         <v>829</v>
       </c>
     </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44727</v>
+      </c>
+      <c r="B27" s="2">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2">
+        <v>236</v>
+      </c>
+      <c r="D27" s="2">
+        <v>189</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4515</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1758</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3610</v>
+      </c>
+      <c r="H27" s="2">
+        <v>61388</v>
+      </c>
+      <c r="I27" s="2">
+        <v>43266</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>221</v>
+      </c>
+      <c r="M27" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>221</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>159</v>
+      </c>
+      <c r="P27" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>159</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>131</v>
+      </c>
+      <c r="R27" s="2">
+        <v>132</v>
+      </c>
+      <c r="S27" s="2">
+        <v>4</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <v>314</v>
+      </c>
+      <c r="V27" s="2">
+        <v>536</v>
+      </c>
+      <c r="W27" s="2">
+        <v>7</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>857</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBD39A1-69AB-B147-9EA9-07B3513E036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A344871A-65B1-B549-80FC-6C9C18F7DC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24520" activeTab="5" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="12220" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -301,10 +301,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -382,16 +382,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$27</c:f>
+              <c:f>Data!$E$2:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -469,6 +472,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4515</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,10 +514,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -589,16 +595,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$27</c:f>
+              <c:f>Data!$F$2:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -676,6 +685,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,10 +727,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -796,16 +808,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$27</c:f>
+              <c:f>Data!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -883,6 +898,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3610</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,10 +1156,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1219,16 +1237,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$27</c:f>
+              <c:f>Data!$K$2:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1305,6 +1326,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1345,10 +1369,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1426,16 +1450,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$27</c:f>
+              <c:f>Data!$N$2:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1512,6 +1539,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1552,10 +1582,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1633,16 +1663,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$27</c:f>
+              <c:f>Data!$J$2:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1719,6 +1752,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1978,10 +2014,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2059,16 +2095,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$27</c:f>
+              <c:f>Data!$M$2:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2146,6 +2185,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2185,10 +2227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2266,16 +2308,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$27</c:f>
+              <c:f>Data!$P$2:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2352,6 +2397,9 @@
                   <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
@@ -2608,10 +2656,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2689,16 +2737,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$27</c:f>
+              <c:f>Data!$R$2:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2776,6 +2827,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2997,10 +3051,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3078,16 +3132,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$27</c:f>
+              <c:f>Data!$T$2:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3098,6 +3155,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3134,10 +3194,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3215,16 +3275,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$2:$U$27</c:f>
+              <c:f>Data!$U$2:$U$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -3236,6 +3299,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3271,10 +3337,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3352,16 +3418,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$27</c:f>
+              <c:f>Data!$V$2:$V$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -3373,6 +3442,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3408,10 +3480,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3489,16 +3561,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$27</c:f>
+              <c:f>Data!$W$2:$W$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3509,6 +3584,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3547,10 +3625,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$27</c:f>
+              <c:f>Data!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3628,16 +3706,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$X$2:$X$27</c:f>
+              <c:f>Data!$X$2:$X$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -6703,7 +6784,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5B2EC930-5C2E-4448-96C6-E1C9EC4CF674}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="208" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="208" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6876,8 +6957,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:Y27" totalsRowShown="0">
-  <autoFilter ref="A1:Y27" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:Y28" totalsRowShown="0">
+  <autoFilter ref="A1:Y28" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="23"/>
@@ -7212,10 +7293,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="H20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9219,6 +9301,84 @@
         <v>857</v>
       </c>
     </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B28" s="2">
+        <v>105</v>
+      </c>
+      <c r="C28" s="2">
+        <v>237</v>
+      </c>
+      <c r="D28" s="2">
+        <v>190</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4585</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1763</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3627</v>
+      </c>
+      <c r="H28" s="2">
+        <v>61547</v>
+      </c>
+      <c r="I28" s="2">
+        <v>43284</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>222</v>
+      </c>
+      <c r="M28" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>222</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>159</v>
+      </c>
+      <c r="P28" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>159</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>133</v>
+      </c>
+      <c r="R28" s="2">
+        <v>135</v>
+      </c>
+      <c r="S28" s="2">
+        <v>4</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>316</v>
+      </c>
+      <c r="V28" s="2">
+        <v>548</v>
+      </c>
+      <c r="W28" s="2">
+        <v>7</v>
+      </c>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>871</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A344871A-65B1-B549-80FC-6C9C18F7DC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A564AA-055E-C94D-B4A8-AB3CBF36DF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="12220" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -301,10 +301,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -385,16 +385,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$28</c:f>
+              <c:f>Data!$E$2:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -475,6 +478,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4585</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,10 +520,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -598,16 +604,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$28</c:f>
+              <c:f>Data!$F$2:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -688,6 +697,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1763</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,10 +739,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -811,16 +823,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$28</c:f>
+              <c:f>Data!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -901,6 +916,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3627</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,10 +1174,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1240,16 +1258,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$28</c:f>
+              <c:f>Data!$K$2:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1329,6 +1350,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1369,10 +1393,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1453,16 +1477,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$28</c:f>
+              <c:f>Data!$N$2:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1542,6 +1569,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1582,10 +1612,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1666,16 +1696,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$28</c:f>
+              <c:f>Data!$J$2:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1755,6 +1788,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2014,10 +2050,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2098,16 +2134,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$28</c:f>
+              <c:f>Data!$M$2:$M$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2187,6 +2226,9 @@
                   <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>222</c:v>
                 </c:pt>
               </c:numCache>
@@ -2227,10 +2269,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2311,16 +2353,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$28</c:f>
+              <c:f>Data!$P$2:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2400,6 +2445,9 @@
                   <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
@@ -2656,10 +2704,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2740,16 +2788,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$28</c:f>
+              <c:f>Data!$R$2:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2830,6 +2881,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,10 +3105,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3135,16 +3189,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$28</c:f>
+              <c:f>Data!$T$2:$T$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3158,6 +3215,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3194,10 +3254,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3278,16 +3338,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$2:$U$28</c:f>
+              <c:f>Data!$U$2:$U$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -3302,6 +3365,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3337,10 +3403,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3421,16 +3487,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$28</c:f>
+              <c:f>Data!$V$2:$V$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -3445,6 +3514,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3480,10 +3552,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3564,16 +3636,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$28</c:f>
+              <c:f>Data!$W$2:$W$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3587,6 +3662,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3625,10 +3703,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$28</c:f>
+              <c:f>Data!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3709,16 +3787,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$X$2:$X$28</c:f>
+              <c:f>Data!$X$2:$X$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -6957,8 +7038,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:Y28" totalsRowShown="0">
-  <autoFilter ref="A1:Y28" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:Y29" totalsRowShown="0">
+  <autoFilter ref="A1:Y29" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="23"/>
@@ -7293,11 +7374,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9379,6 +9460,84 @@
         <v>871</v>
       </c>
     </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B29" s="2">
+        <v>105</v>
+      </c>
+      <c r="C29" s="2">
+        <v>238</v>
+      </c>
+      <c r="D29" s="2">
+        <v>191</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4689</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1773</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3651</v>
+      </c>
+      <c r="H29" s="2">
+        <v>61778</v>
+      </c>
+      <c r="I29" s="2">
+        <v>43332</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>222</v>
+      </c>
+      <c r="M29" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>222</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>159</v>
+      </c>
+      <c r="P29" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>159</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>134</v>
+      </c>
+      <c r="R29" s="2">
+        <v>137</v>
+      </c>
+      <c r="S29" s="2">
+        <v>4</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <v>320</v>
+      </c>
+      <c r="V29" s="2">
+        <v>568</v>
+      </c>
+      <c r="W29" s="2">
+        <v>7</v>
+      </c>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>895</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A564AA-055E-C94D-B4A8-AB3CBF36DF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D746CD-F427-9A4F-BA47-1BE2167002D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="12220" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="1740" yWindow="16760" windowWidth="41120" windowHeight="12220" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -301,10 +301,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -388,16 +388,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$29</c:f>
+              <c:f>Data!$E$2:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -481,6 +484,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4689</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,10 +526,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -607,16 +613,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$29</c:f>
+              <c:f>Data!$F$2:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -700,6 +709,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,10 +751,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -826,16 +838,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$29</c:f>
+              <c:f>Data!$G$2:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -919,6 +934,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,10 +1192,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1261,16 +1279,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$29</c:f>
+              <c:f>Data!$K$2:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1353,6 +1374,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1393,10 +1417,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1480,16 +1504,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$29</c:f>
+              <c:f>Data!$N$2:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1572,6 +1599,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1612,10 +1642,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1699,16 +1729,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$29</c:f>
+              <c:f>Data!$J$2:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1791,6 +1824,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2050,10 +2086,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2137,16 +2173,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$29</c:f>
+              <c:f>Data!$M$2:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2230,6 +2269,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,10 +2311,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2356,16 +2398,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$29</c:f>
+              <c:f>Data!$P$2:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2448,6 +2493,9 @@
                   <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
@@ -2704,10 +2752,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2791,16 +2839,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$29</c:f>
+              <c:f>Data!$R$2:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2883,6 +2934,9 @@
                   <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
@@ -3105,10 +3159,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3192,16 +3246,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$29</c:f>
+              <c:f>Data!$T$2:$T$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3218,6 +3275,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3254,10 +3314,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3341,16 +3401,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$2:$U$29</c:f>
+              <c:f>Data!$U$2:$U$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -3367,6 +3430,9 @@
                   <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>320</c:v>
                 </c:pt>
               </c:numCache>
@@ -3403,10 +3469,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3490,16 +3556,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$29</c:f>
+              <c:f>Data!$V$2:$V$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -3517,6 +3586,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3552,10 +3624,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3639,16 +3711,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$29</c:f>
+              <c:f>Data!$W$2:$W$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3665,6 +3740,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3703,10 +3781,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$29</c:f>
+              <c:f>Data!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3790,16 +3868,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$X$2:$X$29</c:f>
+              <c:f>Data!$X$2:$X$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -7038,8 +7119,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:Y29" totalsRowShown="0">
-  <autoFilter ref="A1:Y29" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:Y30" totalsRowShown="0">
+  <autoFilter ref="A1:Y30" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="23"/>
@@ -7374,11 +7455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W29" sqref="W29"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9538,6 +9619,84 @@
         <v>895</v>
       </c>
     </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44748</v>
+      </c>
+      <c r="B30" s="2">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2">
+        <v>239</v>
+      </c>
+      <c r="D30" s="2">
+        <v>192</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4712</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1776</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3662</v>
+      </c>
+      <c r="H30" s="2">
+        <v>61856</v>
+      </c>
+      <c r="I30" s="2">
+        <v>43366</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>223</v>
+      </c>
+      <c r="M30" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>223</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>159</v>
+      </c>
+      <c r="P30" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>159</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>134</v>
+      </c>
+      <c r="R30" s="2">
+        <v>137</v>
+      </c>
+      <c r="S30" s="2">
+        <v>4</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>320</v>
+      </c>
+      <c r="V30" s="2">
+        <v>578</v>
+      </c>
+      <c r="W30" s="2">
+        <v>7</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>905</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D746CD-F427-9A4F-BA47-1BE2167002D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE2A3B6-A596-0247-8130-D7D0C8874496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="16760" windowWidth="41120" windowHeight="12220" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -301,10 +301,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -391,16 +391,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$30</c:f>
+              <c:f>Data!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -487,6 +490,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4712</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4720</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,10 +532,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -616,16 +622,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$30</c:f>
+              <c:f>Data!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -712,6 +721,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,10 +763,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -841,16 +853,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$30</c:f>
+              <c:f>Data!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -937,6 +952,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3662</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,10 +1210,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1282,16 +1300,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$30</c:f>
+              <c:f>Data!$K$2:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1377,6 +1398,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1417,10 +1441,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1507,16 +1531,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$30</c:f>
+              <c:f>Data!$N$2:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1602,6 +1629,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1642,10 +1672,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1732,16 +1762,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$30</c:f>
+              <c:f>Data!$J$2:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1827,6 +1860,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2086,10 +2122,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2176,16 +2212,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$30</c:f>
+              <c:f>Data!$M$2:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2272,6 +2311,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2311,10 +2353,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2401,16 +2443,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$30</c:f>
+              <c:f>Data!$P$2:$P$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2496,6 +2541,9 @@
                   <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
@@ -2752,10 +2800,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2842,16 +2890,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$30</c:f>
+              <c:f>Data!$R$2:$R$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2938,6 +2989,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3159,10 +3213,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3249,16 +3303,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$30</c:f>
+              <c:f>Data!$T$2:$T$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3278,6 +3335,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3314,10 +3374,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3404,16 +3464,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$2:$U$30</c:f>
+              <c:f>Data!$U$2:$U$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -3434,6 +3497,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3469,10 +3535,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3559,16 +3625,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$30</c:f>
+              <c:f>Data!$V$2:$V$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -3589,6 +3658,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3624,10 +3696,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3714,16 +3786,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$30</c:f>
+              <c:f>Data!$W$2:$W$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3743,6 +3818,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3781,10 +3859,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$30</c:f>
+              <c:f>Data!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3871,16 +3949,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$X$2:$X$30</c:f>
+              <c:f>Data!$X$2:$X$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -7119,8 +7200,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:Y30" totalsRowShown="0">
-  <autoFilter ref="A1:Y30" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:Y31" totalsRowShown="0">
+  <autoFilter ref="A1:Y31" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="23"/>
@@ -7455,11 +7536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9697,6 +9778,84 @@
         <v>905</v>
       </c>
     </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44757</v>
+      </c>
+      <c r="B31" s="2">
+        <v>105</v>
+      </c>
+      <c r="C31" s="2">
+        <v>240</v>
+      </c>
+      <c r="D31" s="2">
+        <v>193</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4720</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1782</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3684</v>
+      </c>
+      <c r="H31" s="2">
+        <v>62189</v>
+      </c>
+      <c r="I31" s="2">
+        <v>43626</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>224</v>
+      </c>
+      <c r="M31" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>224</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>159</v>
+      </c>
+      <c r="P31" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>159</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>134</v>
+      </c>
+      <c r="R31" s="2">
+        <v>138</v>
+      </c>
+      <c r="S31" s="2">
+        <v>4</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>321</v>
+      </c>
+      <c r="V31" s="2">
+        <v>593</v>
+      </c>
+      <c r="W31" s="2">
+        <v>7</v>
+      </c>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>921</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE2A3B6-A596-0247-8130-D7D0C8874496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DB2896-B9B3-BA45-B287-36C702C54626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,27 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>YAML</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>Bash</t>
+  </si>
+  <si>
+    <t>Total2</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +185,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -301,10 +343,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -394,16 +436,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$31</c:f>
+              <c:f>Data!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -492,6 +537,9 @@
                   <c:v>4712</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>4720</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4720</c:v>
                 </c:pt>
               </c:numCache>
@@ -509,7 +557,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$F$1</c:f>
+              <c:f>Data!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -532,10 +580,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -625,16 +673,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$31</c:f>
+              <c:f>Data!$M$2:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -723,6 +774,9 @@
                   <c:v>1776</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>1782</c:v>
                 </c:pt>
               </c:numCache>
@@ -740,7 +794,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$G$1</c:f>
+              <c:f>Data!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -763,10 +817,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -856,16 +910,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$31</c:f>
+              <c:f>Data!$N$2:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -954,6 +1011,9 @@
                   <c:v>3662</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>3684</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>3684</c:v>
                 </c:pt>
               </c:numCache>
@@ -1187,7 +1247,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$K$1</c:f>
+              <c:f>Data!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1210,10 +1270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1303,16 +1363,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$2:$K$31</c:f>
+              <c:f>Data!$R$2:$R$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1401,6 +1464,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1418,7 +1484,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$N$1</c:f>
+              <c:f>Data!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1441,10 +1507,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1534,16 +1600,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$31</c:f>
+              <c:f>Data!$U$2:$U$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1632,6 +1701,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1649,7 +1721,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$J$1</c:f>
+              <c:f>Data!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1672,10 +1744,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1765,16 +1837,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$2:$J$31</c:f>
+              <c:f>Data!$Q$2:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1863,6 +1938,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2099,7 +2177,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$M$1</c:f>
+              <c:f>Data!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2122,10 +2200,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2215,16 +2293,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$31</c:f>
+              <c:f>Data!$T$2:$T$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2313,6 +2394,9 @@
                   <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
@@ -2330,7 +2414,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$P$1</c:f>
+              <c:f>Data!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2353,10 +2437,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2446,16 +2530,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$31</c:f>
+              <c:f>Data!$W$2:$W$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2544,6 +2631,9 @@
                   <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
@@ -2777,7 +2867,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$R$1</c:f>
+              <c:f>Data!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2800,10 +2890,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2893,16 +2983,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$31</c:f>
+              <c:f>Data!$Y$2:$Y$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -2991,6 +3084,9 @@
                   <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>138</c:v>
                 </c:pt>
               </c:numCache>
@@ -3193,7 +3289,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$T$1</c:f>
+              <c:f>Data!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3213,10 +3309,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3306,16 +3402,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$31</c:f>
+              <c:f>Data!$AA$2:$AA$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3338,6 +3437,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3354,7 +3456,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$U$1</c:f>
+              <c:f>Data!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3374,10 +3476,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3467,16 +3569,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$2:$U$31</c:f>
+              <c:f>Data!$AB$2:$AB$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -3499,6 +3604,9 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>321</c:v>
                 </c:pt>
               </c:numCache>
@@ -3515,7 +3623,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$V$1</c:f>
+              <c:f>Data!$AC$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3535,10 +3643,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3628,16 +3736,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$31</c:f>
+              <c:f>Data!$AC$2:$AC$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -3661,6 +3772,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3676,7 +3790,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$W$1</c:f>
+              <c:f>Data!$AD$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3696,10 +3810,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3789,16 +3903,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$31</c:f>
+              <c:f>Data!$AD$2:$AD$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3821,6 +3938,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3837,7 +3957,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$X$1</c:f>
+              <c:f>Data!$AE$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3859,10 +3979,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$31</c:f>
+              <c:f>Data!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3952,16 +4072,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$X$2:$X$31</c:f>
+              <c:f>Data!$AE$2:$AE$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -7200,38 +7323,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:Y31" totalsRowShown="0">
-  <autoFilter ref="A1:Y31" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
-  <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AF32" totalsRowShown="0">
+  <autoFilter ref="A1:AF32" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+  <tableColumns count="32">
+    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="27"/>
+    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="6"/>
+    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="4"/>
+    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="3"/>
+    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="2"/>
+    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="1"/>
+    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Data[[#This Row],[Shell]:[Bash]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="19">
       <calculatedColumnFormula>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="9">
+    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="16">
       <calculatedColumnFormula>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="Total" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="8"/>
+    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="Total2" dataDxfId="7">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Running]:[GH runs]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7536,11 +7668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7550,28 +7682,29 @@
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19" customWidth="1"/>
+    <col min="24" max="24" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7588,67 +7721,88 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AC1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AE1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" t="s">
-        <v>24</v>
+      <c r="AF1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44574</v>
       </c>
@@ -7664,63 +7818,70 @@
       <c r="E2" s="2">
         <v>4368</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2">
         <v>1523</v>
       </c>
-      <c r="G2" s="2">
+      <c r="N2" s="2">
         <v>3195</v>
       </c>
-      <c r="H2" s="2">
+      <c r="O2" s="2">
         <v>57442</v>
       </c>
-      <c r="I2" s="2">
+      <c r="P2" s="2">
         <v>40634</v>
       </c>
-      <c r="J2" s="2">
+      <c r="Q2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="R2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="2">
+      <c r="S2" s="2">
         <v>203</v>
       </c>
-      <c r="M2" s="2">
+      <c r="T2" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="N2" s="2">
+      <c r="U2" s="2">
         <v>0</v>
       </c>
-      <c r="O2" s="2">
+      <c r="V2" s="2">
         <v>135</v>
       </c>
-      <c r="P2" s="2">
+      <c r="W2" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="X2" s="2">
         <v>125</v>
       </c>
-      <c r="R2" s="2">
+      <c r="Y2" s="2">
         <v>122</v>
       </c>
-      <c r="S2" s="2">
+      <c r="Z2" s="2">
         <v>2</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2">
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2">
         <v>541</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AF2" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44578</v>
       </c>
@@ -7736,63 +7897,70 @@
       <c r="E3" s="2">
         <v>4368</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
         <v>1524</v>
       </c>
-      <c r="G3" s="2">
+      <c r="N3" s="2">
         <v>3196</v>
       </c>
-      <c r="H3" s="2">
+      <c r="O3" s="2">
         <v>57422</v>
       </c>
-      <c r="I3" s="2">
+      <c r="P3" s="2">
         <v>40034</v>
       </c>
-      <c r="J3" s="2">
+      <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="2">
+      <c r="R3" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="S3" s="2">
         <v>203</v>
       </c>
-      <c r="M3" s="2">
+      <c r="T3" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="N3" s="2">
+      <c r="U3" s="2">
         <v>0</v>
       </c>
-      <c r="O3" s="2">
+      <c r="V3" s="2">
         <v>135</v>
       </c>
-      <c r="P3" s="2">
+      <c r="W3" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="X3" s="2">
         <v>125</v>
       </c>
-      <c r="R3" s="2">
+      <c r="Y3" s="2">
         <v>122</v>
       </c>
-      <c r="S3" s="2">
+      <c r="Z3" s="2">
         <v>2</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2">
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
         <v>542</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AF3" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44580</v>
       </c>
@@ -7808,63 +7976,70 @@
       <c r="E4" s="2">
         <v>4368</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
         <v>1525</v>
       </c>
-      <c r="G4" s="2">
+      <c r="N4" s="2">
         <v>3197</v>
       </c>
-      <c r="H4" s="2">
+      <c r="O4" s="2">
         <v>57422</v>
       </c>
-      <c r="I4" s="2">
+      <c r="P4" s="2">
         <v>40634</v>
       </c>
-      <c r="J4" s="2">
+      <c r="Q4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="R4" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
+      <c r="S4" s="2">
         <v>203</v>
       </c>
-      <c r="M4" s="2">
+      <c r="T4" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="N4" s="2">
+      <c r="U4" s="2">
         <v>0</v>
       </c>
-      <c r="O4" s="2">
+      <c r="V4" s="2">
         <v>135</v>
       </c>
-      <c r="P4" s="2">
+      <c r="W4" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="X4" s="2">
         <v>125</v>
       </c>
-      <c r="R4" s="2">
+      <c r="Y4" s="2">
         <v>122</v>
       </c>
-      <c r="S4" s="2">
+      <c r="Z4" s="2">
         <v>2</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2">
         <v>543</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AF4" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44588</v>
       </c>
@@ -7880,63 +8055,70 @@
       <c r="E5" s="2">
         <v>4368</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
         <v>1531</v>
       </c>
-      <c r="G5" s="2">
+      <c r="N5" s="2">
         <v>3207</v>
       </c>
-      <c r="H5" s="2">
+      <c r="O5" s="2">
         <v>57794</v>
       </c>
-      <c r="I5" s="2">
+      <c r="P5" s="2">
         <v>40652</v>
       </c>
-      <c r="J5" s="2">
+      <c r="Q5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="2">
+      <c r="R5" s="2">
         <v>0</v>
       </c>
-      <c r="L5" s="2">
+      <c r="S5" s="2">
         <v>203</v>
       </c>
-      <c r="M5" s="2">
+      <c r="T5" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="N5" s="2">
+      <c r="U5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" s="2">
+      <c r="V5" s="2">
         <v>135</v>
       </c>
-      <c r="P5" s="2">
+      <c r="W5" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="X5" s="2">
         <v>125</v>
       </c>
-      <c r="R5" s="2">
+      <c r="Y5" s="2">
         <v>122</v>
       </c>
-      <c r="S5" s="2">
+      <c r="Z5" s="2">
         <v>3</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2">
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2">
         <v>550</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AF5" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44593</v>
       </c>
@@ -7952,63 +8134,70 @@
       <c r="E6" s="2">
         <v>4379</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
         <v>1539</v>
       </c>
-      <c r="G6" s="2">
+      <c r="N6" s="2">
         <v>3224</v>
       </c>
-      <c r="H6" s="2">
+      <c r="O6" s="2">
         <v>57859</v>
       </c>
-      <c r="I6" s="2">
+      <c r="P6" s="2">
         <v>40677</v>
       </c>
-      <c r="J6" s="2">
+      <c r="Q6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="R6" s="2">
         <v>0</v>
       </c>
-      <c r="L6" s="2">
+      <c r="S6" s="2">
         <v>203</v>
       </c>
-      <c r="M6" s="2">
+      <c r="T6" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="N6" s="2">
+      <c r="U6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="2">
+      <c r="V6" s="2">
         <v>135</v>
       </c>
-      <c r="P6" s="2">
+      <c r="W6" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="X6" s="2">
         <v>125</v>
       </c>
-      <c r="R6" s="2">
+      <c r="Y6" s="2">
         <v>122</v>
       </c>
-      <c r="S6" s="2">
+      <c r="Z6" s="2">
         <v>3</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2">
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2">
         <v>561</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AF6" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44602</v>
       </c>
@@ -8024,63 +8213,70 @@
       <c r="E7" s="2">
         <v>4381</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
         <v>1559</v>
       </c>
-      <c r="G7" s="2">
+      <c r="N7" s="2">
         <v>3265</v>
       </c>
-      <c r="H7" s="2">
+      <c r="O7" s="2">
         <v>58868</v>
       </c>
-      <c r="I7" s="2">
+      <c r="P7" s="2">
         <v>41555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="Q7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="2">
+      <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="2">
+      <c r="S7" s="2">
         <v>204</v>
       </c>
-      <c r="M7" s="2">
+      <c r="T7" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="N7" s="2">
+      <c r="U7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="2">
+      <c r="V7" s="2">
         <v>135</v>
       </c>
-      <c r="P7" s="2">
+      <c r="W7" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="X7" s="2">
         <v>125</v>
       </c>
-      <c r="R7" s="2">
+      <c r="Y7" s="2">
         <v>122</v>
       </c>
-      <c r="S7" s="2">
+      <c r="Z7" s="2">
         <v>3</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
         <v>586</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AF7" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44610</v>
       </c>
@@ -8096,63 +8292,70 @@
       <c r="E8" s="2">
         <v>4399</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
         <v>1568</v>
       </c>
-      <c r="G8" s="2">
+      <c r="N8" s="2">
         <v>3286</v>
       </c>
-      <c r="H8" s="2">
+      <c r="O8" s="2">
         <v>58985</v>
       </c>
-      <c r="I8" s="2">
+      <c r="P8" s="2">
         <v>41600</v>
       </c>
-      <c r="J8" s="2">
+      <c r="Q8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="2">
+      <c r="R8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="2">
+      <c r="S8" s="2">
         <v>208</v>
       </c>
-      <c r="M8" s="2">
+      <c r="T8" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>208</v>
       </c>
-      <c r="N8" s="2">
+      <c r="U8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="2">
+      <c r="V8" s="2">
         <v>135</v>
       </c>
-      <c r="P8" s="2">
+      <c r="W8" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="X8" s="2">
         <v>125</v>
       </c>
-      <c r="R8" s="2">
+      <c r="Y8" s="2">
         <v>122</v>
       </c>
-      <c r="S8" s="2">
+      <c r="Z8" s="2">
         <v>3</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2">
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2">
         <v>595</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AF8" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44613</v>
       </c>
@@ -8168,63 +8371,70 @@
       <c r="E9" s="2">
         <v>4413</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
         <v>1571</v>
       </c>
-      <c r="G9" s="2">
+      <c r="N9" s="2">
         <v>3298</v>
       </c>
-      <c r="H9" s="2">
+      <c r="O9" s="2">
         <v>59170</v>
       </c>
-      <c r="I9" s="2">
+      <c r="P9" s="2">
         <v>41754</v>
       </c>
-      <c r="J9" s="2">
+      <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="2">
+      <c r="R9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="2">
+      <c r="S9" s="2">
         <v>208</v>
       </c>
-      <c r="M9" s="2">
+      <c r="T9" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>208</v>
       </c>
-      <c r="N9" s="2">
+      <c r="U9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="2">
+      <c r="V9" s="2">
         <v>135</v>
       </c>
-      <c r="P9" s="2">
+      <c r="W9" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="X9" s="2">
         <v>126</v>
       </c>
-      <c r="R9" s="2">
+      <c r="Y9" s="2">
         <v>122</v>
       </c>
-      <c r="S9" s="2">
+      <c r="Z9" s="2">
         <v>3</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2">
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2">
         <v>601</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AF9" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44636</v>
       </c>
@@ -8240,63 +8450,70 @@
       <c r="E10" s="2">
         <v>4430</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
         <v>1598</v>
       </c>
-      <c r="G10" s="2">
+      <c r="N10" s="2">
         <v>3339</v>
       </c>
-      <c r="H10" s="2">
+      <c r="O10" s="2">
         <v>59371</v>
       </c>
-      <c r="I10" s="2">
+      <c r="P10" s="2">
         <v>41908</v>
       </c>
-      <c r="J10" s="2">
+      <c r="Q10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="R10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="2">
+      <c r="S10" s="2">
         <v>209</v>
       </c>
-      <c r="M10" s="2">
+      <c r="T10" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>209</v>
       </c>
-      <c r="N10" s="2">
+      <c r="U10" s="2">
         <v>0</v>
       </c>
-      <c r="O10" s="2">
+      <c r="V10" s="2">
         <v>141</v>
       </c>
-      <c r="P10" s="2">
+      <c r="W10" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>141</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="X10" s="2">
         <v>126</v>
       </c>
-      <c r="R10" s="2">
+      <c r="Y10" s="2">
         <v>122</v>
       </c>
-      <c r="S10" s="2">
+      <c r="Z10" s="2">
         <v>3</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2">
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2">
         <v>632</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AF10" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>632</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44645</v>
       </c>
@@ -8312,63 +8529,70 @@
       <c r="E11" s="2">
         <v>4432</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
         <v>1627</v>
       </c>
-      <c r="G11" s="2">
+      <c r="N11" s="2">
         <v>3375</v>
       </c>
-      <c r="H11" s="2">
+      <c r="O11" s="2">
         <v>59655</v>
       </c>
-      <c r="I11" s="2">
+      <c r="P11" s="2">
         <v>42123</v>
       </c>
-      <c r="J11" s="2">
+      <c r="Q11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" s="2">
+      <c r="R11" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="2">
+      <c r="S11" s="2">
         <v>214</v>
       </c>
-      <c r="M11" s="2">
+      <c r="T11" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
-      <c r="N11" s="2">
+      <c r="U11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="2">
+      <c r="V11" s="2">
         <v>148</v>
       </c>
-      <c r="P11" s="2">
+      <c r="W11" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="X11" s="2">
         <v>127</v>
       </c>
-      <c r="R11" s="2">
+      <c r="Y11" s="2">
         <v>128</v>
       </c>
-      <c r="S11" s="2">
+      <c r="Z11" s="2">
         <v>3</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2">
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2">
         <v>661</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AF11" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>661</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44657</v>
       </c>
@@ -8384,63 +8608,70 @@
       <c r="E12" s="2">
         <v>4434</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
         <v>1632</v>
       </c>
-      <c r="G12" s="2">
+      <c r="N12" s="2">
         <v>3387</v>
       </c>
-      <c r="H12" s="2">
+      <c r="O12" s="2">
         <v>59702</v>
       </c>
-      <c r="I12" s="2">
+      <c r="P12" s="2">
         <v>42156</v>
       </c>
-      <c r="J12" s="2">
+      <c r="Q12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" s="2">
+      <c r="R12" s="2">
         <v>1</v>
       </c>
-      <c r="L12" s="2">
+      <c r="S12" s="2">
         <v>214</v>
       </c>
-      <c r="M12" s="2">
+      <c r="T12" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
-      <c r="N12" s="2">
+      <c r="U12" s="2">
         <v>0</v>
       </c>
-      <c r="O12" s="2">
+      <c r="V12" s="2">
         <v>148</v>
       </c>
-      <c r="P12" s="2">
+      <c r="W12" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="X12" s="2">
         <v>127</v>
       </c>
-      <c r="R12" s="2">
+      <c r="Y12" s="2">
         <v>131</v>
       </c>
-      <c r="S12" s="2">
+      <c r="Z12" s="2">
         <v>3</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2">
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2">
         <v>669</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AF12" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>669</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44664</v>
       </c>
@@ -8456,63 +8687,70 @@
       <c r="E13" s="2">
         <v>4454</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
         <v>1637</v>
       </c>
-      <c r="G13" s="2">
+      <c r="N13" s="2">
         <v>3406</v>
       </c>
-      <c r="H13" s="2">
+      <c r="O13" s="2">
         <v>60308</v>
       </c>
-      <c r="I13" s="2">
+      <c r="P13" s="2">
         <v>42743</v>
       </c>
-      <c r="J13" s="2">
+      <c r="Q13" s="2">
         <v>1</v>
       </c>
-      <c r="K13" s="2">
+      <c r="R13" s="2">
         <v>1</v>
       </c>
-      <c r="L13" s="2">
+      <c r="S13" s="2">
         <v>214</v>
       </c>
-      <c r="M13" s="2">
+      <c r="T13" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
-      <c r="N13" s="2">
+      <c r="U13" s="2">
         <v>0</v>
       </c>
-      <c r="O13" s="2">
+      <c r="V13" s="2">
         <v>148</v>
       </c>
-      <c r="P13" s="2">
+      <c r="W13" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="X13" s="2">
         <v>128</v>
       </c>
-      <c r="R13" s="2">
+      <c r="Y13" s="2">
         <v>131</v>
       </c>
-      <c r="S13" s="2">
+      <c r="Z13" s="2">
         <v>3</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2">
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2">
         <v>677</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="AF13" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44676</v>
       </c>
@@ -8528,63 +8766,70 @@
       <c r="E14" s="2">
         <v>4453</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
         <v>1647</v>
       </c>
-      <c r="G14" s="2">
+      <c r="N14" s="2">
         <v>3424</v>
       </c>
-      <c r="H14" s="2">
+      <c r="O14" s="2">
         <v>60352</v>
       </c>
-      <c r="I14" s="2">
+      <c r="P14" s="2">
         <v>42776</v>
       </c>
-      <c r="J14" s="2">
+      <c r="Q14" s="2">
         <v>2</v>
       </c>
-      <c r="K14" s="2">
+      <c r="R14" s="2">
         <v>2</v>
       </c>
-      <c r="L14" s="2">
+      <c r="S14" s="2">
         <v>215</v>
       </c>
-      <c r="M14" s="2">
+      <c r="T14" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>217</v>
       </c>
-      <c r="N14" s="2">
+      <c r="U14" s="2">
         <v>0</v>
       </c>
-      <c r="O14" s="2">
+      <c r="V14" s="2">
         <v>148</v>
       </c>
-      <c r="P14" s="2">
+      <c r="W14" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="X14" s="2">
         <v>128</v>
       </c>
-      <c r="R14" s="2">
+      <c r="Y14" s="2">
         <v>131</v>
       </c>
-      <c r="S14" s="2">
+      <c r="Z14" s="2">
         <v>3</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2">
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2">
         <v>685</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="AF14" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44678</v>
       </c>
@@ -8600,63 +8845,70 @@
       <c r="E15" s="2">
         <v>4461</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
         <v>1652</v>
       </c>
-      <c r="G15" s="2">
+      <c r="N15" s="2">
         <v>3430</v>
       </c>
-      <c r="H15" s="2">
+      <c r="O15" s="2">
         <v>60372</v>
       </c>
-      <c r="I15" s="2">
+      <c r="P15" s="2">
         <v>42778</v>
       </c>
-      <c r="J15" s="2">
+      <c r="Q15" s="2">
         <v>1</v>
       </c>
-      <c r="K15" s="2">
+      <c r="R15" s="2">
         <v>1</v>
       </c>
-      <c r="L15" s="2">
+      <c r="S15" s="2">
         <v>216</v>
       </c>
-      <c r="M15" s="2">
+      <c r="T15" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>217</v>
       </c>
-      <c r="N15" s="2">
+      <c r="U15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="2">
+      <c r="V15" s="2">
         <v>149</v>
       </c>
-      <c r="P15" s="2">
+      <c r="W15" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="X15" s="2">
         <v>128</v>
       </c>
-      <c r="R15" s="2">
+      <c r="Y15" s="2">
         <v>131</v>
       </c>
-      <c r="S15" s="2">
+      <c r="Z15" s="2">
         <v>3</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2">
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2">
         <v>690</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AF15" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>690</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44679</v>
       </c>
@@ -8672,63 +8924,70 @@
       <c r="E16" s="2">
         <v>4462</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
         <v>1660</v>
       </c>
-      <c r="G16" s="2">
+      <c r="N16" s="2">
         <v>3444</v>
       </c>
-      <c r="H16" s="2">
+      <c r="O16" s="2">
         <v>60431</v>
       </c>
-      <c r="I16" s="2">
+      <c r="P16" s="2">
         <v>42791</v>
       </c>
-      <c r="J16" s="2">
+      <c r="Q16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="2">
+      <c r="R16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="2">
+      <c r="S16" s="2">
         <v>217</v>
       </c>
-      <c r="M16" s="2">
+      <c r="T16" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>218</v>
       </c>
-      <c r="N16" s="2">
+      <c r="U16" s="2">
         <v>0</v>
       </c>
-      <c r="O16" s="2">
+      <c r="V16" s="2">
         <v>149</v>
       </c>
-      <c r="P16" s="2">
+      <c r="W16" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="X16" s="2">
         <v>128</v>
       </c>
-      <c r="R16" s="2">
+      <c r="Y16" s="2">
         <v>132</v>
       </c>
-      <c r="S16" s="2">
+      <c r="Z16" s="2">
         <v>3</v>
       </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2">
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2">
         <v>700</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="AF16" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44686</v>
       </c>
@@ -8744,63 +9003,70 @@
       <c r="E17" s="2">
         <v>4454</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
         <v>1670</v>
       </c>
-      <c r="G17" s="2">
+      <c r="N17" s="2">
         <v>3473</v>
       </c>
-      <c r="H17" s="2">
+      <c r="O17" s="2">
         <v>60537</v>
       </c>
-      <c r="I17" s="2">
+      <c r="P17" s="2">
         <v>42889</v>
       </c>
-      <c r="J17" s="2">
+      <c r="Q17" s="2">
         <v>1</v>
       </c>
-      <c r="K17" s="2">
+      <c r="R17" s="2">
         <v>1</v>
       </c>
-      <c r="L17" s="2">
+      <c r="S17" s="2">
         <v>218</v>
       </c>
-      <c r="M17" s="2">
+      <c r="T17" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
-      <c r="N17" s="2">
+      <c r="U17" s="2">
         <v>0</v>
       </c>
-      <c r="O17" s="2">
+      <c r="V17" s="2">
         <v>149</v>
       </c>
-      <c r="P17" s="2">
+      <c r="W17" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="X17" s="2">
         <v>128</v>
       </c>
-      <c r="R17" s="2">
+      <c r="Y17" s="2">
         <v>132</v>
       </c>
-      <c r="S17" s="2">
+      <c r="Z17" s="2">
         <v>3</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2">
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2">
         <v>714</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="AF17" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44691</v>
       </c>
@@ -8816,63 +9082,70 @@
       <c r="E18" s="2">
         <v>4454</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
         <v>1676</v>
       </c>
-      <c r="G18" s="2">
+      <c r="N18" s="2">
         <v>3481</v>
       </c>
-      <c r="H18" s="2">
+      <c r="O18" s="2">
         <v>60564</v>
       </c>
-      <c r="I18" s="2">
+      <c r="P18" s="2">
         <v>42903</v>
       </c>
-      <c r="J18" s="2">
+      <c r="Q18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" s="2">
+      <c r="R18" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="2">
+      <c r="S18" s="2">
         <v>218</v>
       </c>
-      <c r="M18" s="2">
+      <c r="T18" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
-      <c r="N18" s="2">
+      <c r="U18" s="2">
         <v>0</v>
       </c>
-      <c r="O18" s="2">
+      <c r="V18" s="2">
         <v>150</v>
       </c>
-      <c r="P18" s="2">
+      <c r="W18" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>150</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="X18" s="2">
         <v>128</v>
       </c>
-      <c r="R18" s="2">
+      <c r="Y18" s="2">
         <v>132</v>
       </c>
-      <c r="S18" s="2">
+      <c r="Z18" s="2">
         <v>3</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2">
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2">
         <v>721</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="AF18" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>721</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44705</v>
       </c>
@@ -8888,63 +9161,70 @@
       <c r="E19" s="2">
         <v>4470</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
         <v>1695</v>
       </c>
-      <c r="G19" s="2">
+      <c r="N19" s="2">
         <v>3500</v>
       </c>
-      <c r="H19" s="2">
+      <c r="O19" s="2">
         <v>60613</v>
       </c>
-      <c r="I19" s="2">
+      <c r="P19" s="2">
         <v>42943</v>
       </c>
-      <c r="J19" s="2">
+      <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="K19" s="2">
+      <c r="R19" s="2">
         <v>1</v>
       </c>
-      <c r="L19" s="2">
+      <c r="S19" s="2">
         <v>218</v>
       </c>
-      <c r="M19" s="2">
+      <c r="T19" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
-      <c r="N19" s="2">
+      <c r="U19" s="2">
         <v>2</v>
       </c>
-      <c r="O19" s="2">
+      <c r="V19" s="2">
         <v>154</v>
       </c>
-      <c r="P19" s="2">
+      <c r="W19" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="X19" s="2">
         <v>128</v>
       </c>
-      <c r="R19" s="2">
+      <c r="Y19" s="2">
         <v>131</v>
       </c>
-      <c r="S19" s="2">
+      <c r="Z19" s="2">
         <v>4</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2">
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2">
         <v>748</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="AF19" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>748</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44707</v>
       </c>
@@ -8960,63 +9240,70 @@
       <c r="E20" s="2">
         <v>4506</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
         <v>1699</v>
       </c>
-      <c r="G20" s="2">
+      <c r="N20" s="2">
         <v>3520</v>
       </c>
-      <c r="H20" s="2">
+      <c r="O20" s="2">
         <v>60719</v>
       </c>
-      <c r="I20" s="2">
+      <c r="P20" s="2">
         <v>42953</v>
       </c>
-      <c r="J20" s="2">
+      <c r="Q20" s="2">
         <v>1</v>
       </c>
-      <c r="K20" s="2">
+      <c r="R20" s="2">
         <v>1</v>
       </c>
-      <c r="L20" s="2">
+      <c r="S20" s="2">
         <v>219</v>
       </c>
-      <c r="M20" s="2">
+      <c r="T20" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="N20" s="2">
+      <c r="U20" s="2">
         <v>1</v>
       </c>
-      <c r="O20" s="2">
+      <c r="V20" s="2">
         <v>155</v>
       </c>
-      <c r="P20" s="2">
+      <c r="W20" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="X20" s="2">
         <v>131</v>
       </c>
-      <c r="R20" s="2">
+      <c r="Y20" s="2">
         <v>132</v>
       </c>
-      <c r="S20" s="2">
+      <c r="Z20" s="2">
         <v>4</v>
       </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2">
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2">
         <v>754</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="AF20" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>754</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44710</v>
       </c>
@@ -9032,63 +9319,70 @@
       <c r="E21" s="2">
         <v>4504</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2">
         <v>1718</v>
       </c>
-      <c r="G21" s="2">
+      <c r="N21" s="2">
         <v>3546</v>
       </c>
-      <c r="H21" s="2">
+      <c r="O21" s="2">
         <v>61044</v>
       </c>
-      <c r="I21" s="2">
+      <c r="P21" s="2">
         <v>43112</v>
       </c>
-      <c r="J21" s="2">
+      <c r="Q21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" s="2">
+      <c r="R21" s="2">
         <v>1</v>
       </c>
-      <c r="L21" s="2">
+      <c r="S21" s="2">
         <v>219</v>
       </c>
-      <c r="M21" s="2">
+      <c r="T21" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="N21" s="2">
+      <c r="U21" s="2">
         <v>0</v>
       </c>
-      <c r="O21" s="2">
+      <c r="V21" s="2">
         <v>156</v>
       </c>
-      <c r="P21" s="2">
+      <c r="W21" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="X21" s="2">
         <v>131</v>
       </c>
-      <c r="R21" s="2">
+      <c r="Y21" s="2">
         <v>132</v>
       </c>
-      <c r="S21" s="2">
+      <c r="Z21" s="2">
         <v>4</v>
       </c>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2">
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2">
         <v>773</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="AF21" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>773</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44713</v>
       </c>
@@ -9104,63 +9398,70 @@
       <c r="E22" s="2">
         <v>4504</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2">
         <v>1723</v>
       </c>
-      <c r="G22" s="2">
+      <c r="N22" s="2">
         <v>3559</v>
       </c>
-      <c r="H22" s="2">
+      <c r="O22" s="2">
         <v>61077</v>
       </c>
-      <c r="I22" s="2">
+      <c r="P22" s="2">
         <v>43133</v>
       </c>
-      <c r="J22" s="2">
+      <c r="Q22" s="2">
         <v>1</v>
       </c>
-      <c r="K22" s="2">
+      <c r="R22" s="2">
         <v>1</v>
       </c>
-      <c r="L22" s="2">
+      <c r="S22" s="2">
         <v>219</v>
       </c>
-      <c r="M22" s="2">
+      <c r="T22" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="N22" s="2">
+      <c r="U22" s="2">
         <v>0</v>
       </c>
-      <c r="O22" s="2">
+      <c r="V22" s="2">
         <v>157</v>
       </c>
-      <c r="P22" s="2">
+      <c r="W22" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="X22" s="2">
         <v>131</v>
       </c>
-      <c r="R22" s="2">
+      <c r="Y22" s="2">
         <v>132</v>
       </c>
-      <c r="S22" s="2">
+      <c r="Z22" s="2">
         <v>4</v>
       </c>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2">
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2">
         <v>787</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="AF22" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>787</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44714</v>
       </c>
@@ -9176,63 +9477,70 @@
       <c r="E23" s="2">
         <v>4504</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2">
         <v>1724</v>
       </c>
-      <c r="G23" s="2">
+      <c r="N23" s="2">
         <v>3560</v>
       </c>
-      <c r="H23" s="2">
+      <c r="O23" s="2">
         <v>61077</v>
       </c>
-      <c r="I23" s="2">
+      <c r="P23" s="2">
         <v>43133</v>
       </c>
-      <c r="J23" s="2">
+      <c r="Q23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="2">
+      <c r="R23" s="2">
         <v>0</v>
       </c>
-      <c r="L23" s="2">
+      <c r="S23" s="2">
         <v>220</v>
       </c>
-      <c r="M23" s="2">
+      <c r="T23" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="N23" s="2">
+      <c r="U23" s="2">
         <v>0</v>
       </c>
-      <c r="O23" s="2">
+      <c r="V23" s="2">
         <v>157</v>
       </c>
-      <c r="P23" s="2">
+      <c r="W23" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="X23" s="2">
         <v>131</v>
       </c>
-      <c r="R23" s="2">
+      <c r="Y23" s="2">
         <v>132</v>
       </c>
-      <c r="S23" s="2">
+      <c r="Z23" s="2">
         <v>4</v>
       </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2">
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2">
         <v>789</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="AF23" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44715</v>
       </c>
@@ -9248,69 +9556,76 @@
       <c r="E24" s="2">
         <v>4510</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2">
         <v>1728</v>
       </c>
-      <c r="G24" s="2">
+      <c r="N24" s="2">
         <v>3565</v>
       </c>
-      <c r="H24" s="2">
+      <c r="O24" s="2">
         <v>61091</v>
       </c>
-      <c r="I24" s="2">
+      <c r="P24" s="2">
         <v>43136</v>
       </c>
-      <c r="J24" s="2">
+      <c r="Q24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="2">
+      <c r="R24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="2">
+      <c r="S24" s="2">
         <v>220</v>
       </c>
-      <c r="M24" s="2">
+      <c r="T24" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="N24" s="2">
+      <c r="U24" s="2">
         <v>0</v>
       </c>
-      <c r="O24" s="2">
+      <c r="V24" s="2">
         <v>157</v>
       </c>
-      <c r="P24" s="2">
+      <c r="W24" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="X24" s="2">
         <v>131</v>
       </c>
-      <c r="R24" s="2">
+      <c r="Y24" s="2">
         <v>132</v>
       </c>
-      <c r="S24" s="2">
+      <c r="Z24" s="2">
         <v>4</v>
       </c>
-      <c r="T24" s="2">
+      <c r="AA24" s="2">
         <v>0</v>
       </c>
-      <c r="U24" s="2">
+      <c r="AB24" s="2">
         <v>302</v>
       </c>
-      <c r="V24" s="2">
+      <c r="AC24" s="2">
         <v>488</v>
       </c>
-      <c r="W24" s="2">
+      <c r="AD24" s="2">
         <v>7</v>
       </c>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2">
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>797</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44723</v>
       </c>
@@ -9326,69 +9641,76 @@
       <c r="E25" s="2">
         <v>4510</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2">
         <v>1733</v>
       </c>
-      <c r="G25" s="2">
+      <c r="N25" s="2">
         <v>3579</v>
       </c>
-      <c r="H25" s="2">
+      <c r="O25" s="2">
         <v>61141</v>
       </c>
-      <c r="I25" s="2">
+      <c r="P25" s="2">
         <v>43154</v>
       </c>
-      <c r="J25" s="2">
+      <c r="Q25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="2">
+      <c r="R25" s="2">
         <v>0</v>
       </c>
-      <c r="L25" s="2">
+      <c r="S25" s="2">
         <v>221</v>
       </c>
-      <c r="M25" s="2">
+      <c r="T25" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
-      <c r="N25" s="2">
+      <c r="U25" s="2">
         <v>0</v>
       </c>
-      <c r="O25" s="2">
+      <c r="V25" s="2">
         <v>158</v>
       </c>
-      <c r="P25" s="2">
+      <c r="W25" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>158</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="X25" s="2">
         <v>131</v>
       </c>
-      <c r="R25" s="2">
+      <c r="Y25" s="2">
         <v>132</v>
       </c>
-      <c r="S25" s="2">
+      <c r="Z25" s="2">
         <v>4</v>
       </c>
-      <c r="T25" s="2">
+      <c r="AA25" s="2">
         <v>0</v>
       </c>
-      <c r="U25" s="2">
+      <c r="AB25" s="2">
         <v>304</v>
       </c>
-      <c r="V25" s="2">
+      <c r="AC25" s="2">
         <v>501</v>
       </c>
-      <c r="W25" s="2">
+      <c r="AD25" s="2">
         <v>7</v>
       </c>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2">
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>812</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44725</v>
       </c>
@@ -9404,69 +9726,76 @@
       <c r="E26" s="2">
         <v>4510</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2">
         <v>1743</v>
       </c>
-      <c r="G26" s="2">
+      <c r="N26" s="2">
         <v>3590</v>
       </c>
-      <c r="H26" s="2">
+      <c r="O26" s="2">
         <v>61156</v>
       </c>
-      <c r="I26" s="2">
+      <c r="P26" s="2">
         <v>43168</v>
       </c>
-      <c r="J26" s="2">
+      <c r="Q26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="2">
+      <c r="R26" s="2">
         <v>0</v>
       </c>
-      <c r="L26" s="2">
+      <c r="S26" s="2">
         <v>221</v>
       </c>
-      <c r="M26" s="2">
+      <c r="T26" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
-      <c r="N26" s="2">
+      <c r="U26" s="2">
         <v>0</v>
       </c>
-      <c r="O26" s="2">
+      <c r="V26" s="2">
         <v>159</v>
       </c>
-      <c r="P26" s="2">
+      <c r="W26" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="X26" s="2">
         <v>131</v>
       </c>
-      <c r="R26" s="2">
+      <c r="Y26" s="2">
         <v>132</v>
       </c>
-      <c r="S26" s="2">
+      <c r="Z26" s="2">
         <v>4</v>
       </c>
-      <c r="T26" s="2">
+      <c r="AA26" s="2">
         <v>0</v>
       </c>
-      <c r="U26" s="2">
+      <c r="AB26" s="2">
         <v>305</v>
       </c>
-      <c r="V26" s="2">
+      <c r="AC26" s="2">
         <v>517</v>
       </c>
-      <c r="W26" s="2">
+      <c r="AD26" s="2">
         <v>7</v>
       </c>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2">
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>829</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44727</v>
       </c>
@@ -9482,69 +9811,76 @@
       <c r="E27" s="2">
         <v>4515</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2">
         <v>1758</v>
       </c>
-      <c r="G27" s="2">
+      <c r="N27" s="2">
         <v>3610</v>
       </c>
-      <c r="H27" s="2">
+      <c r="O27" s="2">
         <v>61388</v>
       </c>
-      <c r="I27" s="2">
+      <c r="P27" s="2">
         <v>43266</v>
       </c>
-      <c r="J27" s="2">
+      <c r="Q27" s="2">
         <v>0</v>
       </c>
-      <c r="K27" s="2">
+      <c r="R27" s="2">
         <v>0</v>
       </c>
-      <c r="L27" s="2">
+      <c r="S27" s="2">
         <v>221</v>
       </c>
-      <c r="M27" s="2">
+      <c r="T27" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
-      <c r="N27" s="2">
+      <c r="U27" s="2">
         <v>0</v>
       </c>
-      <c r="O27" s="2">
+      <c r="V27" s="2">
         <v>159</v>
       </c>
-      <c r="P27" s="2">
+      <c r="W27" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="X27" s="2">
         <v>131</v>
       </c>
-      <c r="R27" s="2">
+      <c r="Y27" s="2">
         <v>132</v>
       </c>
-      <c r="S27" s="2">
+      <c r="Z27" s="2">
         <v>4</v>
       </c>
-      <c r="T27" s="2">
+      <c r="AA27" s="2">
         <v>0</v>
       </c>
-      <c r="U27" s="2">
+      <c r="AB27" s="2">
         <v>314</v>
       </c>
-      <c r="V27" s="2">
+      <c r="AC27" s="2">
         <v>536</v>
       </c>
-      <c r="W27" s="2">
+      <c r="AD27" s="2">
         <v>7</v>
       </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2">
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>857</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44729</v>
       </c>
@@ -9560,69 +9896,76 @@
       <c r="E28" s="2">
         <v>4585</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2">
         <v>1763</v>
       </c>
-      <c r="G28" s="2">
+      <c r="N28" s="2">
         <v>3627</v>
       </c>
-      <c r="H28" s="2">
+      <c r="O28" s="2">
         <v>61547</v>
       </c>
-      <c r="I28" s="2">
+      <c r="P28" s="2">
         <v>43284</v>
       </c>
-      <c r="J28" s="2">
+      <c r="Q28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="2">
+      <c r="R28" s="2">
         <v>0</v>
       </c>
-      <c r="L28" s="2">
+      <c r="S28" s="2">
         <v>222</v>
       </c>
-      <c r="M28" s="2">
+      <c r="T28" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>222</v>
       </c>
-      <c r="N28" s="2">
+      <c r="U28" s="2">
         <v>0</v>
       </c>
-      <c r="O28" s="2">
+      <c r="V28" s="2">
         <v>159</v>
       </c>
-      <c r="P28" s="2">
+      <c r="W28" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="X28" s="2">
         <v>133</v>
       </c>
-      <c r="R28" s="2">
+      <c r="Y28" s="2">
         <v>135</v>
       </c>
-      <c r="S28" s="2">
+      <c r="Z28" s="2">
         <v>4</v>
       </c>
-      <c r="T28" s="2">
+      <c r="AA28" s="2">
         <v>0</v>
       </c>
-      <c r="U28" s="2">
+      <c r="AB28" s="2">
         <v>316</v>
       </c>
-      <c r="V28" s="2">
+      <c r="AC28" s="2">
         <v>548</v>
       </c>
-      <c r="W28" s="2">
+      <c r="AD28" s="2">
         <v>7</v>
       </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2">
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>871</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44743</v>
       </c>
@@ -9638,69 +9981,76 @@
       <c r="E29" s="2">
         <v>4689</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2">
         <v>1773</v>
       </c>
-      <c r="G29" s="2">
+      <c r="N29" s="2">
         <v>3651</v>
       </c>
-      <c r="H29" s="2">
+      <c r="O29" s="2">
         <v>61778</v>
       </c>
-      <c r="I29" s="2">
+      <c r="P29" s="2">
         <v>43332</v>
       </c>
-      <c r="J29" s="2">
+      <c r="Q29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="2">
+      <c r="R29" s="2">
         <v>0</v>
       </c>
-      <c r="L29" s="2">
+      <c r="S29" s="2">
         <v>222</v>
       </c>
-      <c r="M29" s="2">
+      <c r="T29" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>222</v>
       </c>
-      <c r="N29" s="2">
+      <c r="U29" s="2">
         <v>0</v>
       </c>
-      <c r="O29" s="2">
+      <c r="V29" s="2">
         <v>159</v>
       </c>
-      <c r="P29" s="2">
+      <c r="W29" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="X29" s="2">
         <v>134</v>
       </c>
-      <c r="R29" s="2">
+      <c r="Y29" s="2">
         <v>137</v>
       </c>
-      <c r="S29" s="2">
+      <c r="Z29" s="2">
         <v>4</v>
       </c>
-      <c r="T29" s="2">
+      <c r="AA29" s="2">
         <v>0</v>
       </c>
-      <c r="U29" s="2">
+      <c r="AB29" s="2">
         <v>320</v>
       </c>
-      <c r="V29" s="2">
+      <c r="AC29" s="2">
         <v>568</v>
       </c>
-      <c r="W29" s="2">
+      <c r="AD29" s="2">
         <v>7</v>
       </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2">
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>895</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44748</v>
       </c>
@@ -9716,69 +10066,76 @@
       <c r="E30" s="2">
         <v>4712</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2">
         <v>1776</v>
       </c>
-      <c r="G30" s="2">
+      <c r="N30" s="2">
         <v>3662</v>
       </c>
-      <c r="H30" s="2">
+      <c r="O30" s="2">
         <v>61856</v>
       </c>
-      <c r="I30" s="2">
+      <c r="P30" s="2">
         <v>43366</v>
       </c>
-      <c r="J30" s="2">
+      <c r="Q30" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="2">
+      <c r="R30" s="2">
         <v>0</v>
       </c>
-      <c r="L30" s="2">
+      <c r="S30" s="2">
         <v>223</v>
       </c>
-      <c r="M30" s="2">
+      <c r="T30" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>223</v>
       </c>
-      <c r="N30" s="2">
+      <c r="U30" s="2">
         <v>0</v>
       </c>
-      <c r="O30" s="2">
+      <c r="V30" s="2">
         <v>159</v>
       </c>
-      <c r="P30" s="2">
+      <c r="W30" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="X30" s="2">
         <v>134</v>
       </c>
-      <c r="R30" s="2">
+      <c r="Y30" s="2">
         <v>137</v>
       </c>
-      <c r="S30" s="2">
+      <c r="Z30" s="2">
         <v>4</v>
       </c>
-      <c r="T30" s="2">
+      <c r="AA30" s="2">
         <v>0</v>
       </c>
-      <c r="U30" s="2">
+      <c r="AB30" s="2">
         <v>320</v>
       </c>
-      <c r="V30" s="2">
+      <c r="AC30" s="2">
         <v>578</v>
       </c>
-      <c r="W30" s="2">
+      <c r="AD30" s="2">
         <v>7</v>
       </c>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2">
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>905</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44757</v>
       </c>
@@ -9794,66 +10151,173 @@
       <c r="E31" s="2">
         <v>4720</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2">
         <v>1782</v>
       </c>
-      <c r="G31" s="2">
+      <c r="N31" s="2">
         <v>3684</v>
       </c>
-      <c r="H31" s="2">
+      <c r="O31" s="2">
         <v>62189</v>
       </c>
-      <c r="I31" s="2">
+      <c r="P31" s="2">
         <v>43626</v>
       </c>
-      <c r="J31" s="2">
+      <c r="Q31" s="2">
         <v>0</v>
       </c>
-      <c r="K31" s="2">
+      <c r="R31" s="2">
         <v>0</v>
       </c>
-      <c r="L31" s="2">
+      <c r="S31" s="2">
         <v>224</v>
       </c>
-      <c r="M31" s="2">
+      <c r="T31" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
-      <c r="N31" s="2">
+      <c r="U31" s="2">
         <v>0</v>
       </c>
-      <c r="O31" s="2">
+      <c r="V31" s="2">
         <v>159</v>
       </c>
-      <c r="P31" s="2">
+      <c r="W31" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="X31" s="2">
         <v>134</v>
       </c>
-      <c r="R31" s="2">
+      <c r="Y31" s="2">
         <v>138</v>
       </c>
-      <c r="S31" s="2">
+      <c r="Z31" s="2">
         <v>4</v>
       </c>
-      <c r="T31" s="2">
+      <c r="AA31" s="2">
         <v>0</v>
       </c>
-      <c r="U31" s="2">
+      <c r="AB31" s="2">
         <v>321</v>
       </c>
-      <c r="V31" s="2">
+      <c r="AC31" s="2">
         <v>593</v>
       </c>
-      <c r="W31" s="2">
+      <c r="AD31" s="2">
         <v>7</v>
       </c>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2">
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>921</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44761</v>
+      </c>
+      <c r="B32" s="2">
+        <v>105</v>
+      </c>
+      <c r="C32" s="2">
+        <v>240</v>
+      </c>
+      <c r="D32" s="2">
+        <v>193</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4720</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5498</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1781</v>
+      </c>
+      <c r="H32" s="2">
+        <v>315</v>
+      </c>
+      <c r="I32" s="2">
+        <v>240</v>
+      </c>
+      <c r="J32" s="2">
+        <v>97</v>
+      </c>
+      <c r="K32" s="2">
+        <v>48</v>
+      </c>
+      <c r="L32" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>7979</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1782</v>
+      </c>
+      <c r="N32" s="2">
+        <v>3684</v>
+      </c>
+      <c r="O32" s="2">
+        <v>62189</v>
+      </c>
+      <c r="P32" s="2">
+        <v>43626</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
+        <v>224</v>
+      </c>
+      <c r="T32" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>224</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>159</v>
+      </c>
+      <c r="W32" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>159</v>
+      </c>
+      <c r="X32" s="2">
+        <v>134</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>321</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>595</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>923</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DB2896-B9B3-BA45-B287-36C702C54626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD684C63-12B6-D94C-912D-EA52F816E83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -343,10 +343,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -439,16 +439,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$32</c:f>
+              <c:f>Data!$E$2:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -541,6 +544,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4720</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,10 +586,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -676,16 +682,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$32</c:f>
+              <c:f>Data!$M$2:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -778,6 +787,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,10 +829,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -913,16 +925,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$32</c:f>
+              <c:f>Data!$N$2:$N$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1015,6 +1030,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3684</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,10 +1288,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1366,16 +1384,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$32</c:f>
+              <c:f>Data!$R$2:$R$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1467,6 +1488,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1507,10 +1531,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1603,16 +1627,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$2:$U$32</c:f>
+              <c:f>Data!$U$2:$U$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1704,6 +1731,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1744,10 +1774,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1840,16 +1870,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$32</c:f>
+              <c:f>Data!$Q$2:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1941,6 +1974,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2200,10 +2236,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2296,16 +2332,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$32</c:f>
+              <c:f>Data!$T$2:$T$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2397,6 +2436,9 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
@@ -2437,10 +2479,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2533,16 +2575,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$32</c:f>
+              <c:f>Data!$W$2:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2634,6 +2679,9 @@
                   <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
@@ -2890,10 +2938,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2986,16 +3034,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$32</c:f>
+              <c:f>Data!$Y$2:$Y$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3087,6 +3138,9 @@
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>138</c:v>
                 </c:pt>
               </c:numCache>
@@ -3309,10 +3363,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3405,16 +3459,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$32</c:f>
+              <c:f>Data!$AA$2:$AA$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3440,6 +3497,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3476,10 +3536,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3572,16 +3632,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AB$2:$AB$32</c:f>
+              <c:f>Data!$AB$2:$AB$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -3607,6 +3670,9 @@
                   <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>321</c:v>
                 </c:pt>
               </c:numCache>
@@ -3643,10 +3709,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3739,16 +3805,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$32</c:f>
+              <c:f>Data!$AC$2:$AC$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -3775,6 +3844,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3810,10 +3882,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3906,16 +3978,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$32</c:f>
+              <c:f>Data!$AD$2:$AD$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3941,6 +4016,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3979,10 +4057,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$32</c:f>
+              <c:f>Data!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4075,16 +4153,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$32</c:f>
+              <c:f>Data!$AE$2:$AE$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -7106,7 +7187,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="208" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7117,7 +7198,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{24ACA0B5-B5F6-0649-9568-624D24B93699}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="208" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7128,7 +7209,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50B1BB8B-A1E8-FB42-B88F-023CE9967AAB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="208" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7139,7 +7220,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B111F3D3-9A19-164A-A80F-5E41AF9CF1E4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="208" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7150,7 +7231,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5B2EC930-5C2E-4448-96C6-E1C9EC4CF674}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="208" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7161,7 +7242,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9311298" cy="6075240"/>
+    <xdr:ext cx="9304130" cy="6064710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7194,7 +7275,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9311298" cy="6075240"/>
+    <xdr:ext cx="9304130" cy="6064710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7227,7 +7308,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9311298" cy="6075240"/>
+    <xdr:ext cx="9304130" cy="6064710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7260,7 +7341,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9311298" cy="6075240"/>
+    <xdr:ext cx="9304130" cy="6064710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7293,7 +7374,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9311298" cy="6075240"/>
+    <xdr:ext cx="9304130" cy="6064710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7323,47 +7404,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AF32" totalsRowShown="0">
-  <autoFilter ref="A1:AF32" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AF33" totalsRowShown="0">
+  <autoFilter ref="A1:AF33" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="30"/>
     <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="29"/>
     <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="28"/>
     <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="27"/>
-    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="6"/>
-    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="5"/>
-    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="4"/>
-    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="3"/>
-    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="2"/>
-    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="1"/>
-    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="0">
+    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="26"/>
+    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="25"/>
+    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="24"/>
+    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="23"/>
+    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="22"/>
+    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="21"/>
+    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="20">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Shell]:[Bash]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="20"/>
-    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="12">
       <calculatedColumnFormula>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="16">
+    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="9">
       <calculatedColumnFormula>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="11"/>
-    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="8"/>
-    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="Total2" dataDxfId="7">
+    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="Total2" dataDxfId="0">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Running]:[GH runs]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7668,11 +7749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF32" sqref="AF32"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10320,6 +10401,106 @@
         <v>923</v>
       </c>
     </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44764</v>
+      </c>
+      <c r="B33" s="2">
+        <v>105</v>
+      </c>
+      <c r="C33" s="2">
+        <v>240</v>
+      </c>
+      <c r="D33" s="2">
+        <v>193</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4724</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5502</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1781</v>
+      </c>
+      <c r="H33" s="2">
+        <v>315</v>
+      </c>
+      <c r="I33" s="2">
+        <v>240</v>
+      </c>
+      <c r="J33" s="2">
+        <v>97</v>
+      </c>
+      <c r="K33" s="2">
+        <v>48</v>
+      </c>
+      <c r="L33" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>7983</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1785</v>
+      </c>
+      <c r="N33" s="2">
+        <v>3689</v>
+      </c>
+      <c r="O33" s="2">
+        <v>62207</v>
+      </c>
+      <c r="P33" s="2">
+        <v>43630</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>224</v>
+      </c>
+      <c r="T33" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>224</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>159</v>
+      </c>
+      <c r="W33" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>159</v>
+      </c>
+      <c r="X33" s="2">
+        <v>134</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>321</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>599</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>927</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD684C63-12B6-D94C-912D-EA52F816E83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B9348A-83D4-2447-9825-E8487F517EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -343,10 +343,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -442,16 +442,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$33</c:f>
+              <c:f>Data!$E$2:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -547,6 +550,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4724</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,10 +592,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -685,16 +691,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$33</c:f>
+              <c:f>Data!$M$2:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -790,6 +799,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1785</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,10 +841,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -928,16 +940,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$33</c:f>
+              <c:f>Data!$N$2:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1033,6 +1048,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3689</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,10 +1306,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1387,16 +1405,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$33</c:f>
+              <c:f>Data!$R$2:$R$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1491,6 +1512,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1531,10 +1555,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1630,16 +1654,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$2:$U$33</c:f>
+              <c:f>Data!$U$2:$U$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1734,6 +1761,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1774,10 +1804,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1873,16 +1903,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$33</c:f>
+              <c:f>Data!$Q$2:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1977,6 +2010,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2236,10 +2272,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2335,16 +2371,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$33</c:f>
+              <c:f>Data!$T$2:$T$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2440,6 +2479,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2479,10 +2521,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2578,16 +2620,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$33</c:f>
+              <c:f>Data!$W$2:$W$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2683,6 +2728,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2938,10 +2986,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3037,16 +3085,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$33</c:f>
+              <c:f>Data!$Y$2:$Y$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3141,6 +3192,9 @@
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>138</c:v>
                 </c:pt>
               </c:numCache>
@@ -3363,10 +3417,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3462,16 +3516,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$33</c:f>
+              <c:f>Data!$AA$2:$AA$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3500,6 +3557,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3536,10 +3596,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3635,16 +3695,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AB$2:$AB$33</c:f>
+              <c:f>Data!$AB$2:$AB$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -3674,6 +3737,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3709,10 +3775,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3808,16 +3874,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$33</c:f>
+              <c:f>Data!$AC$2:$AC$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -3847,6 +3916,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>610</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,10 +3954,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3981,16 +4053,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$33</c:f>
+              <c:f>Data!$AD$2:$AD$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4019,6 +4094,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4057,10 +4135,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$33</c:f>
+              <c:f>Data!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4156,16 +4234,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$33</c:f>
+              <c:f>Data!$AE$2:$AE$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -7404,8 +7485,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AF33" totalsRowShown="0">
-  <autoFilter ref="A1:AF33" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AF34" totalsRowShown="0">
+  <autoFilter ref="A1:AF34" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="30"/>
@@ -7749,11 +7830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF33" sqref="AF33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10501,6 +10582,106 @@
         <v>927</v>
       </c>
     </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B34" s="2">
+        <v>106</v>
+      </c>
+      <c r="C34" s="2">
+        <v>241</v>
+      </c>
+      <c r="D34" s="2">
+        <v>194</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4731</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5589</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1785</v>
+      </c>
+      <c r="H34" s="2">
+        <v>315</v>
+      </c>
+      <c r="I34" s="2">
+        <v>242</v>
+      </c>
+      <c r="J34" s="2">
+        <v>97</v>
+      </c>
+      <c r="K34" s="2">
+        <v>48</v>
+      </c>
+      <c r="L34" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8076</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1789</v>
+      </c>
+      <c r="N34" s="2">
+        <v>3703</v>
+      </c>
+      <c r="O34" s="2">
+        <v>62262</v>
+      </c>
+      <c r="P34" s="2">
+        <v>43661</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>225</v>
+      </c>
+      <c r="T34" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>225</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>160</v>
+      </c>
+      <c r="W34" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>160</v>
+      </c>
+      <c r="X34" s="2">
+        <v>136</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>322</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>610</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>939</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B9348A-83D4-2447-9825-E8487F517EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29EAEB-E702-5C44-80C3-9F48A889F2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="31100" windowHeight="32860" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -343,10 +343,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -445,16 +445,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$34</c:f>
+              <c:f>Data!$E$2:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -553,6 +556,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>4731</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -592,10 +598,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -694,16 +700,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$34</c:f>
+              <c:f>Data!$M$2:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -802,6 +811,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,10 +853,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -943,16 +955,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$34</c:f>
+              <c:f>Data!$N$2:$N$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1051,6 +1066,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3703</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,10 +1324,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1408,16 +1426,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$34</c:f>
+              <c:f>Data!$R$2:$R$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1515,6 +1536,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1555,10 +1579,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1657,16 +1681,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$2:$U$34</c:f>
+              <c:f>Data!$U$2:$U$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1764,6 +1791,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1804,10 +1834,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1906,16 +1936,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$34</c:f>
+              <c:f>Data!$Q$2:$Q$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2013,6 +2046,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2272,10 +2308,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2374,16 +2410,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$34</c:f>
+              <c:f>Data!$T$2:$T$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2481,6 +2520,9 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>225</c:v>
                 </c:pt>
               </c:numCache>
@@ -2521,10 +2563,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2623,16 +2665,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$34</c:f>
+              <c:f>Data!$W$2:$W$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2730,6 +2775,9 @@
                   <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
@@ -2986,10 +3034,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3088,16 +3136,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$34</c:f>
+              <c:f>Data!$Y$2:$Y$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3196,6 +3247,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3417,10 +3471,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3519,16 +3573,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$34</c:f>
+              <c:f>Data!$AA$2:$AA$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3560,6 +3617,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3596,10 +3656,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3698,16 +3758,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AB$2:$AB$34</c:f>
+              <c:f>Data!$AB$2:$AB$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -3739,6 +3802,9 @@
                   <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>322</c:v>
                 </c:pt>
               </c:numCache>
@@ -3775,10 +3841,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3877,16 +3943,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$34</c:f>
+              <c:f>Data!$AC$2:$AC$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -3919,6 +3988,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3954,10 +4026,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4056,16 +4128,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$34</c:f>
+              <c:f>Data!$AD$2:$AD$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4097,6 +4172,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4135,10 +4213,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$34</c:f>
+              <c:f>Data!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4237,16 +4315,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$34</c:f>
+              <c:f>Data!$AE$2:$AE$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -7268,7 +7349,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="210" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7279,7 +7360,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{24ACA0B5-B5F6-0649-9568-624D24B93699}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="210" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7290,7 +7371,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50B1BB8B-A1E8-FB42-B88F-023CE9967AAB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="210" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7301,7 +7382,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B111F3D3-9A19-164A-A80F-5E41AF9CF1E4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="210" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7312,7 +7393,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5B2EC930-5C2E-4448-96C6-E1C9EC4CF674}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="210" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7323,7 +7404,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304130" cy="6064710"/>
+    <xdr:ext cx="9313333" cy="6077857"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7356,7 +7437,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304130" cy="6064710"/>
+    <xdr:ext cx="9313333" cy="6077857"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7389,7 +7470,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304130" cy="6064710"/>
+    <xdr:ext cx="9313333" cy="6077857"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7422,7 +7503,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304130" cy="6064710"/>
+    <xdr:ext cx="9313333" cy="6077857"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7455,7 +7536,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304130" cy="6064710"/>
+    <xdr:ext cx="9313333" cy="6077857"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7485,8 +7566,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AF34" totalsRowShown="0">
-  <autoFilter ref="A1:AF34" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AF35" totalsRowShown="0">
+  <autoFilter ref="A1:AF35" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="30"/>
@@ -7830,11 +7911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AF34"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF34" sqref="AF34"/>
+      <selection pane="bottomLeft" activeCell="AE35" sqref="AE35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10656,7 +10737,7 @@
         <v>160</v>
       </c>
       <c r="X34" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y34" s="2">
         <v>138</v>
@@ -10680,6 +10761,106 @@
       <c r="AF34" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>939</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B35" s="2">
+        <v>106</v>
+      </c>
+      <c r="C35" s="2">
+        <v>242</v>
+      </c>
+      <c r="D35" s="2">
+        <v>195</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4749</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5535</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1788</v>
+      </c>
+      <c r="H35" s="2">
+        <v>315</v>
+      </c>
+      <c r="I35" s="2">
+        <v>243</v>
+      </c>
+      <c r="J35" s="2">
+        <v>97</v>
+      </c>
+      <c r="K35" s="2">
+        <v>48</v>
+      </c>
+      <c r="L35" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8026</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1791</v>
+      </c>
+      <c r="N35" s="2">
+        <v>3716</v>
+      </c>
+      <c r="O35" s="2">
+        <v>62325</v>
+      </c>
+      <c r="P35" s="2">
+        <v>43671</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>225</v>
+      </c>
+      <c r="T35" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>225</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>160</v>
+      </c>
+      <c r="W35" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>160</v>
+      </c>
+      <c r="X35" s="2">
+        <v>136</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>140</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>322</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>618</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>947</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29EAEB-E702-5C44-80C3-9F48A889F2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1800265E-F5BC-7B4D-889F-095CCD619523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="31100" windowHeight="32860" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24540" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -137,11 +137,20 @@
   <si>
     <t>Total2</t>
   </si>
+  <si>
+    <t>∆LoC</t>
+  </si>
+  <si>
+    <t>∆Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -177,15 +186,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -343,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -448,16 +464,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$35</c:f>
+              <c:f>Data!$E$2:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -559,6 +578,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>4749</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,7 +597,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$M$1</c:f>
+              <c:f>Data!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -598,10 +620,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -703,16 +725,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$2:$M$35</c:f>
+              <c:f>Data!$O$2:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -830,7 +855,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$N$1</c:f>
+              <c:f>Data!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -853,10 +878,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -958,16 +983,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$N$2:$N$35</c:f>
+              <c:f>Data!$P$2:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1301,7 +1329,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$R$1</c:f>
+              <c:f>Data!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1324,10 +1352,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1429,16 +1457,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$35</c:f>
+              <c:f>Data!$T$2:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1556,7 +1587,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$U$1</c:f>
+              <c:f>Data!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1579,10 +1610,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1684,16 +1715,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$2:$U$35</c:f>
+              <c:f>Data!$W$2:$W$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1811,7 +1845,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$Q$1</c:f>
+              <c:f>Data!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1834,10 +1868,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1939,16 +1973,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$35</c:f>
+              <c:f>Data!$S$2:$S$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2285,7 +2322,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$T$1</c:f>
+              <c:f>Data!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2308,10 +2345,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2413,16 +2450,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$35</c:f>
+              <c:f>Data!$V$2:$V$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2524,6 +2564,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2540,7 +2583,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$W$1</c:f>
+              <c:f>Data!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2563,10 +2606,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2668,16 +2711,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$35</c:f>
+              <c:f>Data!$Y$2:$Y$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2779,6 +2825,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3011,7 +3060,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$Y$1</c:f>
+              <c:f>Data!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3034,10 +3083,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3139,16 +3188,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$35</c:f>
+              <c:f>Data!$AA$2:$AA$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3451,7 +3503,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AA$1</c:f>
+              <c:f>Data!$AC$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3471,10 +3523,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3576,16 +3628,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$35</c:f>
+              <c:f>Data!$AC$2:$AC$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3636,7 +3691,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AB$1</c:f>
+              <c:f>Data!$AD$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3656,10 +3711,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3761,16 +3816,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AB$2:$AB$35</c:f>
+              <c:f>Data!$AD$2:$AD$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -3821,7 +3879,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AC$1</c:f>
+              <c:f>Data!$AE$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3841,10 +3899,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3946,16 +4004,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$35</c:f>
+              <c:f>Data!$AE$2:$AE$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4006,7 +4067,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AD$1</c:f>
+              <c:f>Data!$AF$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4026,10 +4087,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4131,16 +4192,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$35</c:f>
+              <c:f>Data!$AF$2:$AF$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4191,7 +4255,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AE$1</c:f>
+              <c:f>Data!$AG$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4213,10 +4277,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$35</c:f>
+              <c:f>Data!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4318,16 +4382,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$35</c:f>
+              <c:f>Data!$AG$2:$AG$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -7566,47 +7633,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AF35" totalsRowShown="0">
-  <autoFilter ref="A1:AF35" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
-  <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="27"/>
-    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="26"/>
-    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="25"/>
-    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="24"/>
-    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="23"/>
-    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="22"/>
-    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="21"/>
-    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH36" totalsRowShown="0">
+  <autoFilter ref="A1:AH36" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+  <tableColumns count="34">
+    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="29"/>
+    <tableColumn id="33" xr3:uid="{314C5206-2A7B-F841-94C2-27E5FA3210D6}" name="∆LoC" dataDxfId="1">
+      <calculatedColumnFormula>Data[[#This Row],[LoC]]-E1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="28"/>
+    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="27"/>
+    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="26"/>
+    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="25"/>
+    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="24"/>
+    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="23"/>
+    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="22">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Shell]:[Bash]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="12">
+    <tableColumn id="34" xr3:uid="{FD44257B-EFD4-EF46-B0EE-B5B6EBB0D9D7}" name="∆Total" dataDxfId="0">
+      <calculatedColumnFormula>Data[[#This Row],[Total]]-M1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="14">
       <calculatedColumnFormula>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="9">
+    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="11">
       <calculatedColumnFormula>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="Total2" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="Total2" dataDxfId="2">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Running]:[GH runs]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7911,11 +7984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE35" sqref="AE35"/>
+      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7925,29 +7998,31 @@
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" customWidth="1"/>
+    <col min="26" max="26" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7964,88 +8039,94 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44574</v>
       </c>
@@ -8061,70 +8142,76 @@
       <c r="E2" s="2">
         <v>4368</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2">
+      <c r="M2" s="2"/>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
         <v>1523</v>
       </c>
-      <c r="N2" s="2">
+      <c r="P2" s="2">
         <v>3195</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <v>57442</v>
       </c>
-      <c r="P2" s="2">
+      <c r="R2" s="2">
         <v>40634</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="2">
         <v>1</v>
       </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
         <v>203</v>
       </c>
-      <c r="T2" s="2">
+      <c r="V2" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
         <v>135</v>
       </c>
-      <c r="W2" s="2">
+      <c r="Y2" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="X2" s="2">
+      <c r="Z2" s="2">
         <v>125</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AA2" s="2">
         <v>122</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AB2" s="2">
         <v>2</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2">
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2">
         <v>541</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AH2" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44578</v>
       </c>
@@ -8140,70 +8227,78 @@
       <c r="E3" s="2">
         <v>4368</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3">
+        <f>Data[[#This Row],[LoC]]-E2</f>
+        <v>0</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2">
+      <c r="M3" s="2"/>
+      <c r="N3" s="3">
+        <f>Data[[#This Row],[Total]]-M2</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
         <v>1524</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>3196</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>57422</v>
       </c>
-      <c r="P3" s="2">
+      <c r="R3" s="2">
         <v>40034</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
         <v>203</v>
       </c>
-      <c r="T3" s="2">
+      <c r="V3" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
         <v>135</v>
       </c>
-      <c r="W3" s="2">
+      <c r="Y3" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Z3" s="2">
         <v>125</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AA3" s="2">
         <v>122</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AB3" s="2">
         <v>2</v>
       </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2">
         <v>542</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AH3" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44580</v>
       </c>
@@ -8219,70 +8314,78 @@
       <c r="E4" s="2">
         <v>4368</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3">
+        <f>Data[[#This Row],[LoC]]-E3</f>
+        <v>0</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2">
+      <c r="M4" s="2"/>
+      <c r="N4" s="3">
+        <f>Data[[#This Row],[Total]]-M3</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
         <v>1525</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>3197</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>57422</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>40634</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>1</v>
       </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
         <v>203</v>
       </c>
-      <c r="T4" s="2">
+      <c r="V4" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
         <v>135</v>
       </c>
-      <c r="W4" s="2">
+      <c r="Y4" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Z4" s="2">
         <v>125</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AA4" s="2">
         <v>122</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AB4" s="2">
         <v>2</v>
       </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2">
         <v>543</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AH4" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44588</v>
       </c>
@@ -8298,70 +8401,78 @@
       <c r="E5" s="2">
         <v>4368</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3">
+        <f>Data[[#This Row],[LoC]]-E4</f>
+        <v>0</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2">
+      <c r="M5" s="2"/>
+      <c r="N5" s="3">
+        <f>Data[[#This Row],[Total]]-M4</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
         <v>1531</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>3207</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>57794</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>40652</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>1</v>
       </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
         <v>203</v>
       </c>
-      <c r="T5" s="2">
+      <c r="V5" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
         <v>135</v>
       </c>
-      <c r="W5" s="2">
+      <c r="Y5" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Z5" s="2">
         <v>125</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AA5" s="2">
         <v>122</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AB5" s="2">
         <v>3</v>
       </c>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2">
         <v>550</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AH5" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44593</v>
       </c>
@@ -8377,70 +8488,78 @@
       <c r="E6" s="2">
         <v>4379</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3">
+        <f>Data[[#This Row],[LoC]]-E5</f>
+        <v>11</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2">
+      <c r="M6" s="2"/>
+      <c r="N6" s="3">
+        <f>Data[[#This Row],[Total]]-M5</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
         <v>1539</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
         <v>3224</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <v>57859</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <v>40677</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>1</v>
       </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
         <v>203</v>
       </c>
-      <c r="T6" s="2">
+      <c r="V6" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
         <v>135</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Y6" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Z6" s="2">
         <v>125</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AA6" s="2">
         <v>122</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AB6" s="2">
         <v>3</v>
       </c>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2">
         <v>561</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AH6" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44602</v>
       </c>
@@ -8456,70 +8575,78 @@
       <c r="E7" s="2">
         <v>4381</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3">
+        <f>Data[[#This Row],[LoC]]-E6</f>
+        <v>2</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2">
+      <c r="M7" s="2"/>
+      <c r="N7" s="3">
+        <f>Data[[#This Row],[Total]]-M6</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
         <v>1559</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>3265</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>58868</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>41555</v>
       </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
       <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
         <v>204</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
         <v>135</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>125</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>122</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>3</v>
       </c>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2">
         <v>586</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AH7" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44610</v>
       </c>
@@ -8535,70 +8662,78 @@
       <c r="E8" s="2">
         <v>4399</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3">
+        <f>Data[[#This Row],[LoC]]-E7</f>
+        <v>18</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2">
+      <c r="M8" s="2"/>
+      <c r="N8" s="3">
+        <f>Data[[#This Row],[Total]]-M7</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
         <v>1568</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>3286</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <v>58985</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <v>41600</v>
       </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
       <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
         <v>208</v>
       </c>
-      <c r="T8" s="2">
+      <c r="V8" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>208</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
         <v>135</v>
       </c>
-      <c r="W8" s="2">
+      <c r="Y8" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Z8" s="2">
         <v>125</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AA8" s="2">
         <v>122</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AB8" s="2">
         <v>3</v>
       </c>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2">
         <v>595</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AH8" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44613</v>
       </c>
@@ -8614,70 +8749,78 @@
       <c r="E9" s="2">
         <v>4413</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3">
+        <f>Data[[#This Row],[LoC]]-E8</f>
+        <v>14</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2">
+      <c r="M9" s="2"/>
+      <c r="N9" s="3">
+        <f>Data[[#This Row],[Total]]-M8</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
         <v>1571</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>3298</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>59170</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <v>41754</v>
       </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
       <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
         <v>208</v>
       </c>
-      <c r="T9" s="2">
+      <c r="V9" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>208</v>
       </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
         <v>135</v>
       </c>
-      <c r="W9" s="2">
+      <c r="Y9" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Z9" s="2">
         <v>126</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AA9" s="2">
         <v>122</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AB9" s="2">
         <v>3</v>
       </c>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2">
         <v>601</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AH9" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44636</v>
       </c>
@@ -8693,70 +8836,78 @@
       <c r="E10" s="2">
         <v>4430</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3">
+        <f>Data[[#This Row],[LoC]]-E9</f>
+        <v>17</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2">
+      <c r="M10" s="2"/>
+      <c r="N10" s="3">
+        <f>Data[[#This Row],[Total]]-M9</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
         <v>1598</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>3339</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <v>59371</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <v>41908</v>
       </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
       <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
         <v>209</v>
       </c>
-      <c r="T10" s="2">
+      <c r="V10" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>209</v>
       </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
         <v>141</v>
       </c>
-      <c r="W10" s="2">
+      <c r="Y10" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>141</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Z10" s="2">
         <v>126</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AA10" s="2">
         <v>122</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AB10" s="2">
         <v>3</v>
       </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2">
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2">
         <v>632</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AH10" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>632</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44645</v>
       </c>
@@ -8772,70 +8923,78 @@
       <c r="E11" s="2">
         <v>4432</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3">
+        <f>Data[[#This Row],[LoC]]-E10</f>
+        <v>2</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2">
+      <c r="M11" s="2"/>
+      <c r="N11" s="3">
+        <f>Data[[#This Row],[Total]]-M10</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
         <v>1627</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>3375</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <v>59655</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <v>42123</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="S11" s="2">
         <v>1</v>
       </c>
-      <c r="R11" s="2">
+      <c r="T11" s="2">
         <v>1</v>
       </c>
-      <c r="S11" s="2">
+      <c r="U11" s="2">
         <v>214</v>
       </c>
-      <c r="T11" s="2">
+      <c r="V11" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
         <v>148</v>
       </c>
-      <c r="W11" s="2">
+      <c r="Y11" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Z11" s="2">
         <v>127</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AA11" s="2">
         <v>128</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AB11" s="2">
         <v>3</v>
       </c>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2">
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2">
         <v>661</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AH11" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>661</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44657</v>
       </c>
@@ -8851,70 +9010,78 @@
       <c r="E12" s="2">
         <v>4434</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="3">
+        <f>Data[[#This Row],[LoC]]-E11</f>
+        <v>2</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2">
+      <c r="M12" s="2"/>
+      <c r="N12" s="3">
+        <f>Data[[#This Row],[Total]]-M11</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
         <v>1632</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>3387</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <v>59702</v>
       </c>
-      <c r="P12" s="2">
+      <c r="R12" s="2">
         <v>42156</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="S12" s="2">
         <v>1</v>
       </c>
-      <c r="R12" s="2">
+      <c r="T12" s="2">
         <v>1</v>
       </c>
-      <c r="S12" s="2">
+      <c r="U12" s="2">
         <v>214</v>
       </c>
-      <c r="T12" s="2">
+      <c r="V12" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
         <v>148</v>
       </c>
-      <c r="W12" s="2">
+      <c r="Y12" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Z12" s="2">
         <v>127</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AA12" s="2">
         <v>131</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AB12" s="2">
         <v>3</v>
       </c>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2">
         <v>669</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AH12" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>669</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44664</v>
       </c>
@@ -8930,70 +9097,78 @@
       <c r="E13" s="2">
         <v>4454</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="3">
+        <f>Data[[#This Row],[LoC]]-E12</f>
+        <v>20</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2">
+      <c r="M13" s="2"/>
+      <c r="N13" s="3">
+        <f>Data[[#This Row],[Total]]-M12</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <v>1637</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>3406</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <v>60308</v>
       </c>
-      <c r="P13" s="2">
+      <c r="R13" s="2">
         <v>42743</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="S13" s="2">
         <v>1</v>
       </c>
-      <c r="R13" s="2">
+      <c r="T13" s="2">
         <v>1</v>
       </c>
-      <c r="S13" s="2">
+      <c r="U13" s="2">
         <v>214</v>
       </c>
-      <c r="T13" s="2">
+      <c r="V13" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
         <v>148</v>
       </c>
-      <c r="W13" s="2">
+      <c r="Y13" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Z13" s="2">
         <v>128</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="AA13" s="2">
         <v>131</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AB13" s="2">
         <v>3</v>
       </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="2">
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2">
         <v>677</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AH13" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44676</v>
       </c>
@@ -9009,70 +9184,78 @@
       <c r="E14" s="2">
         <v>4453</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="3">
+        <f>Data[[#This Row],[LoC]]-E13</f>
+        <v>-1</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2">
+      <c r="M14" s="2"/>
+      <c r="N14" s="3">
+        <f>Data[[#This Row],[Total]]-M13</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
         <v>1647</v>
       </c>
-      <c r="N14" s="2">
+      <c r="P14" s="2">
         <v>3424</v>
       </c>
-      <c r="O14" s="2">
+      <c r="Q14" s="2">
         <v>60352</v>
       </c>
-      <c r="P14" s="2">
+      <c r="R14" s="2">
         <v>42776</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="S14" s="2">
         <v>2</v>
       </c>
-      <c r="R14" s="2">
+      <c r="T14" s="2">
         <v>2</v>
       </c>
-      <c r="S14" s="2">
+      <c r="U14" s="2">
         <v>215</v>
       </c>
-      <c r="T14" s="2">
+      <c r="V14" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>217</v>
       </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
         <v>148</v>
       </c>
-      <c r="W14" s="2">
+      <c r="Y14" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Z14" s="2">
         <v>128</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="AA14" s="2">
         <v>131</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="AB14" s="2">
         <v>3</v>
       </c>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2">
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2">
         <v>685</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AH14" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44678</v>
       </c>
@@ -9088,70 +9271,78 @@
       <c r="E15" s="2">
         <v>4461</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="3">
+        <f>Data[[#This Row],[LoC]]-E14</f>
+        <v>8</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2">
+      <c r="M15" s="2"/>
+      <c r="N15" s="3">
+        <f>Data[[#This Row],[Total]]-M14</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
         <v>1652</v>
       </c>
-      <c r="N15" s="2">
+      <c r="P15" s="2">
         <v>3430</v>
       </c>
-      <c r="O15" s="2">
+      <c r="Q15" s="2">
         <v>60372</v>
       </c>
-      <c r="P15" s="2">
+      <c r="R15" s="2">
         <v>42778</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="S15" s="2">
         <v>1</v>
       </c>
-      <c r="R15" s="2">
+      <c r="T15" s="2">
         <v>1</v>
       </c>
-      <c r="S15" s="2">
+      <c r="U15" s="2">
         <v>216</v>
       </c>
-      <c r="T15" s="2">
+      <c r="V15" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>217</v>
       </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
         <v>149</v>
       </c>
-      <c r="W15" s="2">
+      <c r="Y15" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Z15" s="2">
         <v>128</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AA15" s="2">
         <v>131</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AB15" s="2">
         <v>3</v>
       </c>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="2">
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2">
         <v>690</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AH15" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>690</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44679</v>
       </c>
@@ -9167,70 +9358,78 @@
       <c r="E16" s="2">
         <v>4462</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="3">
+        <f>Data[[#This Row],[LoC]]-E15</f>
+        <v>1</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2">
+      <c r="M16" s="2"/>
+      <c r="N16" s="3">
+        <f>Data[[#This Row],[Total]]-M15</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
         <v>1660</v>
       </c>
-      <c r="N16" s="2">
+      <c r="P16" s="2">
         <v>3444</v>
       </c>
-      <c r="O16" s="2">
+      <c r="Q16" s="2">
         <v>60431</v>
       </c>
-      <c r="P16" s="2">
+      <c r="R16" s="2">
         <v>42791</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="S16" s="2">
         <v>1</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <v>1</v>
       </c>
-      <c r="S16" s="2">
+      <c r="U16" s="2">
         <v>217</v>
       </c>
-      <c r="T16" s="2">
+      <c r="V16" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>218</v>
       </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
         <v>149</v>
       </c>
-      <c r="W16" s="2">
+      <c r="Y16" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Z16" s="2">
         <v>128</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="AA16" s="2">
         <v>132</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AB16" s="2">
         <v>3</v>
       </c>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2">
         <v>700</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AH16" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44686</v>
       </c>
@@ -9246,70 +9445,78 @@
       <c r="E17" s="2">
         <v>4454</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="3">
+        <f>Data[[#This Row],[LoC]]-E16</f>
+        <v>-8</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2">
+      <c r="M17" s="2"/>
+      <c r="N17" s="3">
+        <f>Data[[#This Row],[Total]]-M16</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
         <v>1670</v>
       </c>
-      <c r="N17" s="2">
+      <c r="P17" s="2">
         <v>3473</v>
       </c>
-      <c r="O17" s="2">
+      <c r="Q17" s="2">
         <v>60537</v>
       </c>
-      <c r="P17" s="2">
+      <c r="R17" s="2">
         <v>42889</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="S17" s="2">
         <v>1</v>
       </c>
-      <c r="R17" s="2">
+      <c r="T17" s="2">
         <v>1</v>
       </c>
-      <c r="S17" s="2">
+      <c r="U17" s="2">
         <v>218</v>
       </c>
-      <c r="T17" s="2">
+      <c r="V17" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
         <v>149</v>
       </c>
-      <c r="W17" s="2">
+      <c r="Y17" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
-      <c r="X17" s="2">
+      <c r="Z17" s="2">
         <v>128</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="AA17" s="2">
         <v>132</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="AB17" s="2">
         <v>3</v>
       </c>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2">
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2">
         <v>714</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AH17" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44691</v>
       </c>
@@ -9325,70 +9532,78 @@
       <c r="E18" s="2">
         <v>4454</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="3">
+        <f>Data[[#This Row],[LoC]]-E17</f>
+        <v>0</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2">
+      <c r="M18" s="2"/>
+      <c r="N18" s="3">
+        <f>Data[[#This Row],[Total]]-M17</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
         <v>1676</v>
       </c>
-      <c r="N18" s="2">
+      <c r="P18" s="2">
         <v>3481</v>
       </c>
-      <c r="O18" s="2">
+      <c r="Q18" s="2">
         <v>60564</v>
       </c>
-      <c r="P18" s="2">
+      <c r="R18" s="2">
         <v>42903</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="S18" s="2">
         <v>1</v>
       </c>
-      <c r="R18" s="2">
+      <c r="T18" s="2">
         <v>1</v>
       </c>
-      <c r="S18" s="2">
+      <c r="U18" s="2">
         <v>218</v>
       </c>
-      <c r="T18" s="2">
+      <c r="V18" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
         <v>150</v>
       </c>
-      <c r="W18" s="2">
+      <c r="Y18" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>150</v>
       </c>
-      <c r="X18" s="2">
+      <c r="Z18" s="2">
         <v>128</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="AA18" s="2">
         <v>132</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="AB18" s="2">
         <v>3</v>
       </c>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2">
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2">
         <v>721</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AH18" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>721</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44705</v>
       </c>
@@ -9404,70 +9619,78 @@
       <c r="E19" s="2">
         <v>4470</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="3">
+        <f>Data[[#This Row],[LoC]]-E18</f>
+        <v>16</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2">
+      <c r="M19" s="2"/>
+      <c r="N19" s="3">
+        <f>Data[[#This Row],[Total]]-M18</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
         <v>1695</v>
       </c>
-      <c r="N19" s="2">
+      <c r="P19" s="2">
         <v>3500</v>
       </c>
-      <c r="O19" s="2">
+      <c r="Q19" s="2">
         <v>60613</v>
       </c>
-      <c r="P19" s="2">
+      <c r="R19" s="2">
         <v>42943</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="S19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="2">
+      <c r="T19" s="2">
         <v>1</v>
       </c>
-      <c r="S19" s="2">
+      <c r="U19" s="2">
         <v>218</v>
       </c>
-      <c r="T19" s="2">
+      <c r="V19" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
-      <c r="U19" s="2">
+      <c r="W19" s="2">
         <v>2</v>
       </c>
-      <c r="V19" s="2">
+      <c r="X19" s="2">
         <v>154</v>
       </c>
-      <c r="W19" s="2">
+      <c r="Y19" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Z19" s="2">
         <v>128</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="AA19" s="2">
         <v>131</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="AB19" s="2">
         <v>4</v>
       </c>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="2">
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2">
         <v>748</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AH19" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>748</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44707</v>
       </c>
@@ -9483,70 +9706,78 @@
       <c r="E20" s="2">
         <v>4506</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="3">
+        <f>Data[[#This Row],[LoC]]-E19</f>
+        <v>36</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2">
+      <c r="M20" s="2"/>
+      <c r="N20" s="3">
+        <f>Data[[#This Row],[Total]]-M19</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
         <v>1699</v>
       </c>
-      <c r="N20" s="2">
+      <c r="P20" s="2">
         <v>3520</v>
       </c>
-      <c r="O20" s="2">
+      <c r="Q20" s="2">
         <v>60719</v>
       </c>
-      <c r="P20" s="2">
+      <c r="R20" s="2">
         <v>42953</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="S20" s="2">
         <v>1</v>
       </c>
-      <c r="R20" s="2">
+      <c r="T20" s="2">
         <v>1</v>
       </c>
-      <c r="S20" s="2">
+      <c r="U20" s="2">
         <v>219</v>
       </c>
-      <c r="T20" s="2">
+      <c r="V20" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="U20" s="2">
+      <c r="W20" s="2">
         <v>1</v>
       </c>
-      <c r="V20" s="2">
+      <c r="X20" s="2">
         <v>155</v>
       </c>
-      <c r="W20" s="2">
+      <c r="Y20" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
-      <c r="X20" s="2">
+      <c r="Z20" s="2">
         <v>131</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="AA20" s="2">
         <v>132</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="AB20" s="2">
         <v>4</v>
       </c>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2">
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2">
         <v>754</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AH20" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>754</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44710</v>
       </c>
@@ -9562,70 +9793,78 @@
       <c r="E21" s="2">
         <v>4504</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="3">
+        <f>Data[[#This Row],[LoC]]-E20</f>
+        <v>-2</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2">
+      <c r="M21" s="2"/>
+      <c r="N21" s="3">
+        <f>Data[[#This Row],[Total]]-M20</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
         <v>1718</v>
       </c>
-      <c r="N21" s="2">
+      <c r="P21" s="2">
         <v>3546</v>
       </c>
-      <c r="O21" s="2">
+      <c r="Q21" s="2">
         <v>61044</v>
       </c>
-      <c r="P21" s="2">
+      <c r="R21" s="2">
         <v>43112</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="S21" s="2">
         <v>1</v>
       </c>
-      <c r="R21" s="2">
+      <c r="T21" s="2">
         <v>1</v>
       </c>
-      <c r="S21" s="2">
+      <c r="U21" s="2">
         <v>219</v>
       </c>
-      <c r="T21" s="2">
+      <c r="V21" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
         <v>156</v>
       </c>
-      <c r="W21" s="2">
+      <c r="Y21" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
-      <c r="X21" s="2">
+      <c r="Z21" s="2">
         <v>131</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="AA21" s="2">
         <v>132</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="AB21" s="2">
         <v>4</v>
       </c>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="2">
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2">
         <v>773</v>
       </c>
-      <c r="AF21" s="2">
+      <c r="AH21" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>773</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44713</v>
       </c>
@@ -9641,70 +9880,78 @@
       <c r="E22" s="2">
         <v>4504</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="3">
+        <f>Data[[#This Row],[LoC]]-E21</f>
+        <v>0</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2">
+      <c r="M22" s="2"/>
+      <c r="N22" s="3">
+        <f>Data[[#This Row],[Total]]-M21</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
         <v>1723</v>
       </c>
-      <c r="N22" s="2">
+      <c r="P22" s="2">
         <v>3559</v>
       </c>
-      <c r="O22" s="2">
+      <c r="Q22" s="2">
         <v>61077</v>
       </c>
-      <c r="P22" s="2">
+      <c r="R22" s="2">
         <v>43133</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="S22" s="2">
         <v>1</v>
       </c>
-      <c r="R22" s="2">
+      <c r="T22" s="2">
         <v>1</v>
       </c>
-      <c r="S22" s="2">
+      <c r="U22" s="2">
         <v>219</v>
       </c>
-      <c r="T22" s="2">
+      <c r="V22" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2">
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
         <v>157</v>
       </c>
-      <c r="W22" s="2">
+      <c r="Y22" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
-      <c r="X22" s="2">
+      <c r="Z22" s="2">
         <v>131</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="AA22" s="2">
         <v>132</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="AB22" s="2">
         <v>4</v>
       </c>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="2">
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2">
         <v>787</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AH22" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>787</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44714</v>
       </c>
@@ -9720,70 +9967,78 @@
       <c r="E23" s="2">
         <v>4504</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="3">
+        <f>Data[[#This Row],[LoC]]-E22</f>
+        <v>0</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2">
+      <c r="M23" s="2"/>
+      <c r="N23" s="3">
+        <f>Data[[#This Row],[Total]]-M22</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
         <v>1724</v>
       </c>
-      <c r="N23" s="2">
+      <c r="P23" s="2">
         <v>3560</v>
       </c>
-      <c r="O23" s="2">
+      <c r="Q23" s="2">
         <v>61077</v>
       </c>
-      <c r="P23" s="2">
+      <c r="R23" s="2">
         <v>43133</v>
       </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
       <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
         <v>220</v>
       </c>
-      <c r="T23" s="2">
+      <c r="V23" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
         <v>157</v>
       </c>
-      <c r="W23" s="2">
+      <c r="Y23" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
-      <c r="X23" s="2">
+      <c r="Z23" s="2">
         <v>131</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="AA23" s="2">
         <v>132</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="AB23" s="2">
         <v>4</v>
       </c>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
-      <c r="AE23" s="2">
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2">
         <v>789</v>
       </c>
-      <c r="AF23" s="2">
+      <c r="AH23" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44715</v>
       </c>
@@ -9799,76 +10054,84 @@
       <c r="E24" s="2">
         <v>4510</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="3">
+        <f>Data[[#This Row],[LoC]]-E23</f>
+        <v>6</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2">
+      <c r="M24" s="2"/>
+      <c r="N24" s="3">
+        <f>Data[[#This Row],[Total]]-M23</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
         <v>1728</v>
       </c>
-      <c r="N24" s="2">
+      <c r="P24" s="2">
         <v>3565</v>
       </c>
-      <c r="O24" s="2">
+      <c r="Q24" s="2">
         <v>61091</v>
       </c>
-      <c r="P24" s="2">
+      <c r="R24" s="2">
         <v>43136</v>
       </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
       <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
         <v>220</v>
       </c>
-      <c r="T24" s="2">
+      <c r="V24" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2">
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
         <v>157</v>
       </c>
-      <c r="W24" s="2">
+      <c r="Y24" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
-      <c r="X24" s="2">
+      <c r="Z24" s="2">
         <v>131</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="AA24" s="2">
         <v>132</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="AB24" s="2">
         <v>4</v>
       </c>
-      <c r="AA24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="2">
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2">
         <v>302</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AE24" s="2">
         <v>488</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AF24" s="2">
         <v>7</v>
       </c>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2">
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>797</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44723</v>
       </c>
@@ -9884,76 +10147,84 @@
       <c r="E25" s="2">
         <v>4510</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="3">
+        <f>Data[[#This Row],[LoC]]-E24</f>
+        <v>0</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2">
+      <c r="M25" s="2"/>
+      <c r="N25" s="3">
+        <f>Data[[#This Row],[Total]]-M24</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
         <v>1733</v>
       </c>
-      <c r="N25" s="2">
+      <c r="P25" s="2">
         <v>3579</v>
       </c>
-      <c r="O25" s="2">
+      <c r="Q25" s="2">
         <v>61141</v>
       </c>
-      <c r="P25" s="2">
+      <c r="R25" s="2">
         <v>43154</v>
       </c>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2">
-        <v>0</v>
-      </c>
       <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
         <v>221</v>
       </c>
-      <c r="T25" s="2">
+      <c r="V25" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2">
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
         <v>158</v>
       </c>
-      <c r="W25" s="2">
+      <c r="Y25" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>158</v>
       </c>
-      <c r="X25" s="2">
+      <c r="Z25" s="2">
         <v>131</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="AA25" s="2">
         <v>132</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="AB25" s="2">
         <v>4</v>
       </c>
-      <c r="AA25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="2">
+      <c r="AC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2">
         <v>304</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AE25" s="2">
         <v>501</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AF25" s="2">
         <v>7</v>
       </c>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2">
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>812</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44725</v>
       </c>
@@ -9969,76 +10240,84 @@
       <c r="E26" s="2">
         <v>4510</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="3">
+        <f>Data[[#This Row],[LoC]]-E25</f>
+        <v>0</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2">
+      <c r="M26" s="2"/>
+      <c r="N26" s="3">
+        <f>Data[[#This Row],[Total]]-M25</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
         <v>1743</v>
       </c>
-      <c r="N26" s="2">
+      <c r="P26" s="2">
         <v>3590</v>
       </c>
-      <c r="O26" s="2">
+      <c r="Q26" s="2">
         <v>61156</v>
       </c>
-      <c r="P26" s="2">
+      <c r="R26" s="2">
         <v>43168</v>
       </c>
-      <c r="Q26" s="2">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2">
-        <v>0</v>
-      </c>
       <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
         <v>221</v>
       </c>
-      <c r="T26" s="2">
+      <c r="V26" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
-      <c r="U26" s="2">
-        <v>0</v>
-      </c>
-      <c r="V26" s="2">
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
         <v>159</v>
       </c>
-      <c r="W26" s="2">
+      <c r="Y26" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="X26" s="2">
+      <c r="Z26" s="2">
         <v>131</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="AA26" s="2">
         <v>132</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="AB26" s="2">
         <v>4</v>
       </c>
-      <c r="AA26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="2">
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
         <v>305</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AE26" s="2">
         <v>517</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AF26" s="2">
         <v>7</v>
       </c>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2">
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>829</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44727</v>
       </c>
@@ -10054,76 +10333,84 @@
       <c r="E27" s="2">
         <v>4515</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="3">
+        <f>Data[[#This Row],[LoC]]-E26</f>
+        <v>5</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2">
+      <c r="M27" s="2"/>
+      <c r="N27" s="3">
+        <f>Data[[#This Row],[Total]]-M26</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
         <v>1758</v>
       </c>
-      <c r="N27" s="2">
+      <c r="P27" s="2">
         <v>3610</v>
       </c>
-      <c r="O27" s="2">
+      <c r="Q27" s="2">
         <v>61388</v>
       </c>
-      <c r="P27" s="2">
+      <c r="R27" s="2">
         <v>43266</v>
       </c>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0</v>
-      </c>
       <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
         <v>221</v>
       </c>
-      <c r="T27" s="2">
+      <c r="V27" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
-      <c r="V27" s="2">
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
         <v>159</v>
       </c>
-      <c r="W27" s="2">
+      <c r="Y27" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="X27" s="2">
+      <c r="Z27" s="2">
         <v>131</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="AA27" s="2">
         <v>132</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="AB27" s="2">
         <v>4</v>
       </c>
-      <c r="AA27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="2">
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2">
         <v>314</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AE27" s="2">
         <v>536</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AF27" s="2">
         <v>7</v>
       </c>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2">
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>857</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44729</v>
       </c>
@@ -10139,76 +10426,84 @@
       <c r="E28" s="2">
         <v>4585</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="3">
+        <f>Data[[#This Row],[LoC]]-E27</f>
+        <v>70</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2">
+      <c r="M28" s="2"/>
+      <c r="N28" s="3">
+        <f>Data[[#This Row],[Total]]-M27</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
         <v>1763</v>
       </c>
-      <c r="N28" s="2">
+      <c r="P28" s="2">
         <v>3627</v>
       </c>
-      <c r="O28" s="2">
+      <c r="Q28" s="2">
         <v>61547</v>
       </c>
-      <c r="P28" s="2">
+      <c r="R28" s="2">
         <v>43284</v>
       </c>
-      <c r="Q28" s="2">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2">
-        <v>0</v>
-      </c>
       <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
         <v>222</v>
       </c>
-      <c r="T28" s="2">
+      <c r="V28" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>222</v>
       </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2">
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
         <v>159</v>
       </c>
-      <c r="W28" s="2">
+      <c r="Y28" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="X28" s="2">
+      <c r="Z28" s="2">
         <v>133</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="AA28" s="2">
         <v>135</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="AB28" s="2">
         <v>4</v>
       </c>
-      <c r="AA28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="2">
+      <c r="AC28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2">
         <v>316</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AE28" s="2">
         <v>548</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AF28" s="2">
         <v>7</v>
       </c>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2">
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>871</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44743</v>
       </c>
@@ -10224,76 +10519,84 @@
       <c r="E29" s="2">
         <v>4689</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="3">
+        <f>Data[[#This Row],[LoC]]-E28</f>
+        <v>104</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2">
+      <c r="M29" s="2"/>
+      <c r="N29" s="3">
+        <f>Data[[#This Row],[Total]]-M28</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
         <v>1773</v>
       </c>
-      <c r="N29" s="2">
+      <c r="P29" s="2">
         <v>3651</v>
       </c>
-      <c r="O29" s="2">
+      <c r="Q29" s="2">
         <v>61778</v>
       </c>
-      <c r="P29" s="2">
+      <c r="R29" s="2">
         <v>43332</v>
       </c>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0</v>
-      </c>
       <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
         <v>222</v>
       </c>
-      <c r="T29" s="2">
+      <c r="V29" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>222</v>
       </c>
-      <c r="U29" s="2">
-        <v>0</v>
-      </c>
-      <c r="V29" s="2">
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
         <v>159</v>
       </c>
-      <c r="W29" s="2">
+      <c r="Y29" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="X29" s="2">
+      <c r="Z29" s="2">
         <v>134</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="AA29" s="2">
         <v>137</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="AB29" s="2">
         <v>4</v>
       </c>
-      <c r="AA29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="2">
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2">
         <v>320</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AE29" s="2">
         <v>568</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AF29" s="2">
         <v>7</v>
       </c>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2">
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>895</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44748</v>
       </c>
@@ -10309,76 +10612,84 @@
       <c r="E30" s="2">
         <v>4712</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="3">
+        <f>Data[[#This Row],[LoC]]-E29</f>
+        <v>23</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2">
+      <c r="M30" s="2"/>
+      <c r="N30" s="3">
+        <f>Data[[#This Row],[Total]]-M29</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
         <v>1776</v>
       </c>
-      <c r="N30" s="2">
+      <c r="P30" s="2">
         <v>3662</v>
       </c>
-      <c r="O30" s="2">
+      <c r="Q30" s="2">
         <v>61856</v>
       </c>
-      <c r="P30" s="2">
+      <c r="R30" s="2">
         <v>43366</v>
       </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
       <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
         <v>223</v>
       </c>
-      <c r="T30" s="2">
+      <c r="V30" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>223</v>
       </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
-      <c r="V30" s="2">
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
         <v>159</v>
       </c>
-      <c r="W30" s="2">
+      <c r="Y30" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="X30" s="2">
+      <c r="Z30" s="2">
         <v>134</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="AA30" s="2">
         <v>137</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="AB30" s="2">
         <v>4</v>
       </c>
-      <c r="AA30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="2">
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2">
         <v>320</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AE30" s="2">
         <v>578</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AF30" s="2">
         <v>7</v>
       </c>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2">
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>905</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44757</v>
       </c>
@@ -10394,76 +10705,84 @@
       <c r="E31" s="2">
         <v>4720</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="3">
+        <f>Data[[#This Row],[LoC]]-E30</f>
+        <v>8</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2">
+      <c r="M31" s="2"/>
+      <c r="N31" s="3">
+        <f>Data[[#This Row],[Total]]-M30</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
         <v>1782</v>
       </c>
-      <c r="N31" s="2">
+      <c r="P31" s="2">
         <v>3684</v>
       </c>
-      <c r="O31" s="2">
+      <c r="Q31" s="2">
         <v>62189</v>
       </c>
-      <c r="P31" s="2">
+      <c r="R31" s="2">
         <v>43626</v>
       </c>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0</v>
-      </c>
       <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
         <v>224</v>
       </c>
-      <c r="T31" s="2">
+      <c r="V31" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
-      <c r="U31" s="2">
-        <v>0</v>
-      </c>
-      <c r="V31" s="2">
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2">
         <v>159</v>
       </c>
-      <c r="W31" s="2">
+      <c r="Y31" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="X31" s="2">
+      <c r="Z31" s="2">
         <v>134</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="AA31" s="2">
         <v>138</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="AB31" s="2">
         <v>4</v>
       </c>
-      <c r="AA31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="2">
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="2">
         <v>321</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AE31" s="2">
         <v>593</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AF31" s="2">
         <v>7</v>
       </c>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2">
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>921</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44761</v>
       </c>
@@ -10479,91 +10798,98 @@
       <c r="E32" s="2">
         <v>4720</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
+        <f>Data[[#This Row],[LoC]]-E31</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
         <v>5498</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>1781</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>315</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>240</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>97</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <v>48</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>7979</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
         <v>1782</v>
       </c>
-      <c r="N32" s="2">
+      <c r="P32" s="2">
         <v>3684</v>
       </c>
-      <c r="O32" s="2">
+      <c r="Q32" s="2">
         <v>62189</v>
       </c>
-      <c r="P32" s="2">
+      <c r="R32" s="2">
         <v>43626</v>
       </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
       <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
         <v>224</v>
       </c>
-      <c r="T32" s="2">
+      <c r="V32" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
-      <c r="V32" s="2">
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
         <v>159</v>
       </c>
-      <c r="W32" s="2">
+      <c r="Y32" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="X32" s="2">
+      <c r="Z32" s="2">
         <v>134</v>
       </c>
-      <c r="Y32" s="2">
+      <c r="AA32" s="2">
         <v>138</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="AB32" s="2">
         <v>4</v>
       </c>
-      <c r="AA32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="2">
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2">
         <v>321</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AE32" s="2">
         <v>595</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AF32" s="2">
         <v>7</v>
       </c>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2">
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>923</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44764</v>
       </c>
@@ -10579,91 +10905,99 @@
       <c r="E33" s="2">
         <v>4724</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
+        <f>Data[[#This Row],[LoC]]-E32</f>
+        <v>4</v>
+      </c>
+      <c r="G33" s="2">
         <v>5502</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>1781</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <v>315</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <v>240</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>97</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <v>48</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>7983</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="3">
+        <f>Data[[#This Row],[Total]]-M32</f>
+        <v>4</v>
+      </c>
+      <c r="O33" s="2">
         <v>1785</v>
       </c>
-      <c r="N33" s="2">
+      <c r="P33" s="2">
         <v>3689</v>
       </c>
-      <c r="O33" s="2">
+      <c r="Q33" s="2">
         <v>62207</v>
       </c>
-      <c r="P33" s="2">
+      <c r="R33" s="2">
         <v>43630</v>
       </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
       <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
         <v>224</v>
       </c>
-      <c r="T33" s="2">
+      <c r="V33" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
-      <c r="V33" s="2">
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2">
         <v>159</v>
       </c>
-      <c r="W33" s="2">
+      <c r="Y33" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="X33" s="2">
+      <c r="Z33" s="2">
         <v>134</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="AA33" s="2">
         <v>138</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="AB33" s="2">
         <v>4</v>
       </c>
-      <c r="AA33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="2">
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="2">
         <v>321</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AE33" s="2">
         <v>599</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AF33" s="2">
         <v>7</v>
       </c>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2">
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>927</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
@@ -10679,91 +11013,99 @@
       <c r="E34" s="2">
         <v>4731</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
+        <f>Data[[#This Row],[LoC]]-E33</f>
+        <v>7</v>
+      </c>
+      <c r="G34" s="2">
         <v>5589</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>1785</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <v>315</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <v>242</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>97</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
         <v>48</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8076</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N34" s="3">
+        <f>Data[[#This Row],[Total]]-M33</f>
+        <v>93</v>
+      </c>
+      <c r="O34" s="2">
         <v>1789</v>
       </c>
-      <c r="N34" s="2">
+      <c r="P34" s="2">
         <v>3703</v>
       </c>
-      <c r="O34" s="2">
+      <c r="Q34" s="2">
         <v>62262</v>
       </c>
-      <c r="P34" s="2">
+      <c r="R34" s="2">
         <v>43661</v>
       </c>
-      <c r="Q34" s="2">
-        <v>0</v>
-      </c>
-      <c r="R34" s="2">
-        <v>0</v>
-      </c>
       <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
         <v>225</v>
       </c>
-      <c r="T34" s="2">
+      <c r="V34" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>225</v>
       </c>
-      <c r="U34" s="2">
-        <v>0</v>
-      </c>
-      <c r="V34" s="2">
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
         <v>160</v>
       </c>
-      <c r="W34" s="2">
+      <c r="Y34" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
-      <c r="X34" s="2">
+      <c r="Z34" s="2">
         <v>135</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="AA34" s="2">
         <v>138</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="AB34" s="2">
         <v>4</v>
       </c>
-      <c r="AA34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="2">
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2">
         <v>322</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AE34" s="2">
         <v>610</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AF34" s="2">
         <v>7</v>
       </c>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2">
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>939</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44790</v>
       </c>
@@ -10779,88 +11121,160 @@
       <c r="E35" s="2">
         <v>4749</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
+        <f>Data[[#This Row],[LoC]]-E34</f>
+        <v>18</v>
+      </c>
+      <c r="G35" s="2">
         <v>5535</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>1788</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>315</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <v>243</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>97</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="2">
         <v>48</v>
       </c>
-      <c r="L35" s="2">
+      <c r="M35" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8026</v>
       </c>
-      <c r="M35" s="2">
+      <c r="N35" s="3">
+        <f>Data[[#This Row],[Total]]-M34</f>
+        <v>-50</v>
+      </c>
+      <c r="O35" s="2">
         <v>1791</v>
       </c>
-      <c r="N35" s="2">
+      <c r="P35" s="2">
         <v>3716</v>
       </c>
-      <c r="O35" s="2">
+      <c r="Q35" s="2">
         <v>62325</v>
       </c>
-      <c r="P35" s="2">
+      <c r="R35" s="2">
         <v>43671</v>
       </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0</v>
-      </c>
       <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
         <v>225</v>
       </c>
-      <c r="T35" s="2">
+      <c r="V35" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>225</v>
       </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2">
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
         <v>160</v>
       </c>
-      <c r="W35" s="2">
+      <c r="Y35" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
-      <c r="X35" s="2">
+      <c r="Z35" s="2">
         <v>136</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="AA35" s="2">
         <v>140</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="AB35" s="2">
         <v>4</v>
       </c>
-      <c r="AA35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="2">
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="2">
         <v>322</v>
       </c>
-      <c r="AC35" s="2">
+      <c r="AE35" s="2">
         <v>618</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AF35" s="2">
         <v>7</v>
       </c>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2">
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>947</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B36" s="2">
+        <v>106</v>
+      </c>
+      <c r="C36" s="2">
+        <v>243</v>
+      </c>
+      <c r="D36" s="2">
+        <v>196</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4762</v>
+      </c>
+      <c r="F36" s="3">
+        <f>Data[[#This Row],[LoC]]-E35</f>
+        <v>13</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <f>Data[[#This Row],[Total]]-M35</f>
+        <v>-8026</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1800265E-F5BC-7B4D-889F-095CCD619523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6987C693-979B-B84E-B53C-62F68ACA4E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24540" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -135,13 +135,13 @@
     <t>Bash</t>
   </si>
   <si>
-    <t>Total2</t>
-  </si>
-  <si>
     <t>∆LoC</t>
   </si>
   <si>
     <t>∆Total</t>
+  </si>
+  <si>
+    <t>∑runs</t>
   </si>
 </sst>
 </file>
@@ -196,12 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -263,6 +257,9 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
@@ -282,6 +279,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -580,7 +580,7 @@
                   <c:v>4749</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4762</c:v>
+                  <c:v>4770</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,6 +840,9 @@
                 <c:pt idx="33">
                   <c:v>1791</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>1802</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1097,6 +1100,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3716</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,6 +1578,9 @@
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1830,6 +1839,9 @@
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2086,6 +2098,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2566,7 +2581,7 @@
                   <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,7 +2842,7 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,6 +3318,9 @@
                 <c:pt idx="33">
                   <c:v>140</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>141</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3677,6 +3695,9 @@
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3865,6 +3886,9 @@
                 <c:pt idx="33">
                   <c:v>322</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>322</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4053,6 +4077,9 @@
                 <c:pt idx="33">
                   <c:v>618</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>641</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4239,6 +4266,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -7641,45 +7671,45 @@
     <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="31"/>
     <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="30"/>
     <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="29"/>
-    <tableColumn id="33" xr3:uid="{314C5206-2A7B-F841-94C2-27E5FA3210D6}" name="∆LoC" dataDxfId="1">
+    <tableColumn id="33" xr3:uid="{314C5206-2A7B-F841-94C2-27E5FA3210D6}" name="∆LoC" dataDxfId="28">
       <calculatedColumnFormula>Data[[#This Row],[LoC]]-E1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="28"/>
-    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="27"/>
-    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="26"/>
-    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="25"/>
-    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="24"/>
-    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="23"/>
-    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="22">
+    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="27"/>
+    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="26"/>
+    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="25"/>
+    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="24"/>
+    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="23"/>
+    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="22"/>
+    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="21">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Shell]:[Bash]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{FD44257B-EFD4-EF46-B0EE-B5B6EBB0D9D7}" name="∆Total" dataDxfId="0">
+    <tableColumn id="34" xr3:uid="{FD44257B-EFD4-EF46-B0EE-B5B6EBB0D9D7}" name="∆Total" dataDxfId="20">
       <calculatedColumnFormula>Data[[#This Row],[Total]]-M1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="12">
       <calculatedColumnFormula>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="11">
+    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="9">
       <calculatedColumnFormula>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="Total2" dataDxfId="2">
+    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="∑runs" dataDxfId="0">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Running]:[GH runs]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7986,9 +8016,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomLeft" activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8020,6 +8050,7 @@
     <col min="31" max="31" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
@@ -8039,7 +8070,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>
@@ -8063,7 +8094,7 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
         <v>5</v>
@@ -8123,7 +8154,7 @@
         <v>16</v>
       </c>
       <c r="AH1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
@@ -11221,60 +11252,104 @@
         <v>106</v>
       </c>
       <c r="C36" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D36" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E36" s="2">
-        <v>4762</v>
+        <v>4770</v>
       </c>
       <c r="F36" s="3">
         <f>Data[[#This Row],[LoC]]-E35</f>
-        <v>13</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5573</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1799</v>
+      </c>
+      <c r="I36" s="2">
+        <v>315</v>
+      </c>
+      <c r="J36" s="2">
+        <v>244</v>
+      </c>
+      <c r="K36" s="2">
+        <v>97</v>
+      </c>
+      <c r="L36" s="2">
+        <v>48</v>
+      </c>
       <c r="M36" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
-        <v>0</v>
+        <v>8076</v>
       </c>
       <c r="N36" s="3">
         <f>Data[[#This Row],[Total]]-M35</f>
-        <v>-8026</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1802</v>
+      </c>
+      <c r="P36" s="2">
+        <v>3755</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>62636</v>
+      </c>
+      <c r="R36" s="2">
+        <v>43878</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>227</v>
+      </c>
       <c r="V36" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
+        <v>160</v>
+      </c>
       <c r="Y36" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>137</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>322</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>641</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>7</v>
+      </c>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
-        <v>0</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6987C693-979B-B84E-B53C-62F68ACA4E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783C8C63-12A1-2E4F-A612-92A375643913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24520" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25560" windowHeight="27100" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -467,16 +467,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$36</c:f>
+              <c:f>Data!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -581,6 +584,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,10 +626,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -728,16 +734,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$2:$O$36</c:f>
+              <c:f>Data!$O$2:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -842,6 +851,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,10 +893,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -989,16 +1001,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$36</c:f>
+              <c:f>Data!$P$2:$P$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1103,6 +1118,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3755</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1358,10 +1376,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1466,16 +1484,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$36</c:f>
+              <c:f>Data!$T$2:$T$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1579,6 +1600,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1619,10 +1643,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1727,16 +1751,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$36</c:f>
+              <c:f>Data!$W$2:$W$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1840,6 +1867,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1880,10 +1910,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1988,16 +2018,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$36</c:f>
+              <c:f>Data!$S$2:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2101,6 +2134,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2360,10 +2396,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2468,16 +2504,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$36</c:f>
+              <c:f>Data!$V$2:$V$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2582,6 +2621,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,10 +2663,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2729,16 +2771,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$36</c:f>
+              <c:f>Data!$Y$2:$Y$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2842,6 +2887,9 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
@@ -3098,10 +3146,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3206,16 +3254,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$36</c:f>
+              <c:f>Data!$AA$2:$AA$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3320,6 +3371,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,10 +3595,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3649,16 +3703,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$36</c:f>
+              <c:f>Data!$AC$2:$AC$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3696,6 +3753,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3732,10 +3792,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3840,16 +3900,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$36</c:f>
+              <c:f>Data!$AD$2:$AD$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -3887,6 +3950,9 @@
                   <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>322</c:v>
                 </c:pt>
               </c:numCache>
@@ -3923,10 +3989,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4031,16 +4097,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$36</c:f>
+              <c:f>Data!$AE$2:$AE$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4079,6 +4148,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4114,10 +4186,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4222,16 +4294,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$36</c:f>
+              <c:f>Data!$AF$2:$AF$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4269,6 +4344,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4307,10 +4385,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$36</c:f>
+              <c:f>Data!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4415,16 +4493,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$36</c:f>
+              <c:f>Data!$AG$2:$AG$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -7663,8 +7744,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH36" totalsRowShown="0">
-  <autoFilter ref="A1:AH36" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH37" totalsRowShown="0">
+  <autoFilter ref="A1:AH37" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
@@ -8014,11 +8095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG37" sqref="AG37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11352,6 +11433,114 @@
         <v>970</v>
       </c>
     </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B37" s="2">
+        <v>106</v>
+      </c>
+      <c r="C37" s="2">
+        <v>245</v>
+      </c>
+      <c r="D37" s="2">
+        <v>197</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4772</v>
+      </c>
+      <c r="F37" s="3">
+        <f>Data[[#This Row],[LoC]]-E36</f>
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5578</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I37" s="2">
+        <v>542</v>
+      </c>
+      <c r="J37" s="2">
+        <v>315</v>
+      </c>
+      <c r="K37" s="2">
+        <v>97</v>
+      </c>
+      <c r="L37" s="2">
+        <v>48</v>
+      </c>
+      <c r="M37" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8380</v>
+      </c>
+      <c r="N37" s="3">
+        <f>Data[[#This Row],[Total]]-M36</f>
+        <v>304</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1805</v>
+      </c>
+      <c r="P37" s="2">
+        <v>3760</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>62661</v>
+      </c>
+      <c r="R37" s="2">
+        <v>43888</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>228</v>
+      </c>
+      <c r="V37" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>228</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y37" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>160</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>137</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>142</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>322</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>647</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>976</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783C8C63-12A1-2E4F-A612-92A375643913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FAF785-CFF9-ED4E-949D-F95E13D641F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25560" windowHeight="27100" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31960" windowHeight="34240" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -470,16 +470,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$37</c:f>
+              <c:f>Data!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -587,6 +590,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>4772</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,10 +632,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -737,16 +743,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$2:$O$37</c:f>
+              <c:f>Data!$O$2:$O$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -854,6 +863,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,10 +905,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1004,16 +1016,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$37</c:f>
+              <c:f>Data!$P$2:$P$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1121,6 +1136,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3770</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,10 +1394,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1487,16 +1505,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$37</c:f>
+              <c:f>Data!$T$2:$T$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1603,6 +1624,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1643,10 +1667,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1754,16 +1778,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$37</c:f>
+              <c:f>Data!$W$2:$W$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1870,6 +1897,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1910,10 +1940,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2021,16 +2051,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$37</c:f>
+              <c:f>Data!$S$2:$S$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2137,6 +2170,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2396,10 +2432,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2507,16 +2543,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$37</c:f>
+              <c:f>Data!$V$2:$V$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2623,6 +2662,9 @@
                   <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>228</c:v>
                 </c:pt>
               </c:numCache>
@@ -2663,10 +2705,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2774,16 +2816,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$37</c:f>
+              <c:f>Data!$Y$2:$Y$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2890,6 +2935,9 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
@@ -3146,10 +3194,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3257,16 +3305,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$37</c:f>
+              <c:f>Data!$AA$2:$AA$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3373,6 +3424,9 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
@@ -3595,10 +3649,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3706,16 +3760,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$37</c:f>
+              <c:f>Data!$AC$2:$AC$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3756,6 +3813,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3792,10 +3852,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3903,16 +3963,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$37</c:f>
+              <c:f>Data!$AD$2:$AD$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -3953,6 +4016,9 @@
                   <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>322</c:v>
                 </c:pt>
               </c:numCache>
@@ -3989,10 +4055,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4100,16 +4166,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$37</c:f>
+              <c:f>Data!$AE$2:$AE$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4151,6 +4220,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4186,10 +4258,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4297,16 +4369,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$37</c:f>
+              <c:f>Data!$AF$2:$AF$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4347,6 +4422,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4385,10 +4463,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$37</c:f>
+              <c:f>Data!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4496,16 +4574,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$37</c:f>
+              <c:f>Data!$AG$2:$AG$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -7744,8 +7825,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH37" totalsRowShown="0">
-  <autoFilter ref="A1:AH37" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH38" totalsRowShown="0">
+  <autoFilter ref="A1:AH38" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
@@ -8095,11 +8176,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG37" sqref="AG37"/>
+      <selection pane="bottomLeft" activeCell="AH38" sqref="AH38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11541,6 +11622,114 @@
         <v>976</v>
       </c>
     </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B38" s="2">
+        <v>106</v>
+      </c>
+      <c r="C38" s="2">
+        <v>246</v>
+      </c>
+      <c r="D38" s="2">
+        <v>198</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4778</v>
+      </c>
+      <c r="F38" s="3">
+        <f>Data[[#This Row],[LoC]]-E37</f>
+        <v>6</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5585</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1805</v>
+      </c>
+      <c r="I38" s="2">
+        <v>315</v>
+      </c>
+      <c r="J38" s="2">
+        <v>244</v>
+      </c>
+      <c r="K38" s="2">
+        <v>97</v>
+      </c>
+      <c r="L38" s="2">
+        <v>48</v>
+      </c>
+      <c r="M38" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8094</v>
+      </c>
+      <c r="N38" s="3">
+        <f>Data[[#This Row],[Total]]-M37</f>
+        <v>-286</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1809</v>
+      </c>
+      <c r="P38" s="2">
+        <v>3770</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>62701</v>
+      </c>
+      <c r="R38" s="2">
+        <v>43898</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <v>228</v>
+      </c>
+      <c r="V38" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>228</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y38" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>160</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>137</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>142</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>322</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>657</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>986</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FAF785-CFF9-ED4E-949D-F95E13D641F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF011AE5-A9F7-D942-B38E-611ABC690666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31960" windowHeight="34240" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24560" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -474,6 +474,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -593,6 +596,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4778</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,6 +753,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -866,6 +875,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1809</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,6 +1032,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1139,6 +1154,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,6 +1527,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1627,6 +1648,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1782,6 +1806,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1901,6 +1928,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2055,6 +2085,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2173,6 +2206,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2547,6 +2583,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2665,6 +2704,9 @@
                   <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>228</c:v>
                 </c:pt>
               </c:numCache>
@@ -2820,6 +2862,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2939,6 +2984,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3309,6 +3357,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3427,6 +3478,9 @@
                   <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
@@ -3764,6 +3818,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3816,6 +3873,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3967,6 +4027,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4020,6 +4083,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4170,6 +4236,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4223,6 +4292,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4373,6 +4445,9 @@
                 <c:pt idx="36">
                   <c:v>44805</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4425,6 +4500,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4577,6 +4655,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7608,7 +7689,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="210" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7619,7 +7700,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{24ACA0B5-B5F6-0649-9568-624D24B93699}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="210" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7630,7 +7711,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50B1BB8B-A1E8-FB42-B88F-023CE9967AAB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="210" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7663,7 +7744,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6077857"/>
+    <xdr:ext cx="9304130" cy="6064710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7696,7 +7777,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6077857"/>
+    <xdr:ext cx="9304130" cy="6064710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7729,7 +7810,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6077857"/>
+    <xdr:ext cx="9304130" cy="6064710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7825,8 +7906,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH38" totalsRowShown="0">
-  <autoFilter ref="A1:AH38" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH39" totalsRowShown="0">
+  <autoFilter ref="A1:AH39" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
@@ -8176,11 +8257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH38"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH38" sqref="AH38"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11730,6 +11811,114 @@
         <v>986</v>
       </c>
     </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44806</v>
+      </c>
+      <c r="B39" s="2">
+        <v>106</v>
+      </c>
+      <c r="C39" s="2">
+        <v>247</v>
+      </c>
+      <c r="D39" s="2">
+        <v>198</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4811</v>
+      </c>
+      <c r="F39" s="3">
+        <f>Data[[#This Row],[LoC]]-E38</f>
+        <v>33</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5612</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1805</v>
+      </c>
+      <c r="I39" s="2">
+        <v>284</v>
+      </c>
+      <c r="J39" s="2">
+        <v>244</v>
+      </c>
+      <c r="K39" s="2">
+        <v>97</v>
+      </c>
+      <c r="L39" s="2">
+        <v>48</v>
+      </c>
+      <c r="M39" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8090</v>
+      </c>
+      <c r="N39" s="3">
+        <f>Data[[#This Row],[Total]]-M38</f>
+        <v>-4</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1813</v>
+      </c>
+      <c r="P39" s="2">
+        <v>3784</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>62876</v>
+      </c>
+      <c r="R39" s="2">
+        <v>44048</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
+        <v>228</v>
+      </c>
+      <c r="V39" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>228</v>
+      </c>
+      <c r="W39" s="2">
+        <v>1</v>
+      </c>
+      <c r="X39" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y39" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>162</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>137</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>142</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>324</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>669</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF011AE5-A9F7-D942-B38E-611ABC690666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93047E17-F4D8-AF40-A16E-4D48B1EB73B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24560" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24480" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -476,16 +476,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$39</c:f>
+              <c:f>Data!$E$2:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -599,6 +602,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4811</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,10 +644,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -755,16 +761,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$2:$O$39</c:f>
+              <c:f>Data!$O$2:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -878,6 +887,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,10 +929,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1034,16 +1046,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$39</c:f>
+              <c:f>Data!$P$2:$P$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1157,6 +1172,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3784</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,10 +1430,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1529,16 +1547,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$39</c:f>
+              <c:f>Data!$T$2:$T$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1651,6 +1672,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1691,10 +1715,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1808,16 +1832,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$39</c:f>
+              <c:f>Data!$W$2:$W$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1931,6 +1958,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,10 +2000,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2087,16 +2117,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$39</c:f>
+              <c:f>Data!$S$2:$S$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2209,6 +2242,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2468,10 +2504,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2585,16 +2621,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$39</c:f>
+              <c:f>Data!$V$2:$V$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2707,6 +2746,9 @@
                   <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>228</c:v>
                 </c:pt>
               </c:numCache>
@@ -2747,10 +2789,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2864,16 +2906,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$39</c:f>
+              <c:f>Data!$Y$2:$Y$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -2987,6 +3032,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3242,10 +3290,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3359,16 +3407,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$39</c:f>
+              <c:f>Data!$AA$2:$AA$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3482,6 +3533,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3703,10 +3757,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3820,16 +3874,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$39</c:f>
+              <c:f>Data!$AC$2:$AC$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3876,6 +3933,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3912,10 +3972,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4029,16 +4089,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$39</c:f>
+              <c:f>Data!$AD$2:$AD$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4085,6 +4148,9 @@
                   <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>324</c:v>
                 </c:pt>
               </c:numCache>
@@ -4121,10 +4187,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4238,16 +4304,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$39</c:f>
+              <c:f>Data!$AE$2:$AE$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4295,6 +4364,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4330,10 +4402,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4447,16 +4519,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$39</c:f>
+              <c:f>Data!$AF$2:$AF$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4503,6 +4578,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4541,10 +4619,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$39</c:f>
+              <c:f>Data!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4658,16 +4736,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$39</c:f>
+              <c:f>Data!$AG$2:$AG$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -7906,8 +7987,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH39" totalsRowShown="0">
-  <autoFilter ref="A1:AH39" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH40" totalsRowShown="0">
+  <autoFilter ref="A1:AH40" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
@@ -8257,11 +8338,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG40" sqref="AG40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11919,6 +12000,114 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B40" s="2">
+        <v>106</v>
+      </c>
+      <c r="C40" s="2">
+        <v>247</v>
+      </c>
+      <c r="D40" s="2">
+        <v>199</v>
+      </c>
+      <c r="E40" s="2">
+        <v>4835</v>
+      </c>
+      <c r="F40" s="3">
+        <f>Data[[#This Row],[LoC]]-E39</f>
+        <v>24</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5646</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1809</v>
+      </c>
+      <c r="I40" s="2">
+        <v>284</v>
+      </c>
+      <c r="J40" s="2">
+        <v>246</v>
+      </c>
+      <c r="K40" s="2">
+        <v>97</v>
+      </c>
+      <c r="L40" s="2">
+        <v>48</v>
+      </c>
+      <c r="M40" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8130</v>
+      </c>
+      <c r="N40" s="3">
+        <f>Data[[#This Row],[Total]]-M39</f>
+        <v>40</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1815</v>
+      </c>
+      <c r="P40" s="2">
+        <v>3795</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>62951</v>
+      </c>
+      <c r="R40" s="2">
+        <v>44063</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <v>228</v>
+      </c>
+      <c r="V40" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>228</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y40" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>161</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>138</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>144</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>324</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>675</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1006</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93047E17-F4D8-AF40-A16E-4D48B1EB73B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D531BFB2-5DD4-844F-8621-B3ECA08CD27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24480" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25560" windowHeight="27100" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -479,16 +479,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$40</c:f>
+              <c:f>Data!$E$2:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -605,6 +608,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>4835</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,10 +650,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -764,16 +770,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$2:$O$40</c:f>
+              <c:f>Data!$O$2:$O$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -890,6 +899,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,10 +941,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1049,16 +1061,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$40</c:f>
+              <c:f>Data!$P$2:$P$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1175,6 +1190,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>3795</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,10 +1448,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1550,16 +1568,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$40</c:f>
+              <c:f>Data!$T$2:$T$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1675,6 +1696,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1715,10 +1739,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1835,16 +1859,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$40</c:f>
+              <c:f>Data!$W$2:$W$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1960,6 +1987,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2000,10 +2030,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2120,16 +2150,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$40</c:f>
+              <c:f>Data!$S$2:$S$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2245,6 +2278,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2504,10 +2540,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2624,16 +2660,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$40</c:f>
+              <c:f>Data!$V$2:$V$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2749,6 +2788,9 @@
                   <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>228</c:v>
                 </c:pt>
               </c:numCache>
@@ -2789,10 +2831,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2909,16 +2951,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$40</c:f>
+              <c:f>Data!$Y$2:$Y$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3034,6 +3079,9 @@
                   <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
@@ -3290,10 +3338,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3410,16 +3458,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$40</c:f>
+              <c:f>Data!$AA$2:$AA$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3535,6 +3586,9 @@
                   <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
@@ -3757,10 +3811,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3877,16 +3931,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$40</c:f>
+              <c:f>Data!$AC$2:$AC$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3936,6 +3993,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3972,10 +4032,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4092,16 +4152,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$40</c:f>
+              <c:f>Data!$AD$2:$AD$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4152,6 +4215,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4187,10 +4253,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4307,16 +4373,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$40</c:f>
+              <c:f>Data!$AE$2:$AE$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4367,6 +4436,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4402,10 +4474,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4522,16 +4594,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$40</c:f>
+              <c:f>Data!$AF$2:$AF$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4581,6 +4656,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4619,10 +4697,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$40</c:f>
+              <c:f>Data!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4739,16 +4817,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$40</c:f>
+              <c:f>Data!$AG$2:$AG$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -7987,8 +8068,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH40" totalsRowShown="0">
-  <autoFilter ref="A1:AH40" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH41" totalsRowShown="0">
+  <autoFilter ref="A1:AH41" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
@@ -8338,11 +8419,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG40" sqref="AG40"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG41" sqref="AG41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12108,6 +12189,114 @@
         <v>1006</v>
       </c>
     </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B41" s="2">
+        <v>106</v>
+      </c>
+      <c r="C41" s="2">
+        <v>247</v>
+      </c>
+      <c r="D41" s="2">
+        <v>199</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4895</v>
+      </c>
+      <c r="F41" s="3">
+        <f>Data[[#This Row],[LoC]]-E40</f>
+        <v>60</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5691</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1814</v>
+      </c>
+      <c r="I41" s="2">
+        <v>289</v>
+      </c>
+      <c r="J41" s="2">
+        <v>248</v>
+      </c>
+      <c r="K41" s="2">
+        <v>97</v>
+      </c>
+      <c r="L41" s="2">
+        <v>48</v>
+      </c>
+      <c r="M41" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8187</v>
+      </c>
+      <c r="N41" s="3">
+        <f>Data[[#This Row],[Total]]-M40</f>
+        <v>57</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1823</v>
+      </c>
+      <c r="P41" s="2">
+        <v>2813</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>63094</v>
+      </c>
+      <c r="R41" s="2">
+        <v>44112</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
+        <v>228</v>
+      </c>
+      <c r="V41" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>228</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y41" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>161</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>138</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>144</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>326</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>689</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1022</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D531BFB2-5DD4-844F-8621-B3ECA08CD27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3CB129-F2CE-044A-88A8-9E398A05E423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25560" windowHeight="27100" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -1192,7 +1192,7 @@
                   <c:v>3795</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2813</c:v>
+                  <c:v>3813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7851,7 +7851,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="172" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7906,7 +7906,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304130" cy="6064710"/>
+    <xdr:ext cx="9310872" cy="6069419"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8421,9 +8421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
   <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG41" sqref="AG41"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12239,7 +12239,7 @@
         <v>1823</v>
       </c>
       <c r="P41" s="2">
-        <v>2813</v>
+        <v>3813</v>
       </c>
       <c r="Q41" s="2">
         <v>63094</v>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3CB129-F2CE-044A-88A8-9E398A05E423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BF91B6-C7B2-084E-B9D9-E150CA2B9B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25560" windowHeight="27100" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20600" windowHeight="24500" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -482,16 +482,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$41</c:f>
+              <c:f>Data!$E$2:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -611,6 +614,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4895</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,10 +656,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -773,16 +779,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$2:$O$41</c:f>
+              <c:f>Data!$O$2:$O$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -902,6 +911,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1823</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,10 +953,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1064,16 +1076,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$41</c:f>
+              <c:f>Data!$P$2:$P$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1193,6 +1208,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>3813</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,10 +1466,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1571,16 +1589,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$41</c:f>
+              <c:f>Data!$T$2:$T$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1699,6 +1720,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1739,10 +1763,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1862,16 +1886,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$41</c:f>
+              <c:f>Data!$W$2:$W$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1990,6 +2017,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2030,10 +2060,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2153,16 +2183,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$41</c:f>
+              <c:f>Data!$S$2:$S$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2281,6 +2314,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2540,10 +2576,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2663,16 +2699,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$41</c:f>
+              <c:f>Data!$V$2:$V$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2791,6 +2830,9 @@
                   <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>228</c:v>
                 </c:pt>
               </c:numCache>
@@ -2831,10 +2873,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2954,16 +2996,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$41</c:f>
+              <c:f>Data!$Y$2:$Y$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3082,6 +3127,9 @@
                   <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
@@ -3338,10 +3386,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3461,16 +3509,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$41</c:f>
+              <c:f>Data!$AA$2:$AA$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3590,6 +3641,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3811,10 +3865,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3934,16 +3988,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$41</c:f>
+              <c:f>Data!$AC$2:$AC$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3996,6 +4053,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4032,10 +4092,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4155,16 +4215,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$41</c:f>
+              <c:f>Data!$AD$2:$AD$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4218,6 +4281,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4253,10 +4319,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4376,16 +4442,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$41</c:f>
+              <c:f>Data!$AE$2:$AE$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4439,6 +4508,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4474,10 +4546,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4597,16 +4669,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$41</c:f>
+              <c:f>Data!$AF$2:$AF$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4659,6 +4734,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4697,10 +4775,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$41</c:f>
+              <c:f>Data!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4820,16 +4898,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$41</c:f>
+              <c:f>Data!$AG$2:$AG$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -7851,7 +7932,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="172" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7906,7 +7987,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310872" cy="6069419"/>
+    <xdr:ext cx="9301151" cy="6066763"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8068,8 +8149,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH41" totalsRowShown="0">
-  <autoFilter ref="A1:AH41" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH42" totalsRowShown="0">
+  <autoFilter ref="A1:AH42" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
@@ -8419,11 +8500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12297,6 +12378,113 @@
         <v>1022</v>
       </c>
     </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B42" s="2">
+        <v>106</v>
+      </c>
+      <c r="C42" s="2">
+        <v>248</v>
+      </c>
+      <c r="D42" s="2">
+        <v>200</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4929</v>
+      </c>
+      <c r="F42" s="3">
+        <f>Data[[#This Row],[LoC]]-E41</f>
+        <v>34</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5743</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1830</v>
+      </c>
+      <c r="I42" s="2">
+        <v>289</v>
+      </c>
+      <c r="J42" s="2">
+        <v>259</v>
+      </c>
+      <c r="K42" s="2">
+        <v>97</v>
+      </c>
+      <c r="L42" s="2">
+        <v>51</v>
+      </c>
+      <c r="M42" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8269</v>
+      </c>
+      <c r="N42" s="3">
+        <f>Data[[#This Row],[Total]]-M41</f>
+        <v>82</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1830</v>
+      </c>
+      <c r="P42" s="2">
+        <v>3837</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>63369</v>
+      </c>
+      <c r="R42" s="2">
+        <v>44256</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2">
+        <v>228</v>
+      </c>
+      <c r="V42" s="2">
+        <v>228</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y42" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>161</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>141</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>148</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>330</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>703</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1040</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BF91B6-C7B2-084E-B9D9-E150CA2B9B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26066E3B-3905-A040-B46D-4B61756FEF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20600" windowHeight="24500" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -359,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -485,16 +485,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$42</c:f>
+              <c:f>Data!$E$2:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -617,6 +620,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>4929</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,10 +662,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -782,16 +788,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$2:$O$42</c:f>
+              <c:f>Data!$O$2:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -914,6 +923,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,10 +965,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1079,16 +1091,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$42</c:f>
+              <c:f>Data!$P$2:$P$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1211,6 +1226,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3837</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,10 +1484,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1592,16 +1610,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$42</c:f>
+              <c:f>Data!$T$2:$T$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1723,6 +1744,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1763,10 +1787,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1889,16 +1913,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$42</c:f>
+              <c:f>Data!$W$2:$W$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2020,6 +2047,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2060,10 +2090,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2186,16 +2216,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$42</c:f>
+              <c:f>Data!$S$2:$S$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2317,6 +2350,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2576,10 +2612,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2702,16 +2738,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$42</c:f>
+              <c:f>Data!$V$2:$V$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2834,6 +2873,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2873,10 +2915,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2999,16 +3041,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$42</c:f>
+              <c:f>Data!$Y$2:$Y$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3131,6 +3176,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,10 +3434,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3512,16 +3560,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$42</c:f>
+              <c:f>Data!$AA$2:$AA$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3643,6 +3694,9 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
@@ -3865,10 +3919,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3991,16 +4045,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$42</c:f>
+              <c:f>Data!$AC$2:$AC$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4056,6 +4113,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4092,10 +4152,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4218,16 +4278,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$42</c:f>
+              <c:f>Data!$AD$2:$AD$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4284,6 +4347,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4319,10 +4385,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4445,16 +4511,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$42</c:f>
+              <c:f>Data!$AE$2:$AE$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4511,6 +4580,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4546,10 +4618,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4672,16 +4744,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$42</c:f>
+              <c:f>Data!$AF$2:$AF$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4737,6 +4812,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4775,10 +4853,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$42</c:f>
+              <c:f>Data!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4901,16 +4979,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$42</c:f>
+              <c:f>Data!$AG$2:$AG$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -8149,8 +8230,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH42" totalsRowShown="0">
-  <autoFilter ref="A1:AH42" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH43" totalsRowShown="0">
+  <autoFilter ref="A1:AH43" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
@@ -8500,11 +8581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG39" sqref="AG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12446,6 +12527,7 @@
         <v>228</v>
       </c>
       <c r="V42" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
       <c r="W42" s="2">
@@ -12483,6 +12565,114 @@
       <c r="AH42" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1040</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B43" s="2">
+        <v>106</v>
+      </c>
+      <c r="C43" s="2">
+        <v>249</v>
+      </c>
+      <c r="D43" s="2">
+        <v>201</v>
+      </c>
+      <c r="E43" s="2">
+        <v>4958</v>
+      </c>
+      <c r="F43" s="3">
+        <f>Data[[#This Row],[LoC]]-E42</f>
+        <v>29</v>
+      </c>
+      <c r="G43" s="2">
+        <v>5776</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1838</v>
+      </c>
+      <c r="I43" s="2">
+        <v>289</v>
+      </c>
+      <c r="J43" s="2">
+        <v>262</v>
+      </c>
+      <c r="K43" s="2">
+        <v>98</v>
+      </c>
+      <c r="L43" s="2">
+        <v>51</v>
+      </c>
+      <c r="M43" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8314</v>
+      </c>
+      <c r="N43" s="3">
+        <f>Data[[#This Row],[Total]]-M42</f>
+        <v>45</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1844</v>
+      </c>
+      <c r="P43" s="2">
+        <v>3882</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>63725</v>
+      </c>
+      <c r="R43" s="2">
+        <v>44538</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2">
+        <v>230</v>
+      </c>
+      <c r="V43" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>230</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y43" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>162</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>143</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>148</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>335</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>732</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1074</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26066E3B-3905-A040-B46D-4B61756FEF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F37F568-DE98-1947-9F8C-B9E9008DA3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20600" windowHeight="24500" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20600" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -488,16 +488,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$43</c:f>
+              <c:f>Data!$E$2:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -623,6 +626,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4958</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,10 +668,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -791,16 +797,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$2:$O$43</c:f>
+              <c:f>Data!$O$2:$O$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -926,6 +935,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,10 +977,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1094,16 +1106,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$43</c:f>
+              <c:f>Data!$P$2:$P$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1229,6 +1244,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3882</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,10 +1502,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1613,16 +1631,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$43</c:f>
+              <c:f>Data!$T$2:$T$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1747,6 +1768,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1787,10 +1811,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1916,16 +1940,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$43</c:f>
+              <c:f>Data!$W$2:$W$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2050,6 +2077,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2090,10 +2120,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2219,16 +2249,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$43</c:f>
+              <c:f>Data!$S$2:$S$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2353,6 +2386,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2612,10 +2648,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2741,16 +2777,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$43</c:f>
+              <c:f>Data!$V$2:$V$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2876,6 +2915,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2915,10 +2957,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3044,16 +3086,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$43</c:f>
+              <c:f>Data!$Y$2:$Y$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3178,6 +3223,9 @@
                   <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
@@ -3434,10 +3482,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3563,16 +3611,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$43</c:f>
+              <c:f>Data!$AA$2:$AA$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3697,6 +3748,9 @@
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
@@ -3919,10 +3973,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4048,16 +4102,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$43</c:f>
+              <c:f>Data!$AC$2:$AC$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4116,6 +4173,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4152,10 +4212,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4281,16 +4341,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$43</c:f>
+              <c:f>Data!$AD$2:$AD$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4349,6 +4412,9 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>335</c:v>
                 </c:pt>
               </c:numCache>
@@ -4385,10 +4451,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4514,16 +4580,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$43</c:f>
+              <c:f>Data!$AE$2:$AE$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4583,6 +4652,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4618,10 +4690,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4747,16 +4819,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$43</c:f>
+              <c:f>Data!$AF$2:$AF$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4815,6 +4890,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -4853,10 +4931,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$43</c:f>
+              <c:f>Data!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4982,16 +5060,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$43</c:f>
+              <c:f>Data!$AG$2:$AG$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -8230,8 +8311,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH43" totalsRowShown="0">
-  <autoFilter ref="A1:AH43" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH44" totalsRowShown="0">
+  <autoFilter ref="A1:AH44" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
@@ -8581,11 +8662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG39" sqref="AG39"/>
+      <selection pane="bottomLeft" activeCell="AH44" sqref="AH44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12675,6 +12756,114 @@
         <v>1074</v>
       </c>
     </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B44" s="2">
+        <v>106</v>
+      </c>
+      <c r="C44" s="2">
+        <v>249</v>
+      </c>
+      <c r="D44" s="2">
+        <v>201</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4961</v>
+      </c>
+      <c r="F44" s="3">
+        <f>Data[[#This Row],[LoC]]-E43</f>
+        <v>3</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5780</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1838</v>
+      </c>
+      <c r="I44" s="2">
+        <v>289</v>
+      </c>
+      <c r="J44" s="2">
+        <v>262</v>
+      </c>
+      <c r="K44" s="2">
+        <v>98</v>
+      </c>
+      <c r="L44" s="2">
+        <v>51</v>
+      </c>
+      <c r="M44" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8318</v>
+      </c>
+      <c r="N44" s="3">
+        <f>Data[[#This Row],[Total]]-M43</f>
+        <v>4</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1846</v>
+      </c>
+      <c r="P44" s="2">
+        <v>3886</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>63780</v>
+      </c>
+      <c r="R44" s="2">
+        <v>44585</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <v>232</v>
+      </c>
+      <c r="V44" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>232</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y44" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>162</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>143</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>148</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>335</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>736</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>7</v>
+      </c>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1078</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F37F568-DE98-1947-9F8C-B9E9008DA3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275DFB4C-90C9-E747-8736-378BE5E98C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20600" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -359,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -491,16 +491,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$44</c:f>
+              <c:f>Data!$E$2:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -668,10 +671,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -800,16 +803,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$2:$O$44</c:f>
+              <c:f>Data!$O$2:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -977,10 +983,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1109,16 +1115,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$44</c:f>
+              <c:f>Data!$P$2:$P$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1502,10 +1511,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1634,16 +1643,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$44</c:f>
+              <c:f>Data!$T$2:$T$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1811,10 +1823,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1943,16 +1955,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$44</c:f>
+              <c:f>Data!$W$2:$W$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2120,10 +2135,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2252,16 +2267,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$44</c:f>
+              <c:f>Data!$S$2:$S$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2648,10 +2666,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2780,16 +2798,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$44</c:f>
+              <c:f>Data!$V$2:$V$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2918,6 +2939,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,10 +2981,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3089,16 +3113,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$44</c:f>
+              <c:f>Data!$Y$2:$Y$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3227,6 +3254,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3482,10 +3512,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3614,16 +3644,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$44</c:f>
+              <c:f>Data!$AA$2:$AA$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3973,10 +4006,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4105,16 +4138,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$44</c:f>
+              <c:f>Data!$AC$2:$AC$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4212,10 +4248,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4344,16 +4380,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$44</c:f>
+              <c:f>Data!$AD$2:$AD$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4451,10 +4490,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4583,16 +4622,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$44</c:f>
+              <c:f>Data!$AE$2:$AE$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4690,10 +4732,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4822,16 +4864,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$44</c:f>
+              <c:f>Data!$AF$2:$AF$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4931,10 +4976,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$44</c:f>
+              <c:f>Data!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5063,16 +5108,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$44</c:f>
+              <c:f>Data!$AG$2:$AG$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -8311,8 +8359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH44" totalsRowShown="0">
-  <autoFilter ref="A1:AH44" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH45" totalsRowShown="0">
+  <autoFilter ref="A1:AH45" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
@@ -8662,11 +8710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH44" sqref="AH44"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12864,6 +12912,68 @@
         <v>1078</v>
       </c>
     </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B45" s="2">
+        <v>106</v>
+      </c>
+      <c r="C45" s="2">
+        <v>250</v>
+      </c>
+      <c r="D45" s="2">
+        <v>202</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3">
+        <f>Data[[#This Row],[LoC]]-E44</f>
+        <v>-4961</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <f>Data[[#This Row],[Total]]-M44</f>
+        <v>-8318</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275DFB4C-90C9-E747-8736-378BE5E98C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A06120-75C6-4F41-95C6-E2316AAD4FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20600" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -633,6 +633,9 @@
                 <c:pt idx="42">
                   <c:v>4961</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>4980</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -945,6 +948,9 @@
                 <c:pt idx="42">
                   <c:v>1846</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>1852</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1256,6 +1262,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3886</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,6 +1794,9 @@
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2097,6 +2109,9 @@
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2407,6 +2422,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2941,7 +2959,7 @@
                   <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3256,7 +3274,7 @@
                   <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3786,6 +3804,9 @@
                 <c:pt idx="42">
                   <c:v>148</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>150</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4214,6 +4235,9 @@
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4456,6 +4480,9 @@
                 <c:pt idx="42">
                   <c:v>335</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>338</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4698,6 +4725,9 @@
                 <c:pt idx="42">
                   <c:v>736</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>749</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4938,6 +4968,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -8712,9 +8745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF45" sqref="AF45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12925,53 +12958,99 @@
       <c r="D45" s="2">
         <v>202</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>4980</v>
+      </c>
       <c r="F45" s="3">
         <f>Data[[#This Row],[LoC]]-E44</f>
-        <v>-4961</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5806</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1840</v>
+      </c>
+      <c r="I45" s="2">
+        <v>289</v>
+      </c>
+      <c r="J45" s="2">
+        <v>263</v>
+      </c>
+      <c r="K45" s="2">
+        <v>98</v>
+      </c>
+      <c r="L45" s="2">
+        <v>51</v>
+      </c>
       <c r="M45" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
-        <v>0</v>
+        <v>8347</v>
       </c>
       <c r="N45" s="3">
         <f>Data[[#This Row],[Total]]-M44</f>
-        <v>-8318</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1852</v>
+      </c>
+      <c r="P45" s="2">
+        <v>3907</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>63871</v>
+      </c>
+      <c r="R45" s="2">
+        <v>44612</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <v>232</v>
+      </c>
       <c r="V45" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="2">
+        <v>162</v>
+      </c>
       <c r="Y45" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
-        <v>0</v>
-      </c>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>144</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>150</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>338</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>749</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>7</v>
+      </c>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
-        <v>0</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A06120-75C6-4F41-95C6-E2316AAD4FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892C50AB-08D4-3B4B-A774-72AFF834F995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20600" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -359,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -494,16 +494,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$45</c:f>
+              <c:f>Data!$E$2:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -635,6 +638,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4980</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,10 +680,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -809,16 +815,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$2:$O$45</c:f>
+              <c:f>Data!$O$2:$O$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -950,6 +959,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,10 +1001,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1124,16 +1136,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$45</c:f>
+              <c:f>Data!$P$2:$P$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1265,6 +1280,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3907</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,10 +1538,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1655,16 +1673,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$45</c:f>
+              <c:f>Data!$T$2:$T$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1795,6 +1816,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1835,10 +1859,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1970,16 +1994,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$45</c:f>
+              <c:f>Data!$W$2:$W$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2110,6 +2137,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2150,10 +2180,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2285,16 +2315,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$45</c:f>
+              <c:f>Data!$S$2:$S$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2425,6 +2458,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2684,10 +2720,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2819,16 +2855,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$45</c:f>
+              <c:f>Data!$V$2:$V$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -2960,6 +2999,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,10 +3041,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3134,16 +3176,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$45</c:f>
+              <c:f>Data!$Y$2:$Y$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3274,6 +3319,9 @@
                   <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
@@ -3530,10 +3578,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3665,16 +3713,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$45</c:f>
+              <c:f>Data!$AA$2:$AA$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3806,6 +3857,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4027,10 +4081,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4162,16 +4216,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$45</c:f>
+              <c:f>Data!$AC$2:$AC$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4236,6 +4293,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4272,10 +4332,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4407,16 +4467,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$45</c:f>
+              <c:f>Data!$AD$2:$AD$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4482,6 +4545,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4517,10 +4583,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4652,16 +4718,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$45</c:f>
+              <c:f>Data!$AE$2:$AE$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4727,6 +4796,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4762,10 +4834,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4897,16 +4969,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$45</c:f>
+              <c:f>Data!$AF$2:$AF$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4972,6 +5047,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5009,10 +5087,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$45</c:f>
+              <c:f>Data!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5144,16 +5222,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$45</c:f>
+              <c:f>Data!$AG$2:$AG$46</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -8392,8 +8473,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH45" totalsRowShown="0">
-  <autoFilter ref="A1:AH45" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH46" totalsRowShown="0">
+  <autoFilter ref="A1:AH46" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
@@ -8743,11 +8824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF45" sqref="AF45"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG46" sqref="AG46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13053,6 +13134,114 @@
         <v>1094</v>
       </c>
     </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44828</v>
+      </c>
+      <c r="B46" s="2">
+        <v>106</v>
+      </c>
+      <c r="C46" s="2">
+        <v>242</v>
+      </c>
+      <c r="D46" s="2">
+        <v>204</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5157</v>
+      </c>
+      <c r="F46" s="3">
+        <f>Data[[#This Row],[LoC]]-E45</f>
+        <v>177</v>
+      </c>
+      <c r="G46" s="2">
+        <v>6007</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1868</v>
+      </c>
+      <c r="I46" s="2">
+        <v>289</v>
+      </c>
+      <c r="J46" s="2">
+        <v>273</v>
+      </c>
+      <c r="K46" s="2">
+        <v>98</v>
+      </c>
+      <c r="L46" s="2">
+        <v>57</v>
+      </c>
+      <c r="M46" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8592</v>
+      </c>
+      <c r="N46" s="3">
+        <f>Data[[#This Row],[Total]]-M45</f>
+        <v>245</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1871</v>
+      </c>
+      <c r="P46" s="2">
+        <v>3955</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>64426</v>
+      </c>
+      <c r="R46" s="2">
+        <v>44810</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
+        <v>234</v>
+      </c>
+      <c r="V46" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>234</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y46" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>162</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>150</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>158</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>341</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>786</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>9</v>
+      </c>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1136</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892C50AB-08D4-3B4B-A774-72AFF834F995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D6A10B-D9E9-8E45-A6C1-D9BD8F314F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20600" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -640,7 +640,7 @@
                   <c:v>4980</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5157</c:v>
+                  <c:v>5159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,7 +961,7 @@
                   <c:v>1852</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1871</c:v>
+                  <c:v>1873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,7 +1282,7 @@
                   <c:v>3907</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3955</c:v>
+                  <c:v>3964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,7 +3001,7 @@
                   <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>234</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4798,7 +4798,7 @@
                   <c:v>749</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>786</c:v>
+                  <c:v>797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8826,9 +8826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG46" sqref="AG46"/>
+      <selection pane="bottomLeft" activeCell="AJ46" sqref="AJ46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13142,20 +13142,20 @@
         <v>106</v>
       </c>
       <c r="C46" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D46" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E46" s="2">
-        <v>5157</v>
+        <v>5159</v>
       </c>
       <c r="F46" s="3">
         <f>Data[[#This Row],[LoC]]-E45</f>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G46" s="2">
-        <v>6007</v>
+        <v>6009</v>
       </c>
       <c r="H46" s="2">
         <v>1868</v>
@@ -13174,23 +13174,23 @@
       </c>
       <c r="M46" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
-        <v>8592</v>
+        <v>8594</v>
       </c>
       <c r="N46" s="3">
         <f>Data[[#This Row],[Total]]-M45</f>
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O46" s="2">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="P46" s="2">
-        <v>3955</v>
+        <v>3964</v>
       </c>
       <c r="Q46" s="2">
-        <v>64426</v>
+        <v>64446</v>
       </c>
       <c r="R46" s="2">
-        <v>44810</v>
+        <v>44820</v>
       </c>
       <c r="S46" s="2">
         <v>0</v>
@@ -13199,11 +13199,11 @@
         <v>0</v>
       </c>
       <c r="U46" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="V46" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="W46" s="2">
         <v>0</v>
@@ -13231,7 +13231,7 @@
         <v>341</v>
       </c>
       <c r="AE46" s="2">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="AF46" s="2">
         <v>9</v>
@@ -13239,7 +13239,7 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
-        <v>1136</v>
+        <v>1147</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D6A10B-D9E9-8E45-A6C1-D9BD8F314F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62347C3E-1A0E-8C4A-9490-20B2AED1C7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20600" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -497,16 +497,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$46</c:f>
+              <c:f>Data!$E$2:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -641,6 +644,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>5159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,10 +686,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -818,16 +824,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$2:$O$46</c:f>
+              <c:f>Data!$O$2:$O$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -962,6 +971,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,10 +1013,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1139,16 +1151,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$46</c:f>
+              <c:f>Data!$P$2:$P$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1283,6 +1298,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3964</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1538,10 +1556,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1676,16 +1694,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$46</c:f>
+              <c:f>Data!$T$2:$T$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1819,6 +1840,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1859,10 +1883,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1997,16 +2021,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$46</c:f>
+              <c:f>Data!$W$2:$W$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2140,6 +2167,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2180,10 +2210,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2318,16 +2348,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$46</c:f>
+              <c:f>Data!$S$2:$S$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2461,6 +2494,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2720,10 +2756,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2858,16 +2894,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$46</c:f>
+              <c:f>Data!$V$2:$V$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -3002,6 +3041,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3041,10 +3083,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3179,16 +3221,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$46</c:f>
+              <c:f>Data!$Y$2:$Y$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3322,6 +3367,9 @@
                   <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
@@ -3578,10 +3626,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3716,16 +3764,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$46</c:f>
+              <c:f>Data!$AA$2:$AA$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3859,6 +3910,9 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
@@ -4081,10 +4135,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4219,16 +4273,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$46</c:f>
+              <c:f>Data!$AC$2:$AC$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4296,6 +4353,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4332,10 +4392,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4470,16 +4530,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$46</c:f>
+              <c:f>Data!$AD$2:$AD$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4547,6 +4610,9 @@
                   <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>341</c:v>
                 </c:pt>
               </c:numCache>
@@ -4583,10 +4649,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4721,16 +4787,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$46</c:f>
+              <c:f>Data!$AE$2:$AE$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4799,6 +4868,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4834,10 +4906,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4972,16 +5044,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$46</c:f>
+              <c:f>Data!$AF$2:$AF$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5049,6 +5124,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -5087,10 +5165,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$46</c:f>
+              <c:f>Data!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5225,16 +5303,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44828</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$46</c:f>
+              <c:f>Data!$AG$2:$AG$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -8473,8 +8554,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH46" totalsRowShown="0">
-  <autoFilter ref="A1:AH46" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH47" totalsRowShown="0">
+  <autoFilter ref="A1:AH47" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
@@ -8824,11 +8905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ46" sqref="AJ46"/>
+      <selection pane="bottomLeft" activeCell="AG47" sqref="AG47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13242,6 +13323,114 @@
         <v>1147</v>
       </c>
     </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44831</v>
+      </c>
+      <c r="B47" s="2">
+        <v>106</v>
+      </c>
+      <c r="C47" s="2">
+        <v>254</v>
+      </c>
+      <c r="D47" s="2">
+        <v>206</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5169</v>
+      </c>
+      <c r="F47" s="3">
+        <f>Data[[#This Row],[LoC]]-E46</f>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2">
+        <v>6018</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1872</v>
+      </c>
+      <c r="I47" s="2">
+        <v>289</v>
+      </c>
+      <c r="J47" s="2">
+        <v>273</v>
+      </c>
+      <c r="K47" s="2">
+        <v>98</v>
+      </c>
+      <c r="L47" s="2">
+        <v>57</v>
+      </c>
+      <c r="M47" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8607</v>
+      </c>
+      <c r="N47" s="3">
+        <f>Data[[#This Row],[Total]]-M46</f>
+        <v>13</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1879</v>
+      </c>
+      <c r="P47" s="2">
+        <v>3976</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>64484</v>
+      </c>
+      <c r="R47" s="2">
+        <v>44834</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>237</v>
+      </c>
+      <c r="V47" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>237</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y47" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>162</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>150</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>158</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>341</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>815</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>9</v>
+      </c>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1165</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62347C3E-1A0E-8C4A-9490-20B2AED1C7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7050273D-A45E-6F4B-9164-18D046866ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -359,10 +359,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -506,10 +506,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$47</c:f>
+              <c:f>Data!$E$2:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -686,10 +686,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -833,10 +833,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$2:$O$47</c:f>
+              <c:f>Data!$O$2:$O$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -973,7 +973,7 @@
                   <c:v>1873</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1879</c:v>
+                  <c:v>1884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,10 +1013,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1160,10 +1160,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$47</c:f>
+              <c:f>Data!$P$2:$P$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1300,7 +1300,7 @@
                   <c:v>3964</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3976</c:v>
+                  <c:v>3982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,10 +1556,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1703,10 +1703,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$47</c:f>
+              <c:f>Data!$T$2:$T$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1883,10 +1883,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2030,10 +2030,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$47</c:f>
+              <c:f>Data!$W$2:$W$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2210,10 +2210,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2357,10 +2357,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$47</c:f>
+              <c:f>Data!$S$2:$S$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2756,10 +2756,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2903,10 +2903,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$47</c:f>
+              <c:f>Data!$V$2:$V$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -3083,10 +3083,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3230,10 +3230,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$47</c:f>
+              <c:f>Data!$Y$2:$Y$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3626,10 +3626,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3773,10 +3773,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$47</c:f>
+              <c:f>Data!$AA$2:$AA$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -4135,10 +4135,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4282,10 +4282,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$47</c:f>
+              <c:f>Data!$AC$2:$AC$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4392,10 +4392,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4539,10 +4539,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$47</c:f>
+              <c:f>Data!$AD$2:$AD$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4613,7 +4613,7 @@
                   <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>341</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4649,10 +4649,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4796,10 +4796,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$47</c:f>
+              <c:f>Data!$AE$2:$AE$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4870,7 +4870,7 @@
                   <c:v>797</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>815</c:v>
+                  <c:v>822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4906,10 +4906,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5053,10 +5053,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$47</c:f>
+              <c:f>Data!$AF$2:$AF$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5165,10 +5165,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$47</c:f>
+              <c:f>Data!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5312,10 +5312,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$47</c:f>
+              <c:f>Data!$AG$2:$AG$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -8908,8 +8908,8 @@
   <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG47" sqref="AG47"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF47" sqref="AF47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13350,7 +13350,7 @@
         <v>1872</v>
       </c>
       <c r="I47" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J47" s="2">
         <v>273</v>
@@ -13363,23 +13363,23 @@
       </c>
       <c r="M47" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
-        <v>8607</v>
+        <v>8609</v>
       </c>
       <c r="N47" s="3">
         <f>Data[[#This Row],[Total]]-M46</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O47" s="2">
-        <v>1879</v>
+        <v>1884</v>
       </c>
       <c r="P47" s="2">
-        <v>3976</v>
+        <v>3982</v>
       </c>
       <c r="Q47" s="2">
-        <v>64484</v>
+        <v>64492</v>
       </c>
       <c r="R47" s="2">
-        <v>44834</v>
+        <v>44840</v>
       </c>
       <c r="S47" s="2">
         <v>0</v>
@@ -13417,10 +13417,10 @@
         <v>0</v>
       </c>
       <c r="AD47" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AE47" s="2">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="AF47" s="2">
         <v>9</v>
@@ -13428,7 +13428,7 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
-        <v>1165</v>
+        <v>1175</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/src/check_ssl_cert/varia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/git/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7050273D-A45E-6F4B-9164-18D046866ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03D2ACB-95EA-F645-84E6-D9A50A015797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24460" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24440" activeTab="1" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -501,6 +501,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -647,6 +650,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>5169</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,6 +834,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -974,6 +983,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,6 +1167,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1301,6 +1316,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>3982</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,6 +1716,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1843,6 +1864,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2025,6 +2049,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2170,6 +2197,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2352,6 +2382,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2497,6 +2530,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2898,6 +2934,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3044,6 +3083,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3225,6 +3267,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3370,6 +3415,9 @@
                   <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
@@ -3768,6 +3816,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3914,6 +3965,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4277,6 +4331,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4356,6 +4413,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4534,6 +4594,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4614,6 +4677,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4791,6 +4857,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4871,6 +4940,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5048,6 +5120,9 @@
                 <c:pt idx="45">
                   <c:v>44831</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5127,6 +5202,9 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -5306,6 +5384,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>44831</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44840</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8337,7 +8418,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8392,7 +8473,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9301151" cy="6066763"/>
+    <xdr:ext cx="9313333" cy="6083457"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8554,8 +8635,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH47" totalsRowShown="0">
-  <autoFilter ref="A1:AH47" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH48" totalsRowShown="0">
+  <autoFilter ref="A1:AH48" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
@@ -8905,11 +8986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF47" sqref="AF47"/>
+    <sheetView topLeftCell="R1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI48" sqref="AI48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13431,6 +13512,114 @@
         <v>1175</v>
       </c>
     </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B48" s="2">
+        <v>106</v>
+      </c>
+      <c r="C48" s="2">
+        <v>255</v>
+      </c>
+      <c r="D48" s="2">
+        <v>207</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5260</v>
+      </c>
+      <c r="F48" s="3">
+        <f>Data[[#This Row],[LoC]]-E47</f>
+        <v>91</v>
+      </c>
+      <c r="G48" s="2">
+        <v>6107</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1875</v>
+      </c>
+      <c r="I48" s="2">
+        <v>291</v>
+      </c>
+      <c r="J48" s="2">
+        <v>425</v>
+      </c>
+      <c r="K48" s="2">
+        <v>98</v>
+      </c>
+      <c r="L48" s="2">
+        <v>57</v>
+      </c>
+      <c r="M48" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8853</v>
+      </c>
+      <c r="N48" s="3">
+        <f>Data[[#This Row],[Total]]-M47</f>
+        <v>244</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1890</v>
+      </c>
+      <c r="P48" s="2">
+        <v>4001</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>64679</v>
+      </c>
+      <c r="R48" s="2">
+        <v>44879</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <v>238</v>
+      </c>
+      <c r="V48" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>238</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y48" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>162</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>151</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>161</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>345</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>837</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>9</v>
+      </c>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/git/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03D2ACB-95EA-F645-84E6-D9A50A015797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F1FCC-9680-E54F-8A1E-B5911CEE6FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24440" activeTab="1" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="12180" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -652,7 +652,7 @@
                   <c:v>5169</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5260</c:v>
+                  <c:v>5265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,7 +985,7 @@
                   <c:v>1884</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1890</c:v>
+                  <c:v>1893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,7 +1318,7 @@
                   <c:v>3982</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4001</c:v>
+                  <c:v>4011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3967,7 +3967,7 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>161</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4942,7 +4942,7 @@
                   <c:v>822</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>837</c:v>
+                  <c:v>846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8418,7 +8418,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79BFC0E2-E15C-9645-95CF-EABB927DA6C7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8473,7 +8473,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6083457"/>
+    <xdr:ext cx="9313333" cy="6073913"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8988,9 +8988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
   <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI48" sqref="AI48"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF48" sqref="AF48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13520,23 +13520,23 @@
         <v>106</v>
       </c>
       <c r="C48" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D48" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E48" s="2">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="F48" s="3">
         <f>Data[[#This Row],[LoC]]-E47</f>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G48" s="2">
-        <v>6107</v>
+        <v>6117</v>
       </c>
       <c r="H48" s="2">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="I48" s="2">
         <v>291</v>
@@ -13552,23 +13552,23 @@
       </c>
       <c r="M48" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
-        <v>8853</v>
+        <v>8865</v>
       </c>
       <c r="N48" s="3">
         <f>Data[[#This Row],[Total]]-M47</f>
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="O48" s="2">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="P48" s="2">
-        <v>4001</v>
+        <v>4011</v>
       </c>
       <c r="Q48" s="2">
-        <v>64679</v>
+        <v>64734</v>
       </c>
       <c r="R48" s="2">
-        <v>44879</v>
+        <v>44916</v>
       </c>
       <c r="S48" s="2">
         <v>0</v>
@@ -13597,7 +13597,7 @@
         <v>151</v>
       </c>
       <c r="AA48" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB48" s="2">
         <v>4</v>
@@ -13609,7 +13609,7 @@
         <v>345</v>
       </c>
       <c r="AE48" s="2">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="AF48" s="2">
         <v>9</v>
@@ -13617,7 +13617,7 @@
       <c r="AG48" s="2"/>
       <c r="AH48" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
-        <v>1191</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/git/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F1FCC-9680-E54F-8A1E-B5911CEE6FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34167CF-781D-FD42-A0FB-7C7D50ACBB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="12180" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="13140" windowWidth="41120" windowHeight="12200" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -143,6 +143,12 @@
   <si>
     <t>∑runs</t>
   </si>
+  <si>
+    <t>Stars</t>
+  </si>
+  <si>
+    <t>Forks</t>
+  </si>
 </sst>
 </file>
 
@@ -186,16 +192,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="36">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -336,7 +349,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$E$1</c:f>
+              <c:f>Data!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -359,10 +372,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -503,16 +516,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$48</c:f>
+              <c:f>Data!$G$2:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -653,6 +669,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>5265</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,7 +688,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$O$1</c:f>
+              <c:f>Data!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -692,10 +711,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -836,16 +855,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$2:$O$48</c:f>
+              <c:f>Data!$Q$2:$Q$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -986,6 +1008,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1893</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,7 +1027,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$P$1</c:f>
+              <c:f>Data!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1025,10 +1050,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1169,16 +1194,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$2:$P$48</c:f>
+              <c:f>Data!$R$2:$R$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1319,6 +1347,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>4011</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1551,7 +1582,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$T$1</c:f>
+              <c:f>Data!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1574,10 +1605,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1718,16 +1749,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$2:$T$48</c:f>
+              <c:f>Data!$V$2:$V$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1867,6 +1901,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1884,7 +1921,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$W$1</c:f>
+              <c:f>Data!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1907,10 +1944,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2051,16 +2088,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$48</c:f>
+              <c:f>Data!$Y$2:$Y$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2200,6 +2240,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2217,7 +2260,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$S$1</c:f>
+              <c:f>Data!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2240,10 +2283,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2384,16 +2427,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$48</c:f>
+              <c:f>Data!$U$2:$U$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2533,6 +2579,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2769,7 +2818,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$V$1</c:f>
+              <c:f>Data!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2792,10 +2841,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2936,16 +2985,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$48</c:f>
+              <c:f>Data!$X$2:$X$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -3085,6 +3137,9 @@
                   <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>238</c:v>
                 </c:pt>
               </c:numCache>
@@ -3102,7 +3157,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$Y$1</c:f>
+              <c:f>Data!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3125,10 +3180,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3269,16 +3324,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$48</c:f>
+              <c:f>Data!$AA$2:$AA$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3418,6 +3476,9 @@
                   <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
@@ -3651,7 +3712,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AA$1</c:f>
+              <c:f>Data!$AC$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3674,10 +3735,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3818,16 +3879,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$48</c:f>
+              <c:f>Data!$AC$2:$AC$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -3967,6 +4031,9 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
@@ -4169,7 +4236,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AC$1</c:f>
+              <c:f>Data!$AE$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4189,10 +4256,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4333,16 +4400,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$48</c:f>
+              <c:f>Data!$AE$2:$AE$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4416,6 +4486,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4432,7 +4505,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AD$1</c:f>
+              <c:f>Data!$AF$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4452,10 +4525,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4596,16 +4669,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$48</c:f>
+              <c:f>Data!$AF$2:$AF$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4679,6 +4755,9 @@
                   <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>345</c:v>
                 </c:pt>
               </c:numCache>
@@ -4695,7 +4774,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AE$1</c:f>
+              <c:f>Data!$AG$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4715,10 +4794,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4859,16 +4938,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$48</c:f>
+              <c:f>Data!$AG$2:$AG$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -4943,6 +5025,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4958,7 +5043,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AF$1</c:f>
+              <c:f>Data!$AH$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4978,10 +5063,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5122,16 +5207,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$48</c:f>
+              <c:f>Data!$AH$2:$AH$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5205,6 +5293,9 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -5221,7 +5312,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AG$1</c:f>
+              <c:f>Data!$AI$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5243,10 +5334,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$48</c:f>
+              <c:f>Data!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5387,16 +5478,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44840</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$48</c:f>
+              <c:f>Data!$AI$2:$AI$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -8635,53 +8729,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AH48" totalsRowShown="0">
-  <autoFilter ref="A1:AH48" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
-  <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="29"/>
-    <tableColumn id="33" xr3:uid="{314C5206-2A7B-F841-94C2-27E5FA3210D6}" name="∆LoC" dataDxfId="28">
-      <calculatedColumnFormula>Data[[#This Row],[LoC]]-E1</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AJ49" totalsRowShown="0">
+  <autoFilter ref="A1:AJ49" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+  <tableColumns count="36">
+    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="35"/>
+    <tableColumn id="35" xr3:uid="{6D5DE1BF-18D0-144B-BD3F-DACE38879478}" name="Stars" dataDxfId="1"/>
+    <tableColumn id="36" xr3:uid="{24BDF572-B0AB-334A-BB98-AAF6AE52850D}" name="Forks" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="31"/>
+    <tableColumn id="33" xr3:uid="{314C5206-2A7B-F841-94C2-27E5FA3210D6}" name="∆LoC" dataDxfId="30">
+      <calculatedColumnFormula>Data[[#This Row],[LoC]]-G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="27"/>
-    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="26"/>
-    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="25"/>
-    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="24"/>
-    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="23"/>
-    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="22"/>
-    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="21">
+    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="29"/>
+    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="28"/>
+    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="27"/>
+    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="26"/>
+    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="25"/>
+    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="24"/>
+    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="23">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Shell]:[Bash]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{FD44257B-EFD4-EF46-B0EE-B5B6EBB0D9D7}" name="∆Total" dataDxfId="20">
-      <calculatedColumnFormula>Data[[#This Row],[Total]]-M1</calculatedColumnFormula>
+    <tableColumn id="34" xr3:uid="{FD44257B-EFD4-EF46-B0EE-B5B6EBB0D9D7}" name="∆Total" dataDxfId="22">
+      <calculatedColumnFormula>Data[[#This Row],[Total]]-O1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="14">
       <calculatedColumnFormula>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="9">
+    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="11">
       <calculatedColumnFormula>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="∑runs" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="∑runs" dataDxfId="2">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Running]:[GH runs]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8986,4638 +9082,4853 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AH48"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF48" sqref="AF48"/>
+      <selection pane="bottomLeft" activeCell="AI49" sqref="AI49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19" customWidth="1"/>
-    <col min="26" max="26" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="6.5" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" customWidth="1"/>
+    <col min="28" max="28" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44574</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2">
         <v>101</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>224</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>177</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>4368</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
         <v>1523</v>
       </c>
-      <c r="P2" s="2">
+      <c r="R2" s="2">
         <v>3195</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="2">
         <v>57442</v>
       </c>
-      <c r="R2" s="2">
+      <c r="T2" s="2">
         <v>40634</v>
       </c>
-      <c r="S2" s="2">
+      <c r="U2" s="2">
         <v>1</v>
       </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
         <v>203</v>
       </c>
-      <c r="V2" s="2">
+      <c r="X2" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
         <v>135</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AA2" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AB2" s="2">
         <v>125</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AC2" s="2">
         <v>122</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AD2" s="2">
         <v>2</v>
       </c>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2">
         <v>541</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AJ2" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44578</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2">
         <v>101</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>224</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>177</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>4368</v>
       </c>
-      <c r="F3" s="3">
-        <f>Data[[#This Row],[LoC]]-E2</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3">
+        <f>Data[[#This Row],[LoC]]-G2</f>
+        <v>0</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="3">
-        <f>Data[[#This Row],[Total]]-M2</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3">
+        <f>Data[[#This Row],[Total]]-O2</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
         <v>1524</v>
       </c>
-      <c r="P3" s="2">
+      <c r="R3" s="2">
         <v>3196</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="2">
         <v>57422</v>
       </c>
-      <c r="R3" s="2">
+      <c r="T3" s="2">
         <v>40034</v>
       </c>
-      <c r="S3" s="2">
+      <c r="U3" s="2">
         <v>1</v>
       </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
         <v>203</v>
       </c>
-      <c r="V3" s="2">
+      <c r="X3" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
         <v>135</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AA3" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AB3" s="2">
         <v>125</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AC3" s="2">
         <v>122</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AD3" s="2">
         <v>2</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="2">
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2">
         <v>542</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AJ3" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44580</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2">
         <v>101</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <v>224</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>177</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>4368</v>
       </c>
-      <c r="F4" s="3">
-        <f>Data[[#This Row],[LoC]]-E3</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3">
+        <f>Data[[#This Row],[LoC]]-G3</f>
+        <v>0</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="3">
-        <f>Data[[#This Row],[Total]]-M3</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3">
+        <f>Data[[#This Row],[Total]]-O3</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
         <v>1525</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>3197</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>57422</v>
       </c>
-      <c r="R4" s="2">
+      <c r="T4" s="2">
         <v>40634</v>
       </c>
-      <c r="S4" s="2">
+      <c r="U4" s="2">
         <v>1</v>
       </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
         <v>203</v>
       </c>
-      <c r="V4" s="2">
+      <c r="X4" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
         <v>135</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AA4" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AB4" s="2">
         <v>125</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AC4" s="2">
         <v>122</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AD4" s="2">
         <v>2</v>
       </c>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="2">
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2">
         <v>543</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AJ4" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44588</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2">
         <v>102</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2">
         <v>224</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>177</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>4368</v>
       </c>
-      <c r="F5" s="3">
-        <f>Data[[#This Row],[LoC]]-E4</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3">
+        <f>Data[[#This Row],[LoC]]-G4</f>
+        <v>0</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="3">
-        <f>Data[[#This Row],[Total]]-M4</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3">
+        <f>Data[[#This Row],[Total]]-O4</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
         <v>1531</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>3207</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>57794</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <v>40652</v>
       </c>
-      <c r="S5" s="2">
+      <c r="U5" s="2">
         <v>1</v>
       </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
         <v>203</v>
       </c>
-      <c r="V5" s="2">
+      <c r="X5" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
         <v>135</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AA5" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AB5" s="2">
         <v>125</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AC5" s="2">
         <v>122</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AD5" s="2">
         <v>3</v>
       </c>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2">
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2">
         <v>550</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AJ5" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44593</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2">
         <v>102</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2">
         <v>224</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>177</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>4379</v>
       </c>
-      <c r="F6" s="3">
-        <f>Data[[#This Row],[LoC]]-E5</f>
+      <c r="H6" s="3">
+        <f>Data[[#This Row],[LoC]]-G5</f>
         <v>11</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="3">
-        <f>Data[[#This Row],[Total]]-M5</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3">
+        <f>Data[[#This Row],[Total]]-O5</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
         <v>1539</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <v>3224</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>57859</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <v>40677</v>
       </c>
-      <c r="S6" s="2">
+      <c r="U6" s="2">
         <v>1</v>
       </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
         <v>203</v>
       </c>
-      <c r="V6" s="2">
+      <c r="X6" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
         <v>135</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AA6" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AB6" s="2">
         <v>125</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AC6" s="2">
         <v>122</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AD6" s="2">
         <v>3</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="2">
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2">
         <v>561</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AJ6" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44602</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2">
         <v>102</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E7" s="2">
         <v>225</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>178</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>4381</v>
       </c>
-      <c r="F7" s="3">
-        <f>Data[[#This Row],[LoC]]-E6</f>
+      <c r="H7" s="3">
+        <f>Data[[#This Row],[LoC]]-G6</f>
         <v>2</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="3">
-        <f>Data[[#This Row],[Total]]-M6</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3">
+        <f>Data[[#This Row],[Total]]-O6</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
         <v>1559</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>3265</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>58868</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>41555</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
       <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
         <v>204</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
         <v>135</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>125</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>122</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>3</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="2">
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2">
         <v>586</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AJ7" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44610</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2">
         <v>102</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2">
         <v>225</v>
       </c>
-      <c r="D8" s="2">
+      <c r="F8" s="2">
         <v>178</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>4399</v>
       </c>
-      <c r="F8" s="3">
-        <f>Data[[#This Row],[LoC]]-E7</f>
+      <c r="H8" s="3">
+        <f>Data[[#This Row],[LoC]]-G7</f>
         <v>18</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="3">
-        <f>Data[[#This Row],[Total]]-M7</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3">
+        <f>Data[[#This Row],[Total]]-O7</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
         <v>1568</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <v>3286</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="2">
         <v>58985</v>
       </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <v>41600</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
       <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
         <v>208</v>
       </c>
-      <c r="V8" s="2">
+      <c r="X8" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>208</v>
       </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
         <v>135</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AA8" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AB8" s="2">
         <v>125</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AC8" s="2">
         <v>122</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AD8" s="2">
         <v>3</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2">
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2">
         <v>595</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AJ8" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44613</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2">
         <v>102</v>
       </c>
-      <c r="C9" s="2">
+      <c r="E9" s="2">
         <v>226</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>179</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>4413</v>
       </c>
-      <c r="F9" s="3">
-        <f>Data[[#This Row],[LoC]]-E8</f>
+      <c r="H9" s="3">
+        <f>Data[[#This Row],[LoC]]-G8</f>
         <v>14</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="3">
-        <f>Data[[#This Row],[Total]]-M8</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3">
+        <f>Data[[#This Row],[Total]]-O8</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
         <v>1571</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <v>3298</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>59170</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <v>41754</v>
       </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
       <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
         <v>208</v>
       </c>
-      <c r="V9" s="2">
+      <c r="X9" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>208</v>
       </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
         <v>135</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AA9" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AB9" s="2">
         <v>126</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AC9" s="2">
         <v>122</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AD9" s="2">
         <v>3</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2">
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2">
         <v>601</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AJ9" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44636</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2">
         <v>102</v>
       </c>
-      <c r="C10" s="2">
+      <c r="E10" s="2">
         <v>227</v>
       </c>
-      <c r="D10" s="2">
+      <c r="F10" s="2">
         <v>180</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>4430</v>
       </c>
-      <c r="F10" s="3">
-        <f>Data[[#This Row],[LoC]]-E9</f>
+      <c r="H10" s="3">
+        <f>Data[[#This Row],[LoC]]-G9</f>
         <v>17</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="3">
-        <f>Data[[#This Row],[Total]]-M9</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3">
+        <f>Data[[#This Row],[Total]]-O9</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
         <v>1598</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <v>3339</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>59371</v>
       </c>
-      <c r="R10" s="2">
+      <c r="T10" s="2">
         <v>41908</v>
       </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
       <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
         <v>209</v>
       </c>
-      <c r="V10" s="2">
+      <c r="X10" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>209</v>
       </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
         <v>141</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AA10" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>141</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AB10" s="2">
         <v>126</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AC10" s="2">
         <v>122</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AD10" s="2">
         <v>3</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2">
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2">
         <v>632</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AJ10" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>632</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44645</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2">
         <v>102</v>
       </c>
-      <c r="C11" s="2">
+      <c r="E11" s="2">
         <v>228</v>
       </c>
-      <c r="D11" s="2">
+      <c r="F11" s="2">
         <v>181</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <v>4432</v>
       </c>
-      <c r="F11" s="3">
-        <f>Data[[#This Row],[LoC]]-E10</f>
+      <c r="H11" s="3">
+        <f>Data[[#This Row],[LoC]]-G10</f>
         <v>2</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="3">
-        <f>Data[[#This Row],[Total]]-M10</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3">
+        <f>Data[[#This Row],[Total]]-O10</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
         <v>1627</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <v>3375</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="S11" s="2">
         <v>59655</v>
       </c>
-      <c r="R11" s="2">
+      <c r="T11" s="2">
         <v>42123</v>
       </c>
-      <c r="S11" s="2">
+      <c r="U11" s="2">
         <v>1</v>
       </c>
-      <c r="T11" s="2">
+      <c r="V11" s="2">
         <v>1</v>
       </c>
-      <c r="U11" s="2">
+      <c r="W11" s="2">
         <v>214</v>
       </c>
-      <c r="V11" s="2">
+      <c r="X11" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
         <v>148</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AA11" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AB11" s="2">
         <v>127</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AC11" s="2">
         <v>128</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AD11" s="2">
         <v>3</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="2">
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2">
         <v>661</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AJ11" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>661</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44657</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2">
         <v>102</v>
       </c>
-      <c r="C12" s="2">
+      <c r="E12" s="2">
         <v>229</v>
       </c>
-      <c r="D12" s="2">
+      <c r="F12" s="2">
         <v>182</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <v>4434</v>
       </c>
-      <c r="F12" s="3">
-        <f>Data[[#This Row],[LoC]]-E11</f>
+      <c r="H12" s="3">
+        <f>Data[[#This Row],[LoC]]-G11</f>
         <v>2</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="3">
-        <f>Data[[#This Row],[Total]]-M11</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3">
+        <f>Data[[#This Row],[Total]]-O11</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
         <v>1632</v>
       </c>
-      <c r="P12" s="2">
+      <c r="R12" s="2">
         <v>3387</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="S12" s="2">
         <v>59702</v>
       </c>
-      <c r="R12" s="2">
+      <c r="T12" s="2">
         <v>42156</v>
       </c>
-      <c r="S12" s="2">
+      <c r="U12" s="2">
         <v>1</v>
       </c>
-      <c r="T12" s="2">
+      <c r="V12" s="2">
         <v>1</v>
       </c>
-      <c r="U12" s="2">
+      <c r="W12" s="2">
         <v>214</v>
       </c>
-      <c r="V12" s="2">
+      <c r="X12" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
         <v>148</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AA12" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AB12" s="2">
         <v>127</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AC12" s="2">
         <v>131</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AD12" s="2">
         <v>3</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="2">
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2">
         <v>669</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AJ12" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>669</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44664</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2">
         <v>102</v>
       </c>
-      <c r="C13" s="2">
+      <c r="E13" s="2">
         <v>230</v>
       </c>
-      <c r="D13" s="2">
+      <c r="F13" s="2">
         <v>183</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <v>4454</v>
       </c>
-      <c r="F13" s="3">
-        <f>Data[[#This Row],[LoC]]-E12</f>
+      <c r="H13" s="3">
+        <f>Data[[#This Row],[LoC]]-G12</f>
         <v>20</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="3">
-        <f>Data[[#This Row],[Total]]-M12</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3">
+        <f>Data[[#This Row],[Total]]-O12</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
         <v>1637</v>
       </c>
-      <c r="P13" s="2">
+      <c r="R13" s="2">
         <v>3406</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="S13" s="2">
         <v>60308</v>
       </c>
-      <c r="R13" s="2">
+      <c r="T13" s="2">
         <v>42743</v>
       </c>
-      <c r="S13" s="2">
+      <c r="U13" s="2">
         <v>1</v>
       </c>
-      <c r="T13" s="2">
+      <c r="V13" s="2">
         <v>1</v>
       </c>
-      <c r="U13" s="2">
+      <c r="W13" s="2">
         <v>214</v>
       </c>
-      <c r="V13" s="2">
+      <c r="X13" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
         <v>148</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="AA13" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AB13" s="2">
         <v>128</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AC13" s="2">
         <v>131</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AD13" s="2">
         <v>3</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2">
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2">
         <v>677</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AJ13" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44676</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2">
         <v>102</v>
       </c>
-      <c r="C14" s="2">
+      <c r="E14" s="2">
         <v>230</v>
       </c>
-      <c r="D14" s="2">
+      <c r="F14" s="2">
         <v>183</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <v>4453</v>
       </c>
-      <c r="F14" s="3">
-        <f>Data[[#This Row],[LoC]]-E13</f>
+      <c r="H14" s="3">
+        <f>Data[[#This Row],[LoC]]-G13</f>
         <v>-1</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="3">
-        <f>Data[[#This Row],[Total]]-M13</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3">
+        <f>Data[[#This Row],[Total]]-O13</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
         <v>1647</v>
       </c>
-      <c r="P14" s="2">
+      <c r="R14" s="2">
         <v>3424</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="S14" s="2">
         <v>60352</v>
       </c>
-      <c r="R14" s="2">
+      <c r="T14" s="2">
         <v>42776</v>
       </c>
-      <c r="S14" s="2">
+      <c r="U14" s="2">
         <v>2</v>
       </c>
-      <c r="T14" s="2">
+      <c r="V14" s="2">
         <v>2</v>
       </c>
-      <c r="U14" s="2">
+      <c r="W14" s="2">
         <v>215</v>
       </c>
-      <c r="V14" s="2">
+      <c r="X14" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>217</v>
       </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2">
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
         <v>148</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="AA14" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="AB14" s="2">
         <v>128</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AC14" s="2">
         <v>131</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AD14" s="2">
         <v>3</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2">
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2">
         <v>685</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AJ14" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44678</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2">
         <v>102</v>
       </c>
-      <c r="C15" s="2">
+      <c r="E15" s="2">
         <v>230</v>
       </c>
-      <c r="D15" s="2">
+      <c r="F15" s="2">
         <v>183</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <v>4461</v>
       </c>
-      <c r="F15" s="3">
-        <f>Data[[#This Row],[LoC]]-E14</f>
+      <c r="H15" s="3">
+        <f>Data[[#This Row],[LoC]]-G14</f>
         <v>8</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="3">
-        <f>Data[[#This Row],[Total]]-M14</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3">
+        <f>Data[[#This Row],[Total]]-O14</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
         <v>1652</v>
       </c>
-      <c r="P15" s="2">
+      <c r="R15" s="2">
         <v>3430</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="S15" s="2">
         <v>60372</v>
       </c>
-      <c r="R15" s="2">
+      <c r="T15" s="2">
         <v>42778</v>
       </c>
-      <c r="S15" s="2">
+      <c r="U15" s="2">
         <v>1</v>
       </c>
-      <c r="T15" s="2">
+      <c r="V15" s="2">
         <v>1</v>
       </c>
-      <c r="U15" s="2">
+      <c r="W15" s="2">
         <v>216</v>
       </c>
-      <c r="V15" s="2">
+      <c r="X15" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>217</v>
       </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
         <v>149</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AA15" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AB15" s="2">
         <v>128</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AC15" s="2">
         <v>131</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AD15" s="2">
         <v>3</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2">
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2">
         <v>690</v>
       </c>
-      <c r="AH15" s="2">
+      <c r="AJ15" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>690</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44679</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2">
         <v>102</v>
       </c>
-      <c r="C16" s="2">
+      <c r="E16" s="2">
         <v>231</v>
       </c>
-      <c r="D16" s="2">
+      <c r="F16" s="2">
         <v>184</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <v>4462</v>
       </c>
-      <c r="F16" s="3">
-        <f>Data[[#This Row],[LoC]]-E15</f>
+      <c r="H16" s="3">
+        <f>Data[[#This Row],[LoC]]-G15</f>
         <v>1</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="3">
-        <f>Data[[#This Row],[Total]]-M15</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3">
+        <f>Data[[#This Row],[Total]]-O15</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
         <v>1660</v>
       </c>
-      <c r="P16" s="2">
+      <c r="R16" s="2">
         <v>3444</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="S16" s="2">
         <v>60431</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <v>42791</v>
       </c>
-      <c r="S16" s="2">
+      <c r="U16" s="2">
         <v>1</v>
       </c>
-      <c r="T16" s="2">
+      <c r="V16" s="2">
         <v>1</v>
       </c>
-      <c r="U16" s="2">
+      <c r="W16" s="2">
         <v>217</v>
       </c>
-      <c r="V16" s="2">
+      <c r="X16" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>218</v>
       </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2">
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
         <v>149</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="AA16" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AB16" s="2">
         <v>128</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AC16" s="2">
         <v>132</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AD16" s="2">
         <v>3</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="2">
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2">
         <v>700</v>
       </c>
-      <c r="AH16" s="2">
+      <c r="AJ16" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44686</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2">
         <v>102</v>
       </c>
-      <c r="C17" s="2">
+      <c r="E17" s="2">
         <v>233</v>
       </c>
-      <c r="D17" s="2">
+      <c r="F17" s="2">
         <v>185</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <v>4454</v>
       </c>
-      <c r="F17" s="3">
-        <f>Data[[#This Row],[LoC]]-E16</f>
+      <c r="H17" s="3">
+        <f>Data[[#This Row],[LoC]]-G16</f>
         <v>-8</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="3">
-        <f>Data[[#This Row],[Total]]-M16</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3">
+        <f>Data[[#This Row],[Total]]-O16</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
         <v>1670</v>
       </c>
-      <c r="P17" s="2">
+      <c r="R17" s="2">
         <v>3473</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="S17" s="2">
         <v>60537</v>
       </c>
-      <c r="R17" s="2">
+      <c r="T17" s="2">
         <v>42889</v>
       </c>
-      <c r="S17" s="2">
+      <c r="U17" s="2">
         <v>1</v>
       </c>
-      <c r="T17" s="2">
+      <c r="V17" s="2">
         <v>1</v>
       </c>
-      <c r="U17" s="2">
+      <c r="W17" s="2">
         <v>218</v>
       </c>
-      <c r="V17" s="2">
+      <c r="X17" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
-      <c r="W17" s="2">
-        <v>0</v>
-      </c>
-      <c r="X17" s="2">
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
         <v>149</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="AA17" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="AB17" s="2">
         <v>128</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AC17" s="2">
         <v>132</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AD17" s="2">
         <v>3</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="2">
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2">
         <v>714</v>
       </c>
-      <c r="AH17" s="2">
+      <c r="AJ17" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44691</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2">
         <v>103</v>
       </c>
-      <c r="C18" s="2">
+      <c r="E18" s="2">
         <v>233</v>
       </c>
-      <c r="D18" s="2">
+      <c r="F18" s="2">
         <v>185</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <v>4454</v>
       </c>
-      <c r="F18" s="3">
-        <f>Data[[#This Row],[LoC]]-E17</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="3">
+        <f>Data[[#This Row],[LoC]]-G17</f>
+        <v>0</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="3">
-        <f>Data[[#This Row],[Total]]-M17</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3">
+        <f>Data[[#This Row],[Total]]-O17</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
         <v>1676</v>
       </c>
-      <c r="P18" s="2">
+      <c r="R18" s="2">
         <v>3481</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="S18" s="2">
         <v>60564</v>
       </c>
-      <c r="R18" s="2">
+      <c r="T18" s="2">
         <v>42903</v>
       </c>
-      <c r="S18" s="2">
+      <c r="U18" s="2">
         <v>1</v>
       </c>
-      <c r="T18" s="2">
+      <c r="V18" s="2">
         <v>1</v>
       </c>
-      <c r="U18" s="2">
+      <c r="W18" s="2">
         <v>218</v>
       </c>
-      <c r="V18" s="2">
+      <c r="X18" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2">
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
         <v>150</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="AA18" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>150</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="AB18" s="2">
         <v>128</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AC18" s="2">
         <v>132</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AD18" s="2">
         <v>3</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="2">
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2">
         <v>721</v>
       </c>
-      <c r="AH18" s="2">
+      <c r="AJ18" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>721</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44705</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2">
         <v>103</v>
       </c>
-      <c r="C19" s="2">
+      <c r="E19" s="2">
         <v>233</v>
       </c>
-      <c r="D19" s="2">
+      <c r="F19" s="2">
         <v>185</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <v>4470</v>
       </c>
-      <c r="F19" s="3">
-        <f>Data[[#This Row],[LoC]]-E18</f>
+      <c r="H19" s="3">
+        <f>Data[[#This Row],[LoC]]-G18</f>
         <v>16</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="3">
-        <f>Data[[#This Row],[Total]]-M18</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3">
+        <f>Data[[#This Row],[Total]]-O18</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
         <v>1695</v>
       </c>
-      <c r="P19" s="2">
+      <c r="R19" s="2">
         <v>3500</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="S19" s="2">
         <v>60613</v>
       </c>
-      <c r="R19" s="2">
+      <c r="T19" s="2">
         <v>42943</v>
       </c>
-      <c r="S19" s="2">
+      <c r="U19" s="2">
         <v>1</v>
       </c>
-      <c r="T19" s="2">
+      <c r="V19" s="2">
         <v>1</v>
       </c>
-      <c r="U19" s="2">
+      <c r="W19" s="2">
         <v>218</v>
       </c>
-      <c r="V19" s="2">
+      <c r="X19" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
-      <c r="W19" s="2">
+      <c r="Y19" s="2">
         <v>2</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Z19" s="2">
         <v>154</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="AA19" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="AB19" s="2">
         <v>128</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AC19" s="2">
         <v>131</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AD19" s="2">
         <v>4</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="2">
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2">
         <v>748</v>
       </c>
-      <c r="AH19" s="2">
+      <c r="AJ19" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>748</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44707</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2">
         <v>103</v>
       </c>
-      <c r="C20" s="2">
+      <c r="E20" s="2">
         <v>234</v>
       </c>
-      <c r="D20" s="2">
+      <c r="F20" s="2">
         <v>186</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <v>4506</v>
       </c>
-      <c r="F20" s="3">
-        <f>Data[[#This Row],[LoC]]-E19</f>
+      <c r="H20" s="3">
+        <f>Data[[#This Row],[LoC]]-G19</f>
         <v>36</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="3">
-        <f>Data[[#This Row],[Total]]-M19</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3">
+        <f>Data[[#This Row],[Total]]-O19</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
         <v>1699</v>
       </c>
-      <c r="P20" s="2">
+      <c r="R20" s="2">
         <v>3520</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="S20" s="2">
         <v>60719</v>
       </c>
-      <c r="R20" s="2">
+      <c r="T20" s="2">
         <v>42953</v>
       </c>
-      <c r="S20" s="2">
+      <c r="U20" s="2">
         <v>1</v>
       </c>
-      <c r="T20" s="2">
+      <c r="V20" s="2">
         <v>1</v>
       </c>
-      <c r="U20" s="2">
+      <c r="W20" s="2">
         <v>219</v>
       </c>
-      <c r="V20" s="2">
+      <c r="X20" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="W20" s="2">
+      <c r="Y20" s="2">
         <v>1</v>
       </c>
-      <c r="X20" s="2">
+      <c r="Z20" s="2">
         <v>155</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="AA20" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="AB20" s="2">
         <v>131</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AC20" s="2">
         <v>132</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AD20" s="2">
         <v>4</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2">
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2">
         <v>754</v>
       </c>
-      <c r="AH20" s="2">
+      <c r="AJ20" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>754</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44710</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2">
         <v>103</v>
       </c>
-      <c r="C21" s="2">
+      <c r="E21" s="2">
         <v>234</v>
       </c>
-      <c r="D21" s="2">
+      <c r="F21" s="2">
         <v>187</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <v>4504</v>
       </c>
-      <c r="F21" s="3">
-        <f>Data[[#This Row],[LoC]]-E20</f>
+      <c r="H21" s="3">
+        <f>Data[[#This Row],[LoC]]-G20</f>
         <v>-2</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="3">
-        <f>Data[[#This Row],[Total]]-M20</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3">
+        <f>Data[[#This Row],[Total]]-O20</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
         <v>1718</v>
       </c>
-      <c r="P21" s="2">
+      <c r="R21" s="2">
         <v>3546</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="S21" s="2">
         <v>61044</v>
       </c>
-      <c r="R21" s="2">
+      <c r="T21" s="2">
         <v>43112</v>
       </c>
-      <c r="S21" s="2">
+      <c r="U21" s="2">
         <v>1</v>
       </c>
-      <c r="T21" s="2">
+      <c r="V21" s="2">
         <v>1</v>
       </c>
-      <c r="U21" s="2">
+      <c r="W21" s="2">
         <v>219</v>
       </c>
-      <c r="V21" s="2">
+      <c r="X21" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="W21" s="2">
-        <v>0</v>
-      </c>
-      <c r="X21" s="2">
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
         <v>156</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="AA21" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="AB21" s="2">
         <v>131</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AC21" s="2">
         <v>132</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AD21" s="2">
         <v>4</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="2">
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2">
         <v>773</v>
       </c>
-      <c r="AH21" s="2">
+      <c r="AJ21" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>773</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44713</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2">
         <v>104</v>
       </c>
-      <c r="C22" s="2">
+      <c r="E22" s="2">
         <v>235</v>
       </c>
-      <c r="D22" s="2">
+      <c r="F22" s="2">
         <v>188</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <v>4504</v>
       </c>
-      <c r="F22" s="3">
-        <f>Data[[#This Row],[LoC]]-E21</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="3">
+        <f>Data[[#This Row],[LoC]]-G21</f>
+        <v>0</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="3">
-        <f>Data[[#This Row],[Total]]-M21</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3">
+        <f>Data[[#This Row],[Total]]-O21</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
         <v>1723</v>
       </c>
-      <c r="P22" s="2">
+      <c r="R22" s="2">
         <v>3559</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="S22" s="2">
         <v>61077</v>
       </c>
-      <c r="R22" s="2">
+      <c r="T22" s="2">
         <v>43133</v>
       </c>
-      <c r="S22" s="2">
+      <c r="U22" s="2">
         <v>1</v>
       </c>
-      <c r="T22" s="2">
+      <c r="V22" s="2">
         <v>1</v>
       </c>
-      <c r="U22" s="2">
+      <c r="W22" s="2">
         <v>219</v>
       </c>
-      <c r="V22" s="2">
+      <c r="X22" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="W22" s="2">
-        <v>0</v>
-      </c>
-      <c r="X22" s="2">
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
         <v>157</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="AA22" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="AB22" s="2">
         <v>131</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AC22" s="2">
         <v>132</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AD22" s="2">
         <v>4</v>
       </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="2">
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2">
         <v>787</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AJ22" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>787</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44714</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2">
         <v>104</v>
       </c>
-      <c r="C23" s="2">
+      <c r="E23" s="2">
         <v>235</v>
       </c>
-      <c r="D23" s="2">
+      <c r="F23" s="2">
         <v>188</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <v>4504</v>
       </c>
-      <c r="F23" s="3">
-        <f>Data[[#This Row],[LoC]]-E22</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="3">
+        <f>Data[[#This Row],[LoC]]-G22</f>
+        <v>0</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="3">
-        <f>Data[[#This Row],[Total]]-M22</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="3">
+        <f>Data[[#This Row],[Total]]-O22</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
         <v>1724</v>
       </c>
-      <c r="P23" s="2">
+      <c r="R23" s="2">
         <v>3560</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="S23" s="2">
         <v>61077</v>
       </c>
-      <c r="R23" s="2">
+      <c r="T23" s="2">
         <v>43133</v>
       </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
       <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
         <v>220</v>
       </c>
-      <c r="V23" s="2">
+      <c r="X23" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
-      <c r="X23" s="2">
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
         <v>157</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="AA23" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="AB23" s="2">
         <v>131</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AC23" s="2">
         <v>132</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AD23" s="2">
         <v>4</v>
       </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="2">
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2">
         <v>789</v>
       </c>
-      <c r="AH23" s="2">
+      <c r="AJ23" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44715</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2">
         <v>104</v>
       </c>
-      <c r="C24" s="2">
+      <c r="E24" s="2">
         <v>235</v>
       </c>
-      <c r="D24" s="2">
+      <c r="F24" s="2">
         <v>188</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <v>4510</v>
       </c>
-      <c r="F24" s="3">
-        <f>Data[[#This Row],[LoC]]-E23</f>
+      <c r="H24" s="3">
+        <f>Data[[#This Row],[LoC]]-G23</f>
         <v>6</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="3">
-        <f>Data[[#This Row],[Total]]-M23</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="3">
+        <f>Data[[#This Row],[Total]]-O23</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
         <v>1728</v>
       </c>
-      <c r="P24" s="2">
+      <c r="R24" s="2">
         <v>3565</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="S24" s="2">
         <v>61091</v>
       </c>
-      <c r="R24" s="2">
+      <c r="T24" s="2">
         <v>43136</v>
       </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
       <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
         <v>220</v>
       </c>
-      <c r="V24" s="2">
+      <c r="X24" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
         <v>157</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="AA24" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="AB24" s="2">
         <v>131</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AC24" s="2">
         <v>132</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AD24" s="2">
         <v>4</v>
       </c>
-      <c r="AC24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="2">
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2">
         <v>302</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AG24" s="2">
         <v>488</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AH24" s="2">
         <v>7</v>
       </c>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2">
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>797</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44723</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2">
         <v>105</v>
       </c>
-      <c r="C25" s="2">
+      <c r="E25" s="2">
         <v>236</v>
       </c>
-      <c r="D25" s="2">
+      <c r="F25" s="2">
         <v>189</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <v>4510</v>
       </c>
-      <c r="F25" s="3">
-        <f>Data[[#This Row],[LoC]]-E24</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="3">
+        <f>Data[[#This Row],[LoC]]-G24</f>
+        <v>0</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="3">
-        <f>Data[[#This Row],[Total]]-M24</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="3">
+        <f>Data[[#This Row],[Total]]-O24</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
         <v>1733</v>
       </c>
-      <c r="P25" s="2">
+      <c r="R25" s="2">
         <v>3579</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="S25" s="2">
         <v>61141</v>
       </c>
-      <c r="R25" s="2">
+      <c r="T25" s="2">
         <v>43154</v>
       </c>
-      <c r="S25" s="2">
-        <v>0</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0</v>
-      </c>
       <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
         <v>221</v>
       </c>
-      <c r="V25" s="2">
+      <c r="X25" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
-      <c r="W25" s="2">
-        <v>0</v>
-      </c>
-      <c r="X25" s="2">
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
         <v>158</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="AA25" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>158</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="AB25" s="2">
         <v>131</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AC25" s="2">
         <v>132</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AD25" s="2">
         <v>4</v>
       </c>
-      <c r="AC25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="2">
+      <c r="AE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2">
         <v>304</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AG25" s="2">
         <v>501</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AH25" s="2">
         <v>7</v>
       </c>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2">
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>812</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44725</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2">
         <v>105</v>
       </c>
-      <c r="C26" s="2">
+      <c r="E26" s="2">
         <v>236</v>
       </c>
-      <c r="D26" s="2">
+      <c r="F26" s="2">
         <v>189</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <v>4510</v>
       </c>
-      <c r="F26" s="3">
-        <f>Data[[#This Row],[LoC]]-E25</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="3">
+        <f>Data[[#This Row],[LoC]]-G25</f>
+        <v>0</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="3">
-        <f>Data[[#This Row],[Total]]-M25</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="2">
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="3">
+        <f>Data[[#This Row],[Total]]-O25</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
         <v>1743</v>
       </c>
-      <c r="P26" s="2">
+      <c r="R26" s="2">
         <v>3590</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="S26" s="2">
         <v>61156</v>
       </c>
-      <c r="R26" s="2">
+      <c r="T26" s="2">
         <v>43168</v>
       </c>
-      <c r="S26" s="2">
-        <v>0</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0</v>
-      </c>
       <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
         <v>221</v>
       </c>
-      <c r="V26" s="2">
+      <c r="X26" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
-      <c r="W26" s="2">
-        <v>0</v>
-      </c>
-      <c r="X26" s="2">
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
         <v>159</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="AA26" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="AB26" s="2">
         <v>131</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AC26" s="2">
         <v>132</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AD26" s="2">
         <v>4</v>
       </c>
-      <c r="AC26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="2">
+      <c r="AE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="2">
         <v>305</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AG26" s="2">
         <v>517</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AH26" s="2">
         <v>7</v>
       </c>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2">
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>829</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44727</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2">
         <v>105</v>
       </c>
-      <c r="C27" s="2">
+      <c r="E27" s="2">
         <v>236</v>
       </c>
-      <c r="D27" s="2">
+      <c r="F27" s="2">
         <v>189</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <v>4515</v>
       </c>
-      <c r="F27" s="3">
-        <f>Data[[#This Row],[LoC]]-E26</f>
+      <c r="H27" s="3">
+        <f>Data[[#This Row],[LoC]]-G26</f>
         <v>5</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="3">
-        <f>Data[[#This Row],[Total]]-M26</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="3">
+        <f>Data[[#This Row],[Total]]-O26</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
         <v>1758</v>
       </c>
-      <c r="P27" s="2">
+      <c r="R27" s="2">
         <v>3610</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="S27" s="2">
         <v>61388</v>
       </c>
-      <c r="R27" s="2">
+      <c r="T27" s="2">
         <v>43266</v>
       </c>
-      <c r="S27" s="2">
-        <v>0</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0</v>
-      </c>
       <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
         <v>221</v>
       </c>
-      <c r="V27" s="2">
+      <c r="X27" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
-      <c r="W27" s="2">
-        <v>0</v>
-      </c>
-      <c r="X27" s="2">
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2">
         <v>159</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="AA27" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="AB27" s="2">
         <v>131</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AC27" s="2">
         <v>132</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AD27" s="2">
         <v>4</v>
       </c>
-      <c r="AC27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="2">
+      <c r="AE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2">
         <v>314</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AG27" s="2">
         <v>536</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AH27" s="2">
         <v>7</v>
       </c>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2">
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>857</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44729</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2">
         <v>105</v>
       </c>
-      <c r="C28" s="2">
+      <c r="E28" s="2">
         <v>237</v>
       </c>
-      <c r="D28" s="2">
+      <c r="F28" s="2">
         <v>190</v>
       </c>
-      <c r="E28" s="2">
+      <c r="G28" s="2">
         <v>4585</v>
       </c>
-      <c r="F28" s="3">
-        <f>Data[[#This Row],[LoC]]-E27</f>
+      <c r="H28" s="3">
+        <f>Data[[#This Row],[LoC]]-G27</f>
         <v>70</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="3">
-        <f>Data[[#This Row],[Total]]-M27</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="2">
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="3">
+        <f>Data[[#This Row],[Total]]-O27</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
         <v>1763</v>
       </c>
-      <c r="P28" s="2">
+      <c r="R28" s="2">
         <v>3627</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="S28" s="2">
         <v>61547</v>
       </c>
-      <c r="R28" s="2">
+      <c r="T28" s="2">
         <v>43284</v>
       </c>
-      <c r="S28" s="2">
-        <v>0</v>
-      </c>
-      <c r="T28" s="2">
-        <v>0</v>
-      </c>
       <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
         <v>222</v>
       </c>
-      <c r="V28" s="2">
+      <c r="X28" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>222</v>
       </c>
-      <c r="W28" s="2">
-        <v>0</v>
-      </c>
-      <c r="X28" s="2">
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
         <v>159</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="AA28" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="AB28" s="2">
         <v>133</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AC28" s="2">
         <v>135</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AD28" s="2">
         <v>4</v>
       </c>
-      <c r="AC28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="2">
+      <c r="AE28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2">
         <v>316</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AG28" s="2">
         <v>548</v>
       </c>
-      <c r="AF28" s="2">
+      <c r="AH28" s="2">
         <v>7</v>
       </c>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2">
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>871</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44743</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2">
         <v>105</v>
       </c>
-      <c r="C29" s="2">
+      <c r="E29" s="2">
         <v>238</v>
       </c>
-      <c r="D29" s="2">
+      <c r="F29" s="2">
         <v>191</v>
       </c>
-      <c r="E29" s="2">
+      <c r="G29" s="2">
         <v>4689</v>
       </c>
-      <c r="F29" s="3">
-        <f>Data[[#This Row],[LoC]]-E28</f>
+      <c r="H29" s="3">
+        <f>Data[[#This Row],[LoC]]-G28</f>
         <v>104</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="3">
-        <f>Data[[#This Row],[Total]]-M28</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="3">
+        <f>Data[[#This Row],[Total]]-O28</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
         <v>1773</v>
       </c>
-      <c r="P29" s="2">
+      <c r="R29" s="2">
         <v>3651</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="S29" s="2">
         <v>61778</v>
       </c>
-      <c r="R29" s="2">
+      <c r="T29" s="2">
         <v>43332</v>
       </c>
-      <c r="S29" s="2">
-        <v>0</v>
-      </c>
-      <c r="T29" s="2">
-        <v>0</v>
-      </c>
       <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
         <v>222</v>
       </c>
-      <c r="V29" s="2">
+      <c r="X29" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>222</v>
       </c>
-      <c r="W29" s="2">
-        <v>0</v>
-      </c>
-      <c r="X29" s="2">
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2">
         <v>159</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="AA29" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="AB29" s="2">
         <v>134</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AC29" s="2">
         <v>137</v>
       </c>
-      <c r="AB29" s="2">
+      <c r="AD29" s="2">
         <v>4</v>
       </c>
-      <c r="AC29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="2">
+      <c r="AE29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2">
         <v>320</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AG29" s="2">
         <v>568</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AH29" s="2">
         <v>7</v>
       </c>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2">
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>895</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44748</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="2">
         <v>105</v>
       </c>
-      <c r="C30" s="2">
+      <c r="E30" s="2">
         <v>239</v>
       </c>
-      <c r="D30" s="2">
+      <c r="F30" s="2">
         <v>192</v>
       </c>
-      <c r="E30" s="2">
+      <c r="G30" s="2">
         <v>4712</v>
       </c>
-      <c r="F30" s="3">
-        <f>Data[[#This Row],[LoC]]-E29</f>
+      <c r="H30" s="3">
+        <f>Data[[#This Row],[LoC]]-G29</f>
         <v>23</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="3">
-        <f>Data[[#This Row],[Total]]-M29</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="3">
+        <f>Data[[#This Row],[Total]]-O29</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
         <v>1776</v>
       </c>
-      <c r="P30" s="2">
+      <c r="R30" s="2">
         <v>3662</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="S30" s="2">
         <v>61856</v>
       </c>
-      <c r="R30" s="2">
+      <c r="T30" s="2">
         <v>43366</v>
       </c>
-      <c r="S30" s="2">
-        <v>0</v>
-      </c>
-      <c r="T30" s="2">
-        <v>0</v>
-      </c>
       <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
         <v>223</v>
       </c>
-      <c r="V30" s="2">
+      <c r="X30" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>223</v>
       </c>
-      <c r="W30" s="2">
-        <v>0</v>
-      </c>
-      <c r="X30" s="2">
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2">
         <v>159</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="AA30" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="AB30" s="2">
         <v>134</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AC30" s="2">
         <v>137</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AD30" s="2">
         <v>4</v>
       </c>
-      <c r="AC30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="2">
+      <c r="AE30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="2">
         <v>320</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AG30" s="2">
         <v>578</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AH30" s="2">
         <v>7</v>
       </c>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2">
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>905</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44757</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2">
         <v>105</v>
       </c>
-      <c r="C31" s="2">
+      <c r="E31" s="2">
         <v>240</v>
       </c>
-      <c r="D31" s="2">
+      <c r="F31" s="2">
         <v>193</v>
       </c>
-      <c r="E31" s="2">
+      <c r="G31" s="2">
         <v>4720</v>
       </c>
-      <c r="F31" s="3">
-        <f>Data[[#This Row],[LoC]]-E30</f>
+      <c r="H31" s="3">
+        <f>Data[[#This Row],[LoC]]-G30</f>
         <v>8</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="3">
-        <f>Data[[#This Row],[Total]]-M30</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="2">
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="3">
+        <f>Data[[#This Row],[Total]]-O30</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
         <v>1782</v>
       </c>
-      <c r="P31" s="2">
+      <c r="R31" s="2">
         <v>3684</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="S31" s="2">
         <v>62189</v>
       </c>
-      <c r="R31" s="2">
+      <c r="T31" s="2">
         <v>43626</v>
       </c>
-      <c r="S31" s="2">
-        <v>0</v>
-      </c>
-      <c r="T31" s="2">
-        <v>0</v>
-      </c>
       <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
         <v>224</v>
       </c>
-      <c r="V31" s="2">
+      <c r="X31" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
-      <c r="W31" s="2">
-        <v>0</v>
-      </c>
-      <c r="X31" s="2">
+      <c r="Y31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2">
         <v>159</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="AA31" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="AB31" s="2">
         <v>134</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AC31" s="2">
         <v>138</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AD31" s="2">
         <v>4</v>
       </c>
-      <c r="AC31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="2">
+      <c r="AE31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="2">
         <v>321</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AG31" s="2">
         <v>593</v>
       </c>
-      <c r="AF31" s="2">
+      <c r="AH31" s="2">
         <v>7</v>
       </c>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2">
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>921</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44761</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="2">
         <v>105</v>
       </c>
-      <c r="C32" s="2">
+      <c r="E32" s="2">
         <v>240</v>
       </c>
-      <c r="D32" s="2">
+      <c r="F32" s="2">
         <v>193</v>
       </c>
-      <c r="E32" s="2">
+      <c r="G32" s="2">
         <v>4720</v>
       </c>
-      <c r="F32" s="3">
-        <f>Data[[#This Row],[LoC]]-E31</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="H32" s="3">
+        <f>Data[[#This Row],[LoC]]-G31</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
         <v>5498</v>
       </c>
-      <c r="H32" s="2">
+      <c r="J32" s="2">
         <v>1781</v>
       </c>
-      <c r="I32" s="2">
+      <c r="K32" s="2">
         <v>315</v>
       </c>
-      <c r="J32" s="2">
+      <c r="L32" s="2">
         <v>240</v>
       </c>
-      <c r="K32" s="2">
+      <c r="M32" s="2">
         <v>97</v>
       </c>
-      <c r="L32" s="2">
+      <c r="N32" s="2">
         <v>48</v>
       </c>
-      <c r="M32" s="2">
+      <c r="O32" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>7979</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
         <v>1782</v>
       </c>
-      <c r="P32" s="2">
+      <c r="R32" s="2">
         <v>3684</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="S32" s="2">
         <v>62189</v>
       </c>
-      <c r="R32" s="2">
+      <c r="T32" s="2">
         <v>43626</v>
       </c>
-      <c r="S32" s="2">
-        <v>0</v>
-      </c>
-      <c r="T32" s="2">
-        <v>0</v>
-      </c>
       <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
         <v>224</v>
       </c>
-      <c r="V32" s="2">
+      <c r="X32" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
-      <c r="W32" s="2">
-        <v>0</v>
-      </c>
-      <c r="X32" s="2">
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
         <v>159</v>
       </c>
-      <c r="Y32" s="2">
+      <c r="AA32" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="AB32" s="2">
         <v>134</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="AC32" s="2">
         <v>138</v>
       </c>
-      <c r="AB32" s="2">
+      <c r="AD32" s="2">
         <v>4</v>
       </c>
-      <c r="AC32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="2">
+      <c r="AE32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="2">
         <v>321</v>
       </c>
-      <c r="AE32" s="2">
+      <c r="AG32" s="2">
         <v>595</v>
       </c>
-      <c r="AF32" s="2">
+      <c r="AH32" s="2">
         <v>7</v>
       </c>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2">
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>923</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44764</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="2">
         <v>105</v>
       </c>
-      <c r="C33" s="2">
+      <c r="E33" s="2">
         <v>240</v>
       </c>
-      <c r="D33" s="2">
+      <c r="F33" s="2">
         <v>193</v>
       </c>
-      <c r="E33" s="2">
+      <c r="G33" s="2">
         <v>4724</v>
       </c>
-      <c r="F33" s="3">
-        <f>Data[[#This Row],[LoC]]-E32</f>
+      <c r="H33" s="3">
+        <f>Data[[#This Row],[LoC]]-G32</f>
         <v>4</v>
       </c>
-      <c r="G33" s="2">
+      <c r="I33" s="2">
         <v>5502</v>
       </c>
-      <c r="H33" s="2">
+      <c r="J33" s="2">
         <v>1781</v>
       </c>
-      <c r="I33" s="2">
+      <c r="K33" s="2">
         <v>315</v>
       </c>
-      <c r="J33" s="2">
+      <c r="L33" s="2">
         <v>240</v>
       </c>
-      <c r="K33" s="2">
+      <c r="M33" s="2">
         <v>97</v>
       </c>
-      <c r="L33" s="2">
+      <c r="N33" s="2">
         <v>48</v>
       </c>
-      <c r="M33" s="2">
+      <c r="O33" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>7983</v>
       </c>
-      <c r="N33" s="3">
-        <f>Data[[#This Row],[Total]]-M32</f>
+      <c r="P33" s="3">
+        <f>Data[[#This Row],[Total]]-O32</f>
         <v>4</v>
       </c>
-      <c r="O33" s="2">
+      <c r="Q33" s="2">
         <v>1785</v>
       </c>
-      <c r="P33" s="2">
+      <c r="R33" s="2">
         <v>3689</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="S33" s="2">
         <v>62207</v>
       </c>
-      <c r="R33" s="2">
+      <c r="T33" s="2">
         <v>43630</v>
       </c>
-      <c r="S33" s="2">
-        <v>0</v>
-      </c>
-      <c r="T33" s="2">
-        <v>0</v>
-      </c>
       <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
         <v>224</v>
       </c>
-      <c r="V33" s="2">
+      <c r="X33" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
-      <c r="W33" s="2">
-        <v>0</v>
-      </c>
-      <c r="X33" s="2">
+      <c r="Y33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2">
         <v>159</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="AA33" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="AB33" s="2">
         <v>134</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AC33" s="2">
         <v>138</v>
       </c>
-      <c r="AB33" s="2">
+      <c r="AD33" s="2">
         <v>4</v>
       </c>
-      <c r="AC33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="2">
+      <c r="AE33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="2">
         <v>321</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AG33" s="2">
         <v>599</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AH33" s="2">
         <v>7</v>
       </c>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2">
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>927</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="2">
         <v>106</v>
       </c>
-      <c r="C34" s="2">
+      <c r="E34" s="2">
         <v>241</v>
       </c>
-      <c r="D34" s="2">
+      <c r="F34" s="2">
         <v>194</v>
       </c>
-      <c r="E34" s="2">
+      <c r="G34" s="2">
         <v>4731</v>
       </c>
-      <c r="F34" s="3">
-        <f>Data[[#This Row],[LoC]]-E33</f>
+      <c r="H34" s="3">
+        <f>Data[[#This Row],[LoC]]-G33</f>
         <v>7</v>
       </c>
-      <c r="G34" s="2">
+      <c r="I34" s="2">
         <v>5589</v>
       </c>
-      <c r="H34" s="2">
+      <c r="J34" s="2">
         <v>1785</v>
       </c>
-      <c r="I34" s="2">
+      <c r="K34" s="2">
         <v>315</v>
       </c>
-      <c r="J34" s="2">
+      <c r="L34" s="2">
         <v>242</v>
       </c>
-      <c r="K34" s="2">
+      <c r="M34" s="2">
         <v>97</v>
       </c>
-      <c r="L34" s="2">
+      <c r="N34" s="2">
         <v>48</v>
       </c>
-      <c r="M34" s="2">
+      <c r="O34" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8076</v>
       </c>
-      <c r="N34" s="3">
-        <f>Data[[#This Row],[Total]]-M33</f>
+      <c r="P34" s="3">
+        <f>Data[[#This Row],[Total]]-O33</f>
         <v>93</v>
       </c>
-      <c r="O34" s="2">
+      <c r="Q34" s="2">
         <v>1789</v>
       </c>
-      <c r="P34" s="2">
+      <c r="R34" s="2">
         <v>3703</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="S34" s="2">
         <v>62262</v>
       </c>
-      <c r="R34" s="2">
+      <c r="T34" s="2">
         <v>43661</v>
       </c>
-      <c r="S34" s="2">
-        <v>0</v>
-      </c>
-      <c r="T34" s="2">
-        <v>0</v>
-      </c>
       <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
         <v>225</v>
       </c>
-      <c r="V34" s="2">
+      <c r="X34" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>225</v>
       </c>
-      <c r="W34" s="2">
-        <v>0</v>
-      </c>
-      <c r="X34" s="2">
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
         <v>160</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="AA34" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="AB34" s="2">
         <v>135</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AC34" s="2">
         <v>138</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AD34" s="2">
         <v>4</v>
       </c>
-      <c r="AC34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="2">
+      <c r="AE34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="2">
         <v>322</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AG34" s="2">
         <v>610</v>
       </c>
-      <c r="AF34" s="2">
+      <c r="AH34" s="2">
         <v>7</v>
       </c>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2">
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>939</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44790</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2">
         <v>106</v>
       </c>
-      <c r="C35" s="2">
+      <c r="E35" s="2">
         <v>242</v>
       </c>
-      <c r="D35" s="2">
+      <c r="F35" s="2">
         <v>195</v>
       </c>
-      <c r="E35" s="2">
+      <c r="G35" s="2">
         <v>4749</v>
       </c>
-      <c r="F35" s="3">
-        <f>Data[[#This Row],[LoC]]-E34</f>
+      <c r="H35" s="3">
+        <f>Data[[#This Row],[LoC]]-G34</f>
         <v>18</v>
       </c>
-      <c r="G35" s="2">
+      <c r="I35" s="2">
         <v>5535</v>
       </c>
-      <c r="H35" s="2">
+      <c r="J35" s="2">
         <v>1788</v>
       </c>
-      <c r="I35" s="2">
+      <c r="K35" s="2">
         <v>315</v>
       </c>
-      <c r="J35" s="2">
+      <c r="L35" s="2">
         <v>243</v>
       </c>
-      <c r="K35" s="2">
+      <c r="M35" s="2">
         <v>97</v>
       </c>
-      <c r="L35" s="2">
+      <c r="N35" s="2">
         <v>48</v>
       </c>
-      <c r="M35" s="2">
+      <c r="O35" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8026</v>
       </c>
-      <c r="N35" s="3">
-        <f>Data[[#This Row],[Total]]-M34</f>
+      <c r="P35" s="3">
+        <f>Data[[#This Row],[Total]]-O34</f>
         <v>-50</v>
       </c>
-      <c r="O35" s="2">
+      <c r="Q35" s="2">
         <v>1791</v>
       </c>
-      <c r="P35" s="2">
+      <c r="R35" s="2">
         <v>3716</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="S35" s="2">
         <v>62325</v>
       </c>
-      <c r="R35" s="2">
+      <c r="T35" s="2">
         <v>43671</v>
       </c>
-      <c r="S35" s="2">
-        <v>0</v>
-      </c>
-      <c r="T35" s="2">
-        <v>0</v>
-      </c>
       <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
         <v>225</v>
       </c>
-      <c r="V35" s="2">
+      <c r="X35" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>225</v>
       </c>
-      <c r="W35" s="2">
-        <v>0</v>
-      </c>
-      <c r="X35" s="2">
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
         <v>160</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="AA35" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="AB35" s="2">
         <v>136</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AC35" s="2">
         <v>140</v>
       </c>
-      <c r="AB35" s="2">
+      <c r="AD35" s="2">
         <v>4</v>
       </c>
-      <c r="AC35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="2">
+      <c r="AE35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="2">
         <v>322</v>
       </c>
-      <c r="AE35" s="2">
+      <c r="AG35" s="2">
         <v>618</v>
       </c>
-      <c r="AF35" s="2">
+      <c r="AH35" s="2">
         <v>7</v>
       </c>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2">
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>947</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44797</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="2">
         <v>106</v>
       </c>
-      <c r="C36" s="2">
+      <c r="E36" s="2">
         <v>245</v>
       </c>
-      <c r="D36" s="2">
+      <c r="F36" s="2">
         <v>197</v>
       </c>
-      <c r="E36" s="2">
+      <c r="G36" s="2">
         <v>4770</v>
       </c>
-      <c r="F36" s="3">
-        <f>Data[[#This Row],[LoC]]-E35</f>
+      <c r="H36" s="3">
+        <f>Data[[#This Row],[LoC]]-G35</f>
         <v>21</v>
       </c>
-      <c r="G36" s="2">
+      <c r="I36" s="2">
         <v>5573</v>
       </c>
-      <c r="H36" s="2">
+      <c r="J36" s="2">
         <v>1799</v>
       </c>
-      <c r="I36" s="2">
+      <c r="K36" s="2">
         <v>315</v>
       </c>
-      <c r="J36" s="2">
+      <c r="L36" s="2">
         <v>244</v>
       </c>
-      <c r="K36" s="2">
+      <c r="M36" s="2">
         <v>97</v>
       </c>
-      <c r="L36" s="2">
+      <c r="N36" s="2">
         <v>48</v>
       </c>
-      <c r="M36" s="2">
+      <c r="O36" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8076</v>
       </c>
-      <c r="N36" s="3">
-        <f>Data[[#This Row],[Total]]-M35</f>
+      <c r="P36" s="3">
+        <f>Data[[#This Row],[Total]]-O35</f>
         <v>50</v>
       </c>
-      <c r="O36" s="2">
+      <c r="Q36" s="2">
         <v>1802</v>
       </c>
-      <c r="P36" s="2">
+      <c r="R36" s="2">
         <v>3755</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="S36" s="2">
         <v>62636</v>
       </c>
-      <c r="R36" s="2">
+      <c r="T36" s="2">
         <v>43878</v>
       </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
       <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
         <v>227</v>
       </c>
-      <c r="V36" s="2">
+      <c r="X36" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>227</v>
       </c>
-      <c r="W36" s="2">
-        <v>0</v>
-      </c>
-      <c r="X36" s="2">
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
         <v>160</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="AA36" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="AB36" s="2">
         <v>137</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AC36" s="2">
         <v>141</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AD36" s="2">
         <v>4</v>
       </c>
-      <c r="AC36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="2">
+      <c r="AE36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2">
         <v>322</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AG36" s="2">
         <v>641</v>
       </c>
-      <c r="AF36" s="2">
+      <c r="AH36" s="2">
         <v>7</v>
       </c>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2">
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>970</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44798</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2">
         <v>106</v>
       </c>
-      <c r="C37" s="2">
+      <c r="E37" s="2">
         <v>245</v>
       </c>
-      <c r="D37" s="2">
+      <c r="F37" s="2">
         <v>197</v>
       </c>
-      <c r="E37" s="2">
+      <c r="G37" s="2">
         <v>4772</v>
       </c>
-      <c r="F37" s="3">
-        <f>Data[[#This Row],[LoC]]-E36</f>
+      <c r="H37" s="3">
+        <f>Data[[#This Row],[LoC]]-G36</f>
         <v>2</v>
       </c>
-      <c r="G37" s="2">
+      <c r="I37" s="2">
         <v>5578</v>
       </c>
-      <c r="H37" s="2">
+      <c r="J37" s="2">
         <v>1800</v>
       </c>
-      <c r="I37" s="2">
+      <c r="K37" s="2">
         <v>542</v>
       </c>
-      <c r="J37" s="2">
+      <c r="L37" s="2">
         <v>315</v>
       </c>
-      <c r="K37" s="2">
+      <c r="M37" s="2">
         <v>97</v>
       </c>
-      <c r="L37" s="2">
+      <c r="N37" s="2">
         <v>48</v>
       </c>
-      <c r="M37" s="2">
+      <c r="O37" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8380</v>
       </c>
-      <c r="N37" s="3">
-        <f>Data[[#This Row],[Total]]-M36</f>
+      <c r="P37" s="3">
+        <f>Data[[#This Row],[Total]]-O36</f>
         <v>304</v>
       </c>
-      <c r="O37" s="2">
+      <c r="Q37" s="2">
         <v>1805</v>
       </c>
-      <c r="P37" s="2">
+      <c r="R37" s="2">
         <v>3760</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="S37" s="2">
         <v>62661</v>
       </c>
-      <c r="R37" s="2">
+      <c r="T37" s="2">
         <v>43888</v>
       </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
       <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
         <v>228</v>
       </c>
-      <c r="V37" s="2">
+      <c r="X37" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
-      <c r="W37" s="2">
-        <v>0</v>
-      </c>
-      <c r="X37" s="2">
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
         <v>160</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="AA37" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="AB37" s="2">
         <v>137</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="AC37" s="2">
         <v>142</v>
       </c>
-      <c r="AB37" s="2">
+      <c r="AD37" s="2">
         <v>4</v>
       </c>
-      <c r="AC37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="2">
+      <c r="AE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2">
         <v>322</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AG37" s="2">
         <v>647</v>
       </c>
-      <c r="AF37" s="2">
+      <c r="AH37" s="2">
         <v>7</v>
       </c>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2">
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>976</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44805</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="2">
         <v>106</v>
       </c>
-      <c r="C38" s="2">
+      <c r="E38" s="2">
         <v>246</v>
       </c>
-      <c r="D38" s="2">
+      <c r="F38" s="2">
         <v>198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>4778</v>
       </c>
-      <c r="F38" s="3">
-        <f>Data[[#This Row],[LoC]]-E37</f>
+      <c r="H38" s="3">
+        <f>Data[[#This Row],[LoC]]-G37</f>
         <v>6</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>5585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>1805</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>315</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>244</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>97</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>48</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8094</v>
       </c>
-      <c r="N38" s="3">
-        <f>Data[[#This Row],[Total]]-M37</f>
+      <c r="P38" s="3">
+        <f>Data[[#This Row],[Total]]-O37</f>
         <v>-286</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>1809</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>3770</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>62701</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43898</v>
       </c>
-      <c r="S38" s="2">
-        <v>0</v>
-      </c>
-      <c r="T38" s="2">
-        <v>0</v>
-      </c>
       <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
         <v>228</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
-      <c r="W38" s="2">
-        <v>0</v>
-      </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
         <v>160</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>137</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>142</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>4</v>
       </c>
-      <c r="AC38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="2">
         <v>322</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AG38" s="2">
         <v>657</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AH38" s="2">
         <v>7</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2">
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>986</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44806</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2">
         <v>106</v>
       </c>
-      <c r="C39" s="2">
+      <c r="E39" s="2">
         <v>247</v>
       </c>
-      <c r="D39" s="2">
+      <c r="F39" s="2">
         <v>198</v>
       </c>
-      <c r="E39" s="2">
+      <c r="G39" s="2">
         <v>4811</v>
       </c>
-      <c r="F39" s="3">
-        <f>Data[[#This Row],[LoC]]-E38</f>
+      <c r="H39" s="3">
+        <f>Data[[#This Row],[LoC]]-G38</f>
         <v>33</v>
       </c>
-      <c r="G39" s="2">
+      <c r="I39" s="2">
         <v>5612</v>
       </c>
-      <c r="H39" s="2">
+      <c r="J39" s="2">
         <v>1805</v>
       </c>
-      <c r="I39" s="2">
+      <c r="K39" s="2">
         <v>284</v>
       </c>
-      <c r="J39" s="2">
+      <c r="L39" s="2">
         <v>244</v>
       </c>
-      <c r="K39" s="2">
+      <c r="M39" s="2">
         <v>97</v>
       </c>
-      <c r="L39" s="2">
+      <c r="N39" s="2">
         <v>48</v>
       </c>
-      <c r="M39" s="2">
+      <c r="O39" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8090</v>
       </c>
-      <c r="N39" s="3">
-        <f>Data[[#This Row],[Total]]-M38</f>
+      <c r="P39" s="3">
+        <f>Data[[#This Row],[Total]]-O38</f>
         <v>-4</v>
       </c>
-      <c r="O39" s="2">
+      <c r="Q39" s="2">
         <v>1813</v>
       </c>
-      <c r="P39" s="2">
+      <c r="R39" s="2">
         <v>3784</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="S39" s="2">
         <v>62876</v>
       </c>
-      <c r="R39" s="2">
+      <c r="T39" s="2">
         <v>44048</v>
       </c>
-      <c r="S39" s="2">
-        <v>0</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0</v>
-      </c>
       <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
         <v>228</v>
       </c>
-      <c r="V39" s="2">
+      <c r="X39" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
-      <c r="W39" s="2">
+      <c r="Y39" s="2">
         <v>1</v>
       </c>
-      <c r="X39" s="2">
+      <c r="Z39" s="2">
         <v>161</v>
       </c>
-      <c r="Y39" s="2">
+      <c r="AA39" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="AB39" s="2">
         <v>137</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AC39" s="2">
         <v>142</v>
       </c>
-      <c r="AB39" s="2">
+      <c r="AD39" s="2">
         <v>4</v>
       </c>
-      <c r="AC39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="2">
+      <c r="AE39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="2">
         <v>324</v>
       </c>
-      <c r="AE39" s="2">
+      <c r="AG39" s="2">
         <v>669</v>
       </c>
-      <c r="AF39" s="2">
+      <c r="AH39" s="2">
         <v>7</v>
       </c>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2">
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44810</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="2">
         <v>106</v>
       </c>
-      <c r="C40" s="2">
+      <c r="E40" s="2">
         <v>247</v>
       </c>
-      <c r="D40" s="2">
+      <c r="F40" s="2">
         <v>199</v>
       </c>
-      <c r="E40" s="2">
+      <c r="G40" s="2">
         <v>4835</v>
       </c>
-      <c r="F40" s="3">
-        <f>Data[[#This Row],[LoC]]-E39</f>
+      <c r="H40" s="3">
+        <f>Data[[#This Row],[LoC]]-G39</f>
         <v>24</v>
       </c>
-      <c r="G40" s="2">
+      <c r="I40" s="2">
         <v>5646</v>
       </c>
-      <c r="H40" s="2">
+      <c r="J40" s="2">
         <v>1809</v>
       </c>
-      <c r="I40" s="2">
+      <c r="K40" s="2">
         <v>284</v>
       </c>
-      <c r="J40" s="2">
+      <c r="L40" s="2">
         <v>246</v>
       </c>
-      <c r="K40" s="2">
+      <c r="M40" s="2">
         <v>97</v>
       </c>
-      <c r="L40" s="2">
+      <c r="N40" s="2">
         <v>48</v>
       </c>
-      <c r="M40" s="2">
+      <c r="O40" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8130</v>
       </c>
-      <c r="N40" s="3">
-        <f>Data[[#This Row],[Total]]-M39</f>
+      <c r="P40" s="3">
+        <f>Data[[#This Row],[Total]]-O39</f>
         <v>40</v>
       </c>
-      <c r="O40" s="2">
+      <c r="Q40" s="2">
         <v>1815</v>
       </c>
-      <c r="P40" s="2">
+      <c r="R40" s="2">
         <v>3795</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="S40" s="2">
         <v>62951</v>
       </c>
-      <c r="R40" s="2">
+      <c r="T40" s="2">
         <v>44063</v>
       </c>
-      <c r="S40" s="2">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
       <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
         <v>228</v>
       </c>
-      <c r="V40" s="2">
+      <c r="X40" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
-      <c r="W40" s="2">
-        <v>0</v>
-      </c>
-      <c r="X40" s="2">
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
         <v>161</v>
       </c>
-      <c r="Y40" s="2">
+      <c r="AA40" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>161</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="AB40" s="2">
         <v>138</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AC40" s="2">
         <v>144</v>
       </c>
-      <c r="AB40" s="2">
+      <c r="AD40" s="2">
         <v>4</v>
       </c>
-      <c r="AC40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="2">
+      <c r="AE40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="2">
         <v>324</v>
       </c>
-      <c r="AE40" s="2">
+      <c r="AG40" s="2">
         <v>675</v>
       </c>
-      <c r="AF40" s="2">
+      <c r="AH40" s="2">
         <v>7</v>
       </c>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2">
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1006</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44812</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="2">
         <v>106</v>
       </c>
-      <c r="C41" s="2">
+      <c r="E41" s="2">
         <v>247</v>
       </c>
-      <c r="D41" s="2">
+      <c r="F41" s="2">
         <v>199</v>
       </c>
-      <c r="E41" s="2">
+      <c r="G41" s="2">
         <v>4895</v>
       </c>
-      <c r="F41" s="3">
-        <f>Data[[#This Row],[LoC]]-E40</f>
+      <c r="H41" s="3">
+        <f>Data[[#This Row],[LoC]]-G40</f>
         <v>60</v>
       </c>
-      <c r="G41" s="2">
+      <c r="I41" s="2">
         <v>5691</v>
       </c>
-      <c r="H41" s="2">
+      <c r="J41" s="2">
         <v>1814</v>
       </c>
-      <c r="I41" s="2">
+      <c r="K41" s="2">
         <v>289</v>
       </c>
-      <c r="J41" s="2">
+      <c r="L41" s="2">
         <v>248</v>
       </c>
-      <c r="K41" s="2">
+      <c r="M41" s="2">
         <v>97</v>
       </c>
-      <c r="L41" s="2">
+      <c r="N41" s="2">
         <v>48</v>
       </c>
-      <c r="M41" s="2">
+      <c r="O41" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8187</v>
       </c>
-      <c r="N41" s="3">
-        <f>Data[[#This Row],[Total]]-M40</f>
+      <c r="P41" s="3">
+        <f>Data[[#This Row],[Total]]-O40</f>
         <v>57</v>
       </c>
-      <c r="O41" s="2">
+      <c r="Q41" s="2">
         <v>1823</v>
       </c>
-      <c r="P41" s="2">
+      <c r="R41" s="2">
         <v>3813</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="S41" s="2">
         <v>63094</v>
       </c>
-      <c r="R41" s="2">
+      <c r="T41" s="2">
         <v>44112</v>
       </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
-      <c r="T41" s="2">
-        <v>0</v>
-      </c>
       <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
         <v>228</v>
       </c>
-      <c r="V41" s="2">
+      <c r="X41" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
-      <c r="W41" s="2">
-        <v>0</v>
-      </c>
-      <c r="X41" s="2">
+      <c r="Y41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
         <v>161</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="AA41" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>161</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="AB41" s="2">
         <v>138</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AC41" s="2">
         <v>144</v>
       </c>
-      <c r="AB41" s="2">
+      <c r="AD41" s="2">
         <v>4</v>
       </c>
-      <c r="AC41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="2">
+      <c r="AE41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="2">
         <v>326</v>
       </c>
-      <c r="AE41" s="2">
+      <c r="AG41" s="2">
         <v>689</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AH41" s="2">
         <v>7</v>
       </c>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2">
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1022</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44813</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="2">
         <v>106</v>
       </c>
-      <c r="C42" s="2">
+      <c r="E42" s="2">
         <v>248</v>
       </c>
-      <c r="D42" s="2">
+      <c r="F42" s="2">
         <v>200</v>
       </c>
-      <c r="E42" s="2">
+      <c r="G42" s="2">
         <v>4929</v>
       </c>
-      <c r="F42" s="3">
-        <f>Data[[#This Row],[LoC]]-E41</f>
+      <c r="H42" s="3">
+        <f>Data[[#This Row],[LoC]]-G41</f>
         <v>34</v>
       </c>
-      <c r="G42" s="2">
+      <c r="I42" s="2">
         <v>5743</v>
       </c>
-      <c r="H42" s="2">
+      <c r="J42" s="2">
         <v>1830</v>
       </c>
-      <c r="I42" s="2">
+      <c r="K42" s="2">
         <v>289</v>
       </c>
-      <c r="J42" s="2">
+      <c r="L42" s="2">
         <v>259</v>
       </c>
-      <c r="K42" s="2">
+      <c r="M42" s="2">
         <v>97</v>
       </c>
-      <c r="L42" s="2">
+      <c r="N42" s="2">
         <v>51</v>
       </c>
-      <c r="M42" s="2">
+      <c r="O42" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8269</v>
       </c>
-      <c r="N42" s="3">
-        <f>Data[[#This Row],[Total]]-M41</f>
+      <c r="P42" s="3">
+        <f>Data[[#This Row],[Total]]-O41</f>
         <v>82</v>
       </c>
-      <c r="O42" s="2">
+      <c r="Q42" s="2">
         <v>1830</v>
       </c>
-      <c r="P42" s="2">
+      <c r="R42" s="2">
         <v>3837</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="S42" s="2">
         <v>63369</v>
       </c>
-      <c r="R42" s="2">
+      <c r="T42" s="2">
         <v>44256</v>
       </c>
-      <c r="S42" s="2">
-        <v>0</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0</v>
-      </c>
       <c r="U42" s="2">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
         <v>228</v>
       </c>
-      <c r="V42" s="2">
+      <c r="X42" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
-      <c r="W42" s="2">
-        <v>0</v>
-      </c>
-      <c r="X42" s="2">
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
         <v>161</v>
       </c>
-      <c r="Y42" s="2">
+      <c r="AA42" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>161</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="AB42" s="2">
         <v>141</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="AC42" s="2">
         <v>148</v>
       </c>
-      <c r="AB42" s="2">
+      <c r="AD42" s="2">
         <v>4</v>
       </c>
-      <c r="AC42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="2">
+      <c r="AE42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="2">
         <v>330</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AG42" s="2">
         <v>703</v>
       </c>
-      <c r="AF42" s="2">
+      <c r="AH42" s="2">
         <v>7</v>
       </c>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2">
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1040</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44817</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2">
         <v>106</v>
       </c>
-      <c r="C43" s="2">
+      <c r="E43" s="2">
         <v>249</v>
       </c>
-      <c r="D43" s="2">
+      <c r="F43" s="2">
         <v>201</v>
       </c>
-      <c r="E43" s="2">
+      <c r="G43" s="2">
         <v>4958</v>
       </c>
-      <c r="F43" s="3">
-        <f>Data[[#This Row],[LoC]]-E42</f>
+      <c r="H43" s="3">
+        <f>Data[[#This Row],[LoC]]-G42</f>
         <v>29</v>
       </c>
-      <c r="G43" s="2">
+      <c r="I43" s="2">
         <v>5776</v>
       </c>
-      <c r="H43" s="2">
+      <c r="J43" s="2">
         <v>1838</v>
       </c>
-      <c r="I43" s="2">
+      <c r="K43" s="2">
         <v>289</v>
       </c>
-      <c r="J43" s="2">
+      <c r="L43" s="2">
         <v>262</v>
       </c>
-      <c r="K43" s="2">
+      <c r="M43" s="2">
         <v>98</v>
       </c>
-      <c r="L43" s="2">
+      <c r="N43" s="2">
         <v>51</v>
       </c>
-      <c r="M43" s="2">
+      <c r="O43" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8314</v>
       </c>
-      <c r="N43" s="3">
-        <f>Data[[#This Row],[Total]]-M42</f>
+      <c r="P43" s="3">
+        <f>Data[[#This Row],[Total]]-O42</f>
         <v>45</v>
       </c>
-      <c r="O43" s="2">
+      <c r="Q43" s="2">
         <v>1844</v>
       </c>
-      <c r="P43" s="2">
+      <c r="R43" s="2">
         <v>3882</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="S43" s="2">
         <v>63725</v>
       </c>
-      <c r="R43" s="2">
+      <c r="T43" s="2">
         <v>44538</v>
       </c>
-      <c r="S43" s="2">
-        <v>0</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0</v>
-      </c>
       <c r="U43" s="2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
         <v>230</v>
       </c>
-      <c r="V43" s="2">
+      <c r="X43" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>230</v>
       </c>
-      <c r="W43" s="2">
-        <v>0</v>
-      </c>
-      <c r="X43" s="2">
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
         <v>162</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="AA43" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="Z43" s="2">
+      <c r="AB43" s="2">
         <v>143</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AC43" s="2">
         <v>148</v>
       </c>
-      <c r="AB43" s="2">
+      <c r="AD43" s="2">
         <v>4</v>
       </c>
-      <c r="AC43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="2">
+      <c r="AE43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="2">
         <v>335</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AG43" s="2">
         <v>732</v>
       </c>
-      <c r="AF43" s="2">
+      <c r="AH43" s="2">
         <v>7</v>
       </c>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2">
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1074</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44820</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="2">
         <v>106</v>
       </c>
-      <c r="C44" s="2">
+      <c r="E44" s="2">
         <v>249</v>
       </c>
-      <c r="D44" s="2">
+      <c r="F44" s="2">
         <v>201</v>
       </c>
-      <c r="E44" s="2">
+      <c r="G44" s="2">
         <v>4961</v>
       </c>
-      <c r="F44" s="3">
-        <f>Data[[#This Row],[LoC]]-E43</f>
+      <c r="H44" s="3">
+        <f>Data[[#This Row],[LoC]]-G43</f>
         <v>3</v>
       </c>
-      <c r="G44" s="2">
+      <c r="I44" s="2">
         <v>5780</v>
       </c>
-      <c r="H44" s="2">
+      <c r="J44" s="2">
         <v>1838</v>
       </c>
-      <c r="I44" s="2">
+      <c r="K44" s="2">
         <v>289</v>
       </c>
-      <c r="J44" s="2">
+      <c r="L44" s="2">
         <v>262</v>
       </c>
-      <c r="K44" s="2">
+      <c r="M44" s="2">
         <v>98</v>
       </c>
-      <c r="L44" s="2">
+      <c r="N44" s="2">
         <v>51</v>
       </c>
-      <c r="M44" s="2">
+      <c r="O44" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8318</v>
       </c>
-      <c r="N44" s="3">
-        <f>Data[[#This Row],[Total]]-M43</f>
+      <c r="P44" s="3">
+        <f>Data[[#This Row],[Total]]-O43</f>
         <v>4</v>
       </c>
-      <c r="O44" s="2">
+      <c r="Q44" s="2">
         <v>1846</v>
       </c>
-      <c r="P44" s="2">
+      <c r="R44" s="2">
         <v>3886</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="S44" s="2">
         <v>63780</v>
       </c>
-      <c r="R44" s="2">
+      <c r="T44" s="2">
         <v>44585</v>
       </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0</v>
-      </c>
       <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
         <v>232</v>
       </c>
-      <c r="V44" s="2">
+      <c r="X44" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>232</v>
       </c>
-      <c r="W44" s="2">
-        <v>0</v>
-      </c>
-      <c r="X44" s="2">
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
         <v>162</v>
       </c>
-      <c r="Y44" s="2">
+      <c r="AA44" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="Z44" s="2">
+      <c r="AB44" s="2">
         <v>143</v>
       </c>
-      <c r="AA44" s="2">
+      <c r="AC44" s="2">
         <v>148</v>
       </c>
-      <c r="AB44" s="2">
+      <c r="AD44" s="2">
         <v>4</v>
       </c>
-      <c r="AC44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="2">
+      <c r="AE44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="2">
         <v>335</v>
       </c>
-      <c r="AE44" s="2">
+      <c r="AG44" s="2">
         <v>736</v>
       </c>
-      <c r="AF44" s="2">
+      <c r="AH44" s="2">
         <v>7</v>
       </c>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2">
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1078</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44823</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2">
         <v>106</v>
       </c>
-      <c r="C45" s="2">
+      <c r="E45" s="2">
         <v>250</v>
       </c>
-      <c r="D45" s="2">
+      <c r="F45" s="2">
         <v>202</v>
       </c>
-      <c r="E45" s="2">
+      <c r="G45" s="2">
         <v>4980</v>
       </c>
-      <c r="F45" s="3">
-        <f>Data[[#This Row],[LoC]]-E44</f>
+      <c r="H45" s="3">
+        <f>Data[[#This Row],[LoC]]-G44</f>
         <v>19</v>
       </c>
-      <c r="G45" s="2">
+      <c r="I45" s="2">
         <v>5806</v>
       </c>
-      <c r="H45" s="2">
+      <c r="J45" s="2">
         <v>1840</v>
       </c>
-      <c r="I45" s="2">
+      <c r="K45" s="2">
         <v>289</v>
       </c>
-      <c r="J45" s="2">
+      <c r="L45" s="2">
         <v>263</v>
       </c>
-      <c r="K45" s="2">
+      <c r="M45" s="2">
         <v>98</v>
       </c>
-      <c r="L45" s="2">
+      <c r="N45" s="2">
         <v>51</v>
       </c>
-      <c r="M45" s="2">
+      <c r="O45" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8347</v>
       </c>
-      <c r="N45" s="3">
-        <f>Data[[#This Row],[Total]]-M44</f>
+      <c r="P45" s="3">
+        <f>Data[[#This Row],[Total]]-O44</f>
         <v>29</v>
       </c>
-      <c r="O45" s="2">
+      <c r="Q45" s="2">
         <v>1852</v>
       </c>
-      <c r="P45" s="2">
+      <c r="R45" s="2">
         <v>3907</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="S45" s="2">
         <v>63871</v>
       </c>
-      <c r="R45" s="2">
+      <c r="T45" s="2">
         <v>44612</v>
       </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
       <c r="U45" s="2">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
         <v>232</v>
       </c>
-      <c r="V45" s="2">
+      <c r="X45" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>232</v>
       </c>
-      <c r="W45" s="2">
-        <v>0</v>
-      </c>
-      <c r="X45" s="2">
+      <c r="Y45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
         <v>162</v>
       </c>
-      <c r="Y45" s="2">
+      <c r="AA45" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="Z45" s="2">
+      <c r="AB45" s="2">
         <v>144</v>
       </c>
-      <c r="AA45" s="2">
+      <c r="AC45" s="2">
         <v>150</v>
       </c>
-      <c r="AB45" s="2">
+      <c r="AD45" s="2">
         <v>4</v>
       </c>
-      <c r="AC45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="2">
+      <c r="AE45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="2">
         <v>338</v>
       </c>
-      <c r="AE45" s="2">
+      <c r="AG45" s="2">
         <v>749</v>
       </c>
-      <c r="AF45" s="2">
+      <c r="AH45" s="2">
         <v>7</v>
       </c>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2">
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1094</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44828</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="2">
         <v>106</v>
       </c>
-      <c r="C46" s="2">
+      <c r="E46" s="2">
         <v>253</v>
       </c>
-      <c r="D46" s="2">
+      <c r="F46" s="2">
         <v>205</v>
       </c>
-      <c r="E46" s="2">
+      <c r="G46" s="2">
         <v>5159</v>
       </c>
-      <c r="F46" s="3">
-        <f>Data[[#This Row],[LoC]]-E45</f>
+      <c r="H46" s="3">
+        <f>Data[[#This Row],[LoC]]-G45</f>
         <v>179</v>
       </c>
-      <c r="G46" s="2">
+      <c r="I46" s="2">
         <v>6009</v>
       </c>
-      <c r="H46" s="2">
+      <c r="J46" s="2">
         <v>1868</v>
       </c>
-      <c r="I46" s="2">
+      <c r="K46" s="2">
         <v>289</v>
       </c>
-      <c r="J46" s="2">
+      <c r="L46" s="2">
         <v>273</v>
       </c>
-      <c r="K46" s="2">
+      <c r="M46" s="2">
         <v>98</v>
       </c>
-      <c r="L46" s="2">
+      <c r="N46" s="2">
         <v>57</v>
       </c>
-      <c r="M46" s="2">
+      <c r="O46" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8594</v>
       </c>
-      <c r="N46" s="3">
-        <f>Data[[#This Row],[Total]]-M45</f>
+      <c r="P46" s="3">
+        <f>Data[[#This Row],[Total]]-O45</f>
         <v>247</v>
       </c>
-      <c r="O46" s="2">
+      <c r="Q46" s="2">
         <v>1873</v>
       </c>
-      <c r="P46" s="2">
+      <c r="R46" s="2">
         <v>3964</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="S46" s="2">
         <v>64446</v>
       </c>
-      <c r="R46" s="2">
+      <c r="T46" s="2">
         <v>44820</v>
       </c>
-      <c r="S46" s="2">
-        <v>0</v>
-      </c>
-      <c r="T46" s="2">
-        <v>0</v>
-      </c>
       <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
         <v>235</v>
       </c>
-      <c r="V46" s="2">
+      <c r="X46" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>235</v>
       </c>
-      <c r="W46" s="2">
-        <v>0</v>
-      </c>
-      <c r="X46" s="2">
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
         <v>162</v>
       </c>
-      <c r="Y46" s="2">
+      <c r="AA46" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="AB46" s="2">
         <v>150</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AC46" s="2">
         <v>158</v>
       </c>
-      <c r="AB46" s="2">
+      <c r="AD46" s="2">
         <v>4</v>
       </c>
-      <c r="AC46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="2">
+      <c r="AE46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="2">
         <v>341</v>
       </c>
-      <c r="AE46" s="2">
+      <c r="AG46" s="2">
         <v>797</v>
       </c>
-      <c r="AF46" s="2">
+      <c r="AH46" s="2">
         <v>9</v>
       </c>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="2">
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1147</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44831</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="2">
         <v>106</v>
       </c>
-      <c r="C47" s="2">
+      <c r="E47" s="2">
         <v>254</v>
       </c>
-      <c r="D47" s="2">
+      <c r="F47" s="2">
         <v>206</v>
       </c>
-      <c r="E47" s="2">
+      <c r="G47" s="2">
         <v>5169</v>
       </c>
-      <c r="F47" s="3">
-        <f>Data[[#This Row],[LoC]]-E46</f>
+      <c r="H47" s="3">
+        <f>Data[[#This Row],[LoC]]-G46</f>
         <v>10</v>
       </c>
-      <c r="G47" s="2">
+      <c r="I47" s="2">
         <v>6018</v>
       </c>
-      <c r="H47" s="2">
+      <c r="J47" s="2">
         <v>1872</v>
       </c>
-      <c r="I47" s="2">
+      <c r="K47" s="2">
         <v>291</v>
       </c>
-      <c r="J47" s="2">
+      <c r="L47" s="2">
         <v>273</v>
       </c>
-      <c r="K47" s="2">
+      <c r="M47" s="2">
         <v>98</v>
       </c>
-      <c r="L47" s="2">
+      <c r="N47" s="2">
         <v>57</v>
       </c>
-      <c r="M47" s="2">
+      <c r="O47" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8609</v>
       </c>
-      <c r="N47" s="3">
-        <f>Data[[#This Row],[Total]]-M46</f>
+      <c r="P47" s="3">
+        <f>Data[[#This Row],[Total]]-O46</f>
         <v>15</v>
       </c>
-      <c r="O47" s="2">
+      <c r="Q47" s="2">
         <v>1884</v>
       </c>
-      <c r="P47" s="2">
+      <c r="R47" s="2">
         <v>3982</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="S47" s="2">
         <v>64492</v>
       </c>
-      <c r="R47" s="2">
+      <c r="T47" s="2">
         <v>44840</v>
       </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2">
-        <v>0</v>
-      </c>
       <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
         <v>237</v>
       </c>
-      <c r="V47" s="2">
+      <c r="X47" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>237</v>
       </c>
-      <c r="W47" s="2">
-        <v>0</v>
-      </c>
-      <c r="X47" s="2">
+      <c r="Y47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2">
         <v>162</v>
       </c>
-      <c r="Y47" s="2">
+      <c r="AA47" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="Z47" s="2">
+      <c r="AB47" s="2">
         <v>150</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AC47" s="2">
         <v>158</v>
       </c>
-      <c r="AB47" s="2">
+      <c r="AD47" s="2">
         <v>4</v>
       </c>
-      <c r="AC47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="2">
+      <c r="AE47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="2">
         <v>344</v>
       </c>
-      <c r="AE47" s="2">
+      <c r="AG47" s="2">
         <v>822</v>
       </c>
-      <c r="AF47" s="2">
+      <c r="AH47" s="2">
         <v>9</v>
       </c>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="2">
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1175</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44840</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="2">
         <v>106</v>
       </c>
-      <c r="C48" s="2">
+      <c r="E48" s="2">
         <v>256</v>
       </c>
-      <c r="D48" s="2">
+      <c r="F48" s="2">
         <v>208</v>
       </c>
-      <c r="E48" s="2">
+      <c r="G48" s="2">
         <v>5265</v>
       </c>
-      <c r="F48" s="3">
-        <f>Data[[#This Row],[LoC]]-E47</f>
+      <c r="H48" s="3">
+        <f>Data[[#This Row],[LoC]]-G47</f>
         <v>96</v>
       </c>
-      <c r="G48" s="2">
+      <c r="I48" s="2">
         <v>6117</v>
       </c>
-      <c r="H48" s="2">
+      <c r="J48" s="2">
         <v>1877</v>
       </c>
-      <c r="I48" s="2">
+      <c r="K48" s="2">
         <v>291</v>
       </c>
-      <c r="J48" s="2">
+      <c r="L48" s="2">
         <v>425</v>
       </c>
-      <c r="K48" s="2">
+      <c r="M48" s="2">
         <v>98</v>
       </c>
-      <c r="L48" s="2">
+      <c r="N48" s="2">
         <v>57</v>
       </c>
-      <c r="M48" s="2">
+      <c r="O48" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8865</v>
       </c>
-      <c r="N48" s="3">
-        <f>Data[[#This Row],[Total]]-M47</f>
+      <c r="P48" s="3">
+        <f>Data[[#This Row],[Total]]-O47</f>
         <v>256</v>
       </c>
-      <c r="O48" s="2">
+      <c r="Q48" s="2">
         <v>1893</v>
       </c>
-      <c r="P48" s="2">
+      <c r="R48" s="2">
         <v>4011</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="S48" s="2">
         <v>64734</v>
       </c>
-      <c r="R48" s="2">
+      <c r="T48" s="2">
         <v>44916</v>
       </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="T48" s="2">
-        <v>0</v>
-      </c>
       <c r="U48" s="2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2">
         <v>238</v>
       </c>
-      <c r="V48" s="2">
+      <c r="X48" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>238</v>
       </c>
-      <c r="W48" s="2">
-        <v>0</v>
-      </c>
-      <c r="X48" s="2">
+      <c r="Y48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2">
         <v>162</v>
       </c>
-      <c r="Y48" s="2">
+      <c r="AA48" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="Z48" s="2">
+      <c r="AB48" s="2">
         <v>151</v>
       </c>
-      <c r="AA48" s="2">
+      <c r="AC48" s="2">
         <v>162</v>
       </c>
-      <c r="AB48" s="2">
+      <c r="AD48" s="2">
         <v>4</v>
       </c>
-      <c r="AC48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="2">
+      <c r="AE48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="2">
         <v>345</v>
       </c>
-      <c r="AE48" s="2">
+      <c r="AG48" s="2">
         <v>846</v>
       </c>
-      <c r="AF48" s="2">
+      <c r="AH48" s="2">
         <v>9</v>
       </c>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2">
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B49" s="4">
+        <v>316</v>
+      </c>
+      <c r="C49" s="4">
+        <v>118</v>
+      </c>
+      <c r="D49" s="2">
+        <v>106</v>
+      </c>
+      <c r="E49" s="2">
+        <v>257</v>
+      </c>
+      <c r="F49" s="2">
+        <v>209</v>
+      </c>
+      <c r="G49" s="2">
+        <v>5269</v>
+      </c>
+      <c r="H49" s="3">
+        <f>Data[[#This Row],[LoC]]-G48</f>
+        <v>4</v>
+      </c>
+      <c r="I49" s="2">
+        <v>6121</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1879</v>
+      </c>
+      <c r="K49" s="2">
+        <v>291</v>
+      </c>
+      <c r="L49" s="2">
+        <v>275</v>
+      </c>
+      <c r="M49" s="2">
+        <v>98</v>
+      </c>
+      <c r="N49" s="2">
+        <v>57</v>
+      </c>
+      <c r="O49" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8721</v>
+      </c>
+      <c r="P49" s="3">
+        <f>Data[[#This Row],[Total]]-O48</f>
+        <v>-144</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>1898</v>
+      </c>
+      <c r="R49" s="2">
+        <v>4021</v>
+      </c>
+      <c r="S49" s="2">
+        <v>64752</v>
+      </c>
+      <c r="T49" s="2">
+        <v>44923</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2">
+        <v>238</v>
+      </c>
+      <c r="X49" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>238</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>162</v>
+      </c>
+      <c r="AA49" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>162</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>151</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>162</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>858</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>9</v>
+      </c>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1212</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/git/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34167CF-781D-FD42-A0FB-7C7D50ACBB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCD2DA1-0F15-A547-870F-016097B9FDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="13140" windowWidth="41120" windowHeight="12200" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -149,6 +149,9 @@
   <si>
     <t>Forks</t>
   </si>
+  <si>
+    <t>Python</t>
+  </si>
 </sst>
 </file>
 
@@ -202,12 +205,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -309,6 +309,12 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
   </dxfs>
@@ -372,10 +378,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -519,16 +525,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$49</c:f>
+              <c:f>Data!$G$2:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -672,6 +681,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>5269</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,7 +700,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$Q$1</c:f>
+              <c:f>Data!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -711,10 +723,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -858,16 +870,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$49</c:f>
+              <c:f>Data!$R$2:$R$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -1011,6 +1026,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,7 +1045,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$R$1</c:f>
+              <c:f>Data!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1050,10 +1068,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1197,16 +1215,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$49</c:f>
+              <c:f>Data!$S$2:$S$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1350,6 +1371,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>4021</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,7 +1606,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$V$1</c:f>
+              <c:f>Data!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1605,10 +1629,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1752,16 +1776,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$49</c:f>
+              <c:f>Data!$W$2:$W$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1904,6 +1931,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1921,7 +1951,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$Y$1</c:f>
+              <c:f>Data!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1944,10 +1974,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2091,16 +2121,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$49</c:f>
+              <c:f>Data!$Z$2:$Z$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2243,6 +2276,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2260,7 +2296,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$U$1</c:f>
+              <c:f>Data!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2283,10 +2319,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2430,16 +2466,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$2:$U$49</c:f>
+              <c:f>Data!$V$2:$V$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2582,6 +2621,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2818,7 +2860,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$X$1</c:f>
+              <c:f>Data!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2841,10 +2883,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2988,16 +3030,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$X$2:$X$49</c:f>
+              <c:f>Data!$Y$2:$Y$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -3141,6 +3186,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3157,7 +3205,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AA$1</c:f>
+              <c:f>Data!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3180,10 +3228,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3327,16 +3375,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AA$2:$AA$49</c:f>
+              <c:f>Data!$AB$2:$AB$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3480,6 +3531,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3712,7 +3766,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AC$1</c:f>
+              <c:f>Data!$AD$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3735,10 +3789,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3882,16 +3936,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AC$2:$AC$49</c:f>
+              <c:f>Data!$AD$2:$AD$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -4034,6 +4091,9 @@
                   <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
@@ -4236,7 +4296,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AE$1</c:f>
+              <c:f>Data!$AF$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4256,10 +4316,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4403,16 +4463,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AE$2:$AE$49</c:f>
+              <c:f>Data!$AF$2:$AF$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4489,6 +4552,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4505,7 +4571,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AF$1</c:f>
+              <c:f>Data!$AG$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4525,10 +4591,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4672,16 +4738,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$49</c:f>
+              <c:f>Data!$AG$2:$AG$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4759,6 +4828,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4774,7 +4846,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AG$1</c:f>
+              <c:f>Data!$AH$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4794,10 +4866,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4941,16 +5013,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$49</c:f>
+              <c:f>Data!$AH$2:$AH$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -5028,6 +5103,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5043,7 +5121,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AH$1</c:f>
+              <c:f>Data!$AI$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5063,10 +5141,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5210,16 +5288,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AH$2:$AH$49</c:f>
+              <c:f>Data!$AI$2:$AI$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5296,6 +5377,9 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -5312,7 +5396,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AI$1</c:f>
+              <c:f>Data!$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5334,10 +5418,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$49</c:f>
+              <c:f>Data!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5481,16 +5565,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AI$2:$AI$49</c:f>
+              <c:f>Data!$AJ$2:$AJ$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -8729,55 +8816,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AJ49" totalsRowShown="0">
-  <autoFilter ref="A1:AJ49" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
-  <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="35"/>
-    <tableColumn id="35" xr3:uid="{6D5DE1BF-18D0-144B-BD3F-DACE38879478}" name="Stars" dataDxfId="1"/>
-    <tableColumn id="36" xr3:uid="{24BDF572-B0AB-334A-BB98-AAF6AE52850D}" name="Forks" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="31"/>
-    <tableColumn id="33" xr3:uid="{314C5206-2A7B-F841-94C2-27E5FA3210D6}" name="∆LoC" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AK50" totalsRowShown="0">
+  <autoFilter ref="A1:AK50" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+  <tableColumns count="37">
+    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="36"/>
+    <tableColumn id="35" xr3:uid="{6D5DE1BF-18D0-144B-BD3F-DACE38879478}" name="Stars" dataDxfId="35"/>
+    <tableColumn id="36" xr3:uid="{24BDF572-B0AB-334A-BB98-AAF6AE52850D}" name="Forks" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="30"/>
+    <tableColumn id="33" xr3:uid="{314C5206-2A7B-F841-94C2-27E5FA3210D6}" name="∆LoC" dataDxfId="29">
       <calculatedColumnFormula>Data[[#This Row],[LoC]]-G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="29"/>
-    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="28"/>
-    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="27"/>
-    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="26"/>
-    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="25"/>
-    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="24"/>
-    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="23">
+    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="28"/>
+    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="27"/>
+    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="26"/>
+    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="25"/>
+    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="24"/>
+    <tableColumn id="38" xr3:uid="{CFE81176-2C90-BD47-B841-84B9D7BE1805}" name="Python" dataDxfId="0"/>
+    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="23"/>
+    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="22">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Shell]:[Bash]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{FD44257B-EFD4-EF46-B0EE-B5B6EBB0D9D7}" name="∆Total" dataDxfId="22">
-      <calculatedColumnFormula>Data[[#This Row],[Total]]-O1</calculatedColumnFormula>
+    <tableColumn id="34" xr3:uid="{FD44257B-EFD4-EF46-B0EE-B5B6EBB0D9D7}" name="∆Total" dataDxfId="21">
+      <calculatedColumnFormula>Data[[#This Row],[Total]]-P1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="14"/>
+    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="13">
       <calculatedColumnFormula>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="11">
+    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="10">
       <calculatedColumnFormula>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="∑runs" dataDxfId="2">
+    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="∑runs" dataDxfId="1">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Running]:[GH runs]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9082,11 +9170,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AJ49"/>
+  <dimension ref="A1:AK50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI49" sqref="AI49"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI50" sqref="AI50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9098,31 +9186,31 @@
     <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="6.5" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" customWidth="1"/>
-    <col min="28" max="28" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="6.5" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5" customWidth="1"/>
+    <col min="26" max="26" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19" customWidth="1"/>
+    <col min="29" max="29" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9163,81 +9251,82 @@
         <v>29</v>
       </c>
       <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44574</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
       <c r="D2" s="2">
         <v>101</v>
       </c>
@@ -9260,71 +9349,70 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
         <v>1523</v>
       </c>
-      <c r="R2" s="2">
+      <c r="S2" s="2">
         <v>3195</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>57442</v>
       </c>
-      <c r="T2" s="2">
+      <c r="U2" s="2">
         <v>40634</v>
       </c>
-      <c r="U2" s="2">
+      <c r="V2" s="2">
         <v>1</v>
       </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
       <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
         <v>203</v>
       </c>
-      <c r="X2" s="2">
+      <c r="Y2" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
       <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
         <v>135</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AB2" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AC2" s="2">
         <v>125</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AD2" s="2">
         <v>122</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AE2" s="2">
         <v>2</v>
       </c>
-      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="2">
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2">
         <v>541</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AK2" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44578</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
       <c r="D3" s="2">
         <v>101</v>
       </c>
@@ -9348,72 +9436,71 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="3">
-        <f>Data[[#This Row],[Total]]-O2</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3">
+        <f>Data[[#This Row],[Total]]-P2</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
         <v>1524</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <v>3196</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>57422</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>40034</v>
       </c>
-      <c r="U3" s="2">
+      <c r="V3" s="2">
         <v>1</v>
       </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
       <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
         <v>203</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Y3" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
       <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
         <v>135</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AB3" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AC3" s="2">
         <v>125</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AD3" s="2">
         <v>122</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AE3" s="2">
         <v>2</v>
       </c>
-      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="2">
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2">
         <v>542</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AK3" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44580</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
       <c r="D4" s="2">
         <v>101</v>
       </c>
@@ -9437,72 +9524,71 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="3">
-        <f>Data[[#This Row],[Total]]-O3</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="3">
+        <f>Data[[#This Row],[Total]]-P3</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
         <v>1525</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>3197</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>57422</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <v>40634</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>1</v>
       </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
       <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
         <v>203</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
       <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
         <v>135</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AC4" s="2">
         <v>125</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AD4" s="2">
         <v>122</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AE4" s="2">
         <v>2</v>
       </c>
-      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="2">
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2">
         <v>543</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AK4" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44588</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
       <c r="D5" s="2">
         <v>102</v>
       </c>
@@ -9526,72 +9612,71 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="3">
-        <f>Data[[#This Row],[Total]]-O4</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3">
+        <f>Data[[#This Row],[Total]]-P4</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
         <v>1531</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>3207</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>57794</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>40652</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>1</v>
       </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
       <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
         <v>203</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
       <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
         <v>135</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AB5" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AC5" s="2">
         <v>125</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AD5" s="2">
         <v>122</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AE5" s="2">
         <v>3</v>
       </c>
-      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="2">
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2">
         <v>550</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AK5" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44593</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
       <c r="D6" s="2">
         <v>102</v>
       </c>
@@ -9615,72 +9700,71 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="3">
-        <f>Data[[#This Row],[Total]]-O5</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3">
+        <f>Data[[#This Row],[Total]]-P5</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
         <v>1539</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
         <v>3224</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>57859</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <v>40677</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>1</v>
       </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
       <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
         <v>203</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
       <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
         <v>135</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AC6" s="2">
         <v>125</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD6" s="2">
         <v>122</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AE6" s="2">
         <v>3</v>
       </c>
-      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
-      <c r="AI6" s="2">
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2">
         <v>561</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AK6" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44602</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
       <c r="D7" s="2">
         <v>102</v>
       </c>
@@ -9704,72 +9788,71 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="3">
-        <f>Data[[#This Row],[Total]]-O6</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3">
+        <f>Data[[#This Row],[Total]]-P6</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
         <v>1559</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>3265</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>58868</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>41555</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
       <c r="V7" s="2">
         <v>0</v>
       </c>
       <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
         <v>204</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
       <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
         <v>135</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>125</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>122</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>3</v>
       </c>
-      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
-      <c r="AI7" s="2">
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2">
         <v>586</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AK7" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44610</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
       <c r="D8" s="2">
         <v>102</v>
       </c>
@@ -9793,72 +9876,71 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="3">
-        <f>Data[[#This Row],[Total]]-O7</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3">
+        <f>Data[[#This Row],[Total]]-P7</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
         <v>1568</v>
       </c>
-      <c r="R8" s="2">
+      <c r="S8" s="2">
         <v>3286</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>58985</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <v>41600</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
       <c r="V8" s="2">
         <v>0</v>
       </c>
       <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
         <v>208</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>208</v>
       </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
       <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
         <v>135</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AC8" s="2">
         <v>125</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AD8" s="2">
         <v>122</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AE8" s="2">
         <v>3</v>
       </c>
-      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="2">
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2">
         <v>595</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AK8" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44613</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
       <c r="D9" s="2">
         <v>102</v>
       </c>
@@ -9882,72 +9964,71 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="3">
-        <f>Data[[#This Row],[Total]]-O8</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3">
+        <f>Data[[#This Row],[Total]]-P8</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
         <v>1571</v>
       </c>
-      <c r="R9" s="2">
+      <c r="S9" s="2">
         <v>3298</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>59170</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>41754</v>
       </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
       <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
         <v>208</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>208</v>
       </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
       <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
         <v>135</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AB9" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AC9" s="2">
         <v>126</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AD9" s="2">
         <v>122</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AE9" s="2">
         <v>3</v>
       </c>
-      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="2">
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2">
         <v>601</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AK9" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44636</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
       <c r="D10" s="2">
         <v>102</v>
       </c>
@@ -9971,72 +10052,71 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="3">
-        <f>Data[[#This Row],[Total]]-O9</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3">
+        <f>Data[[#This Row],[Total]]-P9</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
         <v>1598</v>
       </c>
-      <c r="R10" s="2">
+      <c r="S10" s="2">
         <v>3339</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>59371</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>41908</v>
       </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
       <c r="V10" s="2">
         <v>0</v>
       </c>
       <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
         <v>209</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>209</v>
       </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
       <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
         <v>141</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AB10" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>141</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AC10" s="2">
         <v>126</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AD10" s="2">
         <v>122</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AE10" s="2">
         <v>3</v>
       </c>
-      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="2">
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2">
         <v>632</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AK10" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>632</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44645</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
       <c r="D11" s="2">
         <v>102</v>
       </c>
@@ -10060,72 +10140,71 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="3">
-        <f>Data[[#This Row],[Total]]-O10</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3">
+        <f>Data[[#This Row],[Total]]-P10</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
         <v>1627</v>
       </c>
-      <c r="R11" s="2">
+      <c r="S11" s="2">
         <v>3375</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="2">
         <v>59655</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>42123</v>
-      </c>
-      <c r="U11" s="2">
-        <v>1</v>
       </c>
       <c r="V11" s="2">
         <v>1</v>
       </c>
       <c r="W11" s="2">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2">
         <v>214</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
       <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
         <v>148</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AB11" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AC11" s="2">
         <v>127</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AD11" s="2">
         <v>128</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AE11" s="2">
         <v>3</v>
       </c>
-      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
-      <c r="AI11" s="2">
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2">
         <v>661</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AK11" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>661</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44657</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
       <c r="D12" s="2">
         <v>102</v>
       </c>
@@ -10149,72 +10228,71 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="3">
-        <f>Data[[#This Row],[Total]]-O11</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3">
+        <f>Data[[#This Row],[Total]]-P11</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
         <v>1632</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="2">
         <v>3387</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="2">
         <v>59702</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <v>42156</v>
-      </c>
-      <c r="U12" s="2">
-        <v>1</v>
       </c>
       <c r="V12" s="2">
         <v>1</v>
       </c>
       <c r="W12" s="2">
+        <v>1</v>
+      </c>
+      <c r="X12" s="2">
         <v>214</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
       <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
         <v>148</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AB12" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AC12" s="2">
         <v>127</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AD12" s="2">
         <v>131</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AE12" s="2">
         <v>3</v>
       </c>
-      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
-      <c r="AI12" s="2">
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2">
         <v>669</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AK12" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>669</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44664</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
       <c r="D13" s="2">
         <v>102</v>
       </c>
@@ -10238,72 +10316,71 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="3">
-        <f>Data[[#This Row],[Total]]-O12</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3">
+        <f>Data[[#This Row],[Total]]-P12</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
         <v>1637</v>
       </c>
-      <c r="R13" s="2">
+      <c r="S13" s="2">
         <v>3406</v>
       </c>
-      <c r="S13" s="2">
+      <c r="T13" s="2">
         <v>60308</v>
       </c>
-      <c r="T13" s="2">
+      <c r="U13" s="2">
         <v>42743</v>
-      </c>
-      <c r="U13" s="2">
-        <v>1</v>
       </c>
       <c r="V13" s="2">
         <v>1</v>
       </c>
       <c r="W13" s="2">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
         <v>214</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Y13" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
       <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
         <v>148</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AB13" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AC13" s="2">
         <v>128</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AD13" s="2">
         <v>131</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AE13" s="2">
         <v>3</v>
       </c>
-      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="2">
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2">
         <v>677</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AK13" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44676</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
       <c r="D14" s="2">
         <v>102</v>
       </c>
@@ -10327,72 +10404,71 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="3">
-        <f>Data[[#This Row],[Total]]-O13</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3">
+        <f>Data[[#This Row],[Total]]-P13</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
         <v>1647</v>
       </c>
-      <c r="R14" s="2">
+      <c r="S14" s="2">
         <v>3424</v>
       </c>
-      <c r="S14" s="2">
+      <c r="T14" s="2">
         <v>60352</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <v>42776</v>
-      </c>
-      <c r="U14" s="2">
-        <v>2</v>
       </c>
       <c r="V14" s="2">
         <v>2</v>
       </c>
       <c r="W14" s="2">
+        <v>2</v>
+      </c>
+      <c r="X14" s="2">
         <v>215</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Y14" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>217</v>
       </c>
-      <c r="Y14" s="2">
-        <v>0</v>
-      </c>
       <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
         <v>148</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AB14" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AC14" s="2">
         <v>128</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AD14" s="2">
         <v>131</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AE14" s="2">
         <v>3</v>
       </c>
-      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="2">
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2">
         <v>685</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AK14" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44678</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
       <c r="D15" s="2">
         <v>102</v>
       </c>
@@ -10416,72 +10492,71 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="3">
-        <f>Data[[#This Row],[Total]]-O14</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3">
+        <f>Data[[#This Row],[Total]]-P14</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
         <v>1652</v>
       </c>
-      <c r="R15" s="2">
+      <c r="S15" s="2">
         <v>3430</v>
       </c>
-      <c r="S15" s="2">
+      <c r="T15" s="2">
         <v>60372</v>
       </c>
-      <c r="T15" s="2">
+      <c r="U15" s="2">
         <v>42778</v>
-      </c>
-      <c r="U15" s="2">
-        <v>1</v>
       </c>
       <c r="V15" s="2">
         <v>1</v>
       </c>
       <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
         <v>216</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>217</v>
       </c>
-      <c r="Y15" s="2">
-        <v>0</v>
-      </c>
       <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
         <v>149</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AB15" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AC15" s="2">
         <v>128</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AD15" s="2">
         <v>131</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AE15" s="2">
         <v>3</v>
       </c>
-      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="2">
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2">
         <v>690</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AK15" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>690</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44679</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
       <c r="D16" s="2">
         <v>102</v>
       </c>
@@ -10505,72 +10580,71 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="3">
-        <f>Data[[#This Row],[Total]]-O15</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3">
+        <f>Data[[#This Row],[Total]]-P15</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
         <v>1660</v>
       </c>
-      <c r="R16" s="2">
+      <c r="S16" s="2">
         <v>3444</v>
       </c>
-      <c r="S16" s="2">
+      <c r="T16" s="2">
         <v>60431</v>
       </c>
-      <c r="T16" s="2">
+      <c r="U16" s="2">
         <v>42791</v>
-      </c>
-      <c r="U16" s="2">
-        <v>1</v>
       </c>
       <c r="V16" s="2">
         <v>1</v>
       </c>
       <c r="W16" s="2">
+        <v>1</v>
+      </c>
+      <c r="X16" s="2">
         <v>217</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Y16" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>218</v>
       </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
       <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
         <v>149</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AB16" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AC16" s="2">
         <v>128</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AD16" s="2">
         <v>132</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AE16" s="2">
         <v>3</v>
       </c>
-      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
-      <c r="AI16" s="2">
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2">
         <v>700</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="AK16" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44686</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
       <c r="D17" s="2">
         <v>102</v>
       </c>
@@ -10594,72 +10668,71 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="3">
-        <f>Data[[#This Row],[Total]]-O16</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3">
+        <f>Data[[#This Row],[Total]]-P16</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
         <v>1670</v>
       </c>
-      <c r="R17" s="2">
+      <c r="S17" s="2">
         <v>3473</v>
       </c>
-      <c r="S17" s="2">
+      <c r="T17" s="2">
         <v>60537</v>
       </c>
-      <c r="T17" s="2">
+      <c r="U17" s="2">
         <v>42889</v>
-      </c>
-      <c r="U17" s="2">
-        <v>1</v>
       </c>
       <c r="V17" s="2">
         <v>1</v>
       </c>
       <c r="W17" s="2">
+        <v>1</v>
+      </c>
+      <c r="X17" s="2">
         <v>218</v>
       </c>
-      <c r="X17" s="2">
+      <c r="Y17" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
-      <c r="Y17" s="2">
-        <v>0</v>
-      </c>
       <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
         <v>149</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AB17" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AC17" s="2">
         <v>128</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AD17" s="2">
         <v>132</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AE17" s="2">
         <v>3</v>
       </c>
-      <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
-      <c r="AI17" s="2">
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2">
         <v>714</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AK17" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44691</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
       <c r="D18" s="2">
         <v>103</v>
       </c>
@@ -10683,72 +10756,71 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="3">
-        <f>Data[[#This Row],[Total]]-O17</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3">
+        <f>Data[[#This Row],[Total]]-P17</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
         <v>1676</v>
       </c>
-      <c r="R18" s="2">
+      <c r="S18" s="2">
         <v>3481</v>
       </c>
-      <c r="S18" s="2">
+      <c r="T18" s="2">
         <v>60564</v>
       </c>
-      <c r="T18" s="2">
+      <c r="U18" s="2">
         <v>42903</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1</v>
       </c>
       <c r="V18" s="2">
         <v>1</v>
       </c>
       <c r="W18" s="2">
+        <v>1</v>
+      </c>
+      <c r="X18" s="2">
         <v>218</v>
       </c>
-      <c r="X18" s="2">
+      <c r="Y18" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
       <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
         <v>150</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AB18" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>150</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AC18" s="2">
         <v>128</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AD18" s="2">
         <v>132</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AE18" s="2">
         <v>3</v>
       </c>
-      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="2">
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2">
         <v>721</v>
       </c>
-      <c r="AJ18" s="2">
+      <c r="AK18" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>721</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44705</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
       <c r="D19" s="2">
         <v>103</v>
       </c>
@@ -10772,72 +10844,71 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="3">
-        <f>Data[[#This Row],[Total]]-O18</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3">
+        <f>Data[[#This Row],[Total]]-P18</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
         <v>1695</v>
       </c>
-      <c r="R19" s="2">
+      <c r="S19" s="2">
         <v>3500</v>
       </c>
-      <c r="S19" s="2">
+      <c r="T19" s="2">
         <v>60613</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U19" s="2">
         <v>42943</v>
-      </c>
-      <c r="U19" s="2">
-        <v>1</v>
       </c>
       <c r="V19" s="2">
         <v>1</v>
       </c>
       <c r="W19" s="2">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2">
         <v>218</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Y19" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Z19" s="2">
         <v>2</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="AA19" s="2">
         <v>154</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AB19" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AC19" s="2">
         <v>128</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AD19" s="2">
         <v>131</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AE19" s="2">
         <v>4</v>
       </c>
-      <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="2">
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2">
         <v>748</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AK19" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>748</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44707</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
       <c r="D20" s="2">
         <v>103</v>
       </c>
@@ -10861,72 +10932,71 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="3">
-        <f>Data[[#This Row],[Total]]-O19</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3">
+        <f>Data[[#This Row],[Total]]-P19</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
         <v>1699</v>
       </c>
-      <c r="R20" s="2">
+      <c r="S20" s="2">
         <v>3520</v>
       </c>
-      <c r="S20" s="2">
+      <c r="T20" s="2">
         <v>60719</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="2">
         <v>42953</v>
-      </c>
-      <c r="U20" s="2">
-        <v>1</v>
       </c>
       <c r="V20" s="2">
         <v>1</v>
       </c>
       <c r="W20" s="2">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2">
         <v>219</v>
       </c>
-      <c r="X20" s="2">
+      <c r="Y20" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Z20" s="2">
         <v>1</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="AA20" s="2">
         <v>155</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AB20" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AC20" s="2">
         <v>131</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AD20" s="2">
         <v>132</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AE20" s="2">
         <v>4</v>
       </c>
-      <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="2">
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2">
         <v>754</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AK20" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>754</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44710</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
       <c r="D21" s="2">
         <v>103</v>
       </c>
@@ -10950,72 +11020,71 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="3">
-        <f>Data[[#This Row],[Total]]-O20</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3">
+        <f>Data[[#This Row],[Total]]-P20</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
         <v>1718</v>
       </c>
-      <c r="R21" s="2">
+      <c r="S21" s="2">
         <v>3546</v>
       </c>
-      <c r="S21" s="2">
+      <c r="T21" s="2">
         <v>61044</v>
       </c>
-      <c r="T21" s="2">
+      <c r="U21" s="2">
         <v>43112</v>
-      </c>
-      <c r="U21" s="2">
-        <v>1</v>
       </c>
       <c r="V21" s="2">
         <v>1</v>
       </c>
       <c r="W21" s="2">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
         <v>219</v>
       </c>
-      <c r="X21" s="2">
+      <c r="Y21" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="Y21" s="2">
-        <v>0</v>
-      </c>
       <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
         <v>156</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AB21" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AC21" s="2">
         <v>131</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AD21" s="2">
         <v>132</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AE21" s="2">
         <v>4</v>
       </c>
-      <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
-      <c r="AI21" s="2">
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2">
         <v>773</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AK21" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>773</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44713</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
       <c r="D22" s="2">
         <v>104</v>
       </c>
@@ -11039,72 +11108,71 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="3">
-        <f>Data[[#This Row],[Total]]-O21</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3">
+        <f>Data[[#This Row],[Total]]-P21</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
         <v>1723</v>
       </c>
-      <c r="R22" s="2">
+      <c r="S22" s="2">
         <v>3559</v>
       </c>
-      <c r="S22" s="2">
+      <c r="T22" s="2">
         <v>61077</v>
       </c>
-      <c r="T22" s="2">
+      <c r="U22" s="2">
         <v>43133</v>
-      </c>
-      <c r="U22" s="2">
-        <v>1</v>
       </c>
       <c r="V22" s="2">
         <v>1</v>
       </c>
       <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
         <v>219</v>
       </c>
-      <c r="X22" s="2">
+      <c r="Y22" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="Y22" s="2">
-        <v>0</v>
-      </c>
       <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
         <v>157</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AB22" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AC22" s="2">
         <v>131</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AD22" s="2">
         <v>132</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AE22" s="2">
         <v>4</v>
       </c>
-      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
-      <c r="AI22" s="2">
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2">
         <v>787</v>
       </c>
-      <c r="AJ22" s="2">
+      <c r="AK22" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>787</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44714</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
       <c r="D23" s="2">
         <v>104</v>
       </c>
@@ -11128,72 +11196,71 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="3">
-        <f>Data[[#This Row],[Total]]-O22</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3">
+        <f>Data[[#This Row],[Total]]-P22</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
         <v>1724</v>
       </c>
-      <c r="R23" s="2">
+      <c r="S23" s="2">
         <v>3560</v>
       </c>
-      <c r="S23" s="2">
+      <c r="T23" s="2">
         <v>61077</v>
       </c>
-      <c r="T23" s="2">
+      <c r="U23" s="2">
         <v>43133</v>
       </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
       <c r="V23" s="2">
         <v>0</v>
       </c>
       <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
         <v>220</v>
       </c>
-      <c r="X23" s="2">
+      <c r="Y23" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="Y23" s="2">
-        <v>0</v>
-      </c>
       <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
         <v>157</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AB23" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AC23" s="2">
         <v>131</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AD23" s="2">
         <v>132</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AE23" s="2">
         <v>4</v>
       </c>
-      <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="2">
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2">
         <v>789</v>
       </c>
-      <c r="AJ23" s="2">
+      <c r="AK23" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44715</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
       <c r="D24" s="2">
         <v>104</v>
       </c>
@@ -11217,78 +11284,77 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="3">
-        <f>Data[[#This Row],[Total]]-O23</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3">
+        <f>Data[[#This Row],[Total]]-P23</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
         <v>1728</v>
       </c>
-      <c r="R24" s="2">
+      <c r="S24" s="2">
         <v>3565</v>
       </c>
-      <c r="S24" s="2">
+      <c r="T24" s="2">
         <v>61091</v>
       </c>
-      <c r="T24" s="2">
+      <c r="U24" s="2">
         <v>43136</v>
       </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
       <c r="V24" s="2">
         <v>0</v>
       </c>
       <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
         <v>220</v>
       </c>
-      <c r="X24" s="2">
+      <c r="Y24" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
       <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
         <v>157</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AB24" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AC24" s="2">
         <v>131</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AD24" s="2">
         <v>132</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AE24" s="2">
         <v>4</v>
       </c>
-      <c r="AE24" s="2">
-        <v>0</v>
-      </c>
       <c r="AF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2">
         <v>302</v>
       </c>
-      <c r="AG24" s="2">
+      <c r="AH24" s="2">
         <v>488</v>
       </c>
-      <c r="AH24" s="2">
+      <c r="AI24" s="2">
         <v>7</v>
       </c>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2">
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>797</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44723</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
       <c r="D25" s="2">
         <v>105</v>
       </c>
@@ -11312,78 +11378,77 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="3">
-        <f>Data[[#This Row],[Total]]-O24</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3">
+        <f>Data[[#This Row],[Total]]-P24</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
         <v>1733</v>
       </c>
-      <c r="R25" s="2">
+      <c r="S25" s="2">
         <v>3579</v>
       </c>
-      <c r="S25" s="2">
+      <c r="T25" s="2">
         <v>61141</v>
       </c>
-      <c r="T25" s="2">
+      <c r="U25" s="2">
         <v>43154</v>
       </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
       <c r="V25" s="2">
         <v>0</v>
       </c>
       <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
         <v>221</v>
       </c>
-      <c r="X25" s="2">
+      <c r="Y25" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
-      <c r="Y25" s="2">
-        <v>0</v>
-      </c>
       <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
         <v>158</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AB25" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>158</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AC25" s="2">
         <v>131</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AD25" s="2">
         <v>132</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AE25" s="2">
         <v>4</v>
       </c>
-      <c r="AE25" s="2">
-        <v>0</v>
-      </c>
       <c r="AF25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="2">
         <v>304</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AH25" s="2">
         <v>501</v>
       </c>
-      <c r="AH25" s="2">
+      <c r="AI25" s="2">
         <v>7</v>
       </c>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2">
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>812</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44725</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
       <c r="D26" s="2">
         <v>105</v>
       </c>
@@ -11407,78 +11472,77 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="3">
-        <f>Data[[#This Row],[Total]]-O25</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2">
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3">
+        <f>Data[[#This Row],[Total]]-P25</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
         <v>1743</v>
       </c>
-      <c r="R26" s="2">
+      <c r="S26" s="2">
         <v>3590</v>
       </c>
-      <c r="S26" s="2">
+      <c r="T26" s="2">
         <v>61156</v>
       </c>
-      <c r="T26" s="2">
+      <c r="U26" s="2">
         <v>43168</v>
       </c>
-      <c r="U26" s="2">
-        <v>0</v>
-      </c>
       <c r="V26" s="2">
         <v>0</v>
       </c>
       <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
         <v>221</v>
       </c>
-      <c r="X26" s="2">
+      <c r="Y26" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
-      <c r="Y26" s="2">
-        <v>0</v>
-      </c>
       <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
         <v>159</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AB26" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AC26" s="2">
         <v>131</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AD26" s="2">
         <v>132</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AE26" s="2">
         <v>4</v>
       </c>
-      <c r="AE26" s="2">
-        <v>0</v>
-      </c>
       <c r="AF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2">
         <v>305</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AH26" s="2">
         <v>517</v>
       </c>
-      <c r="AH26" s="2">
+      <c r="AI26" s="2">
         <v>7</v>
       </c>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2">
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>829</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44727</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
       <c r="D27" s="2">
         <v>105</v>
       </c>
@@ -11502,78 +11566,77 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="3">
-        <f>Data[[#This Row],[Total]]-O26</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3">
+        <f>Data[[#This Row],[Total]]-P26</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
         <v>1758</v>
       </c>
-      <c r="R27" s="2">
+      <c r="S27" s="2">
         <v>3610</v>
       </c>
-      <c r="S27" s="2">
+      <c r="T27" s="2">
         <v>61388</v>
       </c>
-      <c r="T27" s="2">
+      <c r="U27" s="2">
         <v>43266</v>
       </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
       <c r="V27" s="2">
         <v>0</v>
       </c>
       <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
         <v>221</v>
       </c>
-      <c r="X27" s="2">
+      <c r="Y27" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
-      <c r="Y27" s="2">
-        <v>0</v>
-      </c>
       <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
         <v>159</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AB27" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AC27" s="2">
         <v>131</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AD27" s="2">
         <v>132</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AE27" s="2">
         <v>4</v>
       </c>
-      <c r="AE27" s="2">
-        <v>0</v>
-      </c>
       <c r="AF27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="2">
         <v>314</v>
       </c>
-      <c r="AG27" s="2">
+      <c r="AH27" s="2">
         <v>536</v>
       </c>
-      <c r="AH27" s="2">
+      <c r="AI27" s="2">
         <v>7</v>
       </c>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2">
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>857</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44729</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
       <c r="D28" s="2">
         <v>105</v>
       </c>
@@ -11597,78 +11660,77 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="3">
-        <f>Data[[#This Row],[Total]]-O27</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="3">
+        <f>Data[[#This Row],[Total]]-P27</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="2">
         <v>1763</v>
       </c>
-      <c r="R28" s="2">
+      <c r="S28" s="2">
         <v>3627</v>
       </c>
-      <c r="S28" s="2">
+      <c r="T28" s="2">
         <v>61547</v>
       </c>
-      <c r="T28" s="2">
+      <c r="U28" s="2">
         <v>43284</v>
       </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
       <c r="V28" s="2">
         <v>0</v>
       </c>
       <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
         <v>222</v>
       </c>
-      <c r="X28" s="2">
+      <c r="Y28" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>222</v>
       </c>
-      <c r="Y28" s="2">
-        <v>0</v>
-      </c>
       <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
         <v>159</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AB28" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AC28" s="2">
         <v>133</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AD28" s="2">
         <v>135</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AE28" s="2">
         <v>4</v>
       </c>
-      <c r="AE28" s="2">
-        <v>0</v>
-      </c>
       <c r="AF28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2">
         <v>316</v>
       </c>
-      <c r="AG28" s="2">
+      <c r="AH28" s="2">
         <v>548</v>
       </c>
-      <c r="AH28" s="2">
+      <c r="AI28" s="2">
         <v>7</v>
       </c>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2">
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>871</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44743</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
       <c r="D29" s="2">
         <v>105</v>
       </c>
@@ -11692,78 +11754,77 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="3">
-        <f>Data[[#This Row],[Total]]-O28</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="3">
+        <f>Data[[#This Row],[Total]]-P28</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
         <v>1773</v>
       </c>
-      <c r="R29" s="2">
+      <c r="S29" s="2">
         <v>3651</v>
       </c>
-      <c r="S29" s="2">
+      <c r="T29" s="2">
         <v>61778</v>
       </c>
-      <c r="T29" s="2">
+      <c r="U29" s="2">
         <v>43332</v>
       </c>
-      <c r="U29" s="2">
-        <v>0</v>
-      </c>
       <c r="V29" s="2">
         <v>0</v>
       </c>
       <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
         <v>222</v>
       </c>
-      <c r="X29" s="2">
+      <c r="Y29" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>222</v>
       </c>
-      <c r="Y29" s="2">
-        <v>0</v>
-      </c>
       <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
         <v>159</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AB29" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="AB29" s="2">
+      <c r="AC29" s="2">
         <v>134</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AD29" s="2">
         <v>137</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AE29" s="2">
         <v>4</v>
       </c>
-      <c r="AE29" s="2">
-        <v>0</v>
-      </c>
       <c r="AF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="2">
         <v>320</v>
       </c>
-      <c r="AG29" s="2">
+      <c r="AH29" s="2">
         <v>568</v>
       </c>
-      <c r="AH29" s="2">
+      <c r="AI29" s="2">
         <v>7</v>
       </c>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2">
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>895</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44748</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
       <c r="D30" s="2">
         <v>105</v>
       </c>
@@ -11787,78 +11848,77 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="3">
-        <f>Data[[#This Row],[Total]]-O29</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="3">
+        <f>Data[[#This Row],[Total]]-P29</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
         <v>1776</v>
       </c>
-      <c r="R30" s="2">
+      <c r="S30" s="2">
         <v>3662</v>
       </c>
-      <c r="S30" s="2">
+      <c r="T30" s="2">
         <v>61856</v>
       </c>
-      <c r="T30" s="2">
+      <c r="U30" s="2">
         <v>43366</v>
       </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
       <c r="V30" s="2">
         <v>0</v>
       </c>
       <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
         <v>223</v>
       </c>
-      <c r="X30" s="2">
+      <c r="Y30" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>223</v>
       </c>
-      <c r="Y30" s="2">
-        <v>0</v>
-      </c>
       <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
         <v>159</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AB30" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AC30" s="2">
         <v>134</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AD30" s="2">
         <v>137</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AE30" s="2">
         <v>4</v>
       </c>
-      <c r="AE30" s="2">
-        <v>0</v>
-      </c>
       <c r="AF30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="2">
         <v>320</v>
       </c>
-      <c r="AG30" s="2">
+      <c r="AH30" s="2">
         <v>578</v>
       </c>
-      <c r="AH30" s="2">
+      <c r="AI30" s="2">
         <v>7</v>
       </c>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2">
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>905</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44757</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
       <c r="D31" s="2">
         <v>105</v>
       </c>
@@ -11882,78 +11942,77 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="3">
-        <f>Data[[#This Row],[Total]]-O30</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="3">
+        <f>Data[[#This Row],[Total]]-P30</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
         <v>1782</v>
       </c>
-      <c r="R31" s="2">
+      <c r="S31" s="2">
         <v>3684</v>
       </c>
-      <c r="S31" s="2">
+      <c r="T31" s="2">
         <v>62189</v>
       </c>
-      <c r="T31" s="2">
+      <c r="U31" s="2">
         <v>43626</v>
       </c>
-      <c r="U31" s="2">
-        <v>0</v>
-      </c>
       <c r="V31" s="2">
         <v>0</v>
       </c>
       <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2">
         <v>224</v>
       </c>
-      <c r="X31" s="2">
+      <c r="Y31" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
-      <c r="Y31" s="2">
-        <v>0</v>
-      </c>
       <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
         <v>159</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AB31" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AC31" s="2">
         <v>134</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AD31" s="2">
         <v>138</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AE31" s="2">
         <v>4</v>
       </c>
-      <c r="AE31" s="2">
-        <v>0</v>
-      </c>
       <c r="AF31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="2">
         <v>321</v>
       </c>
-      <c r="AG31" s="2">
+      <c r="AH31" s="2">
         <v>593</v>
       </c>
-      <c r="AH31" s="2">
+      <c r="AI31" s="2">
         <v>7</v>
       </c>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2">
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>921</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44761</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
       <c r="D32" s="2">
         <v>105</v>
       </c>
@@ -11985,84 +12044,83 @@
       <c r="M32" s="2">
         <v>97</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="2"/>
+      <c r="O32" s="2">
         <v>48</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>7979</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
         <v>1782</v>
       </c>
-      <c r="R32" s="2">
+      <c r="S32" s="2">
         <v>3684</v>
       </c>
-      <c r="S32" s="2">
+      <c r="T32" s="2">
         <v>62189</v>
       </c>
-      <c r="T32" s="2">
+      <c r="U32" s="2">
         <v>43626</v>
       </c>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
       <c r="V32" s="2">
         <v>0</v>
       </c>
       <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
         <v>224</v>
       </c>
-      <c r="X32" s="2">
+      <c r="Y32" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
-      <c r="Y32" s="2">
-        <v>0</v>
-      </c>
       <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
         <v>159</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="AB32" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="AB32" s="2">
+      <c r="AC32" s="2">
         <v>134</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AD32" s="2">
         <v>138</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AE32" s="2">
         <v>4</v>
       </c>
-      <c r="AE32" s="2">
-        <v>0</v>
-      </c>
       <c r="AF32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="2">
         <v>321</v>
       </c>
-      <c r="AG32" s="2">
+      <c r="AH32" s="2">
         <v>595</v>
       </c>
-      <c r="AH32" s="2">
+      <c r="AI32" s="2">
         <v>7</v>
       </c>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2">
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>923</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44764</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
       <c r="D33" s="2">
         <v>105</v>
       </c>
@@ -12094,85 +12152,84 @@
       <c r="M33" s="2">
         <v>97</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2">
         <v>48</v>
       </c>
-      <c r="O33" s="2">
+      <c r="P33" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>7983</v>
       </c>
-      <c r="P33" s="3">
-        <f>Data[[#This Row],[Total]]-O32</f>
+      <c r="Q33" s="3">
+        <f>Data[[#This Row],[Total]]-P32</f>
         <v>4</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="R33" s="2">
         <v>1785</v>
       </c>
-      <c r="R33" s="2">
+      <c r="S33" s="2">
         <v>3689</v>
       </c>
-      <c r="S33" s="2">
+      <c r="T33" s="2">
         <v>62207</v>
       </c>
-      <c r="T33" s="2">
+      <c r="U33" s="2">
         <v>43630</v>
       </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
       <c r="V33" s="2">
         <v>0</v>
       </c>
       <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2">
         <v>224</v>
       </c>
-      <c r="X33" s="2">
+      <c r="Y33" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
-      <c r="Y33" s="2">
-        <v>0</v>
-      </c>
       <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
         <v>159</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AB33" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
-      <c r="AB33" s="2">
+      <c r="AC33" s="2">
         <v>134</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AD33" s="2">
         <v>138</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AE33" s="2">
         <v>4</v>
       </c>
-      <c r="AE33" s="2">
-        <v>0</v>
-      </c>
       <c r="AF33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="2">
         <v>321</v>
       </c>
-      <c r="AG33" s="2">
+      <c r="AH33" s="2">
         <v>599</v>
       </c>
-      <c r="AH33" s="2">
+      <c r="AI33" s="2">
         <v>7</v>
       </c>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2">
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>927</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
       <c r="D34" s="2">
         <v>106</v>
       </c>
@@ -12204,85 +12261,84 @@
       <c r="M34" s="2">
         <v>97</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2">
         <v>48</v>
       </c>
-      <c r="O34" s="2">
+      <c r="P34" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8076</v>
       </c>
-      <c r="P34" s="3">
-        <f>Data[[#This Row],[Total]]-O33</f>
+      <c r="Q34" s="3">
+        <f>Data[[#This Row],[Total]]-P33</f>
         <v>93</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="R34" s="2">
         <v>1789</v>
       </c>
-      <c r="R34" s="2">
+      <c r="S34" s="2">
         <v>3703</v>
       </c>
-      <c r="S34" s="2">
+      <c r="T34" s="2">
         <v>62262</v>
       </c>
-      <c r="T34" s="2">
+      <c r="U34" s="2">
         <v>43661</v>
       </c>
-      <c r="U34" s="2">
-        <v>0</v>
-      </c>
       <c r="V34" s="2">
         <v>0</v>
       </c>
       <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
         <v>225</v>
       </c>
-      <c r="X34" s="2">
+      <c r="Y34" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>225</v>
       </c>
-      <c r="Y34" s="2">
-        <v>0</v>
-      </c>
       <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
         <v>160</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AB34" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AC34" s="2">
         <v>135</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AD34" s="2">
         <v>138</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AE34" s="2">
         <v>4</v>
       </c>
-      <c r="AE34" s="2">
-        <v>0</v>
-      </c>
       <c r="AF34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="2">
         <v>322</v>
       </c>
-      <c r="AG34" s="2">
+      <c r="AH34" s="2">
         <v>610</v>
       </c>
-      <c r="AH34" s="2">
+      <c r="AI34" s="2">
         <v>7</v>
       </c>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2">
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>939</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44790</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
       <c r="D35" s="2">
         <v>106</v>
       </c>
@@ -12314,85 +12370,84 @@
       <c r="M35" s="2">
         <v>97</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="2"/>
+      <c r="O35" s="2">
         <v>48</v>
       </c>
-      <c r="O35" s="2">
+      <c r="P35" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8026</v>
       </c>
-      <c r="P35" s="3">
-        <f>Data[[#This Row],[Total]]-O34</f>
+      <c r="Q35" s="3">
+        <f>Data[[#This Row],[Total]]-P34</f>
         <v>-50</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="R35" s="2">
         <v>1791</v>
       </c>
-      <c r="R35" s="2">
+      <c r="S35" s="2">
         <v>3716</v>
       </c>
-      <c r="S35" s="2">
+      <c r="T35" s="2">
         <v>62325</v>
       </c>
-      <c r="T35" s="2">
+      <c r="U35" s="2">
         <v>43671</v>
       </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
       <c r="V35" s="2">
         <v>0</v>
       </c>
       <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
         <v>225</v>
       </c>
-      <c r="X35" s="2">
+      <c r="Y35" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>225</v>
       </c>
-      <c r="Y35" s="2">
-        <v>0</v>
-      </c>
       <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
         <v>160</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AB35" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
-      <c r="AB35" s="2">
+      <c r="AC35" s="2">
         <v>136</v>
       </c>
-      <c r="AC35" s="2">
+      <c r="AD35" s="2">
         <v>140</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AE35" s="2">
         <v>4</v>
       </c>
-      <c r="AE35" s="2">
-        <v>0</v>
-      </c>
       <c r="AF35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="2">
         <v>322</v>
       </c>
-      <c r="AG35" s="2">
+      <c r="AH35" s="2">
         <v>618</v>
       </c>
-      <c r="AH35" s="2">
+      <c r="AI35" s="2">
         <v>7</v>
       </c>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2">
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>947</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44797</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
       <c r="D36" s="2">
         <v>106</v>
       </c>
@@ -12424,85 +12479,84 @@
       <c r="M36" s="2">
         <v>97</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="2"/>
+      <c r="O36" s="2">
         <v>48</v>
       </c>
-      <c r="O36" s="2">
+      <c r="P36" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8076</v>
       </c>
-      <c r="P36" s="3">
-        <f>Data[[#This Row],[Total]]-O35</f>
+      <c r="Q36" s="3">
+        <f>Data[[#This Row],[Total]]-P35</f>
         <v>50</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="R36" s="2">
         <v>1802</v>
       </c>
-      <c r="R36" s="2">
+      <c r="S36" s="2">
         <v>3755</v>
       </c>
-      <c r="S36" s="2">
+      <c r="T36" s="2">
         <v>62636</v>
       </c>
-      <c r="T36" s="2">
+      <c r="U36" s="2">
         <v>43878</v>
       </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
       <c r="V36" s="2">
         <v>0</v>
       </c>
       <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
         <v>227</v>
       </c>
-      <c r="X36" s="2">
+      <c r="Y36" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>227</v>
       </c>
-      <c r="Y36" s="2">
-        <v>0</v>
-      </c>
       <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
         <v>160</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AB36" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AC36" s="2">
         <v>137</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AD36" s="2">
         <v>141</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AE36" s="2">
         <v>4</v>
       </c>
-      <c r="AE36" s="2">
-        <v>0</v>
-      </c>
       <c r="AF36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="2">
         <v>322</v>
       </c>
-      <c r="AG36" s="2">
+      <c r="AH36" s="2">
         <v>641</v>
       </c>
-      <c r="AH36" s="2">
+      <c r="AI36" s="2">
         <v>7</v>
       </c>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="2">
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>970</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44798</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
       <c r="D37" s="2">
         <v>106</v>
       </c>
@@ -12534,85 +12588,84 @@
       <c r="M37" s="2">
         <v>97</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="2"/>
+      <c r="O37" s="2">
         <v>48</v>
       </c>
-      <c r="O37" s="2">
+      <c r="P37" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8380</v>
       </c>
-      <c r="P37" s="3">
-        <f>Data[[#This Row],[Total]]-O36</f>
+      <c r="Q37" s="3">
+        <f>Data[[#This Row],[Total]]-P36</f>
         <v>304</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="R37" s="2">
         <v>1805</v>
       </c>
-      <c r="R37" s="2">
+      <c r="S37" s="2">
         <v>3760</v>
       </c>
-      <c r="S37" s="2">
+      <c r="T37" s="2">
         <v>62661</v>
       </c>
-      <c r="T37" s="2">
+      <c r="U37" s="2">
         <v>43888</v>
       </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
       <c r="V37" s="2">
         <v>0</v>
       </c>
       <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
         <v>228</v>
       </c>
-      <c r="X37" s="2">
+      <c r="Y37" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
       <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
         <v>160</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="AB37" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
-      <c r="AB37" s="2">
+      <c r="AC37" s="2">
         <v>137</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AD37" s="2">
         <v>142</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AE37" s="2">
         <v>4</v>
       </c>
-      <c r="AE37" s="2">
-        <v>0</v>
-      </c>
       <c r="AF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="2">
         <v>322</v>
       </c>
-      <c r="AG37" s="2">
+      <c r="AH37" s="2">
         <v>647</v>
       </c>
-      <c r="AH37" s="2">
+      <c r="AI37" s="2">
         <v>7</v>
       </c>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2">
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>976</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44805</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
       <c r="D38" s="2">
         <v>106</v>
       </c>
@@ -12644,85 +12697,84 @@
       <c r="M38" s="2">
         <v>97</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="2"/>
+      <c r="O38" s="2">
         <v>48</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8094</v>
       </c>
-      <c r="P38" s="3">
-        <f>Data[[#This Row],[Total]]-O37</f>
+      <c r="Q38" s="3">
+        <f>Data[[#This Row],[Total]]-P37</f>
         <v>-286</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>1809</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>3770</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>62701</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43898</v>
       </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
       <c r="V38" s="2">
         <v>0</v>
       </c>
       <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2">
         <v>228</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
-      <c r="Y38" s="2">
-        <v>0</v>
-      </c>
       <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
         <v>160</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>137</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>142</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>4</v>
       </c>
-      <c r="AE38" s="2">
-        <v>0</v>
-      </c>
       <c r="AF38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="2">
         <v>322</v>
       </c>
-      <c r="AG38" s="2">
+      <c r="AH38" s="2">
         <v>657</v>
       </c>
-      <c r="AH38" s="2">
+      <c r="AI38" s="2">
         <v>7</v>
       </c>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2">
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>986</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44806</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
       <c r="D39" s="2">
         <v>106</v>
       </c>
@@ -12754,85 +12806,84 @@
       <c r="M39" s="2">
         <v>97</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="2"/>
+      <c r="O39" s="2">
         <v>48</v>
       </c>
-      <c r="O39" s="2">
+      <c r="P39" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8090</v>
       </c>
-      <c r="P39" s="3">
-        <f>Data[[#This Row],[Total]]-O38</f>
+      <c r="Q39" s="3">
+        <f>Data[[#This Row],[Total]]-P38</f>
         <v>-4</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="R39" s="2">
         <v>1813</v>
       </c>
-      <c r="R39" s="2">
+      <c r="S39" s="2">
         <v>3784</v>
       </c>
-      <c r="S39" s="2">
+      <c r="T39" s="2">
         <v>62876</v>
       </c>
-      <c r="T39" s="2">
+      <c r="U39" s="2">
         <v>44048</v>
       </c>
-      <c r="U39" s="2">
-        <v>0</v>
-      </c>
       <c r="V39" s="2">
         <v>0</v>
       </c>
       <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
         <v>228</v>
       </c>
-      <c r="X39" s="2">
+      <c r="Y39" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
-      <c r="Y39" s="2">
+      <c r="Z39" s="2">
         <v>1</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="AA39" s="2">
         <v>161</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AB39" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="AB39" s="2">
+      <c r="AC39" s="2">
         <v>137</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AD39" s="2">
         <v>142</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="AE39" s="2">
         <v>4</v>
       </c>
-      <c r="AE39" s="2">
-        <v>0</v>
-      </c>
       <c r="AF39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="2">
         <v>324</v>
       </c>
-      <c r="AG39" s="2">
+      <c r="AH39" s="2">
         <v>669</v>
       </c>
-      <c r="AH39" s="2">
+      <c r="AI39" s="2">
         <v>7</v>
       </c>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2">
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44810</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
       <c r="D40" s="2">
         <v>106</v>
       </c>
@@ -12864,85 +12915,84 @@
       <c r="M40" s="2">
         <v>97</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="2"/>
+      <c r="O40" s="2">
         <v>48</v>
       </c>
-      <c r="O40" s="2">
+      <c r="P40" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8130</v>
       </c>
-      <c r="P40" s="3">
-        <f>Data[[#This Row],[Total]]-O39</f>
+      <c r="Q40" s="3">
+        <f>Data[[#This Row],[Total]]-P39</f>
         <v>40</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="R40" s="2">
         <v>1815</v>
       </c>
-      <c r="R40" s="2">
+      <c r="S40" s="2">
         <v>3795</v>
       </c>
-      <c r="S40" s="2">
+      <c r="T40" s="2">
         <v>62951</v>
       </c>
-      <c r="T40" s="2">
+      <c r="U40" s="2">
         <v>44063</v>
       </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
       <c r="V40" s="2">
         <v>0</v>
       </c>
       <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
         <v>228</v>
       </c>
-      <c r="X40" s="2">
+      <c r="Y40" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
-      <c r="Y40" s="2">
-        <v>0</v>
-      </c>
       <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
         <v>161</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AB40" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>161</v>
       </c>
-      <c r="AB40" s="2">
+      <c r="AC40" s="2">
         <v>138</v>
       </c>
-      <c r="AC40" s="2">
+      <c r="AD40" s="2">
         <v>144</v>
       </c>
-      <c r="AD40" s="2">
+      <c r="AE40" s="2">
         <v>4</v>
       </c>
-      <c r="AE40" s="2">
-        <v>0</v>
-      </c>
       <c r="AF40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="2">
         <v>324</v>
       </c>
-      <c r="AG40" s="2">
+      <c r="AH40" s="2">
         <v>675</v>
       </c>
-      <c r="AH40" s="2">
+      <c r="AI40" s="2">
         <v>7</v>
       </c>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2">
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1006</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44812</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
       <c r="D41" s="2">
         <v>106</v>
       </c>
@@ -12974,85 +13024,84 @@
       <c r="M41" s="2">
         <v>97</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="2"/>
+      <c r="O41" s="2">
         <v>48</v>
       </c>
-      <c r="O41" s="2">
+      <c r="P41" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8187</v>
       </c>
-      <c r="P41" s="3">
-        <f>Data[[#This Row],[Total]]-O40</f>
+      <c r="Q41" s="3">
+        <f>Data[[#This Row],[Total]]-P40</f>
         <v>57</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="R41" s="2">
         <v>1823</v>
       </c>
-      <c r="R41" s="2">
+      <c r="S41" s="2">
         <v>3813</v>
       </c>
-      <c r="S41" s="2">
+      <c r="T41" s="2">
         <v>63094</v>
       </c>
-      <c r="T41" s="2">
+      <c r="U41" s="2">
         <v>44112</v>
       </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
       <c r="V41" s="2">
         <v>0</v>
       </c>
       <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2">
         <v>228</v>
       </c>
-      <c r="X41" s="2">
+      <c r="Y41" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
-      <c r="Y41" s="2">
-        <v>0</v>
-      </c>
       <c r="Z41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2">
         <v>161</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AB41" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>161</v>
       </c>
-      <c r="AB41" s="2">
+      <c r="AC41" s="2">
         <v>138</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AD41" s="2">
         <v>144</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AE41" s="2">
         <v>4</v>
       </c>
-      <c r="AE41" s="2">
-        <v>0</v>
-      </c>
       <c r="AF41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="2">
         <v>326</v>
       </c>
-      <c r="AG41" s="2">
+      <c r="AH41" s="2">
         <v>689</v>
       </c>
-      <c r="AH41" s="2">
+      <c r="AI41" s="2">
         <v>7</v>
       </c>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2">
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1022</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44813</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
       <c r="D42" s="2">
         <v>106</v>
       </c>
@@ -13084,85 +13133,84 @@
       <c r="M42" s="2">
         <v>97</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="2"/>
+      <c r="O42" s="2">
         <v>51</v>
       </c>
-      <c r="O42" s="2">
+      <c r="P42" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8269</v>
       </c>
-      <c r="P42" s="3">
-        <f>Data[[#This Row],[Total]]-O41</f>
+      <c r="Q42" s="3">
+        <f>Data[[#This Row],[Total]]-P41</f>
         <v>82</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="R42" s="2">
         <v>1830</v>
       </c>
-      <c r="R42" s="2">
+      <c r="S42" s="2">
         <v>3837</v>
       </c>
-      <c r="S42" s="2">
+      <c r="T42" s="2">
         <v>63369</v>
       </c>
-      <c r="T42" s="2">
+      <c r="U42" s="2">
         <v>44256</v>
       </c>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
       <c r="V42" s="2">
         <v>0</v>
       </c>
       <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
         <v>228</v>
       </c>
-      <c r="X42" s="2">
+      <c r="Y42" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
-      <c r="Y42" s="2">
-        <v>0</v>
-      </c>
       <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
         <v>161</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="AB42" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>161</v>
       </c>
-      <c r="AB42" s="2">
+      <c r="AC42" s="2">
         <v>141</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AD42" s="2">
         <v>148</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AE42" s="2">
         <v>4</v>
       </c>
-      <c r="AE42" s="2">
-        <v>0</v>
-      </c>
       <c r="AF42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="2">
         <v>330</v>
       </c>
-      <c r="AG42" s="2">
+      <c r="AH42" s="2">
         <v>703</v>
       </c>
-      <c r="AH42" s="2">
+      <c r="AI42" s="2">
         <v>7</v>
       </c>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2">
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1040</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44817</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
       <c r="D43" s="2">
         <v>106</v>
       </c>
@@ -13194,85 +13242,84 @@
       <c r="M43" s="2">
         <v>98</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="2"/>
+      <c r="O43" s="2">
         <v>51</v>
       </c>
-      <c r="O43" s="2">
+      <c r="P43" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8314</v>
       </c>
-      <c r="P43" s="3">
-        <f>Data[[#This Row],[Total]]-O42</f>
+      <c r="Q43" s="3">
+        <f>Data[[#This Row],[Total]]-P42</f>
         <v>45</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="R43" s="2">
         <v>1844</v>
       </c>
-      <c r="R43" s="2">
+      <c r="S43" s="2">
         <v>3882</v>
       </c>
-      <c r="S43" s="2">
+      <c r="T43" s="2">
         <v>63725</v>
       </c>
-      <c r="T43" s="2">
+      <c r="U43" s="2">
         <v>44538</v>
       </c>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
       <c r="V43" s="2">
         <v>0</v>
       </c>
       <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2">
         <v>230</v>
       </c>
-      <c r="X43" s="2">
+      <c r="Y43" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>230</v>
       </c>
-      <c r="Y43" s="2">
-        <v>0</v>
-      </c>
       <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
         <v>162</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AB43" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="AB43" s="2">
+      <c r="AC43" s="2">
         <v>143</v>
       </c>
-      <c r="AC43" s="2">
+      <c r="AD43" s="2">
         <v>148</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AE43" s="2">
         <v>4</v>
       </c>
-      <c r="AE43" s="2">
-        <v>0</v>
-      </c>
       <c r="AF43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="2">
         <v>335</v>
       </c>
-      <c r="AG43" s="2">
+      <c r="AH43" s="2">
         <v>732</v>
       </c>
-      <c r="AH43" s="2">
+      <c r="AI43" s="2">
         <v>7</v>
       </c>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2">
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1074</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44820</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
       <c r="D44" s="2">
         <v>106</v>
       </c>
@@ -13304,85 +13351,84 @@
       <c r="M44" s="2">
         <v>98</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="2"/>
+      <c r="O44" s="2">
         <v>51</v>
       </c>
-      <c r="O44" s="2">
+      <c r="P44" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8318</v>
       </c>
-      <c r="P44" s="3">
-        <f>Data[[#This Row],[Total]]-O43</f>
+      <c r="Q44" s="3">
+        <f>Data[[#This Row],[Total]]-P43</f>
         <v>4</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="R44" s="2">
         <v>1846</v>
       </c>
-      <c r="R44" s="2">
+      <c r="S44" s="2">
         <v>3886</v>
       </c>
-      <c r="S44" s="2">
+      <c r="T44" s="2">
         <v>63780</v>
       </c>
-      <c r="T44" s="2">
+      <c r="U44" s="2">
         <v>44585</v>
       </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
       <c r="V44" s="2">
         <v>0</v>
       </c>
       <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
         <v>232</v>
       </c>
-      <c r="X44" s="2">
+      <c r="Y44" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>232</v>
       </c>
-      <c r="Y44" s="2">
-        <v>0</v>
-      </c>
       <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
         <v>162</v>
       </c>
-      <c r="AA44" s="2">
+      <c r="AB44" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="AB44" s="2">
+      <c r="AC44" s="2">
         <v>143</v>
       </c>
-      <c r="AC44" s="2">
+      <c r="AD44" s="2">
         <v>148</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AE44" s="2">
         <v>4</v>
       </c>
-      <c r="AE44" s="2">
-        <v>0</v>
-      </c>
       <c r="AF44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="2">
         <v>335</v>
       </c>
-      <c r="AG44" s="2">
+      <c r="AH44" s="2">
         <v>736</v>
       </c>
-      <c r="AH44" s="2">
+      <c r="AI44" s="2">
         <v>7</v>
       </c>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2">
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1078</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44823</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
       <c r="D45" s="2">
         <v>106</v>
       </c>
@@ -13414,85 +13460,84 @@
       <c r="M45" s="2">
         <v>98</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="2"/>
+      <c r="O45" s="2">
         <v>51</v>
       </c>
-      <c r="O45" s="2">
+      <c r="P45" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8347</v>
       </c>
-      <c r="P45" s="3">
-        <f>Data[[#This Row],[Total]]-O44</f>
+      <c r="Q45" s="3">
+        <f>Data[[#This Row],[Total]]-P44</f>
         <v>29</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="R45" s="2">
         <v>1852</v>
       </c>
-      <c r="R45" s="2">
+      <c r="S45" s="2">
         <v>3907</v>
       </c>
-      <c r="S45" s="2">
+      <c r="T45" s="2">
         <v>63871</v>
       </c>
-      <c r="T45" s="2">
+      <c r="U45" s="2">
         <v>44612</v>
       </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
       <c r="V45" s="2">
         <v>0</v>
       </c>
       <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="2">
         <v>232</v>
       </c>
-      <c r="X45" s="2">
+      <c r="Y45" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>232</v>
       </c>
-      <c r="Y45" s="2">
-        <v>0</v>
-      </c>
       <c r="Z45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
         <v>162</v>
       </c>
-      <c r="AA45" s="2">
+      <c r="AB45" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="AB45" s="2">
+      <c r="AC45" s="2">
         <v>144</v>
       </c>
-      <c r="AC45" s="2">
+      <c r="AD45" s="2">
         <v>150</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AE45" s="2">
         <v>4</v>
       </c>
-      <c r="AE45" s="2">
-        <v>0</v>
-      </c>
       <c r="AF45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="2">
         <v>338</v>
       </c>
-      <c r="AG45" s="2">
+      <c r="AH45" s="2">
         <v>749</v>
       </c>
-      <c r="AH45" s="2">
+      <c r="AI45" s="2">
         <v>7</v>
       </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2">
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1094</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44828</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
       <c r="D46" s="2">
         <v>106</v>
       </c>
@@ -13524,85 +13569,84 @@
       <c r="M46" s="2">
         <v>98</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="2"/>
+      <c r="O46" s="2">
         <v>57</v>
       </c>
-      <c r="O46" s="2">
+      <c r="P46" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8594</v>
       </c>
-      <c r="P46" s="3">
-        <f>Data[[#This Row],[Total]]-O45</f>
+      <c r="Q46" s="3">
+        <f>Data[[#This Row],[Total]]-P45</f>
         <v>247</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="R46" s="2">
         <v>1873</v>
       </c>
-      <c r="R46" s="2">
+      <c r="S46" s="2">
         <v>3964</v>
       </c>
-      <c r="S46" s="2">
+      <c r="T46" s="2">
         <v>64446</v>
       </c>
-      <c r="T46" s="2">
+      <c r="U46" s="2">
         <v>44820</v>
       </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
       <c r="V46" s="2">
         <v>0</v>
       </c>
       <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
         <v>235</v>
       </c>
-      <c r="X46" s="2">
+      <c r="Y46" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>235</v>
       </c>
-      <c r="Y46" s="2">
-        <v>0</v>
-      </c>
       <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
         <v>162</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AB46" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="AB46" s="2">
+      <c r="AC46" s="2">
         <v>150</v>
       </c>
-      <c r="AC46" s="2">
+      <c r="AD46" s="2">
         <v>158</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AE46" s="2">
         <v>4</v>
       </c>
-      <c r="AE46" s="2">
-        <v>0</v>
-      </c>
       <c r="AF46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="2">
         <v>341</v>
       </c>
-      <c r="AG46" s="2">
+      <c r="AH46" s="2">
         <v>797</v>
       </c>
-      <c r="AH46" s="2">
+      <c r="AI46" s="2">
         <v>9</v>
       </c>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="2">
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1147</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44831</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
       <c r="D47" s="2">
         <v>106</v>
       </c>
@@ -13634,85 +13678,84 @@
       <c r="M47" s="2">
         <v>98</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="2"/>
+      <c r="O47" s="2">
         <v>57</v>
       </c>
-      <c r="O47" s="2">
+      <c r="P47" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8609</v>
       </c>
-      <c r="P47" s="3">
-        <f>Data[[#This Row],[Total]]-O46</f>
+      <c r="Q47" s="3">
+        <f>Data[[#This Row],[Total]]-P46</f>
         <v>15</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="R47" s="2">
         <v>1884</v>
       </c>
-      <c r="R47" s="2">
+      <c r="S47" s="2">
         <v>3982</v>
       </c>
-      <c r="S47" s="2">
+      <c r="T47" s="2">
         <v>64492</v>
       </c>
-      <c r="T47" s="2">
+      <c r="U47" s="2">
         <v>44840</v>
       </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
       <c r="V47" s="2">
         <v>0</v>
       </c>
       <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
         <v>237</v>
       </c>
-      <c r="X47" s="2">
+      <c r="Y47" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>237</v>
       </c>
-      <c r="Y47" s="2">
-        <v>0</v>
-      </c>
       <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
         <v>162</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AB47" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="AB47" s="2">
+      <c r="AC47" s="2">
         <v>150</v>
       </c>
-      <c r="AC47" s="2">
+      <c r="AD47" s="2">
         <v>158</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AE47" s="2">
         <v>4</v>
       </c>
-      <c r="AE47" s="2">
-        <v>0</v>
-      </c>
       <c r="AF47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="2">
         <v>344</v>
       </c>
-      <c r="AG47" s="2">
+      <c r="AH47" s="2">
         <v>822</v>
       </c>
-      <c r="AH47" s="2">
+      <c r="AI47" s="2">
         <v>9</v>
       </c>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="2">
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1175</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44840</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
       <c r="D48" s="2">
         <v>106</v>
       </c>
@@ -13744,87 +13787,88 @@
       <c r="M48" s="2">
         <v>98</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="2"/>
+      <c r="O48" s="2">
         <v>57</v>
       </c>
-      <c r="O48" s="2">
+      <c r="P48" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8865</v>
       </c>
-      <c r="P48" s="3">
-        <f>Data[[#This Row],[Total]]-O47</f>
+      <c r="Q48" s="3">
+        <f>Data[[#This Row],[Total]]-P47</f>
         <v>256</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="R48" s="2">
         <v>1893</v>
       </c>
-      <c r="R48" s="2">
+      <c r="S48" s="2">
         <v>4011</v>
       </c>
-      <c r="S48" s="2">
+      <c r="T48" s="2">
         <v>64734</v>
       </c>
-      <c r="T48" s="2">
+      <c r="U48" s="2">
         <v>44916</v>
       </c>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
       <c r="V48" s="2">
         <v>0</v>
       </c>
       <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2">
         <v>238</v>
       </c>
-      <c r="X48" s="2">
+      <c r="Y48" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>238</v>
       </c>
-      <c r="Y48" s="2">
-        <v>0</v>
-      </c>
       <c r="Z48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
         <v>162</v>
       </c>
-      <c r="AA48" s="2">
+      <c r="AB48" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="AB48" s="2">
+      <c r="AC48" s="2">
         <v>151</v>
       </c>
-      <c r="AC48" s="2">
+      <c r="AD48" s="2">
         <v>162</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AE48" s="2">
         <v>4</v>
       </c>
-      <c r="AE48" s="2">
-        <v>0</v>
-      </c>
       <c r="AF48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="2">
         <v>345</v>
       </c>
-      <c r="AG48" s="2">
+      <c r="AH48" s="2">
         <v>846</v>
       </c>
-      <c r="AH48" s="2">
+      <c r="AI48" s="2">
         <v>9</v>
       </c>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2">
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44851</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>316</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49">
         <v>118</v>
       </c>
       <c r="D49" s="2">
@@ -13858,77 +13902,195 @@
       <c r="M49" s="2">
         <v>98</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="2"/>
+      <c r="O49" s="2">
         <v>57</v>
       </c>
-      <c r="O49" s="2">
+      <c r="P49" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8721</v>
       </c>
-      <c r="P49" s="3">
-        <f>Data[[#This Row],[Total]]-O48</f>
+      <c r="Q49" s="3">
+        <f>Data[[#This Row],[Total]]-P48</f>
         <v>-144</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="R49" s="2">
         <v>1898</v>
       </c>
-      <c r="R49" s="2">
+      <c r="S49" s="2">
         <v>4021</v>
       </c>
-      <c r="S49" s="2">
+      <c r="T49" s="2">
         <v>64752</v>
       </c>
-      <c r="T49" s="2">
+      <c r="U49" s="2">
         <v>44923</v>
       </c>
-      <c r="U49" s="2">
-        <v>0</v>
-      </c>
       <c r="V49" s="2">
         <v>0</v>
       </c>
       <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2">
         <v>238</v>
       </c>
-      <c r="X49" s="2">
+      <c r="Y49" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>238</v>
       </c>
-      <c r="Y49" s="2">
-        <v>0</v>
-      </c>
       <c r="Z49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2">
         <v>162</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="AB49" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
-      <c r="AB49" s="2">
+      <c r="AC49" s="2">
         <v>151</v>
       </c>
-      <c r="AC49" s="2">
+      <c r="AD49" s="2">
         <v>162</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AE49" s="2">
         <v>4</v>
       </c>
-      <c r="AE49" s="2">
-        <v>0</v>
-      </c>
       <c r="AF49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="2">
         <v>345</v>
       </c>
-      <c r="AG49" s="2">
+      <c r="AH49" s="2">
         <v>858</v>
       </c>
-      <c r="AH49" s="2">
+      <c r="AI49" s="2">
         <v>9</v>
       </c>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2">
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B50" s="4">
+        <v>317</v>
+      </c>
+      <c r="C50" s="4">
+        <v>118</v>
+      </c>
+      <c r="D50" s="2">
+        <v>107</v>
+      </c>
+      <c r="E50" s="2">
+        <v>258</v>
+      </c>
+      <c r="F50" s="2">
+        <v>210</v>
+      </c>
+      <c r="G50" s="2">
+        <v>5411</v>
+      </c>
+      <c r="H50" s="3">
+        <f>Data[[#This Row],[LoC]]-G49</f>
+        <v>142</v>
+      </c>
+      <c r="I50" s="2">
+        <v>6292</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1887</v>
+      </c>
+      <c r="K50" s="2">
+        <v>291</v>
+      </c>
+      <c r="L50" s="2">
+        <v>277</v>
+      </c>
+      <c r="M50" s="2">
+        <v>98</v>
+      </c>
+      <c r="N50" s="2">
+        <v>81</v>
+      </c>
+      <c r="O50" s="2">
+        <v>57</v>
+      </c>
+      <c r="P50" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8983</v>
+      </c>
+      <c r="Q50" s="3">
+        <f>Data[[#This Row],[Total]]-P49</f>
+        <v>262</v>
+      </c>
+      <c r="R50" s="2">
+        <v>1910</v>
+      </c>
+      <c r="S50" s="2">
+        <v>4042</v>
+      </c>
+      <c r="T50" s="2">
+        <v>65183</v>
+      </c>
+      <c r="U50" s="2">
+        <v>45043</v>
+      </c>
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y50" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>239</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>164</v>
+      </c>
+      <c r="AB50" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>164</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>152</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>162</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>348</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>879</v>
+      </c>
+      <c r="AI50" s="2">
+        <v>9</v>
+      </c>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1236</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/git/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCD2DA1-0F15-A547-870F-016097B9FDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AB31C4-8B30-644B-88C9-FF86EDA10533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="13140" windowWidth="41120" windowHeight="12200" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
@@ -267,10 +267,10 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -378,10 +378,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -528,16 +528,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$50</c:f>
+              <c:f>Data!$G$2:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -684,6 +687,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>5411</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,10 +729,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -873,16 +879,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$50</c:f>
+              <c:f>Data!$R$2:$R$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -1029,6 +1038,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,10 +1080,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1218,16 +1230,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$50</c:f>
+              <c:f>Data!$S$2:$S$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1374,6 +1389,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4042</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,10 +1647,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1779,16 +1797,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$50</c:f>
+              <c:f>Data!$W$2:$W$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1934,6 +1955,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1974,10 +1998,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2124,16 +2148,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Z$2:$Z$50</c:f>
+              <c:f>Data!$Z$2:$Z$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2279,6 +2306,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2319,10 +2349,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2469,16 +2499,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$50</c:f>
+              <c:f>Data!$V$2:$V$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2624,6 +2657,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2883,10 +2919,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3033,16 +3069,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$50</c:f>
+              <c:f>Data!$Y$2:$Y$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -3189,6 +3228,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3228,10 +3270,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3378,16 +3420,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AB$2:$AB$50</c:f>
+              <c:f>Data!$AB$2:$AB$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3534,6 +3579,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3789,10 +3837,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3939,16 +3987,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$50</c:f>
+              <c:f>Data!$AD$2:$AD$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -4095,6 +4146,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4316,10 +4370,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4466,16 +4520,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$50</c:f>
+              <c:f>Data!$AF$2:$AF$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4555,6 +4612,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4591,10 +4651,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4741,16 +4801,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$50</c:f>
+              <c:f>Data!$AG$2:$AG$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4831,6 +4894,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4866,10 +4932,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5016,16 +5082,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AH$2:$AH$50</c:f>
+              <c:f>Data!$AH$2:$AH$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -5106,6 +5175,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5141,10 +5213,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5291,16 +5363,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AI$2:$AI$50</c:f>
+              <c:f>Data!$AI$2:$AI$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5380,6 +5455,9 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -5418,10 +5496,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$50</c:f>
+              <c:f>Data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5568,16 +5646,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AJ$2:$AJ$50</c:f>
+              <c:f>Data!$AJ$2:$AJ$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -8816,8 +8897,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AK50" totalsRowShown="0">
-  <autoFilter ref="A1:AK50" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AK51" totalsRowShown="0">
+  <autoFilter ref="A1:AK51" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="36"/>
     <tableColumn id="35" xr3:uid="{6D5DE1BF-18D0-144B-BD3F-DACE38879478}" name="Stars" dataDxfId="35"/>
@@ -8834,38 +8915,38 @@
     <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="26"/>
     <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="25"/>
     <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="24"/>
-    <tableColumn id="38" xr3:uid="{CFE81176-2C90-BD47-B841-84B9D7BE1805}" name="Python" dataDxfId="0"/>
-    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="23"/>
-    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="22">
+    <tableColumn id="38" xr3:uid="{CFE81176-2C90-BD47-B841-84B9D7BE1805}" name="Python" dataDxfId="23"/>
+    <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="22"/>
+    <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="21">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Shell]:[Bash]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{FD44257B-EFD4-EF46-B0EE-B5B6EBB0D9D7}" name="∆Total" dataDxfId="21">
+    <tableColumn id="34" xr3:uid="{FD44257B-EFD4-EF46-B0EE-B5B6EBB0D9D7}" name="∆Total" dataDxfId="20">
       <calculatedColumnFormula>Data[[#This Row],[Total]]-P1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="14"/>
-    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{54572B04-73DF-B54E-8CA8-08B855E57298}" name="Insertions" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{5B41BC3F-409E-3E48-ACF0-FB5B2991C84B}" name="Deletions" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{1C05E18A-C711-644C-80DB-657BE50D2023}" name="Open issues" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{B8CD0192-45D4-214D-A61D-035F6343DBF3}" name="Open bugs" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{C647B025-84B9-2A4A-A39F-474FCCC1A725}" name="Closed issues" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{5358541A-D71D-924E-B96F-092E458438D7}" name="Issues" dataDxfId="12">
       <calculatedColumnFormula>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="10">
+    <tableColumn id="13" xr3:uid="{4328C74F-4512-BC47-A624-E12D52DA1C64}" name="Open pull requests" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{B0E7CD5E-8EFD-0845-8464-DDA5DB404F1A}" name="Closed pull requests" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{5AC2FAE8-07F8-0C4D-B5FE-D75B75751C52}" name="Pull requests" dataDxfId="9">
       <calculatedColumnFormula>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="∑runs" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{90523CC0-E84C-064F-9345-04A52C3C2A93}" name="Command line options" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{775D40B7-33AD-894D-A997-09D0BCFA826F}" name="Tests" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{0DCC1450-6CC4-E146-A105-3B45157DE09A}" name="GH workflows" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{67D9B221-0B31-4848-8615-FFAA31A553EC}" name="Running" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{EDC0224F-D9E5-6F46-A4AD-E4CCACBEC828}" name="Failed" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{10E4F180-ED15-E849-B5B3-B50AD4FD7CE9}" name="OK" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{41B7AB09-D6AC-6945-B9EC-BB3EC1357064}" name="Cancelled" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{45136596-751E-4E4D-93FD-EBC25B854FA5}" name="GH runs" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{B9A99AA7-42FD-D344-A29E-4499FB1F8CE3}" name="∑runs" dataDxfId="0">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Running]:[GH runs]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9170,11 +9251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AK50"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI50" sqref="AI50"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ51" sqref="AJ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9186,7 +9267,10 @@
     <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="6.5" customWidth="1"/>
+    <col min="9" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.5" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
@@ -13980,10 +14064,10 @@
       <c r="A50" s="1">
         <v>44853</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>317</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50">
         <v>118</v>
       </c>
       <c r="D50" s="2">
@@ -14091,6 +14175,123 @@
       <c r="AK50" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B51" s="4">
+        <v>318</v>
+      </c>
+      <c r="C51" s="4">
+        <v>119</v>
+      </c>
+      <c r="D51" s="2">
+        <v>107</v>
+      </c>
+      <c r="E51" s="2">
+        <v>259</v>
+      </c>
+      <c r="F51" s="2">
+        <v>212</v>
+      </c>
+      <c r="G51" s="2">
+        <v>5439</v>
+      </c>
+      <c r="H51" s="3">
+        <f>Data[[#This Row],[LoC]]-G50</f>
+        <v>28</v>
+      </c>
+      <c r="I51" s="2">
+        <v>6328</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1893</v>
+      </c>
+      <c r="K51" s="2">
+        <v>262</v>
+      </c>
+      <c r="L51" s="2">
+        <v>279</v>
+      </c>
+      <c r="M51" s="2">
+        <v>98</v>
+      </c>
+      <c r="N51" s="2">
+        <v>81</v>
+      </c>
+      <c r="O51" s="2">
+        <v>57</v>
+      </c>
+      <c r="P51" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8998</v>
+      </c>
+      <c r="Q51" s="3">
+        <f>Data[[#This Row],[Total]]-P50</f>
+        <v>15</v>
+      </c>
+      <c r="R51" s="2">
+        <v>1934</v>
+      </c>
+      <c r="S51" s="2">
+        <v>4078</v>
+      </c>
+      <c r="T51" s="2">
+        <v>65464</v>
+      </c>
+      <c r="U51" s="2">
+        <v>45297</v>
+      </c>
+      <c r="V51" s="2">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y51" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>241</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>167</v>
+      </c>
+      <c r="AB51" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>167</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>153</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>164</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>359</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>913</v>
+      </c>
+      <c r="AI51" s="2">
+        <v>9</v>
+      </c>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1281</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/git/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AB31C4-8B30-644B-88C9-FF86EDA10533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C8CD7B-CDBB-9340-95E1-228CE9A4779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13140" windowWidth="41120" windowHeight="12200" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24440" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -531,16 +531,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$51</c:f>
+              <c:f>Data!$G$2:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -689,6 +692,9 @@
                   <c:v>5411</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>5439</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>5439</c:v>
                 </c:pt>
               </c:numCache>
@@ -729,10 +735,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -882,16 +888,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$51</c:f>
+              <c:f>Data!$R$2:$R$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -1041,6 +1050,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,10 +1092,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1233,16 +1245,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$51</c:f>
+              <c:f>Data!$S$2:$S$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1392,6 +1407,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>4078</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,10 +1665,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1800,16 +1818,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$51</c:f>
+              <c:f>Data!$W$2:$W$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1959,6 +1980,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,10 +2022,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2151,16 +2175,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Z$2:$Z$51</c:f>
+              <c:f>Data!$Z$2:$Z$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2309,6 +2336,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2349,10 +2379,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2502,16 +2532,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$51</c:f>
+              <c:f>Data!$V$2:$V$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2661,6 +2694,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2919,10 +2955,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3072,16 +3108,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$51</c:f>
+              <c:f>Data!$Y$2:$Y$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -3231,6 +3270,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3270,10 +3312,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3423,16 +3465,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AB$2:$AB$51</c:f>
+              <c:f>Data!$AB$2:$AB$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3582,6 +3627,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3837,10 +3885,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3990,16 +4038,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$51</c:f>
+              <c:f>Data!$AD$2:$AD$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -4148,6 +4199,9 @@
                   <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
@@ -4370,10 +4424,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4523,16 +4577,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$51</c:f>
+              <c:f>Data!$AF$2:$AF$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4615,6 +4672,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4651,10 +4711,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4804,16 +4864,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$51</c:f>
+              <c:f>Data!$AG$2:$AG$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4897,6 +4960,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4932,10 +4998,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5085,16 +5151,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AH$2:$AH$51</c:f>
+              <c:f>Data!$AH$2:$AH$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -5178,6 +5247,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5213,10 +5285,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5366,16 +5438,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AI$2:$AI$51</c:f>
+              <c:f>Data!$AI$2:$AI$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5458,6 +5533,9 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -5496,10 +5574,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$51</c:f>
+              <c:f>Data!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5649,16 +5727,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>44854</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AJ$2:$AJ$51</c:f>
+              <c:f>Data!$AJ$2:$AJ$52</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -8897,8 +8978,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AK51" totalsRowShown="0">
-  <autoFilter ref="A1:AK51" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AK52" totalsRowShown="0">
+  <autoFilter ref="A1:AK52" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
   <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="36"/>
     <tableColumn id="35" xr3:uid="{6D5DE1BF-18D0-144B-BD3F-DACE38879478}" name="Stars" dataDxfId="35"/>
@@ -9251,11 +9332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AK51"/>
+  <dimension ref="A1:AK52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ51" sqref="AJ51"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK52" sqref="AK52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14181,10 +14262,10 @@
       <c r="A51" s="1">
         <v>44854</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>318</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51">
         <v>119</v>
       </c>
       <c r="D51" s="2">
@@ -14292,6 +14373,121 @@
       <c r="AK51" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B52" s="4">
+        <v>319</v>
+      </c>
+      <c r="C52" s="4">
+        <v>120</v>
+      </c>
+      <c r="D52" s="2">
+        <v>108</v>
+      </c>
+      <c r="E52" s="2">
+        <v>259</v>
+      </c>
+      <c r="F52" s="2">
+        <v>212</v>
+      </c>
+      <c r="G52" s="2">
+        <v>5439</v>
+      </c>
+      <c r="H52" s="3">
+        <f>Data[[#This Row],[LoC]]-G51</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>6272</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1894</v>
+      </c>
+      <c r="K52" s="2">
+        <v>263</v>
+      </c>
+      <c r="L52" s="2">
+        <v>279</v>
+      </c>
+      <c r="M52" s="2">
+        <v>99</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2">
+        <v>57</v>
+      </c>
+      <c r="P52" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8864</v>
+      </c>
+      <c r="Q52" s="3">
+        <f>Data[[#This Row],[Total]]-P51</f>
+        <v>-134</v>
+      </c>
+      <c r="R52" s="2">
+        <v>1945</v>
+      </c>
+      <c r="S52" s="2">
+        <v>4009</v>
+      </c>
+      <c r="T52" s="2">
+        <v>65475</v>
+      </c>
+      <c r="U52" s="2">
+        <v>45415</v>
+      </c>
+      <c r="V52" s="2">
+        <v>1</v>
+      </c>
+      <c r="W52" s="2">
+        <v>1</v>
+      </c>
+      <c r="X52" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y52" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>242</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>168</v>
+      </c>
+      <c r="AB52" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>168</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>153</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>164</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="2">
+        <v>362</v>
+      </c>
+      <c r="AH52" s="2">
+        <v>931</v>
+      </c>
+      <c r="AI52" s="2">
+        <v>9</v>
+      </c>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1302</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/git/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C8CD7B-CDBB-9340-95E1-228CE9A4779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E545AC3E-2E07-C04E-BC18-A6526AC64D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24440" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="17080" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -149,9 +149,6 @@
   <si>
     <t>Forks</t>
   </si>
-  <si>
-    <t>Python</t>
-  </si>
 </sst>
 </file>
 
@@ -205,7 +202,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="36">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -268,9 +265,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -378,10 +372,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -534,16 +528,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$52</c:f>
+              <c:f>Data!$G$2:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -696,6 +693,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5439</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -712,7 +712,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$R$1</c:f>
+              <c:f>Data!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -735,10 +735,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -891,16 +891,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$52</c:f>
+              <c:f>Data!$Q$2:$Q$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -1053,6 +1056,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,7 +1075,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$S$1</c:f>
+              <c:f>Data!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1092,10 +1098,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1248,16 +1254,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$2:$S$52</c:f>
+              <c:f>Data!$R$2:$R$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1410,6 +1419,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4009</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,7 +1654,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$W$1</c:f>
+              <c:f>Data!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1665,10 +1677,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1821,16 +1833,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$2:$W$52</c:f>
+              <c:f>Data!$V$2:$V$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1983,6 +1998,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,7 +2017,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$Z$1</c:f>
+              <c:f>Data!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2022,10 +2040,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2178,16 +2196,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Z$2:$Z$52</c:f>
+              <c:f>Data!$Y$2:$Y$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2339,6 +2360,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2356,7 +2380,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$V$1</c:f>
+              <c:f>Data!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2379,10 +2403,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2535,16 +2559,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$52</c:f>
+              <c:f>Data!$U$2:$U$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2697,6 +2724,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2932,7 +2962,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$Y$1</c:f>
+              <c:f>Data!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2955,10 +2985,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3111,16 +3141,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$52</c:f>
+              <c:f>Data!$X$2:$X$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>204</c:v>
                 </c:pt>
@@ -3272,6 +3305,9 @@
                   <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>242</c:v>
                 </c:pt>
               </c:numCache>
@@ -3289,7 +3325,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AB$1</c:f>
+              <c:f>Data!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3312,10 +3348,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -3468,16 +3504,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AB$2:$AB$52</c:f>
+              <c:f>Data!$AA$2:$AA$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -3629,6 +3668,9 @@
                   <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
@@ -3862,7 +3904,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AD$1</c:f>
+              <c:f>Data!$AC$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3885,10 +3927,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4041,16 +4083,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AD$2:$AD$52</c:f>
+              <c:f>Data!$AC$2:$AC$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -4202,6 +4247,9 @@
                   <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
@@ -4404,7 +4452,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AF$1</c:f>
+              <c:f>Data!$AE$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4424,10 +4472,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4580,16 +4628,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AF$2:$AF$52</c:f>
+              <c:f>Data!$AE$2:$AE$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4675,6 +4726,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4691,7 +4745,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AG$1</c:f>
+              <c:f>Data!$AF$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4711,10 +4765,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -4867,16 +4921,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AG$2:$AG$52</c:f>
+              <c:f>Data!$AF$2:$AF$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="22">
                   <c:v>302</c:v>
                 </c:pt>
@@ -4962,6 +5019,9 @@
                   <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>362</c:v>
                 </c:pt>
               </c:numCache>
@@ -4978,7 +5038,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AH$1</c:f>
+              <c:f>Data!$AG$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4998,10 +5058,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5154,16 +5214,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AH$2:$AH$52</c:f>
+              <c:f>Data!$AG$2:$AG$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="22">
                   <c:v>488</c:v>
                 </c:pt>
@@ -5250,6 +5313,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5265,7 +5331,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AI$1</c:f>
+              <c:f>Data!$AH$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5285,10 +5351,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5441,16 +5507,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AI$2:$AI$52</c:f>
+              <c:f>Data!$AH$2:$AH$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5536,6 +5605,9 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -5552,7 +5624,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$AJ$1</c:f>
+              <c:f>Data!$AI$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5574,10 +5646,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$52</c:f>
+              <c:f>Data!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -5730,16 +5802,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$AJ$2:$AJ$52</c:f>
+              <c:f>Data!$AI$2:$AI$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>541</c:v>
                 </c:pt>
@@ -8978,31 +9053,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AK52" totalsRowShown="0">
-  <autoFilter ref="A1:AK52" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
-  <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="36"/>
-    <tableColumn id="35" xr3:uid="{6D5DE1BF-18D0-144B-BD3F-DACE38879478}" name="Stars" dataDxfId="35"/>
-    <tableColumn id="36" xr3:uid="{24BDF572-B0AB-334A-BB98-AAF6AE52850D}" name="Forks" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="30"/>
-    <tableColumn id="33" xr3:uid="{314C5206-2A7B-F841-94C2-27E5FA3210D6}" name="∆LoC" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}" name="Data" displayName="Data" ref="A1:AJ53" totalsRowShown="0">
+  <autoFilter ref="A1:AJ53" xr:uid="{93166B95-8F57-7249-BAD0-F6F6DB81EEDA}"/>
+  <tableColumns count="36">
+    <tableColumn id="1" xr3:uid="{20F9E231-C300-0444-AC18-9BA75DF43CD7}" name="Date" dataDxfId="35"/>
+    <tableColumn id="35" xr3:uid="{6D5DE1BF-18D0-144B-BD3F-DACE38879478}" name="Stars" dataDxfId="34"/>
+    <tableColumn id="36" xr3:uid="{24BDF572-B0AB-334A-BB98-AAF6AE52850D}" name="Forks" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{29461922-6B0E-7E4E-9465-94C5573BFF84}" name="Authors" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{9D977A2F-FBC7-9444-809F-55429A0A93FA}" name="Versions" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{50EF9E4F-56ED-AE43-9F2C-3273E23CA123}" name="GH Releases" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{7A031666-B40E-9C44-B04D-F85418485CE9}" name="LoC" dataDxfId="29"/>
+    <tableColumn id="33" xr3:uid="{314C5206-2A7B-F841-94C2-27E5FA3210D6}" name="∆LoC" dataDxfId="28">
       <calculatedColumnFormula>Data[[#This Row],[LoC]]-G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="28"/>
-    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="27"/>
-    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="26"/>
-    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="25"/>
-    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="24"/>
-    <tableColumn id="38" xr3:uid="{CFE81176-2C90-BD47-B841-84B9D7BE1805}" name="Python" dataDxfId="23"/>
+    <tableColumn id="26" xr3:uid="{EA0BB0A1-B927-BA42-95D8-323FF0F98170}" name="Shell" dataDxfId="27"/>
+    <tableColumn id="27" xr3:uid="{044A9D24-EDBD-814E-8836-3A4FC1DAF6CD}" name="MD" dataDxfId="26"/>
+    <tableColumn id="28" xr3:uid="{7634D894-69D0-B844-B715-963F9BC2312D}" name="YAML" dataDxfId="25"/>
+    <tableColumn id="29" xr3:uid="{35076C74-15AC-EC42-A3FA-C7C55763EEA7}" name="Text" dataDxfId="24"/>
+    <tableColumn id="30" xr3:uid="{1A9EAD82-A8B4-184C-92DB-650EA2147810}" name="make" dataDxfId="23"/>
     <tableColumn id="31" xr3:uid="{F5568E37-EB5F-0B40-B8FE-3BC68D2DEFB3}" name="Bash" dataDxfId="22"/>
     <tableColumn id="32" xr3:uid="{74A04583-DF3F-244E-8F76-155696F8B4E4}" name="Total" dataDxfId="21">
       <calculatedColumnFormula>SUM(Data[[#This Row],[Shell]:[Bash]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="34" xr3:uid="{FD44257B-EFD4-EF46-B0EE-B5B6EBB0D9D7}" name="∆Total" dataDxfId="20">
-      <calculatedColumnFormula>Data[[#This Row],[Total]]-P1</calculatedColumnFormula>
+      <calculatedColumnFormula>Data[[#This Row],[Total]]-O1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{209B02FE-4C5E-A34D-8A40-FEEE65FDC588}" name="Commits" dataDxfId="19"/>
     <tableColumn id="7" xr3:uid="{5F63508D-C840-F54A-8A71-C80EA9D4AD88}" name="File Changes" dataDxfId="18"/>
@@ -9332,11 +9406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25124EE0-0CAD-CD49-A20F-54498FB40B76}">
-  <dimension ref="A1:AK52"/>
+  <dimension ref="A1:AJ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK52" sqref="AK52"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ53" sqref="AJ53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9350,32 +9424,31 @@
     <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="6.5" customWidth="1"/>
     <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.5" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5" customWidth="1"/>
-    <col min="26" max="26" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19" customWidth="1"/>
-    <col min="29" max="29" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" customWidth="1"/>
+    <col min="28" max="28" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9416,79 +9489,76 @@
         <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="R1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AA1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AC1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AJ1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44574</v>
       </c>
@@ -9514,67 +9584,66 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3">
-        <v>0</v>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1523</v>
       </c>
       <c r="R2" s="2">
-        <v>1523</v>
+        <v>3195</v>
       </c>
       <c r="S2" s="2">
-        <v>3195</v>
+        <v>57442</v>
       </c>
       <c r="T2" s="2">
-        <v>57442</v>
+        <v>40634</v>
       </c>
       <c r="U2" s="2">
-        <v>40634</v>
+        <v>1</v>
       </c>
       <c r="V2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="2">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="X2" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y2" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
       <c r="Z2" s="2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AA2" s="2">
-        <v>135</v>
-      </c>
-      <c r="AB2" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
+      <c r="AB2" s="2">
+        <v>125</v>
+      </c>
       <c r="AC2" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AD2" s="2">
-        <v>122</v>
-      </c>
-      <c r="AE2" s="2">
         <v>2</v>
       </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
+      <c r="AI2" s="2">
+        <v>541</v>
+      </c>
       <c r="AJ2" s="2">
-        <v>541</v>
-      </c>
-      <c r="AK2" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44578</v>
       </c>
@@ -9601,68 +9670,67 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="3">
-        <f>Data[[#This Row],[Total]]-P2</f>
-        <v>0</v>
+      <c r="P3" s="3">
+        <f>Data[[#This Row],[Total]]-O2</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1524</v>
       </c>
       <c r="R3" s="2">
-        <v>1524</v>
+        <v>3196</v>
       </c>
       <c r="S3" s="2">
-        <v>3196</v>
+        <v>57422</v>
       </c>
       <c r="T3" s="2">
-        <v>57422</v>
+        <v>40034</v>
       </c>
       <c r="U3" s="2">
-        <v>40034</v>
+        <v>1</v>
       </c>
       <c r="V3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="2">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="X3" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y3" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
       <c r="Z3" s="2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AA3" s="2">
-        <v>135</v>
-      </c>
-      <c r="AB3" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
+      <c r="AB3" s="2">
+        <v>125</v>
+      </c>
       <c r="AC3" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AD3" s="2">
-        <v>122</v>
-      </c>
-      <c r="AE3" s="2">
         <v>2</v>
       </c>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
+      <c r="AI3" s="2">
+        <v>542</v>
+      </c>
       <c r="AJ3" s="2">
-        <v>542</v>
-      </c>
-      <c r="AK3" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44580</v>
       </c>
@@ -9689,68 +9757,67 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="3">
-        <f>Data[[#This Row],[Total]]-P3</f>
-        <v>0</v>
+      <c r="P4" s="3">
+        <f>Data[[#This Row],[Total]]-O3</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1525</v>
       </c>
       <c r="R4" s="2">
-        <v>1525</v>
+        <v>3197</v>
       </c>
       <c r="S4" s="2">
-        <v>3197</v>
+        <v>57422</v>
       </c>
       <c r="T4" s="2">
-        <v>57422</v>
+        <v>40634</v>
       </c>
       <c r="U4" s="2">
-        <v>40634</v>
+        <v>1</v>
       </c>
       <c r="V4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="X4" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y4" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
       <c r="Z4" s="2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AA4" s="2">
-        <v>135</v>
-      </c>
-      <c r="AB4" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
+      <c r="AB4" s="2">
+        <v>125</v>
+      </c>
       <c r="AC4" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AD4" s="2">
-        <v>122</v>
-      </c>
-      <c r="AE4" s="2">
         <v>2</v>
       </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
+      <c r="AI4" s="2">
+        <v>543</v>
+      </c>
       <c r="AJ4" s="2">
-        <v>543</v>
-      </c>
-      <c r="AK4" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44588</v>
       </c>
@@ -9777,68 +9844,67 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="3">
-        <f>Data[[#This Row],[Total]]-P4</f>
-        <v>0</v>
+      <c r="P5" s="3">
+        <f>Data[[#This Row],[Total]]-O4</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1531</v>
       </c>
       <c r="R5" s="2">
-        <v>1531</v>
+        <v>3207</v>
       </c>
       <c r="S5" s="2">
-        <v>3207</v>
+        <v>57794</v>
       </c>
       <c r="T5" s="2">
-        <v>57794</v>
+        <v>40652</v>
       </c>
       <c r="U5" s="2">
-        <v>40652</v>
+        <v>1</v>
       </c>
       <c r="V5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="X5" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y5" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
       <c r="Z5" s="2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AA5" s="2">
-        <v>135</v>
-      </c>
-      <c r="AB5" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
+      <c r="AB5" s="2">
+        <v>125</v>
+      </c>
       <c r="AC5" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AD5" s="2">
-        <v>122</v>
-      </c>
-      <c r="AE5" s="2">
         <v>3</v>
       </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
+      <c r="AI5" s="2">
+        <v>550</v>
+      </c>
       <c r="AJ5" s="2">
-        <v>550</v>
-      </c>
-      <c r="AK5" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44593</v>
       </c>
@@ -9865,68 +9931,67 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="3">
-        <f>Data[[#This Row],[Total]]-P5</f>
-        <v>0</v>
+      <c r="P6" s="3">
+        <f>Data[[#This Row],[Total]]-O5</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1539</v>
       </c>
       <c r="R6" s="2">
-        <v>1539</v>
+        <v>3224</v>
       </c>
       <c r="S6" s="2">
-        <v>3224</v>
+        <v>57859</v>
       </c>
       <c r="T6" s="2">
-        <v>57859</v>
+        <v>40677</v>
       </c>
       <c r="U6" s="2">
-        <v>40677</v>
+        <v>1</v>
       </c>
       <c r="V6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="X6" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y6" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
       <c r="Z6" s="2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AA6" s="2">
-        <v>135</v>
-      </c>
-      <c r="AB6" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
+      <c r="AB6" s="2">
+        <v>125</v>
+      </c>
       <c r="AC6" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AD6" s="2">
-        <v>122</v>
-      </c>
-      <c r="AE6" s="2">
         <v>3</v>
       </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
+      <c r="AI6" s="2">
+        <v>561</v>
+      </c>
       <c r="AJ6" s="2">
-        <v>561</v>
-      </c>
-      <c r="AK6" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44602</v>
       </c>
@@ -9953,68 +10018,67 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="3">
-        <f>Data[[#This Row],[Total]]-P6</f>
-        <v>0</v>
+      <c r="P7" s="3">
+        <f>Data[[#This Row],[Total]]-O6</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1559</v>
       </c>
       <c r="R7" s="2">
-        <v>1559</v>
+        <v>3265</v>
       </c>
       <c r="S7" s="2">
-        <v>3265</v>
+        <v>58868</v>
       </c>
       <c r="T7" s="2">
-        <v>58868</v>
+        <v>41555</v>
       </c>
       <c r="U7" s="2">
-        <v>41555</v>
+        <v>0</v>
       </c>
       <c r="V7" s="2">
         <v>0</v>
       </c>
       <c r="W7" s="2">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="X7" s="2">
-        <v>204</v>
-      </c>
-      <c r="Y7" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>204</v>
       </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
       <c r="Z7" s="2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AA7" s="2">
-        <v>135</v>
-      </c>
-      <c r="AB7" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
+      <c r="AB7" s="2">
+        <v>125</v>
+      </c>
       <c r="AC7" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AD7" s="2">
-        <v>122</v>
-      </c>
-      <c r="AE7" s="2">
         <v>3</v>
       </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
+      <c r="AI7" s="2">
+        <v>586</v>
+      </c>
       <c r="AJ7" s="2">
-        <v>586</v>
-      </c>
-      <c r="AK7" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>586</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44610</v>
       </c>
@@ -10041,68 +10105,67 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="3">
-        <f>Data[[#This Row],[Total]]-P7</f>
-        <v>0</v>
+      <c r="P8" s="3">
+        <f>Data[[#This Row],[Total]]-O7</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1568</v>
       </c>
       <c r="R8" s="2">
-        <v>1568</v>
+        <v>3286</v>
       </c>
       <c r="S8" s="2">
-        <v>3286</v>
+        <v>58985</v>
       </c>
       <c r="T8" s="2">
-        <v>58985</v>
+        <v>41600</v>
       </c>
       <c r="U8" s="2">
-        <v>41600</v>
+        <v>0</v>
       </c>
       <c r="V8" s="2">
         <v>0</v>
       </c>
       <c r="W8" s="2">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="X8" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y8" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>208</v>
       </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
       <c r="Z8" s="2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AA8" s="2">
-        <v>135</v>
-      </c>
-      <c r="AB8" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
+      <c r="AB8" s="2">
+        <v>125</v>
+      </c>
       <c r="AC8" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AD8" s="2">
-        <v>122</v>
-      </c>
-      <c r="AE8" s="2">
         <v>3</v>
       </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
+      <c r="AI8" s="2">
+        <v>595</v>
+      </c>
       <c r="AJ8" s="2">
-        <v>595</v>
-      </c>
-      <c r="AK8" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44613</v>
       </c>
@@ -10129,68 +10192,67 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="3">
-        <f>Data[[#This Row],[Total]]-P8</f>
-        <v>0</v>
+      <c r="P9" s="3">
+        <f>Data[[#This Row],[Total]]-O8</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1571</v>
       </c>
       <c r="R9" s="2">
-        <v>1571</v>
+        <v>3298</v>
       </c>
       <c r="S9" s="2">
-        <v>3298</v>
+        <v>59170</v>
       </c>
       <c r="T9" s="2">
-        <v>59170</v>
+        <v>41754</v>
       </c>
       <c r="U9" s="2">
-        <v>41754</v>
+        <v>0</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9" s="2">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="X9" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y9" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>208</v>
       </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
       <c r="Z9" s="2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AA9" s="2">
-        <v>135</v>
-      </c>
-      <c r="AB9" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>135</v>
       </c>
+      <c r="AB9" s="2">
+        <v>126</v>
+      </c>
       <c r="AC9" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AD9" s="2">
-        <v>122</v>
-      </c>
-      <c r="AE9" s="2">
         <v>3</v>
       </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
+      <c r="AI9" s="2">
+        <v>601</v>
+      </c>
       <c r="AJ9" s="2">
-        <v>601</v>
-      </c>
-      <c r="AK9" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44636</v>
       </c>
@@ -10217,68 +10279,67 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="3">
-        <f>Data[[#This Row],[Total]]-P9</f>
-        <v>0</v>
+      <c r="P10" s="3">
+        <f>Data[[#This Row],[Total]]-O9</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1598</v>
       </c>
       <c r="R10" s="2">
-        <v>1598</v>
+        <v>3339</v>
       </c>
       <c r="S10" s="2">
-        <v>3339</v>
+        <v>59371</v>
       </c>
       <c r="T10" s="2">
-        <v>59371</v>
+        <v>41908</v>
       </c>
       <c r="U10" s="2">
-        <v>41908</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
       </c>
       <c r="W10" s="2">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="X10" s="2">
-        <v>209</v>
-      </c>
-      <c r="Y10" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>209</v>
       </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
       <c r="Z10" s="2">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="AA10" s="2">
-        <v>141</v>
-      </c>
-      <c r="AB10" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>141</v>
       </c>
+      <c r="AB10" s="2">
+        <v>126</v>
+      </c>
       <c r="AC10" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AD10" s="2">
-        <v>122</v>
-      </c>
-      <c r="AE10" s="2">
         <v>3</v>
       </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
+      <c r="AI10" s="2">
+        <v>632</v>
+      </c>
       <c r="AJ10" s="2">
-        <v>632</v>
-      </c>
-      <c r="AK10" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>632</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44645</v>
       </c>
@@ -10305,68 +10366,67 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="3">
-        <f>Data[[#This Row],[Total]]-P10</f>
-        <v>0</v>
+      <c r="P11" s="3">
+        <f>Data[[#This Row],[Total]]-O10</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1627</v>
       </c>
       <c r="R11" s="2">
-        <v>1627</v>
+        <v>3375</v>
       </c>
       <c r="S11" s="2">
-        <v>3375</v>
+        <v>59655</v>
       </c>
       <c r="T11" s="2">
-        <v>59655</v>
+        <v>42123</v>
       </c>
       <c r="U11" s="2">
-        <v>42123</v>
+        <v>1</v>
       </c>
       <c r="V11" s="2">
         <v>1</v>
       </c>
       <c r="W11" s="2">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="X11" s="2">
-        <v>214</v>
-      </c>
-      <c r="Y11" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
       <c r="Z11" s="2">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="AA11" s="2">
-        <v>148</v>
-      </c>
-      <c r="AB11" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
+      <c r="AB11" s="2">
+        <v>127</v>
+      </c>
       <c r="AC11" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD11" s="2">
-        <v>128</v>
-      </c>
-      <c r="AE11" s="2">
         <v>3</v>
       </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
+      <c r="AI11" s="2">
+        <v>661</v>
+      </c>
       <c r="AJ11" s="2">
-        <v>661</v>
-      </c>
-      <c r="AK11" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>661</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44657</v>
       </c>
@@ -10393,68 +10453,67 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="3">
-        <f>Data[[#This Row],[Total]]-P11</f>
-        <v>0</v>
+      <c r="P12" s="3">
+        <f>Data[[#This Row],[Total]]-O11</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1632</v>
       </c>
       <c r="R12" s="2">
-        <v>1632</v>
+        <v>3387</v>
       </c>
       <c r="S12" s="2">
-        <v>3387</v>
+        <v>59702</v>
       </c>
       <c r="T12" s="2">
-        <v>59702</v>
+        <v>42156</v>
       </c>
       <c r="U12" s="2">
-        <v>42156</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2">
         <v>1</v>
       </c>
       <c r="W12" s="2">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="X12" s="2">
-        <v>214</v>
-      </c>
-      <c r="Y12" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
       <c r="Z12" s="2">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="AA12" s="2">
-        <v>148</v>
-      </c>
-      <c r="AB12" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
+      <c r="AB12" s="2">
+        <v>127</v>
+      </c>
       <c r="AC12" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AD12" s="2">
-        <v>131</v>
-      </c>
-      <c r="AE12" s="2">
         <v>3</v>
       </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
+      <c r="AI12" s="2">
+        <v>669</v>
+      </c>
       <c r="AJ12" s="2">
-        <v>669</v>
-      </c>
-      <c r="AK12" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>669</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44664</v>
       </c>
@@ -10481,68 +10540,67 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="3">
-        <f>Data[[#This Row],[Total]]-P12</f>
-        <v>0</v>
+      <c r="P13" s="3">
+        <f>Data[[#This Row],[Total]]-O12</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1637</v>
       </c>
       <c r="R13" s="2">
-        <v>1637</v>
+        <v>3406</v>
       </c>
       <c r="S13" s="2">
-        <v>3406</v>
+        <v>60308</v>
       </c>
       <c r="T13" s="2">
-        <v>60308</v>
+        <v>42743</v>
       </c>
       <c r="U13" s="2">
-        <v>42743</v>
+        <v>1</v>
       </c>
       <c r="V13" s="2">
         <v>1</v>
       </c>
       <c r="W13" s="2">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="X13" s="2">
-        <v>214</v>
-      </c>
-      <c r="Y13" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>215</v>
       </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
       <c r="Z13" s="2">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="AA13" s="2">
-        <v>148</v>
-      </c>
-      <c r="AB13" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
+      <c r="AB13" s="2">
+        <v>128</v>
+      </c>
       <c r="AC13" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AD13" s="2">
-        <v>131</v>
-      </c>
-      <c r="AE13" s="2">
         <v>3</v>
       </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
+      <c r="AI13" s="2">
+        <v>677</v>
+      </c>
       <c r="AJ13" s="2">
-        <v>677</v>
-      </c>
-      <c r="AK13" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44676</v>
       </c>
@@ -10569,68 +10627,67 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="3">
-        <f>Data[[#This Row],[Total]]-P13</f>
-        <v>0</v>
+      <c r="P14" s="3">
+        <f>Data[[#This Row],[Total]]-O13</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1647</v>
       </c>
       <c r="R14" s="2">
-        <v>1647</v>
+        <v>3424</v>
       </c>
       <c r="S14" s="2">
-        <v>3424</v>
+        <v>60352</v>
       </c>
       <c r="T14" s="2">
-        <v>60352</v>
+        <v>42776</v>
       </c>
       <c r="U14" s="2">
-        <v>42776</v>
+        <v>2</v>
       </c>
       <c r="V14" s="2">
         <v>2</v>
       </c>
       <c r="W14" s="2">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="X14" s="2">
-        <v>215</v>
-      </c>
-      <c r="Y14" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>217</v>
       </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
       <c r="Z14" s="2">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="AA14" s="2">
-        <v>148</v>
-      </c>
-      <c r="AB14" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>148</v>
       </c>
+      <c r="AB14" s="2">
+        <v>128</v>
+      </c>
       <c r="AC14" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AD14" s="2">
-        <v>131</v>
-      </c>
-      <c r="AE14" s="2">
         <v>3</v>
       </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
+      <c r="AI14" s="2">
+        <v>685</v>
+      </c>
       <c r="AJ14" s="2">
-        <v>685</v>
-      </c>
-      <c r="AK14" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44678</v>
       </c>
@@ -10657,68 +10714,67 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="3">
-        <f>Data[[#This Row],[Total]]-P14</f>
-        <v>0</v>
+      <c r="P15" s="3">
+        <f>Data[[#This Row],[Total]]-O14</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1652</v>
       </c>
       <c r="R15" s="2">
-        <v>1652</v>
+        <v>3430</v>
       </c>
       <c r="S15" s="2">
-        <v>3430</v>
+        <v>60372</v>
       </c>
       <c r="T15" s="2">
-        <v>60372</v>
+        <v>42778</v>
       </c>
       <c r="U15" s="2">
-        <v>42778</v>
+        <v>1</v>
       </c>
       <c r="V15" s="2">
         <v>1</v>
       </c>
       <c r="W15" s="2">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="X15" s="2">
-        <v>216</v>
-      </c>
-      <c r="Y15" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>217</v>
       </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
       <c r="Z15" s="2">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="AA15" s="2">
-        <v>149</v>
-      </c>
-      <c r="AB15" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
+      <c r="AB15" s="2">
+        <v>128</v>
+      </c>
       <c r="AC15" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AD15" s="2">
-        <v>131</v>
-      </c>
-      <c r="AE15" s="2">
         <v>3</v>
       </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
+      <c r="AI15" s="2">
+        <v>690</v>
+      </c>
       <c r="AJ15" s="2">
-        <v>690</v>
-      </c>
-      <c r="AK15" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>690</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44679</v>
       </c>
@@ -10745,68 +10801,67 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="3">
-        <f>Data[[#This Row],[Total]]-P15</f>
-        <v>0</v>
+      <c r="P16" s="3">
+        <f>Data[[#This Row],[Total]]-O15</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1660</v>
       </c>
       <c r="R16" s="2">
-        <v>1660</v>
+        <v>3444</v>
       </c>
       <c r="S16" s="2">
-        <v>3444</v>
+        <v>60431</v>
       </c>
       <c r="T16" s="2">
-        <v>60431</v>
+        <v>42791</v>
       </c>
       <c r="U16" s="2">
-        <v>42791</v>
+        <v>1</v>
       </c>
       <c r="V16" s="2">
         <v>1</v>
       </c>
       <c r="W16" s="2">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="X16" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y16" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>218</v>
       </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
       <c r="Z16" s="2">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="AA16" s="2">
-        <v>149</v>
-      </c>
-      <c r="AB16" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
+      <c r="AB16" s="2">
+        <v>128</v>
+      </c>
       <c r="AC16" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD16" s="2">
-        <v>132</v>
-      </c>
-      <c r="AE16" s="2">
         <v>3</v>
       </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
+      <c r="AI16" s="2">
+        <v>700</v>
+      </c>
       <c r="AJ16" s="2">
-        <v>700</v>
-      </c>
-      <c r="AK16" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44686</v>
       </c>
@@ -10833,68 +10888,67 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="3">
-        <f>Data[[#This Row],[Total]]-P16</f>
-        <v>0</v>
+      <c r="P17" s="3">
+        <f>Data[[#This Row],[Total]]-O16</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1670</v>
       </c>
       <c r="R17" s="2">
-        <v>1670</v>
+        <v>3473</v>
       </c>
       <c r="S17" s="2">
-        <v>3473</v>
+        <v>60537</v>
       </c>
       <c r="T17" s="2">
-        <v>60537</v>
+        <v>42889</v>
       </c>
       <c r="U17" s="2">
-        <v>42889</v>
+        <v>1</v>
       </c>
       <c r="V17" s="2">
         <v>1</v>
       </c>
       <c r="W17" s="2">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="X17" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y17" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
       <c r="Z17" s="2">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="AA17" s="2">
-        <v>149</v>
-      </c>
-      <c r="AB17" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>149</v>
       </c>
+      <c r="AB17" s="2">
+        <v>128</v>
+      </c>
       <c r="AC17" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD17" s="2">
-        <v>132</v>
-      </c>
-      <c r="AE17" s="2">
         <v>3</v>
       </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
+      <c r="AI17" s="2">
+        <v>714</v>
+      </c>
       <c r="AJ17" s="2">
-        <v>714</v>
-      </c>
-      <c r="AK17" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44691</v>
       </c>
@@ -10921,68 +10975,67 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="3">
-        <f>Data[[#This Row],[Total]]-P17</f>
-        <v>0</v>
+      <c r="P18" s="3">
+        <f>Data[[#This Row],[Total]]-O17</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1676</v>
       </c>
       <c r="R18" s="2">
-        <v>1676</v>
+        <v>3481</v>
       </c>
       <c r="S18" s="2">
-        <v>3481</v>
+        <v>60564</v>
       </c>
       <c r="T18" s="2">
-        <v>60564</v>
+        <v>42903</v>
       </c>
       <c r="U18" s="2">
-        <v>42903</v>
+        <v>1</v>
       </c>
       <c r="V18" s="2">
         <v>1</v>
       </c>
       <c r="W18" s="2">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="X18" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y18" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
       <c r="Z18" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AA18" s="2">
-        <v>150</v>
-      </c>
-      <c r="AB18" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>150</v>
       </c>
+      <c r="AB18" s="2">
+        <v>128</v>
+      </c>
       <c r="AC18" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD18" s="2">
-        <v>132</v>
-      </c>
-      <c r="AE18" s="2">
         <v>3</v>
       </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
+      <c r="AI18" s="2">
+        <v>721</v>
+      </c>
       <c r="AJ18" s="2">
-        <v>721</v>
-      </c>
-      <c r="AK18" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>721</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44705</v>
       </c>
@@ -11009,68 +11062,67 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="3">
-        <f>Data[[#This Row],[Total]]-P18</f>
-        <v>0</v>
+      <c r="P19" s="3">
+        <f>Data[[#This Row],[Total]]-O18</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1695</v>
       </c>
       <c r="R19" s="2">
-        <v>1695</v>
+        <v>3500</v>
       </c>
       <c r="S19" s="2">
-        <v>3500</v>
+        <v>60613</v>
       </c>
       <c r="T19" s="2">
-        <v>60613</v>
+        <v>42943</v>
       </c>
       <c r="U19" s="2">
-        <v>42943</v>
+        <v>1</v>
       </c>
       <c r="V19" s="2">
         <v>1</v>
       </c>
       <c r="W19" s="2">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="X19" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y19" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>219</v>
       </c>
+      <c r="Y19" s="2">
+        <v>2</v>
+      </c>
       <c r="Z19" s="2">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="AA19" s="2">
-        <v>154</v>
-      </c>
-      <c r="AB19" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
+      <c r="AB19" s="2">
+        <v>128</v>
+      </c>
       <c r="AC19" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AD19" s="2">
-        <v>131</v>
-      </c>
-      <c r="AE19" s="2">
         <v>4</v>
       </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
+      <c r="AI19" s="2">
+        <v>748</v>
+      </c>
       <c r="AJ19" s="2">
-        <v>748</v>
-      </c>
-      <c r="AK19" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>748</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44707</v>
       </c>
@@ -11097,68 +11149,67 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="3">
-        <f>Data[[#This Row],[Total]]-P19</f>
-        <v>0</v>
+      <c r="P20" s="3">
+        <f>Data[[#This Row],[Total]]-O19</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1699</v>
       </c>
       <c r="R20" s="2">
-        <v>1699</v>
+        <v>3520</v>
       </c>
       <c r="S20" s="2">
-        <v>3520</v>
+        <v>60719</v>
       </c>
       <c r="T20" s="2">
-        <v>60719</v>
+        <v>42953</v>
       </c>
       <c r="U20" s="2">
-        <v>42953</v>
+        <v>1</v>
       </c>
       <c r="V20" s="2">
         <v>1</v>
       </c>
       <c r="W20" s="2">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="X20" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y20" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="AA20" s="2">
-        <v>155</v>
-      </c>
-      <c r="AB20" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
+      <c r="AB20" s="2">
+        <v>131</v>
+      </c>
       <c r="AC20" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD20" s="2">
-        <v>132</v>
-      </c>
-      <c r="AE20" s="2">
         <v>4</v>
       </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
+      <c r="AI20" s="2">
+        <v>754</v>
+      </c>
       <c r="AJ20" s="2">
-        <v>754</v>
-      </c>
-      <c r="AK20" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>754</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44710</v>
       </c>
@@ -11185,68 +11236,67 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="3">
-        <f>Data[[#This Row],[Total]]-P20</f>
-        <v>0</v>
+      <c r="P21" s="3">
+        <f>Data[[#This Row],[Total]]-O20</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1718</v>
       </c>
       <c r="R21" s="2">
-        <v>1718</v>
+        <v>3546</v>
       </c>
       <c r="S21" s="2">
-        <v>3546</v>
+        <v>61044</v>
       </c>
       <c r="T21" s="2">
-        <v>61044</v>
+        <v>43112</v>
       </c>
       <c r="U21" s="2">
-        <v>43112</v>
+        <v>1</v>
       </c>
       <c r="V21" s="2">
         <v>1</v>
       </c>
       <c r="W21" s="2">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="X21" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y21" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
       <c r="Z21" s="2">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="AA21" s="2">
-        <v>156</v>
-      </c>
-      <c r="AB21" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>156</v>
       </c>
+      <c r="AB21" s="2">
+        <v>131</v>
+      </c>
       <c r="AC21" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD21" s="2">
-        <v>132</v>
-      </c>
-      <c r="AE21" s="2">
         <v>4</v>
       </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
+      <c r="AI21" s="2">
+        <v>773</v>
+      </c>
       <c r="AJ21" s="2">
-        <v>773</v>
-      </c>
-      <c r="AK21" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>773</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44713</v>
       </c>
@@ -11273,68 +11323,67 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="3">
-        <f>Data[[#This Row],[Total]]-P21</f>
-        <v>0</v>
+      <c r="P22" s="3">
+        <f>Data[[#This Row],[Total]]-O21</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1723</v>
       </c>
       <c r="R22" s="2">
-        <v>1723</v>
+        <v>3559</v>
       </c>
       <c r="S22" s="2">
-        <v>3559</v>
+        <v>61077</v>
       </c>
       <c r="T22" s="2">
-        <v>61077</v>
+        <v>43133</v>
       </c>
       <c r="U22" s="2">
-        <v>43133</v>
+        <v>1</v>
       </c>
       <c r="V22" s="2">
         <v>1</v>
       </c>
       <c r="W22" s="2">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="X22" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y22" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
       <c r="Z22" s="2">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AA22" s="2">
-        <v>157</v>
-      </c>
-      <c r="AB22" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
+      <c r="AB22" s="2">
+        <v>131</v>
+      </c>
       <c r="AC22" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD22" s="2">
-        <v>132</v>
-      </c>
-      <c r="AE22" s="2">
         <v>4</v>
       </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
+      <c r="AI22" s="2">
+        <v>787</v>
+      </c>
       <c r="AJ22" s="2">
-        <v>787</v>
-      </c>
-      <c r="AK22" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>787</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44714</v>
       </c>
@@ -11361,68 +11410,67 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="3">
-        <f>Data[[#This Row],[Total]]-P22</f>
-        <v>0</v>
+      <c r="P23" s="3">
+        <f>Data[[#This Row],[Total]]-O22</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1724</v>
       </c>
       <c r="R23" s="2">
-        <v>1724</v>
+        <v>3560</v>
       </c>
       <c r="S23" s="2">
-        <v>3560</v>
+        <v>61077</v>
       </c>
       <c r="T23" s="2">
-        <v>61077</v>
+        <v>43133</v>
       </c>
       <c r="U23" s="2">
-        <v>43133</v>
+        <v>0</v>
       </c>
       <c r="V23" s="2">
         <v>0</v>
       </c>
       <c r="W23" s="2">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="X23" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y23" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
       <c r="Z23" s="2">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AA23" s="2">
-        <v>157</v>
-      </c>
-      <c r="AB23" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
+      <c r="AB23" s="2">
+        <v>131</v>
+      </c>
       <c r="AC23" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD23" s="2">
-        <v>132</v>
-      </c>
-      <c r="AE23" s="2">
         <v>4</v>
       </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
+      <c r="AI23" s="2">
+        <v>789</v>
+      </c>
       <c r="AJ23" s="2">
-        <v>789</v>
-      </c>
-      <c r="AK23" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44715</v>
       </c>
@@ -11449,74 +11497,73 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="3">
-        <f>Data[[#This Row],[Total]]-P23</f>
-        <v>0</v>
+      <c r="P24" s="3">
+        <f>Data[[#This Row],[Total]]-O23</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1728</v>
       </c>
       <c r="R24" s="2">
-        <v>1728</v>
+        <v>3565</v>
       </c>
       <c r="S24" s="2">
-        <v>3565</v>
+        <v>61091</v>
       </c>
       <c r="T24" s="2">
-        <v>61091</v>
+        <v>43136</v>
       </c>
       <c r="U24" s="2">
-        <v>43136</v>
+        <v>0</v>
       </c>
       <c r="V24" s="2">
         <v>0</v>
       </c>
       <c r="W24" s="2">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="X24" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y24" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>220</v>
       </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
       <c r="Z24" s="2">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AA24" s="2">
-        <v>157</v>
-      </c>
-      <c r="AB24" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>157</v>
       </c>
+      <c r="AB24" s="2">
+        <v>131</v>
+      </c>
       <c r="AC24" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD24" s="2">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="AE24" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="2">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="AG24" s="2">
-        <v>302</v>
+        <v>488</v>
       </c>
       <c r="AH24" s="2">
-        <v>488</v>
-      </c>
-      <c r="AI24" s="2">
         <v>7</v>
       </c>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2">
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>797</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44723</v>
       </c>
@@ -11543,74 +11590,73 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="3">
-        <f>Data[[#This Row],[Total]]-P24</f>
-        <v>0</v>
+      <c r="P25" s="3">
+        <f>Data[[#This Row],[Total]]-O24</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1733</v>
       </c>
       <c r="R25" s="2">
-        <v>1733</v>
+        <v>3579</v>
       </c>
       <c r="S25" s="2">
-        <v>3579</v>
+        <v>61141</v>
       </c>
       <c r="T25" s="2">
-        <v>61141</v>
+        <v>43154</v>
       </c>
       <c r="U25" s="2">
-        <v>43154</v>
+        <v>0</v>
       </c>
       <c r="V25" s="2">
         <v>0</v>
       </c>
       <c r="W25" s="2">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="X25" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y25" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
       <c r="Z25" s="2">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="AA25" s="2">
-        <v>158</v>
-      </c>
-      <c r="AB25" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>158</v>
       </c>
+      <c r="AB25" s="2">
+        <v>131</v>
+      </c>
       <c r="AC25" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD25" s="2">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="AE25" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="2">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="AG25" s="2">
-        <v>304</v>
+        <v>501</v>
       </c>
       <c r="AH25" s="2">
-        <v>501</v>
-      </c>
-      <c r="AI25" s="2">
         <v>7</v>
       </c>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2">
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>812</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44725</v>
       </c>
@@ -11637,74 +11683,73 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="3">
-        <f>Data[[#This Row],[Total]]-P25</f>
-        <v>0</v>
+      <c r="P26" s="3">
+        <f>Data[[#This Row],[Total]]-O25</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1743</v>
       </c>
       <c r="R26" s="2">
-        <v>1743</v>
+        <v>3590</v>
       </c>
       <c r="S26" s="2">
-        <v>3590</v>
+        <v>61156</v>
       </c>
       <c r="T26" s="2">
-        <v>61156</v>
+        <v>43168</v>
       </c>
       <c r="U26" s="2">
-        <v>43168</v>
+        <v>0</v>
       </c>
       <c r="V26" s="2">
         <v>0</v>
       </c>
       <c r="W26" s="2">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="X26" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y26" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
       <c r="Z26" s="2">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="AA26" s="2">
-        <v>159</v>
-      </c>
-      <c r="AB26" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
+      <c r="AB26" s="2">
+        <v>131</v>
+      </c>
       <c r="AC26" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD26" s="2">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="AE26" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="2">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="AG26" s="2">
-        <v>305</v>
+        <v>517</v>
       </c>
       <c r="AH26" s="2">
-        <v>517</v>
-      </c>
-      <c r="AI26" s="2">
         <v>7</v>
       </c>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2">
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>829</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44727</v>
       </c>
@@ -11731,74 +11776,73 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="3">
-        <f>Data[[#This Row],[Total]]-P26</f>
-        <v>0</v>
+      <c r="P27" s="3">
+        <f>Data[[#This Row],[Total]]-O26</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1758</v>
       </c>
       <c r="R27" s="2">
-        <v>1758</v>
+        <v>3610</v>
       </c>
       <c r="S27" s="2">
-        <v>3610</v>
+        <v>61388</v>
       </c>
       <c r="T27" s="2">
-        <v>61388</v>
+        <v>43266</v>
       </c>
       <c r="U27" s="2">
-        <v>43266</v>
+        <v>0</v>
       </c>
       <c r="V27" s="2">
         <v>0</v>
       </c>
       <c r="W27" s="2">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="X27" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y27" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>221</v>
       </c>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
       <c r="Z27" s="2">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="AA27" s="2">
-        <v>159</v>
-      </c>
-      <c r="AB27" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
+      <c r="AB27" s="2">
+        <v>131</v>
+      </c>
       <c r="AC27" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AD27" s="2">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="AE27" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="2">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="AG27" s="2">
-        <v>314</v>
+        <v>536</v>
       </c>
       <c r="AH27" s="2">
-        <v>536</v>
-      </c>
-      <c r="AI27" s="2">
         <v>7</v>
       </c>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2">
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>857</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44729</v>
       </c>
@@ -11825,74 +11869,73 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="3">
-        <f>Data[[#This Row],[Total]]-P27</f>
-        <v>0</v>
+      <c r="P28" s="3">
+        <f>Data[[#This Row],[Total]]-O27</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1763</v>
       </c>
       <c r="R28" s="2">
-        <v>1763</v>
+        <v>3627</v>
       </c>
       <c r="S28" s="2">
-        <v>3627</v>
+        <v>61547</v>
       </c>
       <c r="T28" s="2">
-        <v>61547</v>
+        <v>43284</v>
       </c>
       <c r="U28" s="2">
-        <v>43284</v>
+        <v>0</v>
       </c>
       <c r="V28" s="2">
         <v>0</v>
       </c>
       <c r="W28" s="2">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="X28" s="2">
-        <v>222</v>
-      </c>
-      <c r="Y28" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>222</v>
       </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
       <c r="Z28" s="2">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="AA28" s="2">
-        <v>159</v>
-      </c>
-      <c r="AB28" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
+      <c r="AB28" s="2">
+        <v>133</v>
+      </c>
       <c r="AC28" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AD28" s="2">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="AE28" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="2">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="AG28" s="2">
-        <v>316</v>
+        <v>548</v>
       </c>
       <c r="AH28" s="2">
-        <v>548</v>
-      </c>
-      <c r="AI28" s="2">
         <v>7</v>
       </c>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2">
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>871</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44743</v>
       </c>
@@ -11919,74 +11962,73 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="3">
-        <f>Data[[#This Row],[Total]]-P28</f>
-        <v>0</v>
+      <c r="P29" s="3">
+        <f>Data[[#This Row],[Total]]-O28</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1773</v>
       </c>
       <c r="R29" s="2">
-        <v>1773</v>
+        <v>3651</v>
       </c>
       <c r="S29" s="2">
-        <v>3651</v>
+        <v>61778</v>
       </c>
       <c r="T29" s="2">
-        <v>61778</v>
+        <v>43332</v>
       </c>
       <c r="U29" s="2">
-        <v>43332</v>
+        <v>0</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
       </c>
       <c r="W29" s="2">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="X29" s="2">
-        <v>222</v>
-      </c>
-      <c r="Y29" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>222</v>
       </c>
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
       <c r="Z29" s="2">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="AA29" s="2">
-        <v>159</v>
-      </c>
-      <c r="AB29" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
+      <c r="AB29" s="2">
+        <v>134</v>
+      </c>
       <c r="AC29" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AD29" s="2">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="AE29" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="2">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AG29" s="2">
-        <v>320</v>
+        <v>568</v>
       </c>
       <c r="AH29" s="2">
-        <v>568</v>
-      </c>
-      <c r="AI29" s="2">
         <v>7</v>
       </c>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2">
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>895</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44748</v>
       </c>
@@ -12013,74 +12055,73 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="3">
-        <f>Data[[#This Row],[Total]]-P29</f>
-        <v>0</v>
+      <c r="P30" s="3">
+        <f>Data[[#This Row],[Total]]-O29</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1776</v>
       </c>
       <c r="R30" s="2">
-        <v>1776</v>
+        <v>3662</v>
       </c>
       <c r="S30" s="2">
-        <v>3662</v>
+        <v>61856</v>
       </c>
       <c r="T30" s="2">
-        <v>61856</v>
+        <v>43366</v>
       </c>
       <c r="U30" s="2">
-        <v>43366</v>
+        <v>0</v>
       </c>
       <c r="V30" s="2">
         <v>0</v>
       </c>
       <c r="W30" s="2">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="X30" s="2">
-        <v>223</v>
-      </c>
-      <c r="Y30" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>223</v>
       </c>
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
       <c r="Z30" s="2">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="AA30" s="2">
-        <v>159</v>
-      </c>
-      <c r="AB30" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
+      <c r="AB30" s="2">
+        <v>134</v>
+      </c>
       <c r="AC30" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AD30" s="2">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="AE30" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="2">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AG30" s="2">
-        <v>320</v>
+        <v>578</v>
       </c>
       <c r="AH30" s="2">
-        <v>578</v>
-      </c>
-      <c r="AI30" s="2">
         <v>7</v>
       </c>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" s="2">
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>905</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44757</v>
       </c>
@@ -12107,74 +12148,73 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="3">
-        <f>Data[[#This Row],[Total]]-P30</f>
-        <v>0</v>
+      <c r="P31" s="3">
+        <f>Data[[#This Row],[Total]]-O30</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1782</v>
       </c>
       <c r="R31" s="2">
-        <v>1782</v>
+        <v>3684</v>
       </c>
       <c r="S31" s="2">
-        <v>3684</v>
+        <v>62189</v>
       </c>
       <c r="T31" s="2">
-        <v>62189</v>
+        <v>43626</v>
       </c>
       <c r="U31" s="2">
-        <v>43626</v>
+        <v>0</v>
       </c>
       <c r="V31" s="2">
         <v>0</v>
       </c>
       <c r="W31" s="2">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="X31" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y31" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
+      <c r="Y31" s="2">
+        <v>0</v>
+      </c>
       <c r="Z31" s="2">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="AA31" s="2">
-        <v>159</v>
-      </c>
-      <c r="AB31" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
+      <c r="AB31" s="2">
+        <v>134</v>
+      </c>
       <c r="AC31" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AD31" s="2">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="AE31" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="2">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="AG31" s="2">
-        <v>321</v>
+        <v>593</v>
       </c>
       <c r="AH31" s="2">
-        <v>593</v>
-      </c>
-      <c r="AI31" s="2">
         <v>7</v>
       </c>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2">
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>921</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44761</v>
       </c>
@@ -12209,80 +12249,79 @@
       <c r="M32" s="2">
         <v>97</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" s="2">
+        <v>48</v>
+      </c>
       <c r="O32" s="2">
-        <v>48</v>
-      </c>
-      <c r="P32" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>7979</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1782</v>
       </c>
       <c r="R32" s="2">
-        <v>1782</v>
+        <v>3684</v>
       </c>
       <c r="S32" s="2">
-        <v>3684</v>
+        <v>62189</v>
       </c>
       <c r="T32" s="2">
-        <v>62189</v>
+        <v>43626</v>
       </c>
       <c r="U32" s="2">
-        <v>43626</v>
+        <v>0</v>
       </c>
       <c r="V32" s="2">
         <v>0</v>
       </c>
       <c r="W32" s="2">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="X32" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y32" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
       <c r="Z32" s="2">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="AA32" s="2">
-        <v>159</v>
-      </c>
-      <c r="AB32" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
+      <c r="AB32" s="2">
+        <v>134</v>
+      </c>
       <c r="AC32" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AD32" s="2">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="AE32" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="2">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="AG32" s="2">
-        <v>321</v>
+        <v>595</v>
       </c>
       <c r="AH32" s="2">
-        <v>595</v>
-      </c>
-      <c r="AI32" s="2">
         <v>7</v>
       </c>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="2">
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>923</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44764</v>
       </c>
@@ -12317,81 +12356,80 @@
       <c r="M33" s="2">
         <v>97</v>
       </c>
-      <c r="N33" s="2"/>
+      <c r="N33" s="2">
+        <v>48</v>
+      </c>
       <c r="O33" s="2">
-        <v>48</v>
-      </c>
-      <c r="P33" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>7983</v>
       </c>
-      <c r="Q33" s="3">
-        <f>Data[[#This Row],[Total]]-P32</f>
+      <c r="P33" s="3">
+        <f>Data[[#This Row],[Total]]-O32</f>
         <v>4</v>
       </c>
+      <c r="Q33" s="2">
+        <v>1785</v>
+      </c>
       <c r="R33" s="2">
-        <v>1785</v>
+        <v>3689</v>
       </c>
       <c r="S33" s="2">
-        <v>3689</v>
+        <v>62207</v>
       </c>
       <c r="T33" s="2">
-        <v>62207</v>
+        <v>43630</v>
       </c>
       <c r="U33" s="2">
-        <v>43630</v>
+        <v>0</v>
       </c>
       <c r="V33" s="2">
         <v>0</v>
       </c>
       <c r="W33" s="2">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="X33" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y33" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>224</v>
       </c>
+      <c r="Y33" s="2">
+        <v>0</v>
+      </c>
       <c r="Z33" s="2">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="AA33" s="2">
-        <v>159</v>
-      </c>
-      <c r="AB33" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>159</v>
       </c>
+      <c r="AB33" s="2">
+        <v>134</v>
+      </c>
       <c r="AC33" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AD33" s="2">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="AE33" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="2">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="AG33" s="2">
-        <v>321</v>
+        <v>599</v>
       </c>
       <c r="AH33" s="2">
-        <v>599</v>
-      </c>
-      <c r="AI33" s="2">
         <v>7</v>
       </c>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2">
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>927</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
@@ -12426,81 +12464,80 @@
       <c r="M34" s="2">
         <v>97</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" s="2">
+        <v>48</v>
+      </c>
       <c r="O34" s="2">
-        <v>48</v>
-      </c>
-      <c r="P34" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8076</v>
       </c>
-      <c r="Q34" s="3">
-        <f>Data[[#This Row],[Total]]-P33</f>
+      <c r="P34" s="3">
+        <f>Data[[#This Row],[Total]]-O33</f>
         <v>93</v>
       </c>
+      <c r="Q34" s="2">
+        <v>1789</v>
+      </c>
       <c r="R34" s="2">
-        <v>1789</v>
+        <v>3703</v>
       </c>
       <c r="S34" s="2">
-        <v>3703</v>
+        <v>62262</v>
       </c>
       <c r="T34" s="2">
-        <v>62262</v>
+        <v>43661</v>
       </c>
       <c r="U34" s="2">
-        <v>43661</v>
+        <v>0</v>
       </c>
       <c r="V34" s="2">
         <v>0</v>
       </c>
       <c r="W34" s="2">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="X34" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y34" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>225</v>
       </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
       <c r="Z34" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AA34" s="2">
-        <v>160</v>
-      </c>
-      <c r="AB34" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
+      <c r="AB34" s="2">
+        <v>135</v>
+      </c>
       <c r="AC34" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AD34" s="2">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="AE34" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="2">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="AG34" s="2">
-        <v>322</v>
+        <v>610</v>
       </c>
       <c r="AH34" s="2">
-        <v>610</v>
-      </c>
-      <c r="AI34" s="2">
         <v>7</v>
       </c>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2">
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>939</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44790</v>
       </c>
@@ -12535,81 +12572,80 @@
       <c r="M35" s="2">
         <v>97</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" s="2">
+        <v>48</v>
+      </c>
       <c r="O35" s="2">
-        <v>48</v>
-      </c>
-      <c r="P35" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8026</v>
       </c>
-      <c r="Q35" s="3">
-        <f>Data[[#This Row],[Total]]-P34</f>
+      <c r="P35" s="3">
+        <f>Data[[#This Row],[Total]]-O34</f>
         <v>-50</v>
       </c>
+      <c r="Q35" s="2">
+        <v>1791</v>
+      </c>
       <c r="R35" s="2">
-        <v>1791</v>
+        <v>3716</v>
       </c>
       <c r="S35" s="2">
-        <v>3716</v>
+        <v>62325</v>
       </c>
       <c r="T35" s="2">
-        <v>62325</v>
+        <v>43671</v>
       </c>
       <c r="U35" s="2">
-        <v>43671</v>
+        <v>0</v>
       </c>
       <c r="V35" s="2">
         <v>0</v>
       </c>
       <c r="W35" s="2">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="X35" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y35" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>225</v>
       </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
       <c r="Z35" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AA35" s="2">
-        <v>160</v>
-      </c>
-      <c r="AB35" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
+      <c r="AB35" s="2">
+        <v>136</v>
+      </c>
       <c r="AC35" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AD35" s="2">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="AE35" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="2">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="AG35" s="2">
-        <v>322</v>
+        <v>618</v>
       </c>
       <c r="AH35" s="2">
-        <v>618</v>
-      </c>
-      <c r="AI35" s="2">
         <v>7</v>
       </c>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2">
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>947</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44797</v>
       </c>
@@ -12644,81 +12680,80 @@
       <c r="M36" s="2">
         <v>97</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" s="2">
+        <v>48</v>
+      </c>
       <c r="O36" s="2">
-        <v>48</v>
-      </c>
-      <c r="P36" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8076</v>
       </c>
-      <c r="Q36" s="3">
-        <f>Data[[#This Row],[Total]]-P35</f>
+      <c r="P36" s="3">
+        <f>Data[[#This Row],[Total]]-O35</f>
         <v>50</v>
       </c>
+      <c r="Q36" s="2">
+        <v>1802</v>
+      </c>
       <c r="R36" s="2">
-        <v>1802</v>
+        <v>3755</v>
       </c>
       <c r="S36" s="2">
-        <v>3755</v>
+        <v>62636</v>
       </c>
       <c r="T36" s="2">
-        <v>62636</v>
+        <v>43878</v>
       </c>
       <c r="U36" s="2">
-        <v>43878</v>
+        <v>0</v>
       </c>
       <c r="V36" s="2">
         <v>0</v>
       </c>
       <c r="W36" s="2">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="X36" s="2">
-        <v>227</v>
-      </c>
-      <c r="Y36" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>227</v>
       </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
       <c r="Z36" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AA36" s="2">
-        <v>160</v>
-      </c>
-      <c r="AB36" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
+      <c r="AB36" s="2">
+        <v>137</v>
+      </c>
       <c r="AC36" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AD36" s="2">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="AE36" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="2">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="AG36" s="2">
-        <v>322</v>
+        <v>641</v>
       </c>
       <c r="AH36" s="2">
-        <v>641</v>
-      </c>
-      <c r="AI36" s="2">
         <v>7</v>
       </c>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2">
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>970</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44798</v>
       </c>
@@ -12753,81 +12788,80 @@
       <c r="M37" s="2">
         <v>97</v>
       </c>
-      <c r="N37" s="2"/>
+      <c r="N37" s="2">
+        <v>48</v>
+      </c>
       <c r="O37" s="2">
-        <v>48</v>
-      </c>
-      <c r="P37" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8380</v>
       </c>
-      <c r="Q37" s="3">
-        <f>Data[[#This Row],[Total]]-P36</f>
+      <c r="P37" s="3">
+        <f>Data[[#This Row],[Total]]-O36</f>
         <v>304</v>
       </c>
+      <c r="Q37" s="2">
+        <v>1805</v>
+      </c>
       <c r="R37" s="2">
-        <v>1805</v>
+        <v>3760</v>
       </c>
       <c r="S37" s="2">
-        <v>3760</v>
+        <v>62661</v>
       </c>
       <c r="T37" s="2">
-        <v>62661</v>
+        <v>43888</v>
       </c>
       <c r="U37" s="2">
-        <v>43888</v>
+        <v>0</v>
       </c>
       <c r="V37" s="2">
         <v>0</v>
       </c>
       <c r="W37" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="X37" s="2">
-        <v>228</v>
-      </c>
-      <c r="Y37" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
       <c r="Z37" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AA37" s="2">
-        <v>160</v>
-      </c>
-      <c r="AB37" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
+      <c r="AB37" s="2">
+        <v>137</v>
+      </c>
       <c r="AC37" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AD37" s="2">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="AE37" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="2">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="AG37" s="2">
-        <v>322</v>
+        <v>647</v>
       </c>
       <c r="AH37" s="2">
-        <v>647</v>
-      </c>
-      <c r="AI37" s="2">
         <v>7</v>
       </c>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2">
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>976</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44805</v>
       </c>
@@ -12862,81 +12896,80 @@
       <c r="M38" s="2">
         <v>97</v>
       </c>
-      <c r="N38" s="2"/>
+      <c r="N38" s="2">
+        <v>48</v>
+      </c>
       <c r="O38" s="2">
-        <v>48</v>
-      </c>
-      <c r="P38" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8094</v>
       </c>
-      <c r="Q38" s="3">
-        <f>Data[[#This Row],[Total]]-P37</f>
+      <c r="P38" s="3">
+        <f>Data[[#This Row],[Total]]-O37</f>
         <v>-286</v>
       </c>
+      <c r="Q38" s="2">
+        <v>1809</v>
+      </c>
       <c r="R38" s="2">
-        <v>1809</v>
+        <v>3770</v>
       </c>
       <c r="S38" s="2">
-        <v>3770</v>
+        <v>62701</v>
       </c>
       <c r="T38" s="2">
-        <v>62701</v>
+        <v>43898</v>
       </c>
       <c r="U38" s="2">
-        <v>43898</v>
+        <v>0</v>
       </c>
       <c r="V38" s="2">
         <v>0</v>
       </c>
       <c r="W38" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="X38" s="2">
-        <v>228</v>
-      </c>
-      <c r="Y38" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
       <c r="Z38" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AA38" s="2">
-        <v>160</v>
-      </c>
-      <c r="AB38" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>160</v>
       </c>
+      <c r="AB38" s="2">
+        <v>137</v>
+      </c>
       <c r="AC38" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AD38" s="2">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="AE38" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="2">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="AG38" s="2">
-        <v>322</v>
+        <v>657</v>
       </c>
       <c r="AH38" s="2">
-        <v>657</v>
-      </c>
-      <c r="AI38" s="2">
         <v>7</v>
       </c>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="2">
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>986</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44806</v>
       </c>
@@ -12971,81 +13004,80 @@
       <c r="M39" s="2">
         <v>97</v>
       </c>
-      <c r="N39" s="2"/>
+      <c r="N39" s="2">
+        <v>48</v>
+      </c>
       <c r="O39" s="2">
-        <v>48</v>
-      </c>
-      <c r="P39" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8090</v>
       </c>
-      <c r="Q39" s="3">
-        <f>Data[[#This Row],[Total]]-P38</f>
+      <c r="P39" s="3">
+        <f>Data[[#This Row],[Total]]-O38</f>
         <v>-4</v>
       </c>
+      <c r="Q39" s="2">
+        <v>1813</v>
+      </c>
       <c r="R39" s="2">
-        <v>1813</v>
+        <v>3784</v>
       </c>
       <c r="S39" s="2">
-        <v>3784</v>
+        <v>62876</v>
       </c>
       <c r="T39" s="2">
-        <v>62876</v>
+        <v>44048</v>
       </c>
       <c r="U39" s="2">
-        <v>44048</v>
+        <v>0</v>
       </c>
       <c r="V39" s="2">
         <v>0</v>
       </c>
       <c r="W39" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="X39" s="2">
-        <v>228</v>
-      </c>
-      <c r="Y39" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
+      <c r="Y39" s="2">
+        <v>1</v>
+      </c>
       <c r="Z39" s="2">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="AA39" s="2">
-        <v>161</v>
-      </c>
-      <c r="AB39" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
+      <c r="AB39" s="2">
+        <v>137</v>
+      </c>
       <c r="AC39" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AD39" s="2">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="AE39" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="2">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="AG39" s="2">
-        <v>324</v>
+        <v>669</v>
       </c>
       <c r="AH39" s="2">
-        <v>669</v>
-      </c>
-      <c r="AI39" s="2">
         <v>7</v>
       </c>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2">
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44810</v>
       </c>
@@ -13080,81 +13112,80 @@
       <c r="M40" s="2">
         <v>97</v>
       </c>
-      <c r="N40" s="2"/>
+      <c r="N40" s="2">
+        <v>48</v>
+      </c>
       <c r="O40" s="2">
-        <v>48</v>
-      </c>
-      <c r="P40" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8130</v>
       </c>
-      <c r="Q40" s="3">
-        <f>Data[[#This Row],[Total]]-P39</f>
+      <c r="P40" s="3">
+        <f>Data[[#This Row],[Total]]-O39</f>
         <v>40</v>
       </c>
+      <c r="Q40" s="2">
+        <v>1815</v>
+      </c>
       <c r="R40" s="2">
-        <v>1815</v>
+        <v>3795</v>
       </c>
       <c r="S40" s="2">
-        <v>3795</v>
+        <v>62951</v>
       </c>
       <c r="T40" s="2">
-        <v>62951</v>
+        <v>44063</v>
       </c>
       <c r="U40" s="2">
-        <v>44063</v>
+        <v>0</v>
       </c>
       <c r="V40" s="2">
         <v>0</v>
       </c>
       <c r="W40" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="X40" s="2">
-        <v>228</v>
-      </c>
-      <c r="Y40" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
       <c r="Z40" s="2">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AA40" s="2">
-        <v>161</v>
-      </c>
-      <c r="AB40" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>161</v>
       </c>
+      <c r="AB40" s="2">
+        <v>138</v>
+      </c>
       <c r="AC40" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD40" s="2">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="AE40" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="2">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="AG40" s="2">
-        <v>324</v>
+        <v>675</v>
       </c>
       <c r="AH40" s="2">
-        <v>675</v>
-      </c>
-      <c r="AI40" s="2">
         <v>7</v>
       </c>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="2">
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1006</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44812</v>
       </c>
@@ -13189,81 +13220,80 @@
       <c r="M41" s="2">
         <v>97</v>
       </c>
-      <c r="N41" s="2"/>
+      <c r="N41" s="2">
+        <v>48</v>
+      </c>
       <c r="O41" s="2">
-        <v>48</v>
-      </c>
-      <c r="P41" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8187</v>
       </c>
-      <c r="Q41" s="3">
-        <f>Data[[#This Row],[Total]]-P40</f>
+      <c r="P41" s="3">
+        <f>Data[[#This Row],[Total]]-O40</f>
         <v>57</v>
       </c>
+      <c r="Q41" s="2">
+        <v>1823</v>
+      </c>
       <c r="R41" s="2">
-        <v>1823</v>
+        <v>3813</v>
       </c>
       <c r="S41" s="2">
-        <v>3813</v>
+        <v>63094</v>
       </c>
       <c r="T41" s="2">
-        <v>63094</v>
+        <v>44112</v>
       </c>
       <c r="U41" s="2">
-        <v>44112</v>
+        <v>0</v>
       </c>
       <c r="V41" s="2">
         <v>0</v>
       </c>
       <c r="W41" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="X41" s="2">
-        <v>228</v>
-      </c>
-      <c r="Y41" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
+      <c r="Y41" s="2">
+        <v>0</v>
+      </c>
       <c r="Z41" s="2">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AA41" s="2">
-        <v>161</v>
-      </c>
-      <c r="AB41" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>161</v>
       </c>
+      <c r="AB41" s="2">
+        <v>138</v>
+      </c>
       <c r="AC41" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD41" s="2">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="AE41" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="2">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="AG41" s="2">
-        <v>326</v>
+        <v>689</v>
       </c>
       <c r="AH41" s="2">
-        <v>689</v>
-      </c>
-      <c r="AI41" s="2">
         <v>7</v>
       </c>
-      <c r="AJ41" s="2"/>
-      <c r="AK41" s="2">
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1022</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44813</v>
       </c>
@@ -13298,81 +13328,80 @@
       <c r="M42" s="2">
         <v>97</v>
       </c>
-      <c r="N42" s="2"/>
+      <c r="N42" s="2">
+        <v>51</v>
+      </c>
       <c r="O42" s="2">
-        <v>51</v>
-      </c>
-      <c r="P42" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8269</v>
       </c>
-      <c r="Q42" s="3">
-        <f>Data[[#This Row],[Total]]-P41</f>
+      <c r="P42" s="3">
+        <f>Data[[#This Row],[Total]]-O41</f>
         <v>82</v>
       </c>
+      <c r="Q42" s="2">
+        <v>1830</v>
+      </c>
       <c r="R42" s="2">
-        <v>1830</v>
+        <v>3837</v>
       </c>
       <c r="S42" s="2">
-        <v>3837</v>
+        <v>63369</v>
       </c>
       <c r="T42" s="2">
-        <v>63369</v>
+        <v>44256</v>
       </c>
       <c r="U42" s="2">
-        <v>44256</v>
+        <v>0</v>
       </c>
       <c r="V42" s="2">
         <v>0</v>
       </c>
       <c r="W42" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="X42" s="2">
-        <v>228</v>
-      </c>
-      <c r="Y42" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>228</v>
       </c>
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
       <c r="Z42" s="2">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AA42" s="2">
-        <v>161</v>
-      </c>
-      <c r="AB42" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>161</v>
       </c>
+      <c r="AB42" s="2">
+        <v>141</v>
+      </c>
       <c r="AC42" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AD42" s="2">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="AE42" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="2">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AG42" s="2">
-        <v>330</v>
+        <v>703</v>
       </c>
       <c r="AH42" s="2">
-        <v>703</v>
-      </c>
-      <c r="AI42" s="2">
         <v>7</v>
       </c>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2">
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1040</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44817</v>
       </c>
@@ -13407,81 +13436,80 @@
       <c r="M43" s="2">
         <v>98</v>
       </c>
-      <c r="N43" s="2"/>
+      <c r="N43" s="2">
+        <v>51</v>
+      </c>
       <c r="O43" s="2">
-        <v>51</v>
-      </c>
-      <c r="P43" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8314</v>
       </c>
-      <c r="Q43" s="3">
-        <f>Data[[#This Row],[Total]]-P42</f>
+      <c r="P43" s="3">
+        <f>Data[[#This Row],[Total]]-O42</f>
         <v>45</v>
       </c>
+      <c r="Q43" s="2">
+        <v>1844</v>
+      </c>
       <c r="R43" s="2">
-        <v>1844</v>
+        <v>3882</v>
       </c>
       <c r="S43" s="2">
-        <v>3882</v>
+        <v>63725</v>
       </c>
       <c r="T43" s="2">
-        <v>63725</v>
+        <v>44538</v>
       </c>
       <c r="U43" s="2">
-        <v>44538</v>
+        <v>0</v>
       </c>
       <c r="V43" s="2">
         <v>0</v>
       </c>
       <c r="W43" s="2">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="X43" s="2">
-        <v>230</v>
-      </c>
-      <c r="Y43" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>230</v>
       </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
       <c r="Z43" s="2">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AA43" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB43" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
+      <c r="AB43" s="2">
+        <v>143</v>
+      </c>
       <c r="AC43" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AD43" s="2">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="AE43" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="2">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="AG43" s="2">
-        <v>335</v>
+        <v>732</v>
       </c>
       <c r="AH43" s="2">
-        <v>732</v>
-      </c>
-      <c r="AI43" s="2">
         <v>7</v>
       </c>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="2">
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1074</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44820</v>
       </c>
@@ -13516,81 +13544,80 @@
       <c r="M44" s="2">
         <v>98</v>
       </c>
-      <c r="N44" s="2"/>
+      <c r="N44" s="2">
+        <v>51</v>
+      </c>
       <c r="O44" s="2">
-        <v>51</v>
-      </c>
-      <c r="P44" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8318</v>
       </c>
-      <c r="Q44" s="3">
-        <f>Data[[#This Row],[Total]]-P43</f>
+      <c r="P44" s="3">
+        <f>Data[[#This Row],[Total]]-O43</f>
         <v>4</v>
       </c>
+      <c r="Q44" s="2">
+        <v>1846</v>
+      </c>
       <c r="R44" s="2">
-        <v>1846</v>
+        <v>3886</v>
       </c>
       <c r="S44" s="2">
-        <v>3886</v>
+        <v>63780</v>
       </c>
       <c r="T44" s="2">
-        <v>63780</v>
+        <v>44585</v>
       </c>
       <c r="U44" s="2">
-        <v>44585</v>
+        <v>0</v>
       </c>
       <c r="V44" s="2">
         <v>0</v>
       </c>
       <c r="W44" s="2">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="X44" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y44" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>232</v>
       </c>
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
       <c r="Z44" s="2">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AA44" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB44" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
+      <c r="AB44" s="2">
+        <v>143</v>
+      </c>
       <c r="AC44" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AD44" s="2">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="AE44" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="2">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="AG44" s="2">
-        <v>335</v>
+        <v>736</v>
       </c>
       <c r="AH44" s="2">
-        <v>736</v>
-      </c>
-      <c r="AI44" s="2">
         <v>7</v>
       </c>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2">
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1078</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44823</v>
       </c>
@@ -13625,81 +13652,80 @@
       <c r="M45" s="2">
         <v>98</v>
       </c>
-      <c r="N45" s="2"/>
+      <c r="N45" s="2">
+        <v>51</v>
+      </c>
       <c r="O45" s="2">
-        <v>51</v>
-      </c>
-      <c r="P45" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8347</v>
       </c>
-      <c r="Q45" s="3">
-        <f>Data[[#This Row],[Total]]-P44</f>
+      <c r="P45" s="3">
+        <f>Data[[#This Row],[Total]]-O44</f>
         <v>29</v>
       </c>
+      <c r="Q45" s="2">
+        <v>1852</v>
+      </c>
       <c r="R45" s="2">
-        <v>1852</v>
+        <v>3907</v>
       </c>
       <c r="S45" s="2">
-        <v>3907</v>
+        <v>63871</v>
       </c>
       <c r="T45" s="2">
-        <v>63871</v>
+        <v>44612</v>
       </c>
       <c r="U45" s="2">
-        <v>44612</v>
+        <v>0</v>
       </c>
       <c r="V45" s="2">
         <v>0</v>
       </c>
       <c r="W45" s="2">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="X45" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y45" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>232</v>
       </c>
+      <c r="Y45" s="2">
+        <v>0</v>
+      </c>
       <c r="Z45" s="2">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AA45" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB45" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
+      <c r="AB45" s="2">
+        <v>144</v>
+      </c>
       <c r="AC45" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AD45" s="2">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="AE45" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="2">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="AG45" s="2">
-        <v>338</v>
+        <v>749</v>
       </c>
       <c r="AH45" s="2">
-        <v>749</v>
-      </c>
-      <c r="AI45" s="2">
         <v>7</v>
       </c>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2">
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1094</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44828</v>
       </c>
@@ -13734,81 +13760,80 @@
       <c r="M46" s="2">
         <v>98</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" s="2">
+        <v>57</v>
+      </c>
       <c r="O46" s="2">
-        <v>57</v>
-      </c>
-      <c r="P46" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8594</v>
       </c>
-      <c r="Q46" s="3">
-        <f>Data[[#This Row],[Total]]-P45</f>
+      <c r="P46" s="3">
+        <f>Data[[#This Row],[Total]]-O45</f>
         <v>247</v>
       </c>
+      <c r="Q46" s="2">
+        <v>1873</v>
+      </c>
       <c r="R46" s="2">
-        <v>1873</v>
+        <v>3964</v>
       </c>
       <c r="S46" s="2">
-        <v>3964</v>
+        <v>64446</v>
       </c>
       <c r="T46" s="2">
-        <v>64446</v>
+        <v>44820</v>
       </c>
       <c r="U46" s="2">
-        <v>44820</v>
+        <v>0</v>
       </c>
       <c r="V46" s="2">
         <v>0</v>
       </c>
       <c r="W46" s="2">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="X46" s="2">
-        <v>235</v>
-      </c>
-      <c r="Y46" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>235</v>
       </c>
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
       <c r="Z46" s="2">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AA46" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB46" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
+      <c r="AB46" s="2">
+        <v>150</v>
+      </c>
       <c r="AC46" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AD46" s="2">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="AE46" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="2">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="AG46" s="2">
-        <v>341</v>
+        <v>797</v>
       </c>
       <c r="AH46" s="2">
-        <v>797</v>
-      </c>
-      <c r="AI46" s="2">
         <v>9</v>
       </c>
-      <c r="AJ46" s="2"/>
-      <c r="AK46" s="2">
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1147</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44831</v>
       </c>
@@ -13843,81 +13868,80 @@
       <c r="M47" s="2">
         <v>98</v>
       </c>
-      <c r="N47" s="2"/>
+      <c r="N47" s="2">
+        <v>57</v>
+      </c>
       <c r="O47" s="2">
-        <v>57</v>
-      </c>
-      <c r="P47" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8609</v>
       </c>
-      <c r="Q47" s="3">
-        <f>Data[[#This Row],[Total]]-P46</f>
+      <c r="P47" s="3">
+        <f>Data[[#This Row],[Total]]-O46</f>
         <v>15</v>
       </c>
+      <c r="Q47" s="2">
+        <v>1884</v>
+      </c>
       <c r="R47" s="2">
-        <v>1884</v>
+        <v>3982</v>
       </c>
       <c r="S47" s="2">
-        <v>3982</v>
+        <v>64492</v>
       </c>
       <c r="T47" s="2">
-        <v>64492</v>
+        <v>44840</v>
       </c>
       <c r="U47" s="2">
-        <v>44840</v>
+        <v>0</v>
       </c>
       <c r="V47" s="2">
         <v>0</v>
       </c>
       <c r="W47" s="2">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="X47" s="2">
-        <v>237</v>
-      </c>
-      <c r="Y47" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>237</v>
       </c>
+      <c r="Y47" s="2">
+        <v>0</v>
+      </c>
       <c r="Z47" s="2">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AA47" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB47" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
+      <c r="AB47" s="2">
+        <v>150</v>
+      </c>
       <c r="AC47" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AD47" s="2">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="AE47" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="2">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="AG47" s="2">
-        <v>344</v>
+        <v>822</v>
       </c>
       <c r="AH47" s="2">
-        <v>822</v>
-      </c>
-      <c r="AI47" s="2">
         <v>9</v>
       </c>
-      <c r="AJ47" s="2"/>
-      <c r="AK47" s="2">
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1175</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44840</v>
       </c>
@@ -13952,81 +13976,80 @@
       <c r="M48" s="2">
         <v>98</v>
       </c>
-      <c r="N48" s="2"/>
+      <c r="N48" s="2">
+        <v>57</v>
+      </c>
       <c r="O48" s="2">
-        <v>57</v>
-      </c>
-      <c r="P48" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8865</v>
       </c>
-      <c r="Q48" s="3">
-        <f>Data[[#This Row],[Total]]-P47</f>
+      <c r="P48" s="3">
+        <f>Data[[#This Row],[Total]]-O47</f>
         <v>256</v>
       </c>
+      <c r="Q48" s="2">
+        <v>1893</v>
+      </c>
       <c r="R48" s="2">
-        <v>1893</v>
+        <v>4011</v>
       </c>
       <c r="S48" s="2">
-        <v>4011</v>
+        <v>64734</v>
       </c>
       <c r="T48" s="2">
-        <v>64734</v>
+        <v>44916</v>
       </c>
       <c r="U48" s="2">
-        <v>44916</v>
+        <v>0</v>
       </c>
       <c r="V48" s="2">
         <v>0</v>
       </c>
       <c r="W48" s="2">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="X48" s="2">
-        <v>238</v>
-      </c>
-      <c r="Y48" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>238</v>
       </c>
+      <c r="Y48" s="2">
+        <v>0</v>
+      </c>
       <c r="Z48" s="2">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AA48" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB48" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
+      <c r="AB48" s="2">
+        <v>151</v>
+      </c>
       <c r="AC48" s="2">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AD48" s="2">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="AE48" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="2">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="AG48" s="2">
-        <v>345</v>
+        <v>846</v>
       </c>
       <c r="AH48" s="2">
-        <v>846</v>
-      </c>
-      <c r="AI48" s="2">
         <v>9</v>
       </c>
-      <c r="AJ48" s="2"/>
-      <c r="AK48" s="2">
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44851</v>
       </c>
@@ -14067,81 +14090,80 @@
       <c r="M49" s="2">
         <v>98</v>
       </c>
-      <c r="N49" s="2"/>
+      <c r="N49" s="2">
+        <v>57</v>
+      </c>
       <c r="O49" s="2">
-        <v>57</v>
-      </c>
-      <c r="P49" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8721</v>
       </c>
-      <c r="Q49" s="3">
-        <f>Data[[#This Row],[Total]]-P48</f>
+      <c r="P49" s="3">
+        <f>Data[[#This Row],[Total]]-O48</f>
         <v>-144</v>
       </c>
+      <c r="Q49" s="2">
+        <v>1898</v>
+      </c>
       <c r="R49" s="2">
-        <v>1898</v>
+        <v>4021</v>
       </c>
       <c r="S49" s="2">
-        <v>4021</v>
+        <v>64752</v>
       </c>
       <c r="T49" s="2">
-        <v>64752</v>
+        <v>44923</v>
       </c>
       <c r="U49" s="2">
-        <v>44923</v>
+        <v>0</v>
       </c>
       <c r="V49" s="2">
         <v>0</v>
       </c>
       <c r="W49" s="2">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="X49" s="2">
-        <v>238</v>
-      </c>
-      <c r="Y49" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>238</v>
       </c>
+      <c r="Y49" s="2">
+        <v>0</v>
+      </c>
       <c r="Z49" s="2">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AA49" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB49" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>162</v>
       </c>
+      <c r="AB49" s="2">
+        <v>151</v>
+      </c>
       <c r="AC49" s="2">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AD49" s="2">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="AE49" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="2">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="AG49" s="2">
-        <v>345</v>
+        <v>858</v>
       </c>
       <c r="AH49" s="2">
-        <v>858</v>
-      </c>
-      <c r="AI49" s="2">
         <v>9</v>
       </c>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="2">
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1212</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44853</v>
       </c>
@@ -14183,82 +14205,79 @@
         <v>98</v>
       </c>
       <c r="N50" s="2">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="O50" s="2">
-        <v>57</v>
-      </c>
-      <c r="P50" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
-        <v>8983</v>
-      </c>
-      <c r="Q50" s="3">
-        <f>Data[[#This Row],[Total]]-P49</f>
-        <v>262</v>
+        <v>8902</v>
+      </c>
+      <c r="P50" s="3">
+        <f>Data[[#This Row],[Total]]-O49</f>
+        <v>181</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>1910</v>
       </c>
       <c r="R50" s="2">
-        <v>1910</v>
+        <v>4042</v>
       </c>
       <c r="S50" s="2">
-        <v>4042</v>
+        <v>65183</v>
       </c>
       <c r="T50" s="2">
-        <v>65183</v>
+        <v>45043</v>
       </c>
       <c r="U50" s="2">
-        <v>45043</v>
+        <v>0</v>
       </c>
       <c r="V50" s="2">
         <v>0</v>
       </c>
       <c r="W50" s="2">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="X50" s="2">
-        <v>239</v>
-      </c>
-      <c r="Y50" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>239</v>
       </c>
+      <c r="Y50" s="2">
+        <v>0</v>
+      </c>
       <c r="Z50" s="2">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="AA50" s="2">
-        <v>164</v>
-      </c>
-      <c r="AB50" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>164</v>
       </c>
+      <c r="AB50" s="2">
+        <v>152</v>
+      </c>
       <c r="AC50" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AD50" s="2">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="AE50" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="2">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="AG50" s="2">
-        <v>348</v>
+        <v>879</v>
       </c>
       <c r="AH50" s="2">
-        <v>879</v>
-      </c>
-      <c r="AI50" s="2">
         <v>9</v>
       </c>
-      <c r="AJ50" s="2"/>
-      <c r="AK50" s="2">
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1236</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44854</v>
       </c>
@@ -14300,89 +14319,86 @@
         <v>98</v>
       </c>
       <c r="N51" s="2">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="O51" s="2">
-        <v>57</v>
-      </c>
-      <c r="P51" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
-        <v>8998</v>
-      </c>
-      <c r="Q51" s="3">
-        <f>Data[[#This Row],[Total]]-P50</f>
+        <v>8917</v>
+      </c>
+      <c r="P51" s="3">
+        <f>Data[[#This Row],[Total]]-O50</f>
         <v>15</v>
       </c>
+      <c r="Q51" s="2">
+        <v>1934</v>
+      </c>
       <c r="R51" s="2">
-        <v>1934</v>
+        <v>4078</v>
       </c>
       <c r="S51" s="2">
-        <v>4078</v>
+        <v>65464</v>
       </c>
       <c r="T51" s="2">
-        <v>65464</v>
+        <v>45297</v>
       </c>
       <c r="U51" s="2">
-        <v>45297</v>
+        <v>0</v>
       </c>
       <c r="V51" s="2">
         <v>0</v>
       </c>
       <c r="W51" s="2">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="X51" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y51" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>241</v>
       </c>
+      <c r="Y51" s="2">
+        <v>0</v>
+      </c>
       <c r="Z51" s="2">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="AA51" s="2">
-        <v>167</v>
-      </c>
-      <c r="AB51" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>167</v>
       </c>
+      <c r="AB51" s="2">
+        <v>153</v>
+      </c>
       <c r="AC51" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AD51" s="2">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="AE51" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="2">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="AG51" s="2">
-        <v>359</v>
+        <v>913</v>
       </c>
       <c r="AH51" s="2">
-        <v>913</v>
-      </c>
-      <c r="AI51" s="2">
         <v>9</v>
       </c>
-      <c r="AJ51" s="2"/>
-      <c r="AK51" s="2">
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1281</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44858</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>319</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52">
         <v>120</v>
       </c>
       <c r="D52" s="2">
@@ -14416,78 +14432,191 @@
       <c r="M52" s="2">
         <v>99</v>
       </c>
-      <c r="N52" s="2"/>
+      <c r="N52" s="2">
+        <v>57</v>
+      </c>
       <c r="O52" s="2">
-        <v>57</v>
-      </c>
-      <c r="P52" s="2">
         <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
         <v>8864</v>
       </c>
-      <c r="Q52" s="3">
-        <f>Data[[#This Row],[Total]]-P51</f>
-        <v>-134</v>
+      <c r="P52" s="3">
+        <f>Data[[#This Row],[Total]]-O51</f>
+        <v>-53</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>1945</v>
       </c>
       <c r="R52" s="2">
-        <v>1945</v>
+        <v>4009</v>
       </c>
       <c r="S52" s="2">
-        <v>4009</v>
+        <v>65475</v>
       </c>
       <c r="T52" s="2">
-        <v>65475</v>
+        <v>45415</v>
       </c>
       <c r="U52" s="2">
-        <v>45415</v>
+        <v>1</v>
       </c>
       <c r="V52" s="2">
         <v>1</v>
       </c>
       <c r="W52" s="2">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="X52" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y52" s="2">
         <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
         <v>242</v>
       </c>
+      <c r="Y52" s="2">
+        <v>0</v>
+      </c>
       <c r="Z52" s="2">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="AA52" s="2">
-        <v>168</v>
-      </c>
-      <c r="AB52" s="2">
         <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
         <v>168</v>
       </c>
+      <c r="AB52" s="2">
+        <v>153</v>
+      </c>
       <c r="AC52" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AD52" s="2">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="AE52" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="2">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="AG52" s="2">
-        <v>362</v>
+        <v>931</v>
       </c>
       <c r="AH52" s="2">
-        <v>931</v>
-      </c>
-      <c r="AI52" s="2">
         <v>9</v>
       </c>
-      <c r="AJ52" s="2"/>
-      <c r="AK52" s="2">
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2">
         <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
         <v>1302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B53" s="4">
+        <v>320</v>
+      </c>
+      <c r="C53" s="4">
+        <v>120</v>
+      </c>
+      <c r="D53" s="2">
+        <v>108</v>
+      </c>
+      <c r="E53" s="2">
+        <v>259</v>
+      </c>
+      <c r="F53" s="2">
+        <v>212</v>
+      </c>
+      <c r="G53" s="2">
+        <v>5443</v>
+      </c>
+      <c r="H53" s="3">
+        <f>Data[[#This Row],[LoC]]-G52</f>
+        <v>4</v>
+      </c>
+      <c r="I53" s="2">
+        <v>6275</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1895</v>
+      </c>
+      <c r="K53" s="2">
+        <v>263</v>
+      </c>
+      <c r="L53" s="2">
+        <v>279</v>
+      </c>
+      <c r="M53" s="2">
+        <v>99</v>
+      </c>
+      <c r="N53" s="2">
+        <v>57</v>
+      </c>
+      <c r="O53" s="2">
+        <f>SUM(Data[[#This Row],[Shell]:[Bash]])</f>
+        <v>8868</v>
+      </c>
+      <c r="P53" s="3">
+        <f>Data[[#This Row],[Total]]-O52</f>
+        <v>4</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>1947</v>
+      </c>
+      <c r="R53" s="2">
+        <v>4093</v>
+      </c>
+      <c r="S53" s="2">
+        <v>65488</v>
+      </c>
+      <c r="T53" s="2">
+        <v>45416</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <v>242</v>
+      </c>
+      <c r="X53" s="2">
+        <f>Data[[#This Row],[Open issues]]+Data[[#This Row],[Closed issues]]</f>
+        <v>242</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>168</v>
+      </c>
+      <c r="AA53" s="2">
+        <f>Data[[#This Row],[Open pull requests]]+Data[[#This Row],[Closed pull requests]]</f>
+        <v>168</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>153</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>164</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>935</v>
+      </c>
+      <c r="AH53" s="2">
+        <v>9</v>
+      </c>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2">
+        <f>SUM(Data[[#This Row],[Running]:[GH runs]])</f>
+        <v>1306</v>
       </c>
     </row>
   </sheetData>

--- a/varia/check_ssl_cert_stats.xlsx
+++ b/varia/check_ssl_cert_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corti/git/check_ssl_cert/varia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E545AC3E-2E07-C04E-BC18-A6526AC64D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AF390C-5DD4-FA45-8C14-E83CFB346B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="17080" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20520" windowHeight="24480" xr2:uid="{EF8E2D16-8F1A-D743-ABFE-CD06731F2ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Issues &amp; PRs" sheetId="4" r:id="rId4"/>
     <sheet name="Tests" sheetId="5" r:id="rId5"/>
     <sheet name="Workflows" sheetId="6" r:id="rId6"/>
+    <sheet name="Stars &amp; Forks" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -372,10 +373,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$53</c:f>
+              <c:f>Data!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -531,16 +532,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$2:$G$53</c:f>
+              <c:f>Data!$G$2:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>4368</c:v>
                 </c:pt>
@@ -696,6 +700,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>5443</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,10 +742,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$53</c:f>
+              <c:f>Data!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -894,16 +901,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Q$2:$Q$53</c:f>
+              <c:f>Data!$Q$2:$Q$54</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1523</c:v>
                 </c:pt>
@@ -1059,6 +1069,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,10 +1111,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$53</c:f>
+              <c:f>Data!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1257,16 +1270,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$2:$R$53</c:f>
+              <c:f>Data!$R$2:$R$54</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>3195</c:v>
                 </c:pt>
@@ -1422,6 +1438,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>4093</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,10 +1696,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$53</c:f>
+              <c:f>Data!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -1836,16 +1855,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$V$2:$V$53</c:f>
+              <c:f>Data!$V$2:$V$54</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2000,6 +2022,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2040,10 +2065,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$53</c:f>
+              <c:f>Data!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44574</c:v>
                 </c:pt>
@@ -2199,16 +2224,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$2:$Y$53</c:f>
+              <c:f>Data!$Y$2:$Y$54</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2363,6 +2391,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2403,10 +2434,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$53</c:f>
+              <c:f>Data!$A$2:$A$54</c:f>
   